--- a/SubProject/script/table.xlsx
+++ b/SubProject/script/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinMin-Jang\git\SubProjsct\SubProject\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7287D4CC-3F13-4EE6-8390-D5DF5BBD900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D64830-79B2-43BD-A201-09C61F36CD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="1155">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4201,10 +4201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pplus12#$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PPLUS</t>
   </si>
   <si>
@@ -4224,6 +4220,14 @@
   </si>
   <si>
     <t>T_USER_SYS_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pplus!1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4773,6 +4777,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4784,6 +4803,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4803,28 +4837,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4835,36 +4869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6073,38 +6077,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="96" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="91"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
@@ -6559,7 +6563,7 @@
         <v>115</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>24</v>
@@ -6886,10 +6890,10 @@
   <dimension ref="A1:Z322"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C215" sqref="C215"/>
+      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6911,64 +6915,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="96"/>
+      <c r="E1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="96" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -11215,7 +11219,7 @@
       <c r="C102" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="120" t="str">
+      <c r="D102" s="94" t="str">
         <f>VLOOKUP($C102,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11259,7 +11263,7 @@
       <c r="C103" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="120" t="str">
+      <c r="D103" s="94" t="str">
         <f>VLOOKUP($C103,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11301,7 +11305,7 @@
       <c r="C104" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="120" t="str">
+      <c r="D104" s="94" t="str">
         <f>VLOOKUP($C104,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11345,7 +11349,7 @@
       <c r="C105" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D105" s="120" t="str">
+      <c r="D105" s="94" t="str">
         <f>VLOOKUP($C105,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11389,7 +11393,7 @@
       <c r="C106" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D106" s="120" t="str">
+      <c r="D106" s="94" t="str">
         <f>VLOOKUP($C106,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11431,7 +11435,7 @@
       <c r="C107" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D107" s="120" t="str">
+      <c r="D107" s="94" t="str">
         <f>VLOOKUP($C107,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11475,7 +11479,7 @@
       <c r="C108" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="120" t="str">
+      <c r="D108" s="94" t="str">
         <f>VLOOKUP($C108,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -11517,7 +11521,7 @@
       <c r="C109" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="120" t="str">
+      <c r="D109" s="94" t="str">
         <f>VLOOKUP($C109,table!$B:$D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
@@ -13067,7 +13071,7 @@
       <c r="C145" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="119" t="str">
+      <c r="D145" s="93" t="str">
         <f>VLOOKUP($C145,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13110,7 +13114,7 @@
       <c r="C146" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="119" t="str">
+      <c r="D146" s="93" t="str">
         <f>VLOOKUP($C146,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13151,7 +13155,7 @@
       <c r="C147" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="119" t="str">
+      <c r="D147" s="93" t="str">
         <f>VLOOKUP($C147,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13194,7 +13198,7 @@
       <c r="C148" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D148" s="119" t="str">
+      <c r="D148" s="93" t="str">
         <f>VLOOKUP($C148,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13237,7 +13241,7 @@
       <c r="C149" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D149" s="119" t="str">
+      <c r="D149" s="93" t="str">
         <f>VLOOKUP($C149,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13278,7 +13282,7 @@
       <c r="C150" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D150" s="119" t="str">
+      <c r="D150" s="93" t="str">
         <f>VLOOKUP($C150,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13321,7 +13325,7 @@
       <c r="C151" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="119" t="str">
+      <c r="D151" s="93" t="str">
         <f>VLOOKUP($C151,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13362,7 +13366,7 @@
       <c r="C152" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="119" t="str">
+      <c r="D152" s="93" t="str">
         <f>VLOOKUP($C152,table!$B:$D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
@@ -13405,7 +13409,7 @@
       <c r="C153" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D153" s="120" t="str">
+      <c r="D153" s="94" t="str">
         <f>VLOOKUP($C153,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13448,7 +13452,7 @@
       <c r="C154" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="120" t="str">
+      <c r="D154" s="94" t="str">
         <f>VLOOKUP($C154,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13489,7 +13493,7 @@
       <c r="C155" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D155" s="120" t="str">
+      <c r="D155" s="94" t="str">
         <f>VLOOKUP($C155,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13530,7 +13534,7 @@
       <c r="C156" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D156" s="120" t="str">
+      <c r="D156" s="94" t="str">
         <f>VLOOKUP($C156,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13571,7 +13575,7 @@
       <c r="C157" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D157" s="120" t="str">
+      <c r="D157" s="94" t="str">
         <f>VLOOKUP($C157,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13612,7 +13616,7 @@
       <c r="C158" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D158" s="120" t="str">
+      <c r="D158" s="94" t="str">
         <f>VLOOKUP($C158,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13653,7 +13657,7 @@
       <c r="C159" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D159" s="120" t="str">
+      <c r="D159" s="94" t="str">
         <f>VLOOKUP($C159,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13694,7 +13698,7 @@
       <c r="C160" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D160" s="120" t="str">
+      <c r="D160" s="94" t="str">
         <f>VLOOKUP($C160,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13735,7 +13739,7 @@
       <c r="C161" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D161" s="120" t="str">
+      <c r="D161" s="94" t="str">
         <f>VLOOKUP($C161,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13776,7 +13780,7 @@
       <c r="C162" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D162" s="120" t="str">
+      <c r="D162" s="94" t="str">
         <f>VLOOKUP($C162,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13817,7 +13821,7 @@
       <c r="C163" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D163" s="120" t="str">
+      <c r="D163" s="94" t="str">
         <f>VLOOKUP($C163,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13858,7 +13862,7 @@
       <c r="C164" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D164" s="120" t="str">
+      <c r="D164" s="94" t="str">
         <f>VLOOKUP($C164,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13899,7 +13903,7 @@
       <c r="C165" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="120" t="str">
+      <c r="D165" s="94" t="str">
         <f>VLOOKUP($C165,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13940,7 +13944,7 @@
       <c r="C166" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D166" s="120" t="str">
+      <c r="D166" s="94" t="str">
         <f>VLOOKUP($C166,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -13981,7 +13985,7 @@
       <c r="C167" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D167" s="120" t="str">
+      <c r="D167" s="94" t="str">
         <f>VLOOKUP($C167,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14024,7 +14028,7 @@
       <c r="C168" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D168" s="120" t="str">
+      <c r="D168" s="94" t="str">
         <f>VLOOKUP($C168,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14067,7 +14071,7 @@
       <c r="C169" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D169" s="120" t="str">
+      <c r="D169" s="94" t="str">
         <f>VLOOKUP($C169,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14108,7 +14112,7 @@
       <c r="C170" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D170" s="120" t="str">
+      <c r="D170" s="94" t="str">
         <f>VLOOKUP($C170,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14149,14 +14153,14 @@
       <c r="C171" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D171" s="120" t="str">
+      <c r="D171" s="94" t="str">
         <f>VLOOKUP($C171,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
       <c r="E171" s="90">
         <v>17</v>
       </c>
-      <c r="F171" s="121" t="s">
+      <c r="F171" s="95" t="s">
         <v>432</v>
       </c>
       <c r="G171" s="61" t="str">
@@ -14190,7 +14194,7 @@
       <c r="C172" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D172" s="120" t="str">
+      <c r="D172" s="94" t="str">
         <f>VLOOKUP($C172,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14231,7 +14235,7 @@
       <c r="C173" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D173" s="120" t="str">
+      <c r="D173" s="94" t="str">
         <f>VLOOKUP($C173,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14272,7 +14276,7 @@
       <c r="C174" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D174" s="120" t="str">
+      <c r="D174" s="94" t="str">
         <f>VLOOKUP($C174,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14315,7 +14319,7 @@
       <c r="C175" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D175" s="120" t="str">
+      <c r="D175" s="94" t="str">
         <f>VLOOKUP($C175,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14358,7 +14362,7 @@
       <c r="C176" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D176" s="120" t="str">
+      <c r="D176" s="94" t="str">
         <f>VLOOKUP($C176,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14401,7 +14405,7 @@
       <c r="C177" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D177" s="120" t="str">
+      <c r="D177" s="94" t="str">
         <f>VLOOKUP($C177,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14444,7 +14448,7 @@
       <c r="C178" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="120" t="str">
+      <c r="D178" s="94" t="str">
         <f>VLOOKUP($C178,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14485,7 +14489,7 @@
       <c r="C179" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D179" s="120" t="str">
+      <c r="D179" s="94" t="str">
         <f>VLOOKUP($C179,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14528,7 +14532,7 @@
       <c r="C180" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D180" s="120" t="str">
+      <c r="D180" s="94" t="str">
         <f>VLOOKUP($C180,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -14569,7 +14573,7 @@
       <c r="C181" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D181" s="120" t="str">
+      <c r="D181" s="94" t="str">
         <f>VLOOKUP($C181,table!$B:$D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
@@ -18472,7 +18476,7 @@
       <c r="C274" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D274" s="120" t="str">
+      <c r="D274" s="94" t="str">
         <f>VLOOKUP($C274,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18515,7 +18519,7 @@
       <c r="C275" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D275" s="120" t="str">
+      <c r="D275" s="94" t="str">
         <f>VLOOKUP($C275,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18558,7 +18562,7 @@
       <c r="C276" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D276" s="120" t="str">
+      <c r="D276" s="94" t="str">
         <f>VLOOKUP($C276,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18601,7 +18605,7 @@
       <c r="C277" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D277" s="120" t="str">
+      <c r="D277" s="94" t="str">
         <f>VLOOKUP($C277,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18642,7 +18646,7 @@
       <c r="C278" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D278" s="120" t="str">
+      <c r="D278" s="94" t="str">
         <f>VLOOKUP($C278,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18683,7 +18687,7 @@
       <c r="C279" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D279" s="120" t="str">
+      <c r="D279" s="94" t="str">
         <f>VLOOKUP($C279,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18724,7 +18728,7 @@
       <c r="C280" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D280" s="120" t="str">
+      <c r="D280" s="94" t="str">
         <f>VLOOKUP($C280,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18765,7 +18769,7 @@
       <c r="C281" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D281" s="120" t="str">
+      <c r="D281" s="94" t="str">
         <f>VLOOKUP($C281,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18806,7 +18810,7 @@
       <c r="C282" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D282" s="120" t="str">
+      <c r="D282" s="94" t="str">
         <f>VLOOKUP($C282,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18847,7 +18851,7 @@
       <c r="C283" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D283" s="120" t="str">
+      <c r="D283" s="94" t="str">
         <f>VLOOKUP($C283,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18890,7 +18894,7 @@
       <c r="C284" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D284" s="120" t="str">
+      <c r="D284" s="94" t="str">
         <f>VLOOKUP($C284,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18931,7 +18935,7 @@
       <c r="C285" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D285" s="120" t="str">
+      <c r="D285" s="94" t="str">
         <f>VLOOKUP($C285,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -18972,7 +18976,7 @@
       <c r="C286" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D286" s="120" t="str">
+      <c r="D286" s="94" t="str">
         <f>VLOOKUP($C286,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -19013,7 +19017,7 @@
       <c r="C287" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="D287" s="120" t="str">
+      <c r="D287" s="94" t="str">
         <f>VLOOKUP($C287,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
@@ -19589,7 +19593,7 @@
       <c r="C301" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D301" s="120" t="str">
+      <c r="D301" s="94" t="str">
         <f>VLOOKUP($C301,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19629,7 +19633,7 @@
       <c r="C302" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D302" s="120" t="str">
+      <c r="D302" s="94" t="str">
         <f>VLOOKUP($C302,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19670,7 +19674,7 @@
       <c r="C303" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D303" s="120" t="str">
+      <c r="D303" s="94" t="str">
         <f>VLOOKUP($C303,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19711,7 +19715,7 @@
       <c r="C304" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D304" s="120" t="str">
+      <c r="D304" s="94" t="str">
         <f>VLOOKUP($C304,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19752,7 +19756,7 @@
       <c r="C305" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D305" s="120" t="str">
+      <c r="D305" s="94" t="str">
         <f>VLOOKUP($C305,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19793,7 +19797,7 @@
       <c r="C306" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D306" s="120" t="str">
+      <c r="D306" s="94" t="str">
         <f>VLOOKUP($C306,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19836,7 +19840,7 @@
       <c r="C307" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D307" s="120" t="str">
+      <c r="D307" s="94" t="str">
         <f>VLOOKUP($C307,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19879,7 +19883,7 @@
       <c r="C308" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D308" s="120" t="str">
+      <c r="D308" s="94" t="str">
         <f>VLOOKUP($C308,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19920,7 +19924,7 @@
       <c r="C309" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D309" s="120" t="str">
+      <c r="D309" s="94" t="str">
         <f>VLOOKUP($C309,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -19961,7 +19965,7 @@
       <c r="C310" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D310" s="120" t="str">
+      <c r="D310" s="94" t="str">
         <f>VLOOKUP($C310,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -20002,7 +20006,7 @@
       <c r="C311" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="D311" s="120" t="str">
+      <c r="D311" s="94" t="str">
         <f>VLOOKUP($C311,table!$B:$D,2,FALSE)</f>
         <v>T_RESET_PASSWORD</v>
       </c>
@@ -20530,34 +20534,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
@@ -23493,60 +23497,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="96"/>
+      <c r="E1" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91" t="s">
+      <c r="I1" s="96"/>
+      <c r="J1" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="96" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="89" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="94"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
@@ -23563,10 +23567,10 @@
         <f>VLOOKUP($C3,table!$B:$D,2,FALSE)</f>
         <v>T_USER_HIST</v>
       </c>
-      <c r="E3" s="101">
+      <c r="E3" s="100">
         <v>1</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="101" t="s">
         <v>137</v>
       </c>
       <c r="G3" s="53">
@@ -23579,7 +23583,7 @@
         <f>VLOOKUP($H3,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="101" t="s">
         <v>138</v>
       </c>
       <c r="K3" s="53" t="s">
@@ -23602,8 +23606,8 @@
         <f>VLOOKUP($C4,table!$B:$D,2,FALSE)</f>
         <v>T_USER_HIST</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="53">
         <v>2</v>
       </c>
@@ -23614,7 +23618,7 @@
         <f>VLOOKUP($H4,domain!$B:$D,2,FALSE)</f>
         <v>HIST_DT</v>
       </c>
-      <c r="J4" s="102"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="53" t="s">
         <v>131</v>
       </c>
@@ -23635,10 +23639,10 @@
         <f>VLOOKUP($C5,table!$B:$D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="100">
         <v>0</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="101" t="s">
         <v>129</v>
       </c>
       <c r="G5" s="53">
@@ -23651,7 +23655,7 @@
         <f>VLOOKUP($H5,domain!$B:$D,2,FALSE)</f>
         <v>GROUP_ID</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="101" t="s">
         <v>130</v>
       </c>
       <c r="K5" s="53" t="s">
@@ -23674,8 +23678,8 @@
         <f>VLOOKUP($C6,table!$B:$D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="53">
         <v>2</v>
       </c>
@@ -23686,7 +23690,7 @@
         <f>VLOOKUP($H6,domain!$B:$D,2,FALSE)</f>
         <v>CODE_ID</v>
       </c>
-      <c r="J6" s="102"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="53" t="s">
         <v>131</v>
       </c>
@@ -23941,10 +23945,10 @@
         <f>VLOOKUP($C13,table!$B:$D,2,FALSE)</f>
         <v>T_ID_SN</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="100">
         <v>0</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="101" t="s">
         <v>232</v>
       </c>
       <c r="G13" s="53">
@@ -23957,7 +23961,7 @@
         <f>VLOOKUP($H13,domain!$B:$D,2,FALSE)</f>
         <v>ID_TY</v>
       </c>
-      <c r="J13" s="102" t="s">
+      <c r="J13" s="101" t="s">
         <v>130</v>
       </c>
       <c r="K13" s="53" t="s">
@@ -23980,8 +23984,8 @@
         <f>VLOOKUP($C14,table!$B:$D,2,FALSE)</f>
         <v>T_ID_SN</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="53">
         <v>2</v>
       </c>
@@ -23992,7 +23996,7 @@
         <f>VLOOKUP($H14,domain!$B:$D,2,FALSE)</f>
         <v>ID_SE</v>
       </c>
-      <c r="J14" s="102"/>
+      <c r="J14" s="101"/>
       <c r="K14" s="53" t="s">
         <v>131</v>
       </c>
@@ -24325,10 +24329,10 @@
         <f>VLOOKUP($C23,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_RQST_MGR_SYS</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="100">
         <v>1</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="101" t="s">
         <v>735</v>
       </c>
       <c r="G23" s="53">
@@ -24341,7 +24345,7 @@
         <f>VLOOKUP($H23,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="111" t="s">
         <v>138</v>
       </c>
       <c r="K23" s="53" t="s">
@@ -24364,8 +24368,8 @@
         <f>VLOOKUP($C24,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_RQST_MGR_SYS</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="53">
         <v>2</v>
       </c>
@@ -24376,7 +24380,7 @@
         <f>VLOOKUP($H24,domain!$B:$D,2,FALSE)</f>
         <v>LOG_DT</v>
       </c>
-      <c r="J24" s="103"/>
+      <c r="J24" s="111"/>
       <c r="K24" s="53" t="s">
         <v>131</v>
       </c>
@@ -24397,10 +24401,10 @@
         <f>VLOOKUP($C25,table!$B:$D,2,FALSE)</f>
         <v>T_LOGIN_USER_HIST</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="100">
         <v>1</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="101" t="s">
         <v>757</v>
       </c>
       <c r="G25" s="53">
@@ -24413,7 +24417,7 @@
         <f>VLOOKUP($H25,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="111" t="s">
         <v>138</v>
       </c>
       <c r="K25" s="53" t="s">
@@ -24436,8 +24440,8 @@
         <f>VLOOKUP($C26,table!$B:$D,2,FALSE)</f>
         <v>T_LOGIN_USER_HIST</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="53">
         <v>2</v>
       </c>
@@ -24448,7 +24452,7 @@
         <f>VLOOKUP($H26,domain!$B:$D,2,FALSE)</f>
         <v>LOG_DT</v>
       </c>
-      <c r="J26" s="103"/>
+      <c r="J26" s="111"/>
       <c r="K26" s="53" t="s">
         <v>131</v>
       </c>
@@ -24508,10 +24512,10 @@
         <f>VLOOKUP($C28,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="E28" s="95">
+      <c r="E28" s="105">
         <v>0</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="105" t="s">
         <v>794</v>
       </c>
       <c r="G28" s="56">
@@ -24524,7 +24528,7 @@
         <f>VLOOKUP($H28,domain!$B:$D,2,FALSE)</f>
         <v>LOG_ID</v>
       </c>
-      <c r="J28" s="98" t="s">
+      <c r="J28" s="108" t="s">
         <v>130</v>
       </c>
       <c r="K28" s="56" t="s">
@@ -24547,8 +24551,8 @@
         <f>VLOOKUP($C29,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="56">
         <v>2</v>
       </c>
@@ -24559,7 +24563,7 @@
         <f>VLOOKUP($H29,domain!$B:$D,2,FALSE)</f>
         <v>CONTROLLER_NM</v>
       </c>
-      <c r="J29" s="99"/>
+      <c r="J29" s="109"/>
       <c r="K29" s="56" t="s">
         <v>131</v>
       </c>
@@ -24580,8 +24584,8 @@
         <f>VLOOKUP($C30,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
       <c r="G30" s="56">
         <v>3</v>
       </c>
@@ -24592,7 +24596,7 @@
         <f>VLOOKUP($H30,domain!$B:$D,2,FALSE)</f>
         <v>METHOD_NM</v>
       </c>
-      <c r="J30" s="100"/>
+      <c r="J30" s="110"/>
       <c r="K30" s="56" t="s">
         <v>131</v>
       </c>
@@ -24613,10 +24617,10 @@
         <f>VLOOKUP($C31,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="100">
         <v>1</v>
       </c>
-      <c r="F31" s="102" t="str">
+      <c r="F31" s="101" t="str">
         <f>D31&amp;"_PK"</f>
         <v>T_COMPANY_PK</v>
       </c>
@@ -24630,7 +24634,7 @@
         <f>VLOOKUP($H31,domain!$B:$D,2,FALSE)</f>
         <v>COMPANY_ID</v>
       </c>
-      <c r="J31" s="104" t="s">
+      <c r="J31" s="102" t="s">
         <v>130</v>
       </c>
       <c r="K31" s="71" t="s">
@@ -24653,8 +24657,8 @@
         <f>VLOOKUP($C32,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="71">
         <v>2</v>
       </c>
@@ -24665,7 +24669,7 @@
         <f>VLOOKUP($H32,domain!$B:$D,2,FALSE)</f>
         <v>COMPANY_NO</v>
       </c>
-      <c r="J32" s="105"/>
+      <c r="J32" s="103"/>
       <c r="K32" s="71" t="s">
         <v>131</v>
       </c>
@@ -24871,6 +24875,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="J31:J32"/>
@@ -24884,24 +24903,9 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24913,8 +24917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:AE410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -24924,44 +24928,44 @@
     <col min="3" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="41"/>
+    <col min="13" max="13" width="19.6640625" style="41" customWidth="1"/>
     <col min="21" max="21" width="10.33203125" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="107" t="str">
+      <c r="A3" s="112" t="str">
         <f>VLOOKUP(C3,table!B:D,3,FALSE)</f>
         <v>로그</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="107" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108" t="str">
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113" t="str">
         <f>VLOOKUP(C3,table!B:D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="107"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="112" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -24988,7 +24992,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="107"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="8" t="s">
         <v>793</v>
       </c>
@@ -26309,47 +26313,47 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="107" t="str">
+      <c r="A58" s="112" t="str">
         <f>VLOOKUP(C58,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="108" t="s">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="107" t="s">
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="112" t="s">
         <v>156</v>
       </c>
       <c r="M58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="107"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="108" t="str">
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113" t="str">
         <f>VLOOKUP(C58,table!B:D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="107"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="112"/>
       <c r="M59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -26389,7 +26393,7 @@
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="107"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="8" t="s">
         <v>54</v>
       </c>
@@ -27127,7 +27131,7 @@
         <v>885</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
@@ -29381,43 +29385,43 @@
       <c r="J143" s="12"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A144" s="107" t="str">
+      <c r="A144" s="112" t="str">
         <f>VLOOKUP(C144,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B144" s="107"/>
-      <c r="C144" s="108" t="s">
+      <c r="B144" s="112"/>
+      <c r="C144" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D144" s="108"/>
-      <c r="E144" s="108"/>
-      <c r="F144" s="108"/>
-      <c r="G144" s="108"/>
-      <c r="H144" s="108"/>
-      <c r="I144" s="108"/>
-      <c r="J144" s="108"/>
-      <c r="K144" s="107" t="s">
+      <c r="D144" s="113"/>
+      <c r="E144" s="113"/>
+      <c r="F144" s="113"/>
+      <c r="G144" s="113"/>
+      <c r="H144" s="113"/>
+      <c r="I144" s="113"/>
+      <c r="J144" s="113"/>
+      <c r="K144" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="107"/>
-      <c r="B145" s="107"/>
-      <c r="C145" s="108" t="str">
+      <c r="A145" s="112"/>
+      <c r="B145" s="112"/>
+      <c r="C145" s="113" t="str">
         <f>VLOOKUP(C144,table!B:D,2,FALSE)</f>
         <v>T_DEPT</v>
       </c>
-      <c r="D145" s="108"/>
-      <c r="E145" s="108"/>
-      <c r="F145" s="108"/>
-      <c r="G145" s="108"/>
-      <c r="H145" s="108"/>
-      <c r="I145" s="108"/>
-      <c r="J145" s="108"/>
-      <c r="K145" s="107"/>
+      <c r="D145" s="113"/>
+      <c r="E145" s="113"/>
+      <c r="F145" s="113"/>
+      <c r="G145" s="113"/>
+      <c r="H145" s="113"/>
+      <c r="I145" s="113"/>
+      <c r="J145" s="113"/>
+      <c r="K145" s="112"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="107" t="s">
+      <c r="A146" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -29453,7 +29457,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="107"/>
+      <c r="A147" s="112"/>
       <c r="B147" s="8" t="s">
         <v>74</v>
       </c>
@@ -29494,7 +29498,7 @@
         <v>939</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
@@ -29896,41 +29900,41 @@
       <c r="E161" s="10"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162" s="107" t="str">
+      <c r="A162" s="112" t="str">
         <f>VLOOKUP(C162,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B162" s="107"/>
-      <c r="C162" s="108" t="s">
+      <c r="B162" s="112"/>
+      <c r="C162" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="D162" s="108"/>
-      <c r="E162" s="108"/>
-      <c r="F162" s="108"/>
-      <c r="G162" s="108"/>
-      <c r="H162" s="108"/>
-      <c r="I162" s="108"/>
-      <c r="J162" s="107" t="s">
+      <c r="D162" s="113"/>
+      <c r="E162" s="113"/>
+      <c r="F162" s="113"/>
+      <c r="G162" s="113"/>
+      <c r="H162" s="113"/>
+      <c r="I162" s="113"/>
+      <c r="J162" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" s="107"/>
-      <c r="B163" s="107"/>
-      <c r="C163" s="108" t="str">
+      <c r="A163" s="112"/>
+      <c r="B163" s="112"/>
+      <c r="C163" s="113" t="str">
         <f>VLOOKUP(C162,table!B:D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
-      <c r="D163" s="108"/>
-      <c r="E163" s="108"/>
-      <c r="F163" s="108"/>
-      <c r="G163" s="108"/>
-      <c r="H163" s="108"/>
-      <c r="I163" s="108"/>
-      <c r="J163" s="107"/>
+      <c r="D163" s="113"/>
+      <c r="E163" s="113"/>
+      <c r="F163" s="113"/>
+      <c r="G163" s="113"/>
+      <c r="H163" s="113"/>
+      <c r="I163" s="113"/>
+      <c r="J163" s="112"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A164" s="107" t="s">
+      <c r="A164" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B164" s="8" t="s">
@@ -29963,7 +29967,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A165" s="107"/>
+      <c r="A165" s="112"/>
       <c r="B165" s="8" t="s">
         <v>70</v>
       </c>
@@ -30075,41 +30079,41 @@
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171" s="107" t="str">
+      <c r="A171" s="112" t="str">
         <f>VLOOKUP(C171,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="108" t="s">
+      <c r="B171" s="112"/>
+      <c r="C171" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="108"/>
-      <c r="E171" s="108"/>
-      <c r="F171" s="108"/>
-      <c r="G171" s="108"/>
-      <c r="H171" s="108"/>
-      <c r="I171" s="108"/>
-      <c r="J171" s="107" t="s">
+      <c r="D171" s="113"/>
+      <c r="E171" s="113"/>
+      <c r="F171" s="113"/>
+      <c r="G171" s="113"/>
+      <c r="H171" s="113"/>
+      <c r="I171" s="113"/>
+      <c r="J171" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="107"/>
-      <c r="B172" s="107"/>
-      <c r="C172" s="108" t="str">
+      <c r="A172" s="112"/>
+      <c r="B172" s="112"/>
+      <c r="C172" s="113" t="str">
         <f>VLOOKUP(C171,table!B:D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
-      <c r="D172" s="108"/>
-      <c r="E172" s="108"/>
-      <c r="F172" s="108"/>
-      <c r="G172" s="108"/>
-      <c r="H172" s="108"/>
-      <c r="I172" s="108"/>
-      <c r="J172" s="107"/>
+      <c r="D172" s="113"/>
+      <c r="E172" s="113"/>
+      <c r="F172" s="113"/>
+      <c r="G172" s="113"/>
+      <c r="H172" s="113"/>
+      <c r="I172" s="113"/>
+      <c r="J172" s="112"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173" s="107" t="s">
+      <c r="A173" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B173" s="8" t="s">
@@ -30142,7 +30146,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A174" s="107"/>
+      <c r="A174" s="112"/>
       <c r="B174" s="8" t="s">
         <v>102</v>
       </c>
@@ -30257,49 +30261,49 @@
       <c r="N180" s="79"/>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A181" s="107" t="str">
+      <c r="A181" s="112" t="str">
         <f>VLOOKUP(C181,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B181" s="107"/>
-      <c r="C181" s="112" t="s">
+      <c r="B181" s="112"/>
+      <c r="C181" s="116" t="s">
         <v>986</v>
       </c>
-      <c r="D181" s="113"/>
-      <c r="E181" s="113"/>
-      <c r="F181" s="113"/>
-      <c r="G181" s="113"/>
-      <c r="H181" s="113"/>
-      <c r="I181" s="113"/>
-      <c r="J181" s="113"/>
-      <c r="K181" s="113"/>
-      <c r="L181" s="113"/>
-      <c r="M181" s="113"/>
-      <c r="N181" s="107" t="s">
+      <c r="D181" s="117"/>
+      <c r="E181" s="117"/>
+      <c r="F181" s="117"/>
+      <c r="G181" s="117"/>
+      <c r="H181" s="117"/>
+      <c r="I181" s="117"/>
+      <c r="J181" s="117"/>
+      <c r="K181" s="117"/>
+      <c r="L181" s="117"/>
+      <c r="M181" s="117"/>
+      <c r="N181" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A182" s="107"/>
-      <c r="B182" s="107"/>
-      <c r="C182" s="109" t="str">
+      <c r="A182" s="112"/>
+      <c r="B182" s="112"/>
+      <c r="C182" s="119" t="str">
         <f>VLOOKUP(C181,table!B:D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="D182" s="110"/>
-      <c r="E182" s="110"/>
-      <c r="F182" s="110"/>
-      <c r="G182" s="110"/>
-      <c r="H182" s="110"/>
-      <c r="I182" s="110"/>
-      <c r="J182" s="110"/>
-      <c r="K182" s="110"/>
-      <c r="L182" s="110"/>
-      <c r="M182" s="110"/>
-      <c r="N182" s="107"/>
+      <c r="D182" s="120"/>
+      <c r="E182" s="120"/>
+      <c r="F182" s="120"/>
+      <c r="G182" s="120"/>
+      <c r="H182" s="120"/>
+      <c r="I182" s="120"/>
+      <c r="J182" s="120"/>
+      <c r="K182" s="120"/>
+      <c r="L182" s="120"/>
+      <c r="M182" s="120"/>
+      <c r="N182" s="112"/>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A183" s="107" t="s">
+      <c r="A183" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B183" s="8" t="s">
@@ -30347,7 +30351,7 @@
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A184" s="107"/>
+      <c r="A184" s="112"/>
       <c r="B184" s="8" t="s">
         <v>996</v>
       </c>
@@ -30400,7 +30404,7 @@
         <v>1006</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>1011</v>
@@ -30409,13 +30413,13 @@
         <v>1014</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G185" s="9" t="s">
         <v>1018</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I185" s="9"/>
       <c r="J185" s="9" t="s">
@@ -30461,7 +30465,7 @@
         <v>1019</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I186" s="9"/>
       <c r="J186" s="9" t="s">
@@ -30503,7 +30507,7 @@
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I187" s="9"/>
       <c r="J187" s="9" t="s">
@@ -30569,79 +30573,79 @@
       <c r="AC191" s="115"/>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A192" s="107" t="str">
+      <c r="A192" s="112" t="str">
         <f>VLOOKUP(C192,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B192" s="107"/>
-      <c r="C192" s="112" t="s">
+      <c r="B192" s="112"/>
+      <c r="C192" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D192" s="113"/>
-      <c r="E192" s="113"/>
-      <c r="F192" s="113"/>
-      <c r="G192" s="113"/>
-      <c r="H192" s="113"/>
-      <c r="I192" s="113"/>
-      <c r="J192" s="113"/>
-      <c r="K192" s="113"/>
-      <c r="L192" s="113"/>
-      <c r="M192" s="113"/>
-      <c r="N192" s="113"/>
-      <c r="O192" s="113"/>
-      <c r="P192" s="113"/>
-      <c r="Q192" s="113"/>
-      <c r="R192" s="113"/>
-      <c r="S192" s="113"/>
-      <c r="T192" s="113"/>
-      <c r="U192" s="113"/>
-      <c r="V192" s="113"/>
-      <c r="W192" s="113"/>
-      <c r="X192" s="113"/>
-      <c r="Y192" s="113"/>
-      <c r="Z192" s="113"/>
-      <c r="AA192" s="113"/>
-      <c r="AB192" s="116"/>
-      <c r="AC192" s="107" t="s">
+      <c r="D192" s="117"/>
+      <c r="E192" s="117"/>
+      <c r="F192" s="117"/>
+      <c r="G192" s="117"/>
+      <c r="H192" s="117"/>
+      <c r="I192" s="117"/>
+      <c r="J192" s="117"/>
+      <c r="K192" s="117"/>
+      <c r="L192" s="117"/>
+      <c r="M192" s="117"/>
+      <c r="N192" s="117"/>
+      <c r="O192" s="117"/>
+      <c r="P192" s="117"/>
+      <c r="Q192" s="117"/>
+      <c r="R192" s="117"/>
+      <c r="S192" s="117"/>
+      <c r="T192" s="117"/>
+      <c r="U192" s="117"/>
+      <c r="V192" s="117"/>
+      <c r="W192" s="117"/>
+      <c r="X192" s="117"/>
+      <c r="Y192" s="117"/>
+      <c r="Z192" s="117"/>
+      <c r="AA192" s="117"/>
+      <c r="AB192" s="118"/>
+      <c r="AC192" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A193" s="107"/>
-      <c r="B193" s="107"/>
-      <c r="C193" s="112" t="str">
+      <c r="A193" s="112"/>
+      <c r="B193" s="112"/>
+      <c r="C193" s="116" t="str">
         <f>VLOOKUP(C192,table!B:D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
-      <c r="D193" s="113"/>
-      <c r="E193" s="113"/>
-      <c r="F193" s="113"/>
-      <c r="G193" s="113"/>
-      <c r="H193" s="113"/>
-      <c r="I193" s="113"/>
-      <c r="J193" s="113"/>
-      <c r="K193" s="113"/>
-      <c r="L193" s="113"/>
-      <c r="M193" s="113"/>
-      <c r="N193" s="113"/>
-      <c r="O193" s="113"/>
-      <c r="P193" s="113"/>
-      <c r="Q193" s="113"/>
-      <c r="R193" s="113"/>
-      <c r="S193" s="113"/>
-      <c r="T193" s="113"/>
-      <c r="U193" s="113"/>
-      <c r="V193" s="113"/>
-      <c r="W193" s="113"/>
-      <c r="X193" s="113"/>
-      <c r="Y193" s="113"/>
-      <c r="Z193" s="113"/>
-      <c r="AA193" s="113"/>
-      <c r="AB193" s="116"/>
-      <c r="AC193" s="107"/>
+      <c r="D193" s="117"/>
+      <c r="E193" s="117"/>
+      <c r="F193" s="117"/>
+      <c r="G193" s="117"/>
+      <c r="H193" s="117"/>
+      <c r="I193" s="117"/>
+      <c r="J193" s="117"/>
+      <c r="K193" s="117"/>
+      <c r="L193" s="117"/>
+      <c r="M193" s="117"/>
+      <c r="N193" s="117"/>
+      <c r="O193" s="117"/>
+      <c r="P193" s="117"/>
+      <c r="Q193" s="117"/>
+      <c r="R193" s="117"/>
+      <c r="S193" s="117"/>
+      <c r="T193" s="117"/>
+      <c r="U193" s="117"/>
+      <c r="V193" s="117"/>
+      <c r="W193" s="117"/>
+      <c r="X193" s="117"/>
+      <c r="Y193" s="117"/>
+      <c r="Z193" s="117"/>
+      <c r="AA193" s="117"/>
+      <c r="AB193" s="118"/>
+      <c r="AC193" s="112"/>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A194" s="107" t="s">
+      <c r="A194" s="112" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
@@ -30737,7 +30741,7 @@
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A195" s="107"/>
+      <c r="A195" s="112"/>
       <c r="B195" s="8" t="s">
         <v>79</v>
       </c>
@@ -30826,8 +30830,8 @@
         <v>89</v>
       </c>
       <c r="AE195" s="2" t="str">
-        <f>"INSERT INTO "&amp;C193&amp;" ("&amp;B195&amp;","&amp;C195&amp;","&amp;D195&amp;","&amp;G195&amp;","&amp;H195&amp;","&amp;I195&amp;","&amp;J195&amp;","&amp;K195&amp;","&amp;L195&amp;","&amp;M195&amp;","&amp;N195&amp;","&amp;O195&amp;","&amp;P195&amp;","&amp;Q195&amp;","&amp;R195&amp;","&amp;S195&amp;","&amp;T195&amp;","&amp;U195&amp;","&amp;V195&amp;","&amp;W195&amp;","&amp;X195&amp;","&amp;Y195&amp;","&amp;Z195&amp;","&amp;AA195&amp;","&amp;AB195&amp;","&amp;AC195&amp;","&amp;AD195&amp;") VALUES"</f>
-        <v>INSERT INTO T_USER (USER_ID,USER_NM,PASSWORD,PSTN_CODE,DEPT_CODE,HDEPT_CODE,ADOF_DEPT_CODE,COMPANY_CODE,DUTY_SE,LAST_LOG_DT,START_DT,END_DT,DT_LIMIT_YN,FILE_URL,MGR_SYS_ENV,USER_SYS_HOME,USER_SYS_ENV,BF_DEPT_CODE,DEPT_UPDT_DT,USE_YN,PASS_INIT,PASS_ERROR,MODI_SE,RGST_ID,RGST_DT,MODI_ID,MODI_DT) VALUES</v>
+        <f>"INSERT INTO "&amp;C193&amp;" ("&amp;B195&amp;","&amp;C195&amp;","&amp;D195&amp;","&amp;E195&amp;","&amp;F195&amp;","&amp;G195&amp;","&amp;H195&amp;","&amp;I195&amp;","&amp;J195&amp;","&amp;K195&amp;","&amp;L195&amp;","&amp;M195&amp;","&amp;N195&amp;","&amp;O195&amp;","&amp;P195&amp;","&amp;Q195&amp;","&amp;R195&amp;","&amp;S195&amp;","&amp;T195&amp;","&amp;U195&amp;","&amp;V195&amp;","&amp;W195&amp;","&amp;X195&amp;","&amp;Y195&amp;","&amp;Z195&amp;","&amp;AA195&amp;","&amp;AB195&amp;","&amp;AC195&amp;","&amp;AD195&amp;") VALUES"</f>
+        <v>INSERT INTO T_USER (USER_ID,USER_NM,PASSWORD,EMAIL,PHONE,PSTN_CODE,DEPT_CODE,HDEPT_CODE,ADOF_DEPT_CODE,COMPANY_CODE,DUTY_SE,LAST_LOG_DT,START_DT,END_DT,DT_LIMIT_YN,FILE_URL,MGR_SYS_ENV,USER_SYS_HOME,USER_SYS_ENV,BF_DEPT_CODE,DEPT_UPDT_DT,USE_YN,PASS_INIT,PASS_ERROR,MODI_SE,RGST_ID,RGST_DT,MODI_ID,MODI_DT) VALUES</v>
       </c>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.35">
@@ -30841,7 +30845,7 @@
         <v>545</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>1119</v>
@@ -30860,13 +30864,13 @@
       </c>
       <c r="J196" s="9"/>
       <c r="K196" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L196" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M196" s="9" t="s">
-        <v>159</v>
+      <c r="M196" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N196" s="9" t="s">
         <v>190</v>
@@ -30904,8 +30908,8 @@
         <v>159</v>
       </c>
       <c r="AE196" s="2" t="str">
-        <f>"('"&amp;B196&amp;"','"&amp;C196&amp;"',"&amp;IF(D196="","SHA2('rt12#$',256)","SHA2('"&amp;D196&amp;"',256)")&amp;",'"&amp;E196&amp;"','"&amp;F196&amp;"','"&amp;G196&amp;"','"&amp;H196&amp;"','"&amp;I196&amp;"',"&amp;IF(J196="","NULL","'"&amp;J196&amp;"'")&amp;",'"&amp;K196&amp;"','"&amp;L196&amp;"',"&amp;IF(M196="","NULL","DATE_FORMAT('"&amp;M196&amp;"','%Y-%m-%d %T')")&amp;","&amp;IF(N196="","NULL","DATE_FORMAT('"&amp;N196&amp;"','%Y-%m-%d')")&amp;","&amp;IF(O196="","NULL","DATE_FORMAT('"&amp;O196&amp;"','%Y-%m-%d')")&amp;","&amp;IF(P196="","NULL","'"&amp;P196&amp;"'")&amp;","&amp;IF(Q196="","NULL","'"&amp;Q196&amp;"'")&amp;","&amp;IF(R196="","NULL","'"&amp;R196&amp;"'")&amp;","&amp;IF(S196="","NULL","'"&amp;S196&amp;"'")&amp;","&amp;IF(T196="","NULL","'"&amp;T196&amp;"'")&amp;","&amp;IF(U196="","NULL","'"&amp;U196&amp;"'")&amp;","&amp;IF(V196="","NULL","'"&amp;V196&amp;"'")&amp;",'"&amp;W196&amp;"',"&amp;IF(X196="","'Y'","'"&amp;X196&amp;"'")&amp;","&amp;IF(Y196="","0","'"&amp;Y196&amp;"'")&amp;",'"&amp;Z196&amp;"','"&amp;AA196&amp;"',"&amp;AB196&amp;",'"&amp;AC196&amp;"',"&amp;AD196&amp;IF(A198="",");","),")</f>
-        <v>('SYSTEM','시스템',SHA2('pplus12#$',256),'system@pplus.com','02-000-0000','P2','D1','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'N',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <f>"('"&amp;B196&amp;"','"&amp;C196&amp;"',"&amp;IF(D196="","SHA2('pplus!1',256)","SHA2('"&amp;D196&amp;"',256)")&amp;",'"&amp;E196&amp;"','"&amp;F196&amp;"','"&amp;G196&amp;"','"&amp;H196&amp;"','"&amp;I196&amp;"',"&amp;IF(J196="","NULL","'"&amp;J196&amp;"'")&amp;",'"&amp;K196&amp;"','"&amp;L196&amp;"',"&amp;IF(M196="","NULL","DATE_FORMAT('"&amp;M196&amp;"','%Y-%m-%d %T')")&amp;","&amp;IF(N196="","NULL","DATE_FORMAT('"&amp;N196&amp;"','%Y-%m-%d')")&amp;","&amp;IF(O195="","NULL","DATE_FORMAT('"&amp;O196&amp;"','%Y-%m-%d')")&amp;","&amp;IF(P196="","NULL","'"&amp;P196&amp;"'")&amp;","&amp;IF(Q196="","NULL","'"&amp;Q196&amp;"'")&amp;","&amp;IF(R196="","NULL","'"&amp;R196&amp;"'")&amp;","&amp;IF(S196="","NULL","'"&amp;S196&amp;"'")&amp;","&amp;IF(T196="","NULL","'"&amp;T196&amp;"'")&amp;","&amp;IF(U196="","NULL","'"&amp;U196&amp;"'")&amp;","&amp;IF(V196="","NULL","'"&amp;V196&amp;"'")&amp;",'"&amp;W196&amp;"',"&amp;IF(X196="","'Y'","'"&amp;X196&amp;"'")&amp;","&amp;IF(Y196="","0","'"&amp;Y196&amp;"'")&amp;",'"&amp;Z196&amp;"','"&amp;AA196&amp;"',"&amp;AB196&amp;",'"&amp;AC196&amp;"',"&amp;AD196&amp;IF(A198="",");","),")</f>
+        <v>('SYSTEM','시스템',SHA2('pplus!1',256),'system@pplus.com','02-000-0000','P2','D1','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'N',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.35">
@@ -30919,7 +30923,7 @@
         <v>546</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>1118</v>
@@ -30938,13 +30942,13 @@
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L197" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M197" s="9" t="s">
-        <v>159</v>
+      <c r="M197" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N197" s="9" t="s">
         <v>190</v>
@@ -30982,8 +30986,8 @@
         <v>159</v>
       </c>
       <c r="AE197" s="2" t="str">
-        <f>"('"&amp;B197&amp;"','"&amp;C197&amp;"',"&amp;IF(D197="","SHA2('rt12#$',256)","SHA2('"&amp;D197&amp;"',256)")&amp;",'"&amp;E197&amp;"','"&amp;F197&amp;"','"&amp;G197&amp;"','"&amp;H197&amp;"','"&amp;I197&amp;"',"&amp;IF(J197="","NULL","'"&amp;J197&amp;"'")&amp;",'"&amp;K197&amp;"','"&amp;L197&amp;"',"&amp;IF(M197="","NULL","DATE_FORMAT('"&amp;M197&amp;"','%Y-%m-%d %T')")&amp;","&amp;IF(N197="","NULL","DATE_FORMAT('"&amp;N197&amp;"','%Y-%m-%d')")&amp;","&amp;IF(O197="","NULL","DATE_FORMAT('"&amp;O197&amp;"','%Y-%m-%d')")&amp;","&amp;IF(P197="","NULL","'"&amp;P197&amp;"'")&amp;","&amp;IF(Q197="","NULL","'"&amp;Q197&amp;"'")&amp;","&amp;IF(R197="","NULL","'"&amp;R197&amp;"'")&amp;","&amp;IF(S197="","NULL","'"&amp;S197&amp;"'")&amp;","&amp;IF(T197="","NULL","'"&amp;T197&amp;"'")&amp;","&amp;IF(U197="","NULL","'"&amp;U197&amp;"'")&amp;","&amp;IF(V197="","NULL","'"&amp;V197&amp;"'")&amp;",'"&amp;W197&amp;"',"&amp;IF(X197="","'Y'","'"&amp;X197&amp;"'")&amp;","&amp;IF(Y197="","0","'"&amp;Y197&amp;"'")&amp;",'"&amp;Z197&amp;"','"&amp;AA197&amp;"',"&amp;AB197&amp;",'"&amp;AC197&amp;"',"&amp;AD197&amp;IF(A199="",");","),")</f>
-        <v>('admin','관리자',SHA2('pplus12#$',256),'admin@pplus.com','010-9999-0000','P2','D1','S1',NULL,'PPLUS','Y',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'N',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <f t="shared" ref="AE197:AE215" si="5">"('"&amp;B197&amp;"','"&amp;C197&amp;"',"&amp;IF(D197="","SHA2('pplus!1',256)","SHA2('"&amp;D197&amp;"',256)")&amp;",'"&amp;E197&amp;"','"&amp;F197&amp;"','"&amp;G197&amp;"','"&amp;H197&amp;"','"&amp;I197&amp;"',"&amp;IF(J197="","NULL","'"&amp;J197&amp;"'")&amp;",'"&amp;K197&amp;"','"&amp;L197&amp;"',"&amp;IF(M197="","NULL","DATE_FORMAT('"&amp;M197&amp;"','%Y-%m-%d %T')")&amp;","&amp;IF(N197="","NULL","DATE_FORMAT('"&amp;N197&amp;"','%Y-%m-%d')")&amp;","&amp;IF(O196="","NULL","DATE_FORMAT('"&amp;O197&amp;"','%Y-%m-%d')")&amp;","&amp;IF(P197="","NULL","'"&amp;P197&amp;"'")&amp;","&amp;IF(Q197="","NULL","'"&amp;Q197&amp;"'")&amp;","&amp;IF(R197="","NULL","'"&amp;R197&amp;"'")&amp;","&amp;IF(S197="","NULL","'"&amp;S197&amp;"'")&amp;","&amp;IF(T197="","NULL","'"&amp;T197&amp;"'")&amp;","&amp;IF(U197="","NULL","'"&amp;U197&amp;"'")&amp;","&amp;IF(V197="","NULL","'"&amp;V197&amp;"'")&amp;",'"&amp;W197&amp;"',"&amp;IF(X197="","'Y'","'"&amp;X197&amp;"'")&amp;","&amp;IF(Y197="","0","'"&amp;Y197&amp;"'")&amp;",'"&amp;Z197&amp;"','"&amp;AA197&amp;"',"&amp;AB197&amp;",'"&amp;AC197&amp;"',"&amp;AD197&amp;IF(A199="",");","),")</f>
+        <v>('admin','관리자',SHA2('pplus!1',256),'admin@pplus.com','010-9999-0000','P2','D1','S1',NULL,'PPLUS','Y',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'N',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="198" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -31016,13 +31020,13 @@
       </c>
       <c r="J198" s="9"/>
       <c r="K198" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L198" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M198" s="9" t="s">
-        <v>159</v>
+      <c r="M198" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N198" s="9" t="s">
         <v>190</v>
@@ -31060,8 +31064,8 @@
         <v>159</v>
       </c>
       <c r="AE198" s="2" t="str">
-        <f>"('"&amp;B198&amp;"','"&amp;C198&amp;"',"&amp;IF(D198="","SHA2('rt12#$',256)","SHA2('"&amp;D198&amp;"',256)")&amp;",'"&amp;E198&amp;"','"&amp;F198&amp;"','"&amp;G198&amp;"','"&amp;H198&amp;"','"&amp;I198&amp;"',"&amp;IF(J198="","NULL","'"&amp;J198&amp;"'")&amp;",'"&amp;K198&amp;"','"&amp;L198&amp;"',"&amp;IF(M198="","NULL","DATE_FORMAT('"&amp;M198&amp;"','%Y-%m-%d %T')")&amp;","&amp;IF(N198="","NULL","DATE_FORMAT('"&amp;N198&amp;"','%Y-%m-%d')")&amp;","&amp;IF(O198="","NULL","DATE_FORMAT('"&amp;O198&amp;"','%Y-%m-%d')")&amp;","&amp;IF(P198="","NULL","'"&amp;P198&amp;"'")&amp;","&amp;IF(Q198="","NULL","'"&amp;Q198&amp;"'")&amp;","&amp;IF(R198="","NULL","'"&amp;R198&amp;"'")&amp;","&amp;IF(S198="","NULL","'"&amp;S198&amp;"'")&amp;","&amp;IF(T198="","NULL","'"&amp;T198&amp;"'")&amp;","&amp;IF(U198="","NULL","'"&amp;U198&amp;"'")&amp;","&amp;IF(V198="","NULL","'"&amp;V198&amp;"'")&amp;",'"&amp;W198&amp;"',"&amp;IF(X198="","'Y'","'"&amp;X198&amp;"'")&amp;","&amp;IF(Y198="","0","'"&amp;Y198&amp;"'")&amp;",'"&amp;Z198&amp;"','"&amp;AA198&amp;"',"&amp;AB198&amp;",'"&amp;AC198&amp;"',"&amp;AD198&amp;IF(A197="",");","),")</f>
-        <v>('jinix55','관리자',SHA2('1',256),'jinix55@gmail.com','010-5327-3000','P2','D1','S1',NULL,'PPLUS','Y',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'N',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <f t="shared" si="5"/>
+        <v>('jinix55','관리자',SHA2('1',256),'jinix55@gmail.com','010-5327-3000','P2','D1','S1',NULL,'PPLUS','Y',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'N',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.35">
@@ -31095,13 +31099,13 @@
         <v>165</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L199" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M199" s="9" t="s">
-        <v>159</v>
+      <c r="M199" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N199" s="9" t="s">
         <v>190</v>
@@ -31139,8 +31143,8 @@
         <v>159</v>
       </c>
       <c r="AE199" s="2" t="str">
-        <f t="shared" ref="AE199:AE215" si="5">"('"&amp;B199&amp;"','"&amp;C199&amp;"',"&amp;IF(D199="","SHA2('rt12#$',256)","SHA2('"&amp;D199&amp;"',256)")&amp;",'"&amp;E199&amp;"','"&amp;F199&amp;"','"&amp;G199&amp;"','"&amp;H199&amp;"','"&amp;I199&amp;"',"&amp;IF(J199="","NULL","'"&amp;J199&amp;"'")&amp;",'"&amp;K199&amp;"','"&amp;L199&amp;"',"&amp;IF(M199="","NULL","DATE_FORMAT('"&amp;M199&amp;"','%Y-%m-%d %T')")&amp;","&amp;IF(N199="","NULL","DATE_FORMAT('"&amp;N199&amp;"','%Y-%m-%d')")&amp;","&amp;IF(O199="","NULL","DATE_FORMAT('"&amp;O199&amp;"','%Y-%m-%d')")&amp;","&amp;IF(P199="","NULL","'"&amp;P199&amp;"'")&amp;","&amp;IF(Q199="","NULL","'"&amp;Q199&amp;"'")&amp;","&amp;IF(R199="","NULL","'"&amp;R199&amp;"'")&amp;","&amp;IF(S199="","NULL","'"&amp;S199&amp;"'")&amp;","&amp;IF(T199="","NULL","'"&amp;T199&amp;"'")&amp;","&amp;IF(U199="","NULL","'"&amp;U199&amp;"'")&amp;","&amp;IF(V199="","NULL","'"&amp;V199&amp;"'")&amp;",'"&amp;W199&amp;"',"&amp;IF(X199="","'Y'","'"&amp;X199&amp;"'")&amp;","&amp;IF(Y199="","0","'"&amp;Y199&amp;"'")&amp;",'"&amp;Z199&amp;"','"&amp;AA199&amp;"',"&amp;AB199&amp;",'"&amp;AC199&amp;"',"&amp;AD199&amp;IF(A200="",");","),")</f>
-        <v>('test11','테스트11',SHA2('rt12#$',256),'test11@pplus.com','010-9999-0001','P2','D1','S1','D2','PPLUS','Y',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <f t="shared" si="5"/>
+        <v>('test11','테스트11',SHA2('pplus!1',256),'test11@pplus.com','010-9999-0001','P2','D1','S1','D2','PPLUS','Y',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.35">
@@ -31177,8 +31181,8 @@
       <c r="L200" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M200" s="9" t="s">
-        <v>159</v>
+      <c r="M200" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N200" s="9" t="s">
         <v>190</v>
@@ -31217,7 +31221,7 @@
       </c>
       <c r="AE200" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test12','테스트12',SHA2('rt12#$',256),'test12@pplus.com','010-9999-0002','P1','D1','S1',NULL,'DTCOMPANY','Y',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test12','테스트12',SHA2('pplus!1',256),'test12@pplus.com','010-9999-0002','P1','D1','S1',NULL,'DTCOMPANY','Y',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.35">
@@ -31254,8 +31258,8 @@
       <c r="L201" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M201" s="9" t="s">
-        <v>159</v>
+      <c r="M201" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N201" s="9" t="s">
         <v>190</v>
@@ -31294,7 +31298,7 @@
       </c>
       <c r="AE201" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test13','테스트13',SHA2('rt12#$',256),'test13@pplus.com','010-9999-0003','P1','D1','S1',NULL,'PCT','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test13','테스트13',SHA2('pplus!1',256),'test13@pplus.com','010-9999-0003','P1','D1','S1',NULL,'PCT','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.35">
@@ -31331,8 +31335,8 @@
       <c r="L202" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M202" s="9" t="s">
-        <v>159</v>
+      <c r="M202" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N202" s="9" t="s">
         <v>190</v>
@@ -31371,7 +31375,7 @@
       </c>
       <c r="AE202" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test14','테스트14',SHA2('rt12#$',256),'test14@pplus.com','010-9999-0004','P1','D1','S1',NULL,'PCT','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test14','테스트14',SHA2('pplus!1',256),'test14@pplus.com','010-9999-0004','P1','D1','S1',NULL,'PCT','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.35">
@@ -31408,8 +31412,8 @@
       <c r="L203" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M203" s="9" t="s">
-        <v>159</v>
+      <c r="M203" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N203" s="9" t="s">
         <v>190</v>
@@ -31448,7 +31452,7 @@
       </c>
       <c r="AE203" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test15','테스트15',SHA2('rt12#$',256),'test15@pplus.com','010-9999-0005','P1','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test15','테스트15',SHA2('pplus!1',256),'test15@pplus.com','010-9999-0005','P1','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.35">
@@ -31482,13 +31486,13 @@
         <v>164</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L204" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M204" s="9" t="s">
-        <v>159</v>
+      <c r="M204" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N204" s="9" t="s">
         <v>190</v>
@@ -31527,7 +31531,7 @@
       </c>
       <c r="AE204" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test21','테스트21',SHA2('rt12#$',256),'test21@pplus.com','010-9999-0006','P1','D2','S1','D1','PPLUS','Y',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test21','테스트21',SHA2('pplus!1',256),'test21@pplus.com','010-9999-0006','P1','D2','S1','D1','PPLUS','Y',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.35">
@@ -31559,13 +31563,13 @@
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L205" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M205" s="9" t="s">
-        <v>159</v>
+      <c r="M205" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N205" s="9" t="s">
         <v>190</v>
@@ -31604,7 +31608,7 @@
       </c>
       <c r="AE205" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test22','테스트22',SHA2('rt12#$',256),'test22@pplus.com','010-9999-0007','P1','D2','S1',NULL,'PPLUS','Y',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test22','테스트22',SHA2('pplus!1',256),'test22@pplus.com','010-9999-0007','P1','D2','S1',NULL,'PPLUS','Y',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.35">
@@ -31636,13 +31640,13 @@
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L206" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M206" s="9" t="s">
-        <v>159</v>
+      <c r="M206" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N206" s="9" t="s">
         <v>190</v>
@@ -31681,7 +31685,7 @@
       </c>
       <c r="AE206" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test23','테스트23',SHA2('rt12#$',256),'test23@pplus.com','010-9999-0008','P1','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test23','테스트23',SHA2('pplus!1',256),'test23@pplus.com','010-9999-0008','P1','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.35">
@@ -31713,13 +31717,13 @@
       </c>
       <c r="J207" s="9"/>
       <c r="K207" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L207" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M207" s="9" t="s">
-        <v>159</v>
+      <c r="M207" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N207" s="9" t="s">
         <v>190</v>
@@ -31758,7 +31762,7 @@
       </c>
       <c r="AE207" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test24','테스트24',SHA2('rt12#$',256),'test24@pplus.com','010-9999-0009','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test24','테스트24',SHA2('pplus!1',256),'test24@pplus.com','010-9999-0009','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.35">
@@ -31790,13 +31794,13 @@
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L208" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M208" s="9" t="s">
-        <v>159</v>
+      <c r="M208" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N208" s="9" t="s">
         <v>190</v>
@@ -31835,7 +31839,7 @@
       </c>
       <c r="AE208" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test25','테스트25',SHA2('rt12#$',256),'test25@pplus.com','010-9999-0010','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test25','테스트25',SHA2('pplus!1',256),'test25@pplus.com','010-9999-0010','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.35">
@@ -31869,13 +31873,13 @@
         <v>164</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L209" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M209" s="9" t="s">
-        <v>159</v>
+      <c r="M209" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N209" s="9" t="s">
         <v>190</v>
@@ -31914,7 +31918,7 @@
       </c>
       <c r="AE209" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test26','테스트26',SHA2('rt12#$',256),'test26@pplus.com','010-9999-0011','P2','D2','S1','D1','PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test26','테스트26',SHA2('pplus!1',256),'test26@pplus.com','010-9999-0011','P2','D2','S1','D1','PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.35">
@@ -31946,13 +31950,13 @@
       </c>
       <c r="J210" s="9"/>
       <c r="K210" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L210" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M210" s="9" t="s">
-        <v>159</v>
+      <c r="M210" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N210" s="9" t="s">
         <v>190</v>
@@ -31991,7 +31995,7 @@
       </c>
       <c r="AE210" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test27','테스트27',SHA2('rt12#$',256),'test27@pplus.com','010-9999-0012','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test27','테스트27',SHA2('pplus!1',256),'test27@pplus.com','010-9999-0012','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.35">
@@ -32023,13 +32027,13 @@
       </c>
       <c r="J211" s="9"/>
       <c r="K211" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L211" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M211" s="9" t="s">
-        <v>159</v>
+      <c r="M211" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N211" s="9" t="s">
         <v>190</v>
@@ -32068,7 +32072,7 @@
       </c>
       <c r="AE211" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test28','테스트28',SHA2('rt12#$',256),'test28@pplus.com','010-9999-0013','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test28','테스트28',SHA2('pplus!1',256),'test28@pplus.com','010-9999-0013','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.35">
@@ -32100,13 +32104,13 @@
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L212" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M212" s="9" t="s">
-        <v>159</v>
+      <c r="M212" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N212" s="9" t="s">
         <v>190</v>
@@ -32145,7 +32149,7 @@
       </c>
       <c r="AE212" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('test29','테스트29',SHA2('rt12#$',256),'test29@pplus.com','010-9999-0014','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('test29','테스트29',SHA2('pplus!1',256),'test29@pplus.com','010-9999-0014','P2','D2','S1',NULL,'PPLUS','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'Y','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.35">
@@ -32182,8 +32186,8 @@
       <c r="L213" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M213" s="9" t="s">
-        <v>159</v>
+      <c r="M213" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N213" s="9" t="s">
         <v>190</v>
@@ -32222,7 +32226,7 @@
       </c>
       <c r="AE213" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('fail11','실패11',SHA2('rt12#$',256),'fail11@pplus.com','010-9999-0015','P1','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'N','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('fail11','실패11',SHA2('pplus!1',256),'fail11@pplus.com','010-9999-0015','P1','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'N','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
       </c>
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.35">
@@ -32259,8 +32263,8 @@
       <c r="L214" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M214" s="9" t="s">
-        <v>159</v>
+      <c r="M214" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N214" s="9" t="s">
         <v>190</v>
@@ -32299,7 +32303,7 @@
       </c>
       <c r="AE214" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('fail12','실패12',SHA2('rt12#$',256),'fail12@pplus.com','010-9999-0016','P1','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'N','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW()),</v>
+        <v>('fail12','실패12',SHA2('pplus!1',256),'fail12@pplus.com','010-9999-0016','P1','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'N','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW());</v>
       </c>
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.35">
@@ -32336,8 +32340,8 @@
       <c r="L215" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M215" s="9" t="s">
-        <v>159</v>
+      <c r="M215" s="13" t="s">
+        <v>1154</v>
       </c>
       <c r="N215" s="9" t="s">
         <v>190</v>
@@ -32376,7 +32380,7 @@
       </c>
       <c r="AE215" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>('fail13','실패13',SHA2('rt12#$',256),'fail13@pplus.com','010-9999-0017','P2','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('NOW()','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'N','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW());</v>
+        <v>('fail13','실패13',SHA2('pplus!1',256),'fail13@pplus.com','010-9999-0017','P2','D1','S1',NULL,'DTCOMPANY','N',DATE_FORMAT('2021-12-16','%Y-%m-%d %T'),DATE_FORMAT('2020-11-01','%Y-%m-%d'),DATE_FORMAT('2021-12-31','%Y-%m-%d'),'Y',NULL,NULL,NULL,NULL,NULL,NULL,'N','Y',0,'R','SYSTEM',NOW(),'SYSTEM',NOW());</v>
       </c>
     </row>
     <row r="216" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -32445,27 +32449,27 @@
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A219" s="91" t="s">
+      <c r="A219" s="96" t="s">
         <v>547</v>
       </c>
-      <c r="B219" s="91"/>
-      <c r="C219" s="91"/>
-      <c r="D219" s="91"/>
-      <c r="E219" s="91"/>
-      <c r="F219" s="91"/>
+      <c r="B219" s="96"/>
+      <c r="C219" s="96"/>
+      <c r="D219" s="96"/>
+      <c r="E219" s="96"/>
+      <c r="F219" s="96"/>
     </row>
     <row r="220" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="107" t="str">
+      <c r="A220" s="112" t="str">
         <f>VLOOKUP(C220,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B220" s="107"/>
-      <c r="C220" s="108" t="s">
+      <c r="B220" s="112"/>
+      <c r="C220" s="113" t="s">
         <v>548</v>
       </c>
-      <c r="D220" s="108"/>
-      <c r="E220" s="108"/>
-      <c r="F220" s="107" t="s">
+      <c r="D220" s="113"/>
+      <c r="E220" s="113"/>
+      <c r="F220" s="112" t="s">
         <v>156</v>
       </c>
       <c r="G220"/>
@@ -32492,18 +32496,18 @@
       <c r="AC220"/>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A221" s="107"/>
-      <c r="B221" s="107"/>
-      <c r="C221" s="108" t="str">
+      <c r="A221" s="112"/>
+      <c r="B221" s="112"/>
+      <c r="C221" s="113" t="str">
         <f>VLOOKUP(C220,table!B:D,2,FALSE)</f>
         <v>T_USER_TEST</v>
       </c>
-      <c r="D221" s="108"/>
-      <c r="E221" s="108"/>
-      <c r="F221" s="107"/>
+      <c r="D221" s="113"/>
+      <c r="E221" s="113"/>
+      <c r="F221" s="112"/>
     </row>
     <row r="222" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="107" t="s">
+      <c r="A222" s="112" t="s">
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
@@ -32546,7 +32550,7 @@
       <c r="AC222"/>
     </row>
     <row r="223" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="107"/>
+      <c r="A223" s="112"/>
       <c r="B223" s="8" t="s">
         <v>79</v>
       </c>
@@ -33264,27 +33268,27 @@
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A246" s="107" t="str">
+      <c r="A246" s="112" t="str">
         <f>VLOOKUP(C246,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B246" s="107"/>
-      <c r="C246" s="109" t="s">
+      <c r="B246" s="112"/>
+      <c r="C246" s="119" t="s">
         <v>657</v>
       </c>
-      <c r="D246" s="110"/>
-      <c r="E246" s="110"/>
-      <c r="F246" s="110"/>
-      <c r="G246" s="110"/>
-      <c r="H246" s="110"/>
-      <c r="I246" s="110"/>
-      <c r="J246" s="110"/>
-      <c r="K246" s="110"/>
-      <c r="L246" s="110"/>
-      <c r="M246" s="110"/>
-      <c r="N246" s="110"/>
-      <c r="O246" s="111"/>
-      <c r="P246" s="107" t="s">
+      <c r="D246" s="120"/>
+      <c r="E246" s="120"/>
+      <c r="F246" s="120"/>
+      <c r="G246" s="120"/>
+      <c r="H246" s="120"/>
+      <c r="I246" s="120"/>
+      <c r="J246" s="120"/>
+      <c r="K246" s="120"/>
+      <c r="L246" s="120"/>
+      <c r="M246" s="120"/>
+      <c r="N246" s="120"/>
+      <c r="O246" s="121"/>
+      <c r="P246" s="112" t="s">
         <v>156</v>
       </c>
       <c r="Q246" s="41"/>
@@ -33302,25 +33306,25 @@
       <c r="AC246" s="41"/>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A247" s="107"/>
-      <c r="B247" s="107"/>
-      <c r="C247" s="109" t="str">
+      <c r="A247" s="112"/>
+      <c r="B247" s="112"/>
+      <c r="C247" s="119" t="str">
         <f>VLOOKUP(C246,table!B:D,2,FALSE)</f>
         <v>T_DEPT_CL</v>
       </c>
-      <c r="D247" s="110"/>
-      <c r="E247" s="110"/>
-      <c r="F247" s="110"/>
-      <c r="G247" s="110"/>
-      <c r="H247" s="110"/>
-      <c r="I247" s="110"/>
-      <c r="J247" s="110"/>
-      <c r="K247" s="110"/>
-      <c r="L247" s="110"/>
-      <c r="M247" s="110"/>
-      <c r="N247" s="110"/>
-      <c r="O247" s="111"/>
-      <c r="P247" s="107"/>
+      <c r="D247" s="120"/>
+      <c r="E247" s="120"/>
+      <c r="F247" s="120"/>
+      <c r="G247" s="120"/>
+      <c r="H247" s="120"/>
+      <c r="I247" s="120"/>
+      <c r="J247" s="120"/>
+      <c r="K247" s="120"/>
+      <c r="L247" s="120"/>
+      <c r="M247" s="120"/>
+      <c r="N247" s="120"/>
+      <c r="O247" s="121"/>
+      <c r="P247" s="112"/>
       <c r="Q247" s="41"/>
       <c r="R247" s="41"/>
       <c r="S247" s="41"/>
@@ -33336,7 +33340,7 @@
       <c r="AC247" s="41"/>
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A248" s="107" t="s">
+      <c r="A248" s="112" t="s">
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
@@ -33400,7 +33404,7 @@
       <c r="AC248" s="41"/>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A249" s="107"/>
+      <c r="A249" s="112"/>
       <c r="B249" s="8" t="s">
         <v>74</v>
       </c>
@@ -33472,7 +33476,7 @@
         <v>671</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E250" s="42">
         <v>1</v>
@@ -33973,47 +33977,47 @@
       <c r="C259" s="10"/>
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A260" s="107" t="str">
+      <c r="A260" s="112" t="str">
         <f>VLOOKUP(C260,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B260" s="107"/>
-      <c r="C260" s="108" t="s">
+      <c r="B260" s="112"/>
+      <c r="C260" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="D260" s="108"/>
-      <c r="E260" s="108"/>
-      <c r="F260" s="108"/>
-      <c r="G260" s="108"/>
-      <c r="H260" s="108"/>
-      <c r="I260" s="108"/>
-      <c r="J260" s="108"/>
-      <c r="K260" s="108"/>
-      <c r="L260" s="108"/>
-      <c r="M260" s="107" t="s">
+      <c r="D260" s="113"/>
+      <c r="E260" s="113"/>
+      <c r="F260" s="113"/>
+      <c r="G260" s="113"/>
+      <c r="H260" s="113"/>
+      <c r="I260" s="113"/>
+      <c r="J260" s="113"/>
+      <c r="K260" s="113"/>
+      <c r="L260" s="113"/>
+      <c r="M260" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A261" s="107"/>
-      <c r="B261" s="107"/>
-      <c r="C261" s="108" t="str">
+      <c r="A261" s="112"/>
+      <c r="B261" s="112"/>
+      <c r="C261" s="113" t="str">
         <f>VLOOKUP(C260,table!B:D,2,FALSE)</f>
         <v>T_BBS_NOTICE</v>
       </c>
-      <c r="D261" s="108"/>
-      <c r="E261" s="108"/>
-      <c r="F261" s="108"/>
-      <c r="G261" s="108"/>
-      <c r="H261" s="108"/>
-      <c r="I261" s="108"/>
-      <c r="J261" s="108"/>
-      <c r="K261" s="108"/>
-      <c r="L261" s="108"/>
-      <c r="M261" s="107"/>
+      <c r="D261" s="113"/>
+      <c r="E261" s="113"/>
+      <c r="F261" s="113"/>
+      <c r="G261" s="113"/>
+      <c r="H261" s="113"/>
+      <c r="I261" s="113"/>
+      <c r="J261" s="113"/>
+      <c r="K261" s="113"/>
+      <c r="L261" s="113"/>
+      <c r="M261" s="112"/>
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A262" s="107" t="s">
+      <c r="A262" s="112" t="s">
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
@@ -34055,7 +34059,7 @@
       </c>
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A263" s="107"/>
+      <c r="A263" s="112"/>
       <c r="B263" s="8" t="s">
         <v>277</v>
       </c>
@@ -34224,47 +34228,47 @@
       <c r="C269" s="10"/>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A270" s="107" t="str">
+      <c r="A270" s="112" t="str">
         <f>VLOOKUP(C270,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B270" s="107"/>
-      <c r="C270" s="108" t="s">
+      <c r="B270" s="112"/>
+      <c r="C270" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="D270" s="108"/>
-      <c r="E270" s="108"/>
-      <c r="F270" s="108"/>
-      <c r="G270" s="108"/>
-      <c r="H270" s="108"/>
-      <c r="I270" s="108"/>
-      <c r="J270" s="108"/>
-      <c r="K270" s="108"/>
-      <c r="L270" s="108"/>
-      <c r="M270" s="107" t="s">
+      <c r="D270" s="113"/>
+      <c r="E270" s="113"/>
+      <c r="F270" s="113"/>
+      <c r="G270" s="113"/>
+      <c r="H270" s="113"/>
+      <c r="I270" s="113"/>
+      <c r="J270" s="113"/>
+      <c r="K270" s="113"/>
+      <c r="L270" s="113"/>
+      <c r="M270" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A271" s="107"/>
-      <c r="B271" s="107"/>
-      <c r="C271" s="108" t="str">
+      <c r="A271" s="112"/>
+      <c r="B271" s="112"/>
+      <c r="C271" s="113" t="str">
         <f>VLOOKUP(C270,table!B:D,2,FALSE)</f>
         <v>T_BBS_FAQ</v>
       </c>
-      <c r="D271" s="108"/>
-      <c r="E271" s="108"/>
-      <c r="F271" s="108"/>
-      <c r="G271" s="108"/>
-      <c r="H271" s="108"/>
-      <c r="I271" s="108"/>
-      <c r="J271" s="108"/>
-      <c r="K271" s="108"/>
-      <c r="L271" s="108"/>
-      <c r="M271" s="107"/>
+      <c r="D271" s="113"/>
+      <c r="E271" s="113"/>
+      <c r="F271" s="113"/>
+      <c r="G271" s="113"/>
+      <c r="H271" s="113"/>
+      <c r="I271" s="113"/>
+      <c r="J271" s="113"/>
+      <c r="K271" s="113"/>
+      <c r="L271" s="113"/>
+      <c r="M271" s="112"/>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A272" s="107" t="s">
+      <c r="A272" s="112" t="s">
         <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
@@ -34306,7 +34310,7 @@
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A273" s="107"/>
+      <c r="A273" s="112"/>
       <c r="B273" s="8" t="s">
         <v>279</v>
       </c>
@@ -34515,39 +34519,39 @@
       <c r="C280" s="10"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A281" s="107" t="str">
+      <c r="A281" s="112" t="str">
         <f>VLOOKUP(C281,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B281" s="107"/>
-      <c r="C281" s="108" t="s">
+      <c r="B281" s="112"/>
+      <c r="C281" s="113" t="s">
         <v>960</v>
       </c>
-      <c r="D281" s="108"/>
-      <c r="E281" s="108"/>
-      <c r="F281" s="108"/>
-      <c r="G281" s="108"/>
-      <c r="H281" s="108"/>
-      <c r="I281" s="107" t="s">
+      <c r="D281" s="113"/>
+      <c r="E281" s="113"/>
+      <c r="F281" s="113"/>
+      <c r="G281" s="113"/>
+      <c r="H281" s="113"/>
+      <c r="I281" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A282" s="107"/>
-      <c r="B282" s="107"/>
-      <c r="C282" s="108" t="str">
+      <c r="A282" s="112"/>
+      <c r="B282" s="112"/>
+      <c r="C282" s="113" t="str">
         <f>VLOOKUP(C281,table!B:D,2,FALSE)</f>
         <v>T_GROUP</v>
       </c>
-      <c r="D282" s="108"/>
-      <c r="E282" s="108"/>
-      <c r="F282" s="108"/>
-      <c r="G282" s="108"/>
-      <c r="H282" s="108"/>
-      <c r="I282" s="107"/>
+      <c r="D282" s="113"/>
+      <c r="E282" s="113"/>
+      <c r="F282" s="113"/>
+      <c r="G282" s="113"/>
+      <c r="H282" s="113"/>
+      <c r="I282" s="112"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A283" s="107" t="s">
+      <c r="A283" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B283" s="8" t="s">
@@ -34577,7 +34581,7 @@
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A284" s="107"/>
+      <c r="A284" s="112"/>
       <c r="B284" s="8" t="s">
         <v>79</v>
       </c>
@@ -34875,22 +34879,22 @@
       <c r="AC294"/>
     </row>
     <row r="295" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="107" t="str">
+      <c r="A295" s="112" t="str">
         <f>VLOOKUP(C295,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B295" s="107"/>
-      <c r="C295" s="108" t="s">
+      <c r="B295" s="112"/>
+      <c r="C295" s="113" t="s">
         <v>961</v>
       </c>
-      <c r="D295" s="108"/>
-      <c r="E295" s="108"/>
-      <c r="F295" s="108"/>
-      <c r="G295" s="108"/>
-      <c r="H295" s="108"/>
-      <c r="I295" s="108"/>
-      <c r="J295" s="108"/>
-      <c r="K295" s="107" t="s">
+      <c r="D295" s="113"/>
+      <c r="E295" s="113"/>
+      <c r="F295" s="113"/>
+      <c r="G295" s="113"/>
+      <c r="H295" s="113"/>
+      <c r="I295" s="113"/>
+      <c r="J295" s="113"/>
+      <c r="K295" s="112" t="s">
         <v>156</v>
       </c>
       <c r="L295"/>
@@ -34912,20 +34916,20 @@
       <c r="AC295"/>
     </row>
     <row r="296" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="107"/>
-      <c r="B296" s="107"/>
-      <c r="C296" s="108" t="str">
+      <c r="A296" s="112"/>
+      <c r="B296" s="112"/>
+      <c r="C296" s="113" t="str">
         <f>VLOOKUP(C295,table!B:D,2,FALSE)</f>
         <v>T_GROUP_AUTH</v>
       </c>
-      <c r="D296" s="108"/>
-      <c r="E296" s="108"/>
-      <c r="F296" s="108"/>
-      <c r="G296" s="108"/>
-      <c r="H296" s="108"/>
-      <c r="I296" s="108"/>
-      <c r="J296" s="108"/>
-      <c r="K296" s="107"/>
+      <c r="D296" s="113"/>
+      <c r="E296" s="113"/>
+      <c r="F296" s="113"/>
+      <c r="G296" s="113"/>
+      <c r="H296" s="113"/>
+      <c r="I296" s="113"/>
+      <c r="J296" s="113"/>
+      <c r="K296" s="112"/>
       <c r="L296"/>
       <c r="N296"/>
       <c r="O296"/>
@@ -34945,7 +34949,7 @@
       <c r="AC296"/>
     </row>
     <row r="297" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="107" t="s">
+      <c r="A297" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B297" s="8" t="s">
@@ -35001,7 +35005,7 @@
       <c r="AD297"/>
     </row>
     <row r="298" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="107"/>
+      <c r="A298" s="112"/>
       <c r="B298" s="8" t="s">
         <v>46</v>
       </c>
@@ -35062,7 +35066,7 @@
         <v>965</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>614</v>
@@ -35312,27 +35316,27 @@
       <c r="AC304"/>
     </row>
     <row r="305" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="107" t="str">
+      <c r="A305" s="112" t="str">
         <f>VLOOKUP(C305,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B305" s="107"/>
-      <c r="C305" s="108" t="s">
+      <c r="B305" s="112"/>
+      <c r="C305" s="113" t="s">
         <v>984</v>
       </c>
-      <c r="D305" s="108"/>
-      <c r="E305" s="108"/>
-      <c r="F305" s="108"/>
-      <c r="G305" s="108"/>
-      <c r="H305" s="108"/>
-      <c r="I305" s="108"/>
-      <c r="J305" s="108"/>
-      <c r="K305" s="108"/>
-      <c r="L305" s="108"/>
-      <c r="M305" s="108"/>
-      <c r="N305" s="108"/>
-      <c r="O305" s="108"/>
-      <c r="P305" s="107" t="s">
+      <c r="D305" s="113"/>
+      <c r="E305" s="113"/>
+      <c r="F305" s="113"/>
+      <c r="G305" s="113"/>
+      <c r="H305" s="113"/>
+      <c r="I305" s="113"/>
+      <c r="J305" s="113"/>
+      <c r="K305" s="113"/>
+      <c r="L305" s="113"/>
+      <c r="M305" s="113"/>
+      <c r="N305" s="113"/>
+      <c r="O305" s="113"/>
+      <c r="P305" s="112" t="s">
         <v>156</v>
       </c>
       <c r="Q305" t="s">
@@ -35352,25 +35356,25 @@
       <c r="AC305"/>
     </row>
     <row r="306" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="107"/>
-      <c r="B306" s="107"/>
-      <c r="C306" s="108" t="str">
+      <c r="A306" s="112"/>
+      <c r="B306" s="112"/>
+      <c r="C306" s="113" t="str">
         <f>VLOOKUP(C305,table!B:D,2,FALSE)</f>
         <v>T_GROUP_MENU</v>
       </c>
-      <c r="D306" s="108"/>
-      <c r="E306" s="108"/>
-      <c r="F306" s="108"/>
-      <c r="G306" s="108"/>
-      <c r="H306" s="108"/>
-      <c r="I306" s="108"/>
-      <c r="J306" s="108"/>
-      <c r="K306" s="108"/>
-      <c r="L306" s="108"/>
-      <c r="M306" s="108"/>
-      <c r="N306" s="108"/>
+      <c r="D306" s="113"/>
+      <c r="E306" s="113"/>
+      <c r="F306" s="113"/>
+      <c r="G306" s="113"/>
+      <c r="H306" s="113"/>
+      <c r="I306" s="113"/>
+      <c r="J306" s="113"/>
+      <c r="K306" s="113"/>
+      <c r="L306" s="113"/>
+      <c r="M306" s="113"/>
+      <c r="N306" s="113"/>
       <c r="O306" s="2"/>
-      <c r="P306" s="107"/>
+      <c r="P306" s="112"/>
       <c r="Q306" t="s">
         <v>768</v>
       </c>
@@ -35388,7 +35392,7 @@
       <c r="AC306"/>
     </row>
     <row r="307" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="107" t="s">
+      <c r="A307" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B307" s="8" t="s">
@@ -35452,7 +35456,7 @@
       <c r="AC307"/>
     </row>
     <row r="308" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="107"/>
+      <c r="A308" s="112"/>
       <c r="B308" s="8" t="s">
         <v>13</v>
       </c>
@@ -35576,10 +35580,10 @@
       <c r="AC309"/>
     </row>
     <row r="310" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="117">
+      <c r="A310" s="91">
         <v>2</v>
       </c>
-      <c r="B310" s="118" t="str">
+      <c r="B310" s="92" t="str">
         <f>$Q$306&amp;5000001</f>
         <v>mn5000001</v>
       </c>
@@ -35622,10 +35626,10 @@
       </c>
     </row>
     <row r="311" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="117">
+      <c r="A311" s="91">
         <v>3</v>
       </c>
-      <c r="B311" s="118" t="str">
+      <c r="B311" s="92" t="str">
         <f>$Q$306&amp;5000002</f>
         <v>mn5000002</v>
       </c>
@@ -35722,10 +35726,10 @@
       </c>
     </row>
     <row r="313" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A313" s="117">
+      <c r="A313" s="91">
         <v>5</v>
       </c>
-      <c r="B313" s="118" t="str">
+      <c r="B313" s="92" t="str">
         <f>$Q$306&amp;5000004</f>
         <v>mn5000004</v>
       </c>
@@ -36007,10 +36011,10 @@
       <c r="AC317" s="41"/>
     </row>
     <row r="318" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A318" s="117">
+      <c r="A318" s="91">
         <v>10</v>
       </c>
-      <c r="B318" s="118" t="str">
+      <c r="B318" s="92" t="str">
         <f>$Q$306&amp;5000009</f>
         <v>mn5000009</v>
       </c>
@@ -36180,10 +36184,10 @@
       <c r="AC320" s="41"/>
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A321" s="117">
+      <c r="A321" s="91">
         <v>13</v>
       </c>
-      <c r="B321" s="118" t="str">
+      <c r="B321" s="92" t="str">
         <f>$Q$306&amp;5000012</f>
         <v>mn5000012</v>
       </c>
@@ -36365,10 +36369,10 @@
       <c r="AC323" s="41"/>
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A324" s="117">
+      <c r="A324" s="91">
         <v>16</v>
       </c>
-      <c r="B324" s="118" t="str">
+      <c r="B324" s="92" t="str">
         <f>$Q$306&amp;5000015</f>
         <v>mn5000015</v>
       </c>
@@ -36611,10 +36615,10 @@
       <c r="AC327" s="41"/>
     </row>
     <row r="328" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A328" s="117">
+      <c r="A328" s="91">
         <v>20</v>
       </c>
-      <c r="B328" s="118" t="str">
+      <c r="B328" s="92" t="str">
         <f>$Q$306&amp;5000019</f>
         <v>mn5000019</v>
       </c>
@@ -36959,41 +36963,41 @@
       <c r="O338" s="10"/>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A341" s="107" t="e">
+      <c r="A341" s="112" t="e">
         <f>VLOOKUP(C341,table!B:D,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B341" s="107"/>
-      <c r="C341" s="108" t="s">
+      <c r="B341" s="112"/>
+      <c r="C341" s="113" t="s">
         <v>985</v>
       </c>
-      <c r="D341" s="108"/>
-      <c r="E341" s="108"/>
-      <c r="F341" s="108"/>
-      <c r="G341" s="108"/>
-      <c r="H341" s="108"/>
-      <c r="I341" s="108"/>
-      <c r="J341" s="107" t="s">
+      <c r="D341" s="113"/>
+      <c r="E341" s="113"/>
+      <c r="F341" s="113"/>
+      <c r="G341" s="113"/>
+      <c r="H341" s="113"/>
+      <c r="I341" s="113"/>
+      <c r="J341" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A342" s="107"/>
-      <c r="B342" s="107"/>
-      <c r="C342" s="108" t="e">
+      <c r="A342" s="112"/>
+      <c r="B342" s="112"/>
+      <c r="C342" s="113" t="e">
         <f>VLOOKUP(C341,table!B:D,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D342" s="108"/>
-      <c r="E342" s="108"/>
-      <c r="F342" s="108"/>
-      <c r="G342" s="108"/>
-      <c r="H342" s="108"/>
-      <c r="I342" s="108"/>
-      <c r="J342" s="107"/>
+      <c r="D342" s="113"/>
+      <c r="E342" s="113"/>
+      <c r="F342" s="113"/>
+      <c r="G342" s="113"/>
+      <c r="H342" s="113"/>
+      <c r="I342" s="113"/>
+      <c r="J342" s="112"/>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A343" s="107" t="s">
+      <c r="A343" s="112" t="s">
         <v>157</v>
       </c>
       <c r="B343" s="8" t="s">
@@ -37026,7 +37030,7 @@
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A344" s="107"/>
+      <c r="A344" s="112"/>
       <c r="B344" s="8" t="s">
         <v>46</v>
       </c>
@@ -38229,42 +38233,32 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="C271:L271"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="A295:B296"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A281:B282"/>
-    <mergeCell ref="C281:H281"/>
-    <mergeCell ref="A270:B271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="C270:L270"/>
-    <mergeCell ref="K295:K296"/>
-    <mergeCell ref="I281:I282"/>
-    <mergeCell ref="C295:J295"/>
-    <mergeCell ref="C162:I162"/>
-    <mergeCell ref="C172:I172"/>
-    <mergeCell ref="C171:I171"/>
-    <mergeCell ref="A191:AC191"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:AB192"/>
-    <mergeCell ref="AC192:AC193"/>
-    <mergeCell ref="C193:AB193"/>
-    <mergeCell ref="M270:M271"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A305:B306"/>
-    <mergeCell ref="C296:J296"/>
-    <mergeCell ref="C282:H282"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="A341:B342"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="A144:B145"/>
-    <mergeCell ref="A162:B163"/>
-    <mergeCell ref="A171:B172"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="P246:P247"/>
+    <mergeCell ref="M260:M261"/>
+    <mergeCell ref="C261:L261"/>
+    <mergeCell ref="C260:L260"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="C246:O246"/>
+    <mergeCell ref="C247:O247"/>
+    <mergeCell ref="C182:M182"/>
+    <mergeCell ref="C181:M181"/>
+    <mergeCell ref="A180:M180"/>
+    <mergeCell ref="N181:N182"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A181:B182"/>
+    <mergeCell ref="P305:P306"/>
+    <mergeCell ref="C305:O305"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="C341:I341"/>
+    <mergeCell ref="J341:J342"/>
+    <mergeCell ref="C306:N306"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="L58:L59"/>
     <mergeCell ref="C145:J145"/>
     <mergeCell ref="C144:J144"/>
@@ -38281,32 +38275,42 @@
     <mergeCell ref="A173:A174"/>
     <mergeCell ref="J162:J163"/>
     <mergeCell ref="C163:I163"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="P305:P306"/>
-    <mergeCell ref="C305:O305"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="C341:I341"/>
-    <mergeCell ref="J341:J342"/>
-    <mergeCell ref="C306:N306"/>
-    <mergeCell ref="P246:P247"/>
-    <mergeCell ref="M260:M261"/>
-    <mergeCell ref="C261:L261"/>
-    <mergeCell ref="C260:L260"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="C246:O246"/>
-    <mergeCell ref="C247:O247"/>
-    <mergeCell ref="C182:M182"/>
-    <mergeCell ref="C181:M181"/>
-    <mergeCell ref="A180:M180"/>
-    <mergeCell ref="N181:N182"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A181:B182"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="A341:B342"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="A162:B163"/>
+    <mergeCell ref="A171:B172"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="M270:M271"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A305:B306"/>
+    <mergeCell ref="C296:J296"/>
+    <mergeCell ref="C282:H282"/>
+    <mergeCell ref="C162:I162"/>
+    <mergeCell ref="C172:I172"/>
+    <mergeCell ref="C171:I171"/>
+    <mergeCell ref="A191:AC191"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:AB192"/>
+    <mergeCell ref="AC192:AC193"/>
+    <mergeCell ref="C193:AB193"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="C271:L271"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="A295:B296"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A281:B282"/>
+    <mergeCell ref="C281:H281"/>
+    <mergeCell ref="A270:B271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="C270:L270"/>
+    <mergeCell ref="K295:K296"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="C295:J295"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubProject/script/table.xlsx
+++ b/SubProject/script/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinMin-Jang\git\SubProjsct\SubProject\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D64830-79B2-43BD-A201-09C61F36CD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29F8C2-6B43-490C-AE83-A563670257C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="1190">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4228,6 +4228,146 @@
   </si>
   <si>
     <t>2021-12-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PACKAGING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PACKAGING_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PACKAGING_QUESTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SUBCONTRACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 코드 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 질문 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 회사 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_COMPANY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGING_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGING_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGING_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTION_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBCONTRACT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBCONTRACT_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBCONTRACT_DSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBCONTRACT_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4503,7 +4643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4792,6 +4932,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4805,18 +4957,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4837,28 +4977,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4868,6 +5005,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6060,13 +6212,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -6077,38 +6229,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="100" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="96"/>
+      <c r="A2" s="100"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="96"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
@@ -6805,51 +6957,117 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="51">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1163</v>
+      </c>
       <c r="F28" s="51"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="H28" s="41" t="str">
+        <f>"|||-- "&amp;D28&amp;" "&amp;B28&amp;"|DROP TABLE IF EXISTS "&amp;C28&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C28&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B28&amp;IF(E28="","","["&amp;E28&amp;"]")&amp;"';|ALTER TABLE "&amp;C28&amp;" ADD CONSTRAINT "&amp;C28&amp;"_PK PRIMARY KEY("&amp;index!$I36&amp;");|-- CREATE INDEX "&amp;C28&amp;"_IX1 ON "&amp;C28&amp;"("&amp;index!$I36&amp;");"</f>
+        <v>|||-- 관리자 업체 관리|DROP TABLE IF EXISTS T_SUBCONTRACT CASCADE;|CREATE TABLE IF NOT EXISTS T_SUBCONTRACT (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '업체 관리[업체 관리]';|ALTER TABLE T_SUBCONTRACT ADD CONSTRAINT T_SUBCONTRACT_PK PRIMARY KEY(SUBCONTRACT_ID);|-- CREATE INDEX T_SUBCONTRACT_IX1 ON T_SUBCONTRACT(SUBCONTRACT_ID);</v>
+      </c>
+      <c r="I28" s="41" t="str">
+        <f>"|||-- "&amp;D28&amp;"    "&amp;B28&amp;"|TRUNCATE TABLE "&amp;C28&amp;";"</f>
+        <v>|||-- 관리자    업체 관리|TRUNCATE TABLE T_SUBCONTRACT;</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="51">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1159</v>
+      </c>
       <c r="F29" s="51"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="H29" s="41" t="str">
+        <f>"|||-- "&amp;D29&amp;" "&amp;B29&amp;"|DROP TABLE IF EXISTS "&amp;C29&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C29&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B29&amp;IF(E29="","","["&amp;E29&amp;"]")&amp;"';|ALTER TABLE "&amp;C29&amp;" ADD CONSTRAINT "&amp;C29&amp;"_PK PRIMARY KEY("&amp;index!$I37&amp;");|-- CREATE INDEX "&amp;C29&amp;"_IX1 ON "&amp;C29&amp;"("&amp;index!$I37&amp;");"</f>
+        <v>|||-- 공통 제품 코드|DROP TABLE IF EXISTS T_PACKAGING_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_CODE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 코드[포장 코드 관리]';|ALTER TABLE T_PACKAGING_CODE ADD CONSTRAINT T_PACKAGING_CODE_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_CODE_IX1 ON T_PACKAGING_CODE(PACKAGING_ID);</v>
+      </c>
+      <c r="I29" s="41" t="str">
+        <f>"|||-- "&amp;D29&amp;"    "&amp;B29&amp;"|TRUNCATE TABLE "&amp;C29&amp;";"</f>
+        <v>|||-- 공통    제품 코드|TRUNCATE TABLE T_PACKAGING_CODE;</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="51">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1160</v>
+      </c>
       <c r="F30" s="51"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="H30" s="41" t="str">
+        <f>"|||-- "&amp;D30&amp;" "&amp;B30&amp;"|DROP TABLE IF EXISTS "&amp;C30&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C30&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B30&amp;IF(E30="","","["&amp;E30&amp;"]")&amp;"';|ALTER TABLE "&amp;C30&amp;" ADD CONSTRAINT "&amp;C30&amp;"_PK PRIMARY KEY("&amp;index!$I38&amp;");|-- CREATE INDEX "&amp;C30&amp;"_IX1 ON "&amp;C30&amp;"("&amp;index!$I38&amp;");"</f>
+        <v>|||-- 공통 제품 질문|DROP TABLE IF EXISTS T_PACKAGING_QUESTION CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_QUESTION (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 질문[포장 질문 관리]';|ALTER TABLE T_PACKAGING_QUESTION ADD CONSTRAINT T_PACKAGING_QUESTION_PK PRIMARY KEY(QUESTION_ID);|-- CREATE INDEX T_PACKAGING_QUESTION_IX1 ON T_PACKAGING_QUESTION(QUESTION_ID);</v>
+      </c>
+      <c r="I30" s="41" t="str">
+        <f>"|||-- "&amp;D30&amp;"    "&amp;B30&amp;"|TRUNCATE TABLE "&amp;C30&amp;";"</f>
+        <v>|||-- 공통    제품 질문|TRUNCATE TABLE T_PACKAGING_QUESTION;</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="51">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1166</v>
+      </c>
       <c r="F31" s="51"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
+      <c r="H31" s="41" t="str">
+        <f>"|||-- "&amp;D31&amp;" "&amp;B31&amp;"|DROP TABLE IF EXISTS "&amp;C31&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C31&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B31&amp;IF(E31="","","["&amp;E31&amp;"]")&amp;"';|ALTER TABLE "&amp;C31&amp;" ADD CONSTRAINT "&amp;C31&amp;"_PK PRIMARY KEY("&amp;index!$I39&amp;");|-- CREATE INDEX "&amp;C31&amp;"_IX1 ON "&amp;C31&amp;"("&amp;index!$I39&amp;");"</f>
+        <v>|||-- 공통 제품 관리|DROP TABLE IF EXISTS T_PACKAGING CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 관리[제품 관리]';|ALTER TABLE T_PACKAGING ADD CONSTRAINT T_PACKAGING_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_IX1 ON T_PACKAGING(PACKAGING_ID);</v>
+      </c>
+      <c r="I31" s="41" t="str">
+        <f>"|||-- "&amp;D31&amp;"    "&amp;B31&amp;"|TRUNCATE TABLE "&amp;C31&amp;";"</f>
+        <v>|||-- 공통    제품 관리|TRUNCATE TABLE T_PACKAGING;</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
+      <c r="A32" s="51">
+        <v>30</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="51"/>
@@ -6887,13 +7105,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z322"/>
+  <dimension ref="A1:Z363"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
+      <selection pane="bottomRight" activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6915,64 +7133,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="99" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="100" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -19043,7 +19261,7 @@
       <c r="L287" s="61"/>
       <c r="M287" s="61"/>
       <c r="N287" s="69" t="str">
-        <f t="shared" ref="N287:N322" si="7">IF(E287=1,"    ","  , ")&amp;G287&amp;" "&amp;H287&amp;IF(J287="",""," "&amp;J287)&amp;IF(I287="N"," NOT NULL","")&amp;" COMMENT '"&amp;F287&amp;IF(L287="",""," "&amp;L287)&amp;"'"</f>
+        <f t="shared" ref="N287:N336" si="7">IF(E287=1,"    ","  , ")&amp;G287&amp;" "&amp;H287&amp;IF(J287="",""," "&amp;J287)&amp;IF(I287="N"," NOT NULL","")&amp;" COMMENT '"&amp;F287&amp;IF(L287="",""," "&amp;L287)&amp;"'"</f>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
@@ -20486,6 +20704,1697 @@
       <c r="M322" s="2"/>
       <c r="N322" s="41" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="51">
+        <v>321</v>
+      </c>
+      <c r="B323" s="99" t="str">
+        <f>VLOOKUP($C323,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C323" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D323" s="94" t="str">
+        <f>VLOOKUP($C323,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E323" s="99">
+        <v>1</v>
+      </c>
+      <c r="F323" s="76" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G323" s="61" t="str">
+        <f>VLOOKUP($F323,domain!$B:$D,2,FALSE)</f>
+        <v>SUBCONTRACT_ID</v>
+      </c>
+      <c r="H323" s="61" t="str">
+        <f>VLOOKUP($F323,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I323" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J323" s="61"/>
+      <c r="K323" s="99">
+        <v>1</v>
+      </c>
+      <c r="L323" s="61"/>
+      <c r="M323" s="61"/>
+      <c r="N323" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    SUBCONTRACT_ID VARCHAR(16) NOT NULL COMMENT '업체 ID'</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="51">
+        <v>322</v>
+      </c>
+      <c r="B324" s="99" t="str">
+        <f>VLOOKUP($C324,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C324" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D324" s="94" t="str">
+        <f>VLOOKUP($C324,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E324" s="99">
+        <v>2</v>
+      </c>
+      <c r="F324" s="76" t="s">
+        <v>995</v>
+      </c>
+      <c r="G324" s="61" t="str">
+        <f>VLOOKUP($F324,domain!$B:$D,2,FALSE)</f>
+        <v>COMPANY_ID</v>
+      </c>
+      <c r="H324" s="61" t="str">
+        <f>VLOOKUP($F324,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I324" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J324" s="61"/>
+      <c r="K324" s="99">
+        <v>1</v>
+      </c>
+      <c r="L324" s="61"/>
+      <c r="M324" s="61"/>
+      <c r="N324" s="69" t="str">
+        <f t="shared" ref="N324" si="11">IF(E324=1,"    ","  , ")&amp;G324&amp;" "&amp;H324&amp;IF(J324="",""," "&amp;J324)&amp;IF(I324="N"," NOT NULL","")&amp;" COMMENT '"&amp;F324&amp;IF(L324="",""," "&amp;L324)&amp;"'"</f>
+        <v xml:space="preserve">  , COMPANY_ID VARCHAR(16) NOT NULL COMMENT '회사 ID'</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="51">
+        <v>322</v>
+      </c>
+      <c r="B325" s="99" t="str">
+        <f>VLOOKUP($C325,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C325" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D325" s="94" t="str">
+        <f>VLOOKUP($C325,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E325" s="99">
+        <v>3</v>
+      </c>
+      <c r="F325" s="76" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G325" s="61" t="str">
+        <f>VLOOKUP($F325,domain!$B:$D,2,FALSE)</f>
+        <v>SUBCONTRACT_CODE</v>
+      </c>
+      <c r="H325" s="61" t="str">
+        <f>VLOOKUP($F325,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I325" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J325" s="61"/>
+      <c r="K325" s="99">
+        <v>1</v>
+      </c>
+      <c r="L325" s="61"/>
+      <c r="M325" s="61"/>
+      <c r="N325" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , SUBCONTRACT_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드'</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="51">
+        <v>323</v>
+      </c>
+      <c r="B326" s="99" t="str">
+        <f>VLOOKUP($C326,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C326" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D326" s="94" t="str">
+        <f>VLOOKUP($C326,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E326" s="99">
+        <v>4</v>
+      </c>
+      <c r="F326" s="76" t="s">
+        <v>989</v>
+      </c>
+      <c r="G326" s="61" t="str">
+        <f>VLOOKUP($F326,domain!$B:$D,2,FALSE)</f>
+        <v>COMPANY_NO</v>
+      </c>
+      <c r="H326" s="61" t="str">
+        <f>VLOOKUP($F326,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I326" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J326" s="61"/>
+      <c r="K326" s="99">
+        <v>2</v>
+      </c>
+      <c r="L326" s="61"/>
+      <c r="M326" s="61"/>
+      <c r="N326" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , COMPANY_NO VARCHAR(16) NOT NULL COMMENT '사업자번호'</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="51">
+        <v>324</v>
+      </c>
+      <c r="B327" s="99" t="str">
+        <f>VLOOKUP($C327,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C327" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D327" s="94" t="str">
+        <f>VLOOKUP($C327,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E327" s="99">
+        <v>5</v>
+      </c>
+      <c r="F327" s="76" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G327" s="61" t="str">
+        <f>VLOOKUP($F327,domain!$B:$D,2,FALSE)</f>
+        <v>SUBCONTRACT_NM</v>
+      </c>
+      <c r="H327" s="61" t="str">
+        <f>VLOOKUP($F327,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(256)</v>
+      </c>
+      <c r="I327" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J327" s="61"/>
+      <c r="K327" s="99"/>
+      <c r="L327" s="61"/>
+      <c r="M327" s="61"/>
+      <c r="N327" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , SUBCONTRACT_NM VARCHAR(256) NOT NULL COMMENT '업체 명'</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="51">
+        <v>325</v>
+      </c>
+      <c r="B328" s="99" t="str">
+        <f>VLOOKUP($C328,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C328" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D328" s="94" t="str">
+        <f>VLOOKUP($C328,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E328" s="99">
+        <v>6</v>
+      </c>
+      <c r="F328" s="76" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G328" s="61" t="str">
+        <f>VLOOKUP($F328,domain!$B:$D,2,FALSE)</f>
+        <v>SUBCONTRACT_DSC</v>
+      </c>
+      <c r="H328" s="61" t="str">
+        <f>VLOOKUP($F328,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I328" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="J328" s="61"/>
+      <c r="K328" s="99"/>
+      <c r="L328" s="61"/>
+      <c r="M328" s="61"/>
+      <c r="N328" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , SUBCONTRACT_DSC VARCHAR(4000) COMMENT '업체 설명'</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="51">
+        <v>326</v>
+      </c>
+      <c r="B329" s="99" t="str">
+        <f>VLOOKUP($C329,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C329" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D329" s="94" t="str">
+        <f>VLOOKUP($C329,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E329" s="99">
+        <v>7</v>
+      </c>
+      <c r="F329" s="76" t="s">
+        <v>990</v>
+      </c>
+      <c r="G329" s="61" t="str">
+        <f>VLOOKUP($F329,domain!$B:$D,2,FALSE)</f>
+        <v>ADDRESS</v>
+      </c>
+      <c r="H329" s="61" t="str">
+        <f>VLOOKUP($F329,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I329" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J329" s="61"/>
+      <c r="K329" s="99"/>
+      <c r="L329" s="61"/>
+      <c r="M329" s="61"/>
+      <c r="N329" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , ADDRESS VARCHAR(4000) NOT NULL COMMENT '주소'</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="51">
+        <v>327</v>
+      </c>
+      <c r="B330" s="99" t="str">
+        <f>VLOOKUP($C330,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C330" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D330" s="94" t="str">
+        <f>VLOOKUP($C330,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E330" s="99">
+        <v>8</v>
+      </c>
+      <c r="F330" s="76" t="s">
+        <v>992</v>
+      </c>
+      <c r="G330" s="61" t="str">
+        <f>VLOOKUP($F330,domain!$B:$D,2,FALSE)</f>
+        <v>TELEPHONE_NO</v>
+      </c>
+      <c r="H330" s="61" t="str">
+        <f>VLOOKUP($F330,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I330" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="J330" s="61"/>
+      <c r="K330" s="99"/>
+      <c r="L330" s="61"/>
+      <c r="M330" s="61"/>
+      <c r="N330" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , TELEPHONE_NO VARCHAR(16) COMMENT '전화번호'</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="51">
+        <v>328</v>
+      </c>
+      <c r="B331" s="99" t="str">
+        <f>VLOOKUP($C331,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C331" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D331" s="94" t="str">
+        <f>VLOOKUP($C331,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E331" s="99">
+        <v>9</v>
+      </c>
+      <c r="F331" s="76" t="s">
+        <v>991</v>
+      </c>
+      <c r="G331" s="61" t="str">
+        <f>VLOOKUP($F331,domain!$B:$D,2,FALSE)</f>
+        <v>REPRESENTATIVE_NM</v>
+      </c>
+      <c r="H331" s="61" t="str">
+        <f>VLOOKUP($F331,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I331" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="J331" s="61"/>
+      <c r="K331" s="99"/>
+      <c r="L331" s="61"/>
+      <c r="M331" s="61"/>
+      <c r="N331" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , REPRESENTATIVE_NM VARCHAR(16) COMMENT '대표자명'</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="51">
+        <v>329</v>
+      </c>
+      <c r="B332" s="99" t="str">
+        <f>VLOOKUP($C332,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C332" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D332" s="94" t="str">
+        <f>VLOOKUP($C332,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E332" s="99">
+        <v>10</v>
+      </c>
+      <c r="F332" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G332" s="61" t="str">
+        <f>VLOOKUP($F332,domain!$B:$D,2,FALSE)</f>
+        <v>NOTE</v>
+      </c>
+      <c r="H332" s="61" t="str">
+        <f>VLOOKUP($F332,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I332" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="J332" s="61"/>
+      <c r="K332" s="99"/>
+      <c r="L332" s="61"/>
+      <c r="M332" s="61"/>
+      <c r="N332" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , NOTE VARCHAR(4000) COMMENT '비고'</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="51">
+        <v>330</v>
+      </c>
+      <c r="B333" s="99" t="str">
+        <f>VLOOKUP($C333,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C333" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D333" s="94" t="str">
+        <f>VLOOKUP($C333,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E333" s="99">
+        <v>11</v>
+      </c>
+      <c r="F333" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G333" s="61" t="str">
+        <f>VLOOKUP($F333,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H333" s="61" t="str">
+        <f>VLOOKUP($F333,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I333" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="J333" s="69" t="s">
+        <v>766</v>
+      </c>
+      <c r="K333" s="99"/>
+      <c r="L333" s="61"/>
+      <c r="M333" s="61"/>
+      <c r="N333" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) DEFAULT 'Y' COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="51">
+        <v>331</v>
+      </c>
+      <c r="B334" s="99" t="str">
+        <f>VLOOKUP($C334,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C334" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D334" s="94" t="str">
+        <f>VLOOKUP($C334,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E334" s="99">
+        <v>12</v>
+      </c>
+      <c r="F334" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G334" s="61" t="str">
+        <f>VLOOKUP($F334,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H334" s="61" t="str">
+        <f>VLOOKUP($F334,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I334" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J334" s="61"/>
+      <c r="K334" s="99"/>
+      <c r="L334" s="61"/>
+      <c r="M334" s="61"/>
+      <c r="N334" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="51">
+        <v>332</v>
+      </c>
+      <c r="B335" s="99" t="str">
+        <f>VLOOKUP($C335,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C335" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D335" s="94" t="str">
+        <f>VLOOKUP($C335,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E335" s="99">
+        <v>13</v>
+      </c>
+      <c r="F335" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G335" s="61" t="str">
+        <f>VLOOKUP($F335,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H335" s="61" t="str">
+        <f>VLOOKUP($F335,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I335" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J335" s="61"/>
+      <c r="K335" s="99"/>
+      <c r="L335" s="61"/>
+      <c r="M335" s="61"/>
+      <c r="N335" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="51">
+        <v>333</v>
+      </c>
+      <c r="B336" s="99" t="str">
+        <f>VLOOKUP($C336,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C336" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D336" s="94" t="str">
+        <f>VLOOKUP($C336,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E336" s="99">
+        <v>14</v>
+      </c>
+      <c r="F336" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G336" s="61" t="str">
+        <f>VLOOKUP($F336,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H336" s="61" t="str">
+        <f>VLOOKUP($F336,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I336" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J336" s="61"/>
+      <c r="K336" s="99"/>
+      <c r="L336" s="61"/>
+      <c r="M336" s="61"/>
+      <c r="N336" s="69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="51">
+        <v>334</v>
+      </c>
+      <c r="B337" s="99" t="str">
+        <f>VLOOKUP($C337,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C337" s="61" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D337" s="94" t="str">
+        <f>VLOOKUP($C337,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E337" s="99">
+        <v>15</v>
+      </c>
+      <c r="F337" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G337" s="61" t="str">
+        <f>VLOOKUP($F337,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H337" s="61" t="str">
+        <f>VLOOKUP($F337,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I337" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J337" s="61"/>
+      <c r="K337" s="99"/>
+      <c r="L337" s="61"/>
+      <c r="M337" s="61"/>
+      <c r="N337" s="69" t="str">
+        <f t="shared" ref="N337:N338" si="12">IF(E337=1,"    ","  , ")&amp;G337&amp;" "&amp;H337&amp;IF(J337="",""," "&amp;J337)&amp;IF(I337="N"," NOT NULL","")&amp;" COMMENT '"&amp;F337&amp;IF(L337="",""," "&amp;L337)&amp;"'"</f>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="51">
+        <v>320</v>
+      </c>
+      <c r="B338" s="15" t="str">
+        <f>VLOOKUP($C338,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D338" s="47" t="str">
+        <f>VLOOKUP($C338,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E338" s="51">
+        <v>1</v>
+      </c>
+      <c r="F338" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G338" s="6" t="str">
+        <f>VLOOKUP($F338,domain!$B:$D,2,FALSE)</f>
+        <v>GROUP_ID</v>
+      </c>
+      <c r="H338" s="6" t="str">
+        <f>VLOOKUP($F338,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="I338" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+      <c r="M338" s="2"/>
+      <c r="N338" s="41" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">    GROUP_ID VARCHAR(64) NOT NULL COMMENT '그룹 ID'</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="51">
+        <v>320</v>
+      </c>
+      <c r="B339" s="15" t="str">
+        <f>VLOOKUP($C339,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D339" s="47" t="str">
+        <f>VLOOKUP($C339,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E339" s="51">
+        <v>2</v>
+      </c>
+      <c r="F339" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G339" s="6" t="str">
+        <f>VLOOKUP($F339,domain!$B:$D,2,FALSE)</f>
+        <v>CODE_ID</v>
+      </c>
+      <c r="H339" s="6" t="str">
+        <f>VLOOKUP($F339,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="I339" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J339" s="2"/>
+      <c r="K339" s="2"/>
+      <c r="L339" s="2"/>
+      <c r="M339" s="2"/>
+      <c r="N339" s="41" t="str">
+        <f t="shared" ref="N339:N349" si="13">IF(E339=1,"    ","  , ")&amp;G339&amp;" "&amp;H339&amp;IF(J339="",""," "&amp;J339)&amp;IF(I339="N"," NOT NULL","")&amp;" COMMENT '"&amp;F339&amp;IF(L339="",""," "&amp;L339)&amp;"'"</f>
+        <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="51">
+        <v>320</v>
+      </c>
+      <c r="B340" s="15" t="str">
+        <f>VLOOKUP($C340,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D340" s="47" t="str">
+        <f>VLOOKUP($C340,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E340" s="51">
+        <v>3</v>
+      </c>
+      <c r="F340" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="G340" s="6" t="str">
+        <f>VLOOKUP($F340,domain!$B:$D,2,FALSE)</f>
+        <v>CODE_NM</v>
+      </c>
+      <c r="H340" s="6" t="str">
+        <f>VLOOKUP($F340,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(100)</v>
+      </c>
+      <c r="I340" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+      <c r="L340" s="2"/>
+      <c r="M340" s="2"/>
+      <c r="N340" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , CODE_NM VARCHAR(100) NOT NULL COMMENT '코드 명'</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="51">
+        <v>320</v>
+      </c>
+      <c r="B341" s="15" t="str">
+        <f>VLOOKUP($C341,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D341" s="47" t="str">
+        <f>VLOOKUP($C341,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E341" s="51">
+        <v>4</v>
+      </c>
+      <c r="F341" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G341" s="6" t="str">
+        <f>VLOOKUP($F341,domain!$B:$D,2,FALSE)</f>
+        <v>CODE_DSC</v>
+      </c>
+      <c r="H341" s="6" t="str">
+        <f>VLOOKUP($F341,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1000)</v>
+      </c>
+      <c r="I341" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+      <c r="L341" s="2"/>
+      <c r="M341" s="2"/>
+      <c r="N341" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) NOT NULL COMMENT '코드 설명'</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="51">
+        <v>320</v>
+      </c>
+      <c r="B342" s="15" t="str">
+        <f>VLOOKUP($C342,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D342" s="47" t="str">
+        <f>VLOOKUP($C342,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E342" s="51">
+        <v>5</v>
+      </c>
+      <c r="F342" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G342" s="6" t="str">
+        <f>VLOOKUP($F342,domain!$B:$D,2,FALSE)</f>
+        <v>ORD_SEQ</v>
+      </c>
+      <c r="H342" s="6" t="str">
+        <f>VLOOKUP($F342,domain!$B:$D,3,FALSE)</f>
+        <v>NUMERIC(5,0)</v>
+      </c>
+      <c r="I342" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J342" s="2"/>
+      <c r="K342" s="2"/>
+      <c r="L342" s="2"/>
+      <c r="M342" s="2"/>
+      <c r="N342" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="51">
+        <v>320</v>
+      </c>
+      <c r="B343" s="15" t="str">
+        <f>VLOOKUP($C343,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D343" s="47" t="str">
+        <f>VLOOKUP($C343,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E343" s="51">
+        <v>6</v>
+      </c>
+      <c r="F343" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G343" s="6" t="str">
+        <f>VLOOKUP($F343,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H343" s="6" t="str">
+        <f>VLOOKUP($F343,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I343" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J343" s="2"/>
+      <c r="K343" s="2"/>
+      <c r="L343" s="2"/>
+      <c r="M343" s="2"/>
+      <c r="N343" s="41" t="str">
+        <f t="shared" ref="N343" si="14">IF(E343=1,"    ","  , ")&amp;G343&amp;" "&amp;H343&amp;IF(J343="",""," "&amp;J343)&amp;IF(I343="N"," NOT NULL","")&amp;" COMMENT '"&amp;F343&amp;IF(L343="",""," "&amp;L343)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="51">
+        <v>320</v>
+      </c>
+      <c r="B344" s="15" t="str">
+        <f>VLOOKUP($C344,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D344" s="47" t="str">
+        <f>VLOOKUP($C344,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E344" s="51">
+        <v>7</v>
+      </c>
+      <c r="F344" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G344" s="6" t="str">
+        <f>VLOOKUP($F344,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H344" s="6" t="str">
+        <f>VLOOKUP($F344,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I344" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J344" s="2"/>
+      <c r="K344" s="2"/>
+      <c r="L344" s="2"/>
+      <c r="M344" s="2"/>
+      <c r="N344" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="51">
+        <v>320</v>
+      </c>
+      <c r="B345" s="15" t="str">
+        <f>VLOOKUP($C345,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D345" s="47" t="str">
+        <f>VLOOKUP($C345,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E345" s="51">
+        <v>8</v>
+      </c>
+      <c r="F345" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G345" s="6" t="str">
+        <f>VLOOKUP($F345,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H345" s="6" t="str">
+        <f>VLOOKUP($F345,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I345" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+      <c r="L345" s="2"/>
+      <c r="M345" s="2"/>
+      <c r="N345" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="51">
+        <v>320</v>
+      </c>
+      <c r="B346" s="15" t="str">
+        <f>VLOOKUP($C346,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D346" s="47" t="str">
+        <f>VLOOKUP($C346,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E346" s="51">
+        <v>9</v>
+      </c>
+      <c r="F346" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G346" s="6" t="str">
+        <f>VLOOKUP($F346,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H346" s="6" t="str">
+        <f>VLOOKUP($F346,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I346" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J346" s="2"/>
+      <c r="K346" s="2"/>
+      <c r="L346" s="2"/>
+      <c r="M346" s="2"/>
+      <c r="N346" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="51">
+        <v>320</v>
+      </c>
+      <c r="B347" s="15" t="str">
+        <f>VLOOKUP($C347,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D347" s="47" t="str">
+        <f>VLOOKUP($C347,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E347" s="51">
+        <v>10</v>
+      </c>
+      <c r="F347" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G347" s="6" t="str">
+        <f>VLOOKUP($F347,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H347" s="6" t="str">
+        <f>VLOOKUP($F347,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I347" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J347" s="2"/>
+      <c r="K347" s="2"/>
+      <c r="L347" s="2"/>
+      <c r="M347" s="2"/>
+      <c r="N347" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="51">
+        <v>331</v>
+      </c>
+      <c r="B348" s="99" t="str">
+        <f>VLOOKUP($C348,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C348" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D348" s="94" t="str">
+        <f>VLOOKUP($C348,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E348" s="99">
+        <v>1</v>
+      </c>
+      <c r="F348" s="76" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G348" s="61" t="str">
+        <f>VLOOKUP($F348,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_ID</v>
+      </c>
+      <c r="H348" s="61" t="str">
+        <f>VLOOKUP($F348,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I348" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J348" s="61"/>
+      <c r="K348" s="99"/>
+      <c r="L348" s="61"/>
+      <c r="M348" s="61"/>
+      <c r="N348" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="51">
+        <v>332</v>
+      </c>
+      <c r="B349" s="99" t="str">
+        <f>VLOOKUP($C349,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C349" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D349" s="94" t="str">
+        <f>VLOOKUP($C349,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E349" s="99">
+        <v>2</v>
+      </c>
+      <c r="F349" s="76" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G349" s="61" t="str">
+        <f>VLOOKUP($F349,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_NM</v>
+      </c>
+      <c r="H349" s="61" t="str">
+        <f>VLOOKUP($F349,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I349" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J349" s="61"/>
+      <c r="K349" s="99"/>
+      <c r="L349" s="61"/>
+      <c r="M349" s="61"/>
+      <c r="N349" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="51">
+        <v>332</v>
+      </c>
+      <c r="B350" s="99" t="str">
+        <f>VLOOKUP($C350,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C350" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D350" s="94" t="str">
+        <f>VLOOKUP($C350,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E350" s="99">
+        <v>3</v>
+      </c>
+      <c r="F350" s="76" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G350" s="61" t="str">
+        <f>VLOOKUP($F350,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_CODE</v>
+      </c>
+      <c r="H350" s="61" t="str">
+        <f>VLOOKUP($F350,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I350" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J350" s="61"/>
+      <c r="K350" s="99"/>
+      <c r="L350" s="61"/>
+      <c r="M350" s="61"/>
+      <c r="N350" s="69" t="str">
+        <f t="shared" ref="N350" si="15">IF(E350=1,"    ","  , ")&amp;G350&amp;" "&amp;H350&amp;IF(J350="",""," "&amp;J350)&amp;IF(I350="N"," NOT NULL","")&amp;" COMMENT '"&amp;F350&amp;IF(L350="",""," "&amp;L350)&amp;"'"</f>
+        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="51">
+        <v>332</v>
+      </c>
+      <c r="B351" s="99" t="str">
+        <f>VLOOKUP($C351,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C351" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D351" s="94" t="str">
+        <f>VLOOKUP($C351,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E351" s="99">
+        <v>4</v>
+      </c>
+      <c r="F351" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G351" s="61" t="str">
+        <f>VLOOKUP($F351,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H351" s="61" t="str">
+        <f>VLOOKUP($F351,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I351" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J351" s="61"/>
+      <c r="K351" s="99"/>
+      <c r="L351" s="61"/>
+      <c r="M351" s="61"/>
+      <c r="N351" s="69" t="str">
+        <f t="shared" ref="N351:N363" si="16">IF(E351=1,"    ","  , ")&amp;G351&amp;" "&amp;H351&amp;IF(J351="",""," "&amp;J351)&amp;IF(I351="N"," NOT NULL","")&amp;" COMMENT '"&amp;F351&amp;IF(L351="",""," "&amp;L351)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="51">
+        <v>331</v>
+      </c>
+      <c r="B352" s="99" t="str">
+        <f>VLOOKUP($C352,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C352" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D352" s="94" t="str">
+        <f>VLOOKUP($C352,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E352" s="99">
+        <v>5</v>
+      </c>
+      <c r="F352" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G352" s="61" t="str">
+        <f>VLOOKUP($F352,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H352" s="61" t="str">
+        <f>VLOOKUP($F352,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I352" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J352" s="61"/>
+      <c r="K352" s="99"/>
+      <c r="L352" s="61"/>
+      <c r="M352" s="61"/>
+      <c r="N352" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="51">
+        <v>332</v>
+      </c>
+      <c r="B353" s="99" t="str">
+        <f>VLOOKUP($C353,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C353" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D353" s="94" t="str">
+        <f>VLOOKUP($C353,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E353" s="99">
+        <v>6</v>
+      </c>
+      <c r="F353" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G353" s="61" t="str">
+        <f>VLOOKUP($F353,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H353" s="61" t="str">
+        <f>VLOOKUP($F353,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I353" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J353" s="61"/>
+      <c r="K353" s="99"/>
+      <c r="L353" s="61"/>
+      <c r="M353" s="61"/>
+      <c r="N353" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="51">
+        <v>331</v>
+      </c>
+      <c r="B354" s="99" t="str">
+        <f>VLOOKUP($C354,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C354" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D354" s="94" t="str">
+        <f>VLOOKUP($C354,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E354" s="99">
+        <v>7</v>
+      </c>
+      <c r="F354" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G354" s="61" t="str">
+        <f>VLOOKUP($F354,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H354" s="61" t="str">
+        <f>VLOOKUP($F354,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I354" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J354" s="61"/>
+      <c r="K354" s="99"/>
+      <c r="L354" s="61"/>
+      <c r="M354" s="61"/>
+      <c r="N354" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="51">
+        <v>332</v>
+      </c>
+      <c r="B355" s="99" t="str">
+        <f>VLOOKUP($C355,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C355" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D355" s="94" t="str">
+        <f>VLOOKUP($C355,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E355" s="99">
+        <v>8</v>
+      </c>
+      <c r="F355" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G355" s="61" t="str">
+        <f>VLOOKUP($F355,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H355" s="61" t="str">
+        <f>VLOOKUP($F355,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I355" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J355" s="61"/>
+      <c r="K355" s="99"/>
+      <c r="L355" s="61"/>
+      <c r="M355" s="61"/>
+      <c r="N355" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="51">
+        <v>320</v>
+      </c>
+      <c r="B356" s="15" t="str">
+        <f>VLOOKUP($C356,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D356" s="47" t="str">
+        <f>VLOOKUP($C356,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E356" s="51">
+        <v>1</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G356" s="6" t="str">
+        <f>VLOOKUP($F356,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_ID</v>
+      </c>
+      <c r="H356" s="6" t="str">
+        <f>VLOOKUP($F356,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I356" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2"/>
+      <c r="N356" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="51">
+        <v>320</v>
+      </c>
+      <c r="B357" s="15" t="str">
+        <f>VLOOKUP($C357,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D357" s="47" t="str">
+        <f>VLOOKUP($C357,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E357" s="51">
+        <v>2</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G357" s="6" t="str">
+        <f>VLOOKUP($F357,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_NM</v>
+      </c>
+      <c r="H357" s="6" t="str">
+        <f>VLOOKUP($F357,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I357" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J357" s="2"/>
+      <c r="K357" s="2"/>
+      <c r="L357" s="2"/>
+      <c r="M357" s="2"/>
+      <c r="N357" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="51">
+        <v>320</v>
+      </c>
+      <c r="B358" s="15" t="str">
+        <f>VLOOKUP($C358,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D358" s="47" t="str">
+        <f>VLOOKUP($C358,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E358" s="51">
+        <v>3</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G358" s="6" t="str">
+        <f>VLOOKUP($F358,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_CODE</v>
+      </c>
+      <c r="H358" s="6" t="str">
+        <f>VLOOKUP($F358,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I358" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J358" s="2"/>
+      <c r="K358" s="2"/>
+      <c r="L358" s="2"/>
+      <c r="M358" s="2"/>
+      <c r="N358" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '제품 코드'</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="51">
+        <v>320</v>
+      </c>
+      <c r="B359" s="15" t="str">
+        <f>VLOOKUP($C359,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D359" s="47" t="str">
+        <f>VLOOKUP($C359,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E359" s="51">
+        <v>4</v>
+      </c>
+      <c r="F359" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G359" s="6" t="str">
+        <f>VLOOKUP($F359,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H359" s="6" t="str">
+        <f>VLOOKUP($F359,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I359" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J359" s="2"/>
+      <c r="K359" s="2"/>
+      <c r="L359" s="2"/>
+      <c r="M359" s="2"/>
+      <c r="N359" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="51">
+        <v>320</v>
+      </c>
+      <c r="B360" s="15" t="str">
+        <f>VLOOKUP($C360,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D360" s="47" t="str">
+        <f>VLOOKUP($C360,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E360" s="51">
+        <v>5</v>
+      </c>
+      <c r="F360" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G360" s="6" t="str">
+        <f>VLOOKUP($F360,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H360" s="6" t="str">
+        <f>VLOOKUP($F360,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I360" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J360" s="2"/>
+      <c r="K360" s="2"/>
+      <c r="L360" s="2"/>
+      <c r="M360" s="2"/>
+      <c r="N360" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="51">
+        <v>320</v>
+      </c>
+      <c r="B361" s="15" t="str">
+        <f>VLOOKUP($C361,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D361" s="47" t="str">
+        <f>VLOOKUP($C361,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E361" s="51">
+        <v>6</v>
+      </c>
+      <c r="F361" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G361" s="6" t="str">
+        <f>VLOOKUP($F361,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H361" s="6" t="str">
+        <f>VLOOKUP($F361,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I361" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J361" s="2"/>
+      <c r="K361" s="2"/>
+      <c r="L361" s="2"/>
+      <c r="M361" s="2"/>
+      <c r="N361" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="51">
+        <v>320</v>
+      </c>
+      <c r="B362" s="15" t="str">
+        <f>VLOOKUP($C362,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D362" s="47" t="str">
+        <f>VLOOKUP($C362,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E362" s="51">
+        <v>7</v>
+      </c>
+      <c r="F362" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G362" s="6" t="str">
+        <f>VLOOKUP($F362,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H362" s="6" t="str">
+        <f>VLOOKUP($F362,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I362" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J362" s="2"/>
+      <c r="K362" s="2"/>
+      <c r="L362" s="2"/>
+      <c r="M362" s="2"/>
+      <c r="N362" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="51">
+        <v>320</v>
+      </c>
+      <c r="B363" s="15" t="str">
+        <f>VLOOKUP($C363,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D363" s="47" t="str">
+        <f>VLOOKUP($C363,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E363" s="51">
+        <v>8</v>
+      </c>
+      <c r="F363" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G363" s="6" t="str">
+        <f>VLOOKUP($F363,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H363" s="6" t="str">
+        <f>VLOOKUP($F363,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I363" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J363" s="2"/>
+      <c r="K363" s="2"/>
+      <c r="L363" s="2"/>
+      <c r="M363" s="2"/>
+      <c r="N363" s="41" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
@@ -20515,10 +22424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -20534,34 +22443,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="100" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="96"/>
+      <c r="A2" s="100"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
@@ -22887,7 +24796,7 @@
       <c r="A148" s="51">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="6" t="s">
         <v>1142</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -22903,7 +24812,7 @@
       <c r="A149" s="51">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="6" t="s">
         <v>1144</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -22919,9 +24828,15 @@
       <c r="A150" s="51">
         <v>148</v>
       </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="B150" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
@@ -22929,9 +24844,15 @@
       <c r="A151" s="51">
         <v>149</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="B151" s="77" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
@@ -22939,9 +24860,15 @@
       <c r="A152" s="51">
         <v>150</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="B152" s="77" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
@@ -22949,9 +24876,15 @@
       <c r="A153" s="51">
         <v>151</v>
       </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="B153" s="77" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
@@ -22959,9 +24892,15 @@
       <c r="A154" s="51">
         <v>152</v>
       </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="B154" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
@@ -22969,9 +24908,15 @@
       <c r="A155" s="51">
         <v>153</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="B155" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
@@ -22979,9 +24924,15 @@
       <c r="A156" s="51">
         <v>154</v>
       </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="B156" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
@@ -22989,9 +24940,15 @@
       <c r="A157" s="51">
         <v>155</v>
       </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="B157" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
@@ -22999,9 +24956,15 @@
       <c r="A158" s="51">
         <v>156</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
@@ -23009,9 +24972,15 @@
       <c r="A159" s="51">
         <v>157</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
@@ -23019,9 +24988,15 @@
       <c r="A160" s="51">
         <v>158</v>
       </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="B160" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
@@ -23444,16 +25419,6 @@
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="51">
-        <v>201</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D98">
@@ -23476,8 +25441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -23490,67 +25455,67 @@
     <col min="6" max="6" width="29" style="67" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="99" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96" t="s">
+      <c r="I1" s="100"/>
+      <c r="J1" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="100" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="89" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="99"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
@@ -23567,10 +25532,10 @@
         <f>VLOOKUP($C3,table!$B:$D,2,FALSE)</f>
         <v>T_USER_HIST</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="111">
         <v>1</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="104" t="s">
         <v>137</v>
       </c>
       <c r="G3" s="53">
@@ -23583,7 +25548,7 @@
         <f>VLOOKUP($H3,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="104" t="s">
         <v>138</v>
       </c>
       <c r="K3" s="53" t="s">
@@ -23606,8 +25571,8 @@
         <f>VLOOKUP($C4,table!$B:$D,2,FALSE)</f>
         <v>T_USER_HIST</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="53">
         <v>2</v>
       </c>
@@ -23618,7 +25583,7 @@
         <f>VLOOKUP($H4,domain!$B:$D,2,FALSE)</f>
         <v>HIST_DT</v>
       </c>
-      <c r="J4" s="101"/>
+      <c r="J4" s="104"/>
       <c r="K4" s="53" t="s">
         <v>131</v>
       </c>
@@ -23639,10 +25604,10 @@
         <f>VLOOKUP($C5,table!$B:$D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="111">
         <v>0</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="104" t="s">
         <v>129</v>
       </c>
       <c r="G5" s="53">
@@ -23655,7 +25620,7 @@
         <f>VLOOKUP($H5,domain!$B:$D,2,FALSE)</f>
         <v>GROUP_ID</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="104" t="s">
         <v>130</v>
       </c>
       <c r="K5" s="53" t="s">
@@ -23678,8 +25643,8 @@
         <f>VLOOKUP($C6,table!$B:$D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="53">
         <v>2</v>
       </c>
@@ -23690,7 +25655,7 @@
         <f>VLOOKUP($H6,domain!$B:$D,2,FALSE)</f>
         <v>CODE_ID</v>
       </c>
-      <c r="J6" s="101"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="53" t="s">
         <v>131</v>
       </c>
@@ -23945,10 +25910,10 @@
         <f>VLOOKUP($C13,table!$B:$D,2,FALSE)</f>
         <v>T_ID_SN</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="111">
         <v>0</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="104" t="s">
         <v>232</v>
       </c>
       <c r="G13" s="53">
@@ -23961,7 +25926,7 @@
         <f>VLOOKUP($H13,domain!$B:$D,2,FALSE)</f>
         <v>ID_TY</v>
       </c>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="104" t="s">
         <v>130</v>
       </c>
       <c r="K13" s="53" t="s">
@@ -23984,8 +25949,8 @@
         <f>VLOOKUP($C14,table!$B:$D,2,FALSE)</f>
         <v>T_ID_SN</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="53">
         <v>2</v>
       </c>
@@ -23996,7 +25961,7 @@
         <f>VLOOKUP($H14,domain!$B:$D,2,FALSE)</f>
         <v>ID_SE</v>
       </c>
-      <c r="J14" s="101"/>
+      <c r="J14" s="104"/>
       <c r="K14" s="53" t="s">
         <v>131</v>
       </c>
@@ -24329,10 +26294,10 @@
         <f>VLOOKUP($C23,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_RQST_MGR_SYS</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="111">
         <v>1</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="104" t="s">
         <v>735</v>
       </c>
       <c r="G23" s="53">
@@ -24345,7 +26310,7 @@
         <f>VLOOKUP($H23,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J23" s="111" t="s">
+      <c r="J23" s="112" t="s">
         <v>138</v>
       </c>
       <c r="K23" s="53" t="s">
@@ -24368,8 +26333,8 @@
         <f>VLOOKUP($C24,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_RQST_MGR_SYS</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="53">
         <v>2</v>
       </c>
@@ -24380,7 +26345,7 @@
         <f>VLOOKUP($H24,domain!$B:$D,2,FALSE)</f>
         <v>LOG_DT</v>
       </c>
-      <c r="J24" s="111"/>
+      <c r="J24" s="112"/>
       <c r="K24" s="53" t="s">
         <v>131</v>
       </c>
@@ -24401,10 +26366,10 @@
         <f>VLOOKUP($C25,table!$B:$D,2,FALSE)</f>
         <v>T_LOGIN_USER_HIST</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="111">
         <v>1</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="104" t="s">
         <v>757</v>
       </c>
       <c r="G25" s="53">
@@ -24417,7 +26382,7 @@
         <f>VLOOKUP($H25,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J25" s="111" t="s">
+      <c r="J25" s="112" t="s">
         <v>138</v>
       </c>
       <c r="K25" s="53" t="s">
@@ -24440,8 +26405,8 @@
         <f>VLOOKUP($C26,table!$B:$D,2,FALSE)</f>
         <v>T_LOGIN_USER_HIST</v>
       </c>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="53">
         <v>2</v>
       </c>
@@ -24452,7 +26417,7 @@
         <f>VLOOKUP($H26,domain!$B:$D,2,FALSE)</f>
         <v>LOG_DT</v>
       </c>
-      <c r="J26" s="111"/>
+      <c r="J26" s="112"/>
       <c r="K26" s="53" t="s">
         <v>131</v>
       </c>
@@ -24617,10 +26582,10 @@
         <f>VLOOKUP($C31,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="111">
         <v>1</v>
       </c>
-      <c r="F31" s="101" t="str">
+      <c r="F31" s="104" t="str">
         <f>D31&amp;"_PK"</f>
         <v>T_COMPANY_PK</v>
       </c>
@@ -24634,7 +26599,7 @@
         <f>VLOOKUP($H31,domain!$B:$D,2,FALSE)</f>
         <v>COMPANY_ID</v>
       </c>
-      <c r="J31" s="102" t="s">
+      <c r="J31" s="113" t="s">
         <v>130</v>
       </c>
       <c r="K31" s="71" t="s">
@@ -24657,8 +26622,8 @@
         <f>VLOOKUP($C32,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="71">
         <v>2</v>
       </c>
@@ -24669,7 +26634,7 @@
         <f>VLOOKUP($H32,domain!$B:$D,2,FALSE)</f>
         <v>COMPANY_NO</v>
       </c>
-      <c r="J32" s="103"/>
+      <c r="J32" s="114"/>
       <c r="K32" s="71" t="s">
         <v>131</v>
       </c>
@@ -24790,59 +26755,163 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="63"/>
+      <c r="A36" s="51">
+        <v>34</v>
+      </c>
+      <c r="B36" s="51" t="str">
+        <f>VLOOKUP($C36,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C36" s="98" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>VLOOKUP($C36,table!$B:$D,2,FALSE)</f>
+        <v>T_SUBCONTRACT</v>
+      </c>
+      <c r="E36" s="63">
+        <v>1</v>
+      </c>
+      <c r="F36" s="97" t="str">
+        <f t="shared" ref="F36:F39" si="0">D36&amp;"_PK"</f>
+        <v>T_SUBCONTRACT_PK</v>
+      </c>
+      <c r="G36" s="63">
+        <v>1</v>
+      </c>
+      <c r="H36" s="62" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f>VLOOKUP($H36,domain!$B:$D,2,FALSE)</f>
+        <v>SUBCONTRACT_ID</v>
+      </c>
+      <c r="J36" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="96" t="s">
+        <v>131</v>
+      </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
+      <c r="A37" s="51">
+        <v>35</v>
+      </c>
+      <c r="B37" s="51" t="str">
+        <f>VLOOKUP($C37,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>VLOOKUP($C37,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E37" s="63">
+        <v>1</v>
+      </c>
+      <c r="F37" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>T_PACKAGING_CODE_PK</v>
+      </c>
+      <c r="G37" s="63">
+        <v>1</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f>VLOOKUP($H37,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_ID</v>
+      </c>
+      <c r="J37" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="96" t="s">
+        <v>131</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="63"/>
+      <c r="A38" s="51">
+        <v>36</v>
+      </c>
+      <c r="B38" s="51" t="str">
+        <f>VLOOKUP($C38,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C38" s="98" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>VLOOKUP($C38,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E38" s="63">
+        <v>1</v>
+      </c>
+      <c r="F38" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>T_PACKAGING_QUESTION_PK</v>
+      </c>
+      <c r="G38" s="63">
+        <v>1</v>
+      </c>
+      <c r="H38" s="62" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f>VLOOKUP($H38,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_ID</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="96" t="s">
+        <v>131</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
+      <c r="A39" s="51">
+        <v>37</v>
+      </c>
+      <c r="B39" s="51" t="str">
+        <f>VLOOKUP($C39,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C39" s="98" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>VLOOKUP($C39,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E39" s="63">
+        <v>1</v>
+      </c>
+      <c r="F39" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>T_PACKAGING_PK</v>
+      </c>
+      <c r="G39" s="63">
+        <v>1</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>VLOOKUP($H39,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_ID</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" s="96" t="s">
+        <v>131</v>
+      </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -24875,21 +26944,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="J31:J32"/>
@@ -24906,6 +26960,21 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24917,8 +26986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:AE410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M199" sqref="M199"/>
+    <sheetView topLeftCell="A343" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -24935,37 +27004,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="112" t="str">
+      <c r="A3" s="116" t="str">
         <f>VLOOKUP(C3,table!B:D,3,FALSE)</f>
         <v>로그</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="112" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113" t="str">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117" t="str">
         <f>VLOOKUP(C3,table!B:D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -24992,7 +27061,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="112"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="8" t="s">
         <v>793</v>
       </c>
@@ -26313,47 +28382,47 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="112" t="str">
+      <c r="A58" s="116" t="str">
         <f>VLOOKUP(C58,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113" t="s">
+      <c r="B58" s="116"/>
+      <c r="C58" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="112" t="s">
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="116" t="s">
         <v>156</v>
       </c>
       <c r="M58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113" t="str">
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="117" t="str">
         <f>VLOOKUP(C58,table!B:D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="112"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="116"/>
       <c r="M59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -26393,7 +28462,7 @@
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="112"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="8" t="s">
         <v>54</v>
       </c>
@@ -29385,43 +31454,43 @@
       <c r="J143" s="12"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A144" s="112" t="str">
+      <c r="A144" s="116" t="str">
         <f>VLOOKUP(C144,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B144" s="112"/>
-      <c r="C144" s="113" t="s">
+      <c r="B144" s="116"/>
+      <c r="C144" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D144" s="113"/>
-      <c r="E144" s="113"/>
-      <c r="F144" s="113"/>
-      <c r="G144" s="113"/>
-      <c r="H144" s="113"/>
-      <c r="I144" s="113"/>
-      <c r="J144" s="113"/>
-      <c r="K144" s="112" t="s">
+      <c r="D144" s="117"/>
+      <c r="E144" s="117"/>
+      <c r="F144" s="117"/>
+      <c r="G144" s="117"/>
+      <c r="H144" s="117"/>
+      <c r="I144" s="117"/>
+      <c r="J144" s="117"/>
+      <c r="K144" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="112"/>
-      <c r="B145" s="112"/>
-      <c r="C145" s="113" t="str">
+      <c r="A145" s="116"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="117" t="str">
         <f>VLOOKUP(C144,table!B:D,2,FALSE)</f>
         <v>T_DEPT</v>
       </c>
-      <c r="D145" s="113"/>
-      <c r="E145" s="113"/>
-      <c r="F145" s="113"/>
-      <c r="G145" s="113"/>
-      <c r="H145" s="113"/>
-      <c r="I145" s="113"/>
-      <c r="J145" s="113"/>
-      <c r="K145" s="112"/>
+      <c r="D145" s="117"/>
+      <c r="E145" s="117"/>
+      <c r="F145" s="117"/>
+      <c r="G145" s="117"/>
+      <c r="H145" s="117"/>
+      <c r="I145" s="117"/>
+      <c r="J145" s="117"/>
+      <c r="K145" s="116"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="112" t="s">
+      <c r="A146" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -29457,7 +31526,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="112"/>
+      <c r="A147" s="116"/>
       <c r="B147" s="8" t="s">
         <v>74</v>
       </c>
@@ -29900,41 +31969,41 @@
       <c r="E161" s="10"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162" s="112" t="str">
+      <c r="A162" s="116" t="str">
         <f>VLOOKUP(C162,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B162" s="112"/>
-      <c r="C162" s="113" t="s">
+      <c r="B162" s="116"/>
+      <c r="C162" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D162" s="113"/>
-      <c r="E162" s="113"/>
-      <c r="F162" s="113"/>
-      <c r="G162" s="113"/>
-      <c r="H162" s="113"/>
-      <c r="I162" s="113"/>
-      <c r="J162" s="112" t="s">
+      <c r="D162" s="117"/>
+      <c r="E162" s="117"/>
+      <c r="F162" s="117"/>
+      <c r="G162" s="117"/>
+      <c r="H162" s="117"/>
+      <c r="I162" s="117"/>
+      <c r="J162" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" s="112"/>
-      <c r="B163" s="112"/>
-      <c r="C163" s="113" t="str">
+      <c r="A163" s="116"/>
+      <c r="B163" s="116"/>
+      <c r="C163" s="117" t="str">
         <f>VLOOKUP(C162,table!B:D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
-      <c r="D163" s="113"/>
-      <c r="E163" s="113"/>
-      <c r="F163" s="113"/>
-      <c r="G163" s="113"/>
-      <c r="H163" s="113"/>
-      <c r="I163" s="113"/>
-      <c r="J163" s="112"/>
+      <c r="D163" s="117"/>
+      <c r="E163" s="117"/>
+      <c r="F163" s="117"/>
+      <c r="G163" s="117"/>
+      <c r="H163" s="117"/>
+      <c r="I163" s="117"/>
+      <c r="J163" s="116"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A164" s="112" t="s">
+      <c r="A164" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B164" s="8" t="s">
@@ -29967,7 +32036,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A165" s="112"/>
+      <c r="A165" s="116"/>
       <c r="B165" s="8" t="s">
         <v>70</v>
       </c>
@@ -30079,41 +32148,41 @@
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171" s="112" t="str">
+      <c r="A171" s="116" t="str">
         <f>VLOOKUP(C171,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B171" s="112"/>
-      <c r="C171" s="113" t="s">
+      <c r="B171" s="116"/>
+      <c r="C171" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="113"/>
-      <c r="E171" s="113"/>
-      <c r="F171" s="113"/>
-      <c r="G171" s="113"/>
-      <c r="H171" s="113"/>
-      <c r="I171" s="113"/>
-      <c r="J171" s="112" t="s">
+      <c r="D171" s="117"/>
+      <c r="E171" s="117"/>
+      <c r="F171" s="117"/>
+      <c r="G171" s="117"/>
+      <c r="H171" s="117"/>
+      <c r="I171" s="117"/>
+      <c r="J171" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="112"/>
-      <c r="B172" s="112"/>
-      <c r="C172" s="113" t="str">
+      <c r="A172" s="116"/>
+      <c r="B172" s="116"/>
+      <c r="C172" s="117" t="str">
         <f>VLOOKUP(C171,table!B:D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
-      <c r="D172" s="113"/>
-      <c r="E172" s="113"/>
-      <c r="F172" s="113"/>
-      <c r="G172" s="113"/>
-      <c r="H172" s="113"/>
-      <c r="I172" s="113"/>
-      <c r="J172" s="112"/>
+      <c r="D172" s="117"/>
+      <c r="E172" s="117"/>
+      <c r="F172" s="117"/>
+      <c r="G172" s="117"/>
+      <c r="H172" s="117"/>
+      <c r="I172" s="117"/>
+      <c r="J172" s="116"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173" s="112" t="s">
+      <c r="A173" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B173" s="8" t="s">
@@ -30146,7 +32215,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A174" s="112"/>
+      <c r="A174" s="116"/>
       <c r="B174" s="8" t="s">
         <v>102</v>
       </c>
@@ -30243,67 +32312,67 @@
       </c>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A180" s="114" t="s">
+      <c r="A180" s="123" t="s">
         <v>371</v>
       </c>
-      <c r="B180" s="115"/>
-      <c r="C180" s="115"/>
-      <c r="D180" s="115"/>
-      <c r="E180" s="115"/>
-      <c r="F180" s="115"/>
-      <c r="G180" s="115"/>
-      <c r="H180" s="115"/>
-      <c r="I180" s="115"/>
-      <c r="J180" s="115"/>
-      <c r="K180" s="115"/>
-      <c r="L180" s="115"/>
-      <c r="M180" s="115"/>
+      <c r="B180" s="124"/>
+      <c r="C180" s="124"/>
+      <c r="D180" s="124"/>
+      <c r="E180" s="124"/>
+      <c r="F180" s="124"/>
+      <c r="G180" s="124"/>
+      <c r="H180" s="124"/>
+      <c r="I180" s="124"/>
+      <c r="J180" s="124"/>
+      <c r="K180" s="124"/>
+      <c r="L180" s="124"/>
+      <c r="M180" s="124"/>
       <c r="N180" s="79"/>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A181" s="112" t="str">
+      <c r="A181" s="116" t="str">
         <f>VLOOKUP(C181,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B181" s="112"/>
-      <c r="C181" s="116" t="s">
+      <c r="B181" s="116"/>
+      <c r="C181" s="121" t="s">
         <v>986</v>
       </c>
-      <c r="D181" s="117"/>
-      <c r="E181" s="117"/>
-      <c r="F181" s="117"/>
-      <c r="G181" s="117"/>
-      <c r="H181" s="117"/>
-      <c r="I181" s="117"/>
-      <c r="J181" s="117"/>
-      <c r="K181" s="117"/>
-      <c r="L181" s="117"/>
-      <c r="M181" s="117"/>
-      <c r="N181" s="112" t="s">
+      <c r="D181" s="122"/>
+      <c r="E181" s="122"/>
+      <c r="F181" s="122"/>
+      <c r="G181" s="122"/>
+      <c r="H181" s="122"/>
+      <c r="I181" s="122"/>
+      <c r="J181" s="122"/>
+      <c r="K181" s="122"/>
+      <c r="L181" s="122"/>
+      <c r="M181" s="122"/>
+      <c r="N181" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A182" s="112"/>
-      <c r="B182" s="112"/>
-      <c r="C182" s="119" t="str">
+      <c r="A182" s="116"/>
+      <c r="B182" s="116"/>
+      <c r="C182" s="118" t="str">
         <f>VLOOKUP(C181,table!B:D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="D182" s="120"/>
-      <c r="E182" s="120"/>
-      <c r="F182" s="120"/>
-      <c r="G182" s="120"/>
-      <c r="H182" s="120"/>
-      <c r="I182" s="120"/>
-      <c r="J182" s="120"/>
-      <c r="K182" s="120"/>
-      <c r="L182" s="120"/>
-      <c r="M182" s="120"/>
-      <c r="N182" s="112"/>
+      <c r="D182" s="119"/>
+      <c r="E182" s="119"/>
+      <c r="F182" s="119"/>
+      <c r="G182" s="119"/>
+      <c r="H182" s="119"/>
+      <c r="I182" s="119"/>
+      <c r="J182" s="119"/>
+      <c r="K182" s="119"/>
+      <c r="L182" s="119"/>
+      <c r="M182" s="119"/>
+      <c r="N182" s="116"/>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A183" s="112" t="s">
+      <c r="A183" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B183" s="8" t="s">
@@ -30351,7 +32420,7 @@
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A184" s="112"/>
+      <c r="A184" s="116"/>
       <c r="B184" s="8" t="s">
         <v>996</v>
       </c>
@@ -30540,112 +32609,112 @@
       <c r="C190" s="10"/>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A191" s="114" t="s">
+      <c r="A191" s="123" t="s">
         <v>371</v>
       </c>
-      <c r="B191" s="115"/>
-      <c r="C191" s="115"/>
-      <c r="D191" s="115"/>
-      <c r="E191" s="115"/>
-      <c r="F191" s="115"/>
-      <c r="G191" s="115"/>
-      <c r="H191" s="115"/>
-      <c r="I191" s="115"/>
-      <c r="J191" s="115"/>
-      <c r="K191" s="115"/>
-      <c r="L191" s="115"/>
-      <c r="M191" s="115"/>
-      <c r="N191" s="115"/>
-      <c r="O191" s="115"/>
-      <c r="P191" s="115"/>
-      <c r="Q191" s="115"/>
-      <c r="R191" s="115"/>
-      <c r="S191" s="115"/>
-      <c r="T191" s="115"/>
-      <c r="U191" s="115"/>
-      <c r="V191" s="115"/>
-      <c r="W191" s="115"/>
-      <c r="X191" s="115"/>
-      <c r="Y191" s="115"/>
-      <c r="Z191" s="115"/>
-      <c r="AA191" s="115"/>
-      <c r="AB191" s="115"/>
-      <c r="AC191" s="115"/>
+      <c r="B191" s="124"/>
+      <c r="C191" s="124"/>
+      <c r="D191" s="124"/>
+      <c r="E191" s="124"/>
+      <c r="F191" s="124"/>
+      <c r="G191" s="124"/>
+      <c r="H191" s="124"/>
+      <c r="I191" s="124"/>
+      <c r="J191" s="124"/>
+      <c r="K191" s="124"/>
+      <c r="L191" s="124"/>
+      <c r="M191" s="124"/>
+      <c r="N191" s="124"/>
+      <c r="O191" s="124"/>
+      <c r="P191" s="124"/>
+      <c r="Q191" s="124"/>
+      <c r="R191" s="124"/>
+      <c r="S191" s="124"/>
+      <c r="T191" s="124"/>
+      <c r="U191" s="124"/>
+      <c r="V191" s="124"/>
+      <c r="W191" s="124"/>
+      <c r="X191" s="124"/>
+      <c r="Y191" s="124"/>
+      <c r="Z191" s="124"/>
+      <c r="AA191" s="124"/>
+      <c r="AB191" s="124"/>
+      <c r="AC191" s="124"/>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A192" s="112" t="str">
+      <c r="A192" s="116" t="str">
         <f>VLOOKUP(C192,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B192" s="112"/>
-      <c r="C192" s="116" t="s">
+      <c r="B192" s="116"/>
+      <c r="C192" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D192" s="117"/>
-      <c r="E192" s="117"/>
-      <c r="F192" s="117"/>
-      <c r="G192" s="117"/>
-      <c r="H192" s="117"/>
-      <c r="I192" s="117"/>
-      <c r="J192" s="117"/>
-      <c r="K192" s="117"/>
-      <c r="L192" s="117"/>
-      <c r="M192" s="117"/>
-      <c r="N192" s="117"/>
-      <c r="O192" s="117"/>
-      <c r="P192" s="117"/>
-      <c r="Q192" s="117"/>
-      <c r="R192" s="117"/>
-      <c r="S192" s="117"/>
-      <c r="T192" s="117"/>
-      <c r="U192" s="117"/>
-      <c r="V192" s="117"/>
-      <c r="W192" s="117"/>
-      <c r="X192" s="117"/>
-      <c r="Y192" s="117"/>
-      <c r="Z192" s="117"/>
-      <c r="AA192" s="117"/>
-      <c r="AB192" s="118"/>
-      <c r="AC192" s="112" t="s">
+      <c r="D192" s="122"/>
+      <c r="E192" s="122"/>
+      <c r="F192" s="122"/>
+      <c r="G192" s="122"/>
+      <c r="H192" s="122"/>
+      <c r="I192" s="122"/>
+      <c r="J192" s="122"/>
+      <c r="K192" s="122"/>
+      <c r="L192" s="122"/>
+      <c r="M192" s="122"/>
+      <c r="N192" s="122"/>
+      <c r="O192" s="122"/>
+      <c r="P192" s="122"/>
+      <c r="Q192" s="122"/>
+      <c r="R192" s="122"/>
+      <c r="S192" s="122"/>
+      <c r="T192" s="122"/>
+      <c r="U192" s="122"/>
+      <c r="V192" s="122"/>
+      <c r="W192" s="122"/>
+      <c r="X192" s="122"/>
+      <c r="Y192" s="122"/>
+      <c r="Z192" s="122"/>
+      <c r="AA192" s="122"/>
+      <c r="AB192" s="125"/>
+      <c r="AC192" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A193" s="112"/>
-      <c r="B193" s="112"/>
-      <c r="C193" s="116" t="str">
+      <c r="A193" s="116"/>
+      <c r="B193" s="116"/>
+      <c r="C193" s="121" t="str">
         <f>VLOOKUP(C192,table!B:D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
-      <c r="D193" s="117"/>
-      <c r="E193" s="117"/>
-      <c r="F193" s="117"/>
-      <c r="G193" s="117"/>
-      <c r="H193" s="117"/>
-      <c r="I193" s="117"/>
-      <c r="J193" s="117"/>
-      <c r="K193" s="117"/>
-      <c r="L193" s="117"/>
-      <c r="M193" s="117"/>
-      <c r="N193" s="117"/>
-      <c r="O193" s="117"/>
-      <c r="P193" s="117"/>
-      <c r="Q193" s="117"/>
-      <c r="R193" s="117"/>
-      <c r="S193" s="117"/>
-      <c r="T193" s="117"/>
-      <c r="U193" s="117"/>
-      <c r="V193" s="117"/>
-      <c r="W193" s="117"/>
-      <c r="X193" s="117"/>
-      <c r="Y193" s="117"/>
-      <c r="Z193" s="117"/>
-      <c r="AA193" s="117"/>
-      <c r="AB193" s="118"/>
-      <c r="AC193" s="112"/>
+      <c r="D193" s="122"/>
+      <c r="E193" s="122"/>
+      <c r="F193" s="122"/>
+      <c r="G193" s="122"/>
+      <c r="H193" s="122"/>
+      <c r="I193" s="122"/>
+      <c r="J193" s="122"/>
+      <c r="K193" s="122"/>
+      <c r="L193" s="122"/>
+      <c r="M193" s="122"/>
+      <c r="N193" s="122"/>
+      <c r="O193" s="122"/>
+      <c r="P193" s="122"/>
+      <c r="Q193" s="122"/>
+      <c r="R193" s="122"/>
+      <c r="S193" s="122"/>
+      <c r="T193" s="122"/>
+      <c r="U193" s="122"/>
+      <c r="V193" s="122"/>
+      <c r="W193" s="122"/>
+      <c r="X193" s="122"/>
+      <c r="Y193" s="122"/>
+      <c r="Z193" s="122"/>
+      <c r="AA193" s="122"/>
+      <c r="AB193" s="125"/>
+      <c r="AC193" s="116"/>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A194" s="112" t="s">
+      <c r="A194" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
@@ -30741,7 +32810,7 @@
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A195" s="112"/>
+      <c r="A195" s="116"/>
       <c r="B195" s="8" t="s">
         <v>79</v>
       </c>
@@ -32449,27 +34518,27 @@
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A219" s="96" t="s">
+      <c r="A219" s="100" t="s">
         <v>547</v>
       </c>
-      <c r="B219" s="96"/>
-      <c r="C219" s="96"/>
-      <c r="D219" s="96"/>
-      <c r="E219" s="96"/>
-      <c r="F219" s="96"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="100"/>
+      <c r="E219" s="100"/>
+      <c r="F219" s="100"/>
     </row>
     <row r="220" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="112" t="str">
+      <c r="A220" s="116" t="str">
         <f>VLOOKUP(C220,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B220" s="112"/>
-      <c r="C220" s="113" t="s">
+      <c r="B220" s="116"/>
+      <c r="C220" s="117" t="s">
         <v>548</v>
       </c>
-      <c r="D220" s="113"/>
-      <c r="E220" s="113"/>
-      <c r="F220" s="112" t="s">
+      <c r="D220" s="117"/>
+      <c r="E220" s="117"/>
+      <c r="F220" s="116" t="s">
         <v>156</v>
       </c>
       <c r="G220"/>
@@ -32496,18 +34565,18 @@
       <c r="AC220"/>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A221" s="112"/>
-      <c r="B221" s="112"/>
-      <c r="C221" s="113" t="str">
+      <c r="A221" s="116"/>
+      <c r="B221" s="116"/>
+      <c r="C221" s="117" t="str">
         <f>VLOOKUP(C220,table!B:D,2,FALSE)</f>
         <v>T_USER_TEST</v>
       </c>
-      <c r="D221" s="113"/>
-      <c r="E221" s="113"/>
-      <c r="F221" s="112"/>
+      <c r="D221" s="117"/>
+      <c r="E221" s="117"/>
+      <c r="F221" s="116"/>
     </row>
     <row r="222" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="112" t="s">
+      <c r="A222" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
@@ -32550,7 +34619,7 @@
       <c r="AC222"/>
     </row>
     <row r="223" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="112"/>
+      <c r="A223" s="116"/>
       <c r="B223" s="8" t="s">
         <v>79</v>
       </c>
@@ -33268,27 +35337,27 @@
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A246" s="112" t="str">
+      <c r="A246" s="116" t="str">
         <f>VLOOKUP(C246,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B246" s="112"/>
-      <c r="C246" s="119" t="s">
+      <c r="B246" s="116"/>
+      <c r="C246" s="118" t="s">
         <v>657</v>
       </c>
-      <c r="D246" s="120"/>
-      <c r="E246" s="120"/>
-      <c r="F246" s="120"/>
-      <c r="G246" s="120"/>
-      <c r="H246" s="120"/>
-      <c r="I246" s="120"/>
-      <c r="J246" s="120"/>
-      <c r="K246" s="120"/>
-      <c r="L246" s="120"/>
-      <c r="M246" s="120"/>
-      <c r="N246" s="120"/>
-      <c r="O246" s="121"/>
-      <c r="P246" s="112" t="s">
+      <c r="D246" s="119"/>
+      <c r="E246" s="119"/>
+      <c r="F246" s="119"/>
+      <c r="G246" s="119"/>
+      <c r="H246" s="119"/>
+      <c r="I246" s="119"/>
+      <c r="J246" s="119"/>
+      <c r="K246" s="119"/>
+      <c r="L246" s="119"/>
+      <c r="M246" s="119"/>
+      <c r="N246" s="119"/>
+      <c r="O246" s="120"/>
+      <c r="P246" s="116" t="s">
         <v>156</v>
       </c>
       <c r="Q246" s="41"/>
@@ -33306,25 +35375,25 @@
       <c r="AC246" s="41"/>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A247" s="112"/>
-      <c r="B247" s="112"/>
-      <c r="C247" s="119" t="str">
+      <c r="A247" s="116"/>
+      <c r="B247" s="116"/>
+      <c r="C247" s="118" t="str">
         <f>VLOOKUP(C246,table!B:D,2,FALSE)</f>
         <v>T_DEPT_CL</v>
       </c>
-      <c r="D247" s="120"/>
-      <c r="E247" s="120"/>
-      <c r="F247" s="120"/>
-      <c r="G247" s="120"/>
-      <c r="H247" s="120"/>
-      <c r="I247" s="120"/>
-      <c r="J247" s="120"/>
-      <c r="K247" s="120"/>
-      <c r="L247" s="120"/>
-      <c r="M247" s="120"/>
-      <c r="N247" s="120"/>
-      <c r="O247" s="121"/>
-      <c r="P247" s="112"/>
+      <c r="D247" s="119"/>
+      <c r="E247" s="119"/>
+      <c r="F247" s="119"/>
+      <c r="G247" s="119"/>
+      <c r="H247" s="119"/>
+      <c r="I247" s="119"/>
+      <c r="J247" s="119"/>
+      <c r="K247" s="119"/>
+      <c r="L247" s="119"/>
+      <c r="M247" s="119"/>
+      <c r="N247" s="119"/>
+      <c r="O247" s="120"/>
+      <c r="P247" s="116"/>
       <c r="Q247" s="41"/>
       <c r="R247" s="41"/>
       <c r="S247" s="41"/>
@@ -33340,7 +35409,7 @@
       <c r="AC247" s="41"/>
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A248" s="112" t="s">
+      <c r="A248" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
@@ -33404,7 +35473,7 @@
       <c r="AC248" s="41"/>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A249" s="112"/>
+      <c r="A249" s="116"/>
       <c r="B249" s="8" t="s">
         <v>74</v>
       </c>
@@ -33977,47 +36046,47 @@
       <c r="C259" s="10"/>
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A260" s="112" t="str">
+      <c r="A260" s="116" t="str">
         <f>VLOOKUP(C260,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B260" s="112"/>
-      <c r="C260" s="113" t="s">
+      <c r="B260" s="116"/>
+      <c r="C260" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="D260" s="113"/>
-      <c r="E260" s="113"/>
-      <c r="F260" s="113"/>
-      <c r="G260" s="113"/>
-      <c r="H260" s="113"/>
-      <c r="I260" s="113"/>
-      <c r="J260" s="113"/>
-      <c r="K260" s="113"/>
-      <c r="L260" s="113"/>
-      <c r="M260" s="112" t="s">
+      <c r="D260" s="117"/>
+      <c r="E260" s="117"/>
+      <c r="F260" s="117"/>
+      <c r="G260" s="117"/>
+      <c r="H260" s="117"/>
+      <c r="I260" s="117"/>
+      <c r="J260" s="117"/>
+      <c r="K260" s="117"/>
+      <c r="L260" s="117"/>
+      <c r="M260" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A261" s="112"/>
-      <c r="B261" s="112"/>
-      <c r="C261" s="113" t="str">
+      <c r="A261" s="116"/>
+      <c r="B261" s="116"/>
+      <c r="C261" s="117" t="str">
         <f>VLOOKUP(C260,table!B:D,2,FALSE)</f>
         <v>T_BBS_NOTICE</v>
       </c>
-      <c r="D261" s="113"/>
-      <c r="E261" s="113"/>
-      <c r="F261" s="113"/>
-      <c r="G261" s="113"/>
-      <c r="H261" s="113"/>
-      <c r="I261" s="113"/>
-      <c r="J261" s="113"/>
-      <c r="K261" s="113"/>
-      <c r="L261" s="113"/>
-      <c r="M261" s="112"/>
+      <c r="D261" s="117"/>
+      <c r="E261" s="117"/>
+      <c r="F261" s="117"/>
+      <c r="G261" s="117"/>
+      <c r="H261" s="117"/>
+      <c r="I261" s="117"/>
+      <c r="J261" s="117"/>
+      <c r="K261" s="117"/>
+      <c r="L261" s="117"/>
+      <c r="M261" s="116"/>
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A262" s="112" t="s">
+      <c r="A262" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
@@ -34059,7 +36128,7 @@
       </c>
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A263" s="112"/>
+      <c r="A263" s="116"/>
       <c r="B263" s="8" t="s">
         <v>277</v>
       </c>
@@ -34228,47 +36297,47 @@
       <c r="C269" s="10"/>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A270" s="112" t="str">
+      <c r="A270" s="116" t="str">
         <f>VLOOKUP(C270,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B270" s="112"/>
-      <c r="C270" s="113" t="s">
+      <c r="B270" s="116"/>
+      <c r="C270" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="D270" s="113"/>
-      <c r="E270" s="113"/>
-      <c r="F270" s="113"/>
-      <c r="G270" s="113"/>
-      <c r="H270" s="113"/>
-      <c r="I270" s="113"/>
-      <c r="J270" s="113"/>
-      <c r="K270" s="113"/>
-      <c r="L270" s="113"/>
-      <c r="M270" s="112" t="s">
+      <c r="D270" s="117"/>
+      <c r="E270" s="117"/>
+      <c r="F270" s="117"/>
+      <c r="G270" s="117"/>
+      <c r="H270" s="117"/>
+      <c r="I270" s="117"/>
+      <c r="J270" s="117"/>
+      <c r="K270" s="117"/>
+      <c r="L270" s="117"/>
+      <c r="M270" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A271" s="112"/>
-      <c r="B271" s="112"/>
-      <c r="C271" s="113" t="str">
+      <c r="A271" s="116"/>
+      <c r="B271" s="116"/>
+      <c r="C271" s="117" t="str">
         <f>VLOOKUP(C270,table!B:D,2,FALSE)</f>
         <v>T_BBS_FAQ</v>
       </c>
-      <c r="D271" s="113"/>
-      <c r="E271" s="113"/>
-      <c r="F271" s="113"/>
-      <c r="G271" s="113"/>
-      <c r="H271" s="113"/>
-      <c r="I271" s="113"/>
-      <c r="J271" s="113"/>
-      <c r="K271" s="113"/>
-      <c r="L271" s="113"/>
-      <c r="M271" s="112"/>
+      <c r="D271" s="117"/>
+      <c r="E271" s="117"/>
+      <c r="F271" s="117"/>
+      <c r="G271" s="117"/>
+      <c r="H271" s="117"/>
+      <c r="I271" s="117"/>
+      <c r="J271" s="117"/>
+      <c r="K271" s="117"/>
+      <c r="L271" s="117"/>
+      <c r="M271" s="116"/>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A272" s="112" t="s">
+      <c r="A272" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
@@ -34310,7 +36379,7 @@
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A273" s="112"/>
+      <c r="A273" s="116"/>
       <c r="B273" s="8" t="s">
         <v>279</v>
       </c>
@@ -34519,39 +36588,39 @@
       <c r="C280" s="10"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A281" s="112" t="str">
+      <c r="A281" s="116" t="str">
         <f>VLOOKUP(C281,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B281" s="112"/>
-      <c r="C281" s="113" t="s">
+      <c r="B281" s="116"/>
+      <c r="C281" s="117" t="s">
         <v>960</v>
       </c>
-      <c r="D281" s="113"/>
-      <c r="E281" s="113"/>
-      <c r="F281" s="113"/>
-      <c r="G281" s="113"/>
-      <c r="H281" s="113"/>
-      <c r="I281" s="112" t="s">
+      <c r="D281" s="117"/>
+      <c r="E281" s="117"/>
+      <c r="F281" s="117"/>
+      <c r="G281" s="117"/>
+      <c r="H281" s="117"/>
+      <c r="I281" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A282" s="112"/>
-      <c r="B282" s="112"/>
-      <c r="C282" s="113" t="str">
+      <c r="A282" s="116"/>
+      <c r="B282" s="116"/>
+      <c r="C282" s="117" t="str">
         <f>VLOOKUP(C281,table!B:D,2,FALSE)</f>
         <v>T_GROUP</v>
       </c>
-      <c r="D282" s="113"/>
-      <c r="E282" s="113"/>
-      <c r="F282" s="113"/>
-      <c r="G282" s="113"/>
-      <c r="H282" s="113"/>
-      <c r="I282" s="112"/>
+      <c r="D282" s="117"/>
+      <c r="E282" s="117"/>
+      <c r="F282" s="117"/>
+      <c r="G282" s="117"/>
+      <c r="H282" s="117"/>
+      <c r="I282" s="116"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A283" s="112" t="s">
+      <c r="A283" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B283" s="8" t="s">
@@ -34581,7 +36650,7 @@
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A284" s="112"/>
+      <c r="A284" s="116"/>
       <c r="B284" s="8" t="s">
         <v>79</v>
       </c>
@@ -34879,22 +36948,22 @@
       <c r="AC294"/>
     </row>
     <row r="295" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="112" t="str">
+      <c r="A295" s="116" t="str">
         <f>VLOOKUP(C295,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B295" s="112"/>
-      <c r="C295" s="113" t="s">
+      <c r="B295" s="116"/>
+      <c r="C295" s="117" t="s">
         <v>961</v>
       </c>
-      <c r="D295" s="113"/>
-      <c r="E295" s="113"/>
-      <c r="F295" s="113"/>
-      <c r="G295" s="113"/>
-      <c r="H295" s="113"/>
-      <c r="I295" s="113"/>
-      <c r="J295" s="113"/>
-      <c r="K295" s="112" t="s">
+      <c r="D295" s="117"/>
+      <c r="E295" s="117"/>
+      <c r="F295" s="117"/>
+      <c r="G295" s="117"/>
+      <c r="H295" s="117"/>
+      <c r="I295" s="117"/>
+      <c r="J295" s="117"/>
+      <c r="K295" s="116" t="s">
         <v>156</v>
       </c>
       <c r="L295"/>
@@ -34916,20 +36985,20 @@
       <c r="AC295"/>
     </row>
     <row r="296" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="112"/>
-      <c r="B296" s="112"/>
-      <c r="C296" s="113" t="str">
+      <c r="A296" s="116"/>
+      <c r="B296" s="116"/>
+      <c r="C296" s="117" t="str">
         <f>VLOOKUP(C295,table!B:D,2,FALSE)</f>
         <v>T_GROUP_AUTH</v>
       </c>
-      <c r="D296" s="113"/>
-      <c r="E296" s="113"/>
-      <c r="F296" s="113"/>
-      <c r="G296" s="113"/>
-      <c r="H296" s="113"/>
-      <c r="I296" s="113"/>
-      <c r="J296" s="113"/>
-      <c r="K296" s="112"/>
+      <c r="D296" s="117"/>
+      <c r="E296" s="117"/>
+      <c r="F296" s="117"/>
+      <c r="G296" s="117"/>
+      <c r="H296" s="117"/>
+      <c r="I296" s="117"/>
+      <c r="J296" s="117"/>
+      <c r="K296" s="116"/>
       <c r="L296"/>
       <c r="N296"/>
       <c r="O296"/>
@@ -34949,7 +37018,7 @@
       <c r="AC296"/>
     </row>
     <row r="297" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="112" t="s">
+      <c r="A297" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B297" s="8" t="s">
@@ -35005,7 +37074,7 @@
       <c r="AD297"/>
     </row>
     <row r="298" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="112"/>
+      <c r="A298" s="116"/>
       <c r="B298" s="8" t="s">
         <v>46</v>
       </c>
@@ -35316,27 +37385,27 @@
       <c r="AC304"/>
     </row>
     <row r="305" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="112" t="str">
+      <c r="A305" s="116" t="str">
         <f>VLOOKUP(C305,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B305" s="112"/>
-      <c r="C305" s="113" t="s">
+      <c r="B305" s="116"/>
+      <c r="C305" s="117" t="s">
         <v>984</v>
       </c>
-      <c r="D305" s="113"/>
-      <c r="E305" s="113"/>
-      <c r="F305" s="113"/>
-      <c r="G305" s="113"/>
-      <c r="H305" s="113"/>
-      <c r="I305" s="113"/>
-      <c r="J305" s="113"/>
-      <c r="K305" s="113"/>
-      <c r="L305" s="113"/>
-      <c r="M305" s="113"/>
-      <c r="N305" s="113"/>
-      <c r="O305" s="113"/>
-      <c r="P305" s="112" t="s">
+      <c r="D305" s="117"/>
+      <c r="E305" s="117"/>
+      <c r="F305" s="117"/>
+      <c r="G305" s="117"/>
+      <c r="H305" s="117"/>
+      <c r="I305" s="117"/>
+      <c r="J305" s="117"/>
+      <c r="K305" s="117"/>
+      <c r="L305" s="117"/>
+      <c r="M305" s="117"/>
+      <c r="N305" s="117"/>
+      <c r="O305" s="117"/>
+      <c r="P305" s="116" t="s">
         <v>156</v>
       </c>
       <c r="Q305" t="s">
@@ -35356,25 +37425,25 @@
       <c r="AC305"/>
     </row>
     <row r="306" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="112"/>
-      <c r="B306" s="112"/>
-      <c r="C306" s="113" t="str">
+      <c r="A306" s="116"/>
+      <c r="B306" s="116"/>
+      <c r="C306" s="117" t="str">
         <f>VLOOKUP(C305,table!B:D,2,FALSE)</f>
         <v>T_GROUP_MENU</v>
       </c>
-      <c r="D306" s="113"/>
-      <c r="E306" s="113"/>
-      <c r="F306" s="113"/>
-      <c r="G306" s="113"/>
-      <c r="H306" s="113"/>
-      <c r="I306" s="113"/>
-      <c r="J306" s="113"/>
-      <c r="K306" s="113"/>
-      <c r="L306" s="113"/>
-      <c r="M306" s="113"/>
-      <c r="N306" s="113"/>
+      <c r="D306" s="117"/>
+      <c r="E306" s="117"/>
+      <c r="F306" s="117"/>
+      <c r="G306" s="117"/>
+      <c r="H306" s="117"/>
+      <c r="I306" s="117"/>
+      <c r="J306" s="117"/>
+      <c r="K306" s="117"/>
+      <c r="L306" s="117"/>
+      <c r="M306" s="117"/>
+      <c r="N306" s="117"/>
       <c r="O306" s="2"/>
-      <c r="P306" s="112"/>
+      <c r="P306" s="116"/>
       <c r="Q306" t="s">
         <v>768</v>
       </c>
@@ -35392,7 +37461,7 @@
       <c r="AC306"/>
     </row>
     <row r="307" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="112" t="s">
+      <c r="A307" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B307" s="8" t="s">
@@ -35456,7 +37525,7 @@
       <c r="AC307"/>
     </row>
     <row r="308" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="112"/>
+      <c r="A308" s="116"/>
       <c r="B308" s="8" t="s">
         <v>13</v>
       </c>
@@ -36963,41 +39032,41 @@
       <c r="O338" s="10"/>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A341" s="112" t="e">
+      <c r="A341" s="116" t="e">
         <f>VLOOKUP(C341,table!B:D,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B341" s="112"/>
-      <c r="C341" s="113" t="s">
+      <c r="B341" s="116"/>
+      <c r="C341" s="117" t="s">
         <v>985</v>
       </c>
-      <c r="D341" s="113"/>
-      <c r="E341" s="113"/>
-      <c r="F341" s="113"/>
-      <c r="G341" s="113"/>
-      <c r="H341" s="113"/>
-      <c r="I341" s="113"/>
-      <c r="J341" s="112" t="s">
+      <c r="D341" s="117"/>
+      <c r="E341" s="117"/>
+      <c r="F341" s="117"/>
+      <c r="G341" s="117"/>
+      <c r="H341" s="117"/>
+      <c r="I341" s="117"/>
+      <c r="J341" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A342" s="112"/>
-      <c r="B342" s="112"/>
-      <c r="C342" s="113" t="e">
+      <c r="A342" s="116"/>
+      <c r="B342" s="116"/>
+      <c r="C342" s="117" t="e">
         <f>VLOOKUP(C341,table!B:D,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D342" s="113"/>
-      <c r="E342" s="113"/>
-      <c r="F342" s="113"/>
-      <c r="G342" s="113"/>
-      <c r="H342" s="113"/>
-      <c r="I342" s="113"/>
-      <c r="J342" s="112"/>
+      <c r="D342" s="117"/>
+      <c r="E342" s="117"/>
+      <c r="F342" s="117"/>
+      <c r="G342" s="117"/>
+      <c r="H342" s="117"/>
+      <c r="I342" s="117"/>
+      <c r="J342" s="116"/>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A343" s="112" t="s">
+      <c r="A343" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B343" s="8" t="s">
@@ -37030,7 +39099,7 @@
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A344" s="112"/>
+      <c r="A344" s="116"/>
       <c r="B344" s="8" t="s">
         <v>46</v>
       </c>
@@ -38233,32 +40302,42 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="P246:P247"/>
-    <mergeCell ref="M260:M261"/>
-    <mergeCell ref="C261:L261"/>
-    <mergeCell ref="C260:L260"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="C246:O246"/>
-    <mergeCell ref="C247:O247"/>
-    <mergeCell ref="C182:M182"/>
-    <mergeCell ref="C181:M181"/>
-    <mergeCell ref="A180:M180"/>
-    <mergeCell ref="N181:N182"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A181:B182"/>
-    <mergeCell ref="P305:P306"/>
-    <mergeCell ref="C305:O305"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="C341:I341"/>
-    <mergeCell ref="J341:J342"/>
-    <mergeCell ref="C306:N306"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C295:J295"/>
+    <mergeCell ref="C162:I162"/>
+    <mergeCell ref="C172:I172"/>
+    <mergeCell ref="C171:I171"/>
+    <mergeCell ref="A191:AC191"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:AB192"/>
+    <mergeCell ref="AC192:AC193"/>
+    <mergeCell ref="C193:AB193"/>
+    <mergeCell ref="M270:M271"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A305:B306"/>
+    <mergeCell ref="C296:J296"/>
+    <mergeCell ref="C282:H282"/>
+    <mergeCell ref="C271:L271"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="A295:B296"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A281:B282"/>
+    <mergeCell ref="C281:H281"/>
+    <mergeCell ref="A270:B271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="C270:L270"/>
+    <mergeCell ref="K295:K296"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="A341:B342"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="A162:B163"/>
+    <mergeCell ref="A171:B172"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="A194:A195"/>
     <mergeCell ref="L58:L59"/>
     <mergeCell ref="C145:J145"/>
     <mergeCell ref="C144:J144"/>
@@ -38275,42 +40354,32 @@
     <mergeCell ref="A173:A174"/>
     <mergeCell ref="J162:J163"/>
     <mergeCell ref="C163:I163"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="A341:B342"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="A144:B145"/>
-    <mergeCell ref="A162:B163"/>
-    <mergeCell ref="A171:B172"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="M270:M271"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A305:B306"/>
-    <mergeCell ref="C296:J296"/>
-    <mergeCell ref="C282:H282"/>
-    <mergeCell ref="C162:I162"/>
-    <mergeCell ref="C172:I172"/>
-    <mergeCell ref="C171:I171"/>
-    <mergeCell ref="A191:AC191"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:AB192"/>
-    <mergeCell ref="AC192:AC193"/>
-    <mergeCell ref="C193:AB193"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="C271:L271"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="A295:B296"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A281:B282"/>
-    <mergeCell ref="C281:H281"/>
-    <mergeCell ref="A270:B271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="C270:L270"/>
-    <mergeCell ref="K295:K296"/>
-    <mergeCell ref="I281:I282"/>
-    <mergeCell ref="C295:J295"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="P305:P306"/>
+    <mergeCell ref="C305:O305"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="C341:I341"/>
+    <mergeCell ref="J341:J342"/>
+    <mergeCell ref="C306:N306"/>
+    <mergeCell ref="P246:P247"/>
+    <mergeCell ref="M260:M261"/>
+    <mergeCell ref="C261:L261"/>
+    <mergeCell ref="C260:L260"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="C246:O246"/>
+    <mergeCell ref="C247:O247"/>
+    <mergeCell ref="C182:M182"/>
+    <mergeCell ref="C181:M181"/>
+    <mergeCell ref="A180:M180"/>
+    <mergeCell ref="N181:N182"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A181:B182"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubProject/script/table.xlsx
+++ b/SubProject/script/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinMin-Jang\git\SubProjsct\SubProject\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29F8C2-6B43-490C-AE83-A563670257C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A74E3-D5FA-4708-BECF-837395221294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="1204">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4243,14 +4243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_SUBCONTRACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장 코드 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포장 질문 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4259,18 +4251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN_COMPANY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품 질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4279,14 +4259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업체 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품 질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4355,19 +4327,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUBCONTRACT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBCONTRACT_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBCONTRACT_DSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBCONTRACT_CODE</t>
+    <t>업체 코드 관리</t>
+  </si>
+  <si>
+    <t>T_SUPPLIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPLIER_ID</t>
+  </si>
+  <si>
+    <t>SUPPLIER_NM</t>
+  </si>
+  <si>
+    <t>SUPPLIER_DSC</t>
+  </si>
+  <si>
+    <t>SUPPLIER_CODE</t>
+  </si>
+  <si>
+    <t>SUPPLIER_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 사업자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급 업체 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 코드 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP_COMPANY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급 업체 담당자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SUPPLIER_MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 직위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_PSTN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4643,7 +4694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4944,6 +4995,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4957,6 +5020,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4977,25 +5052,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5005,21 +5083,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6210,10 +6273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6229,38 +6292,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="104" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="100"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="100"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="104"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
@@ -6891,7 +6954,9 @@
       <c r="E25" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="F25" s="51"/>
+      <c r="F25" s="51" t="s">
+        <v>1</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="41" t="str">
         <f>"|||-- "&amp;D25&amp;" "&amp;B25&amp;"|DROP TABLE IF EXISTS "&amp;C25&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C25&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B25&amp;IF(E25="","","["&amp;E25&amp;"]")&amp;"';|ALTER TABLE "&amp;C25&amp;" ADD CONSTRAINT "&amp;C25&amp;"_PK PRIMARY KEY("&amp;index!$I34&amp;");|-- CREATE INDEX "&amp;C25&amp;"_IX1 ON "&amp;C25&amp;"("&amp;index!$I34&amp;");"</f>
@@ -6961,124 +7026,140 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1163</v>
+        <v>1187</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1158</v>
+        <v>1180</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>546</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1163</v>
+        <v>1187</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="2"/>
       <c r="H28" s="41" t="str">
         <f>"|||-- "&amp;D28&amp;" "&amp;B28&amp;"|DROP TABLE IF EXISTS "&amp;C28&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C28&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B28&amp;IF(E28="","","["&amp;E28&amp;"]")&amp;"';|ALTER TABLE "&amp;C28&amp;" ADD CONSTRAINT "&amp;C28&amp;"_PK PRIMARY KEY("&amp;index!$I36&amp;");|-- CREATE INDEX "&amp;C28&amp;"_IX1 ON "&amp;C28&amp;"("&amp;index!$I36&amp;");"</f>
-        <v>|||-- 관리자 업체 관리|DROP TABLE IF EXISTS T_SUBCONTRACT CASCADE;|CREATE TABLE IF NOT EXISTS T_SUBCONTRACT (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '업체 관리[업체 관리]';|ALTER TABLE T_SUBCONTRACT ADD CONSTRAINT T_SUBCONTRACT_PK PRIMARY KEY(SUBCONTRACT_ID);|-- CREATE INDEX T_SUBCONTRACT_IX1 ON T_SUBCONTRACT(SUBCONTRACT_ID);</v>
+        <v>|||-- 관리자 공급 업체 관리|DROP TABLE IF EXISTS T_SUPPLIER CASCADE;|CREATE TABLE IF NOT EXISTS T_SUPPLIER (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '공급 업체 관리[공급 업체 관리]';|ALTER TABLE T_SUPPLIER ADD CONSTRAINT T_SUPPLIER_PK PRIMARY KEY(SUPPLIER_ID);|-- CREATE INDEX T_SUPPLIER_IX1 ON T_SUPPLIER(SUPPLIER_ID);</v>
       </c>
       <c r="I28" s="41" t="str">
         <f>"|||-- "&amp;D28&amp;"    "&amp;B28&amp;"|TRUNCATE TABLE "&amp;C28&amp;";"</f>
-        <v>|||-- 관리자    업체 관리|TRUNCATE TABLE T_SUBCONTRACT;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>|||-- 관리자    공급 업체 관리|TRUNCATE TABLE T_SUPPLIER;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1164</v>
+        <v>1191</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1156</v>
+        <v>1192</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>304</v>
+        <v>546</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1159</v>
+        <v>1191</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="2"/>
       <c r="H29" s="41" t="str">
         <f>"|||-- "&amp;D29&amp;" "&amp;B29&amp;"|DROP TABLE IF EXISTS "&amp;C29&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C29&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B29&amp;IF(E29="","","["&amp;E29&amp;"]")&amp;"';|ALTER TABLE "&amp;C29&amp;" ADD CONSTRAINT "&amp;C29&amp;"_PK PRIMARY KEY("&amp;index!$I37&amp;");|-- CREATE INDEX "&amp;C29&amp;"_IX1 ON "&amp;C29&amp;"("&amp;index!$I37&amp;");"</f>
-        <v>|||-- 공통 제품 코드|DROP TABLE IF EXISTS T_PACKAGING_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_CODE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 코드[포장 코드 관리]';|ALTER TABLE T_PACKAGING_CODE ADD CONSTRAINT T_PACKAGING_CODE_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_CODE_IX1 ON T_PACKAGING_CODE(PACKAGING_ID);</v>
+        <v>|||-- 관리자 공급 업체 담당자 관리|DROP TABLE IF EXISTS T_SUPPLIER_MANAGER CASCADE;|CREATE TABLE IF NOT EXISTS T_SUPPLIER_MANAGER (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '공급 업체 담당자 관리[공급 업체 담당자 관리]';|ALTER TABLE T_SUPPLIER_MANAGER ADD CONSTRAINT T_SUPPLIER_MANAGER_PK PRIMARY KEY(MANAGER_ID);|-- CREATE INDEX T_SUPPLIER_MANAGER_IX1 ON T_SUPPLIER_MANAGER(MANAGER_ID);</v>
       </c>
       <c r="I29" s="41" t="str">
         <f>"|||-- "&amp;D29&amp;"    "&amp;B29&amp;"|TRUNCATE TABLE "&amp;C29&amp;";"</f>
-        <v>|||-- 공통    제품 코드|TRUNCATE TABLE T_PACKAGING_CODE;</v>
+        <v>|||-- 관리자    공급 업체 담당자 관리|TRUNCATE TABLE T_SUPPLIER_MANAGER;</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1165</v>
+        <v>1188</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>304</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1160</v>
+        <v>1188</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="2"/>
       <c r="H30" s="41" t="str">
         <f>"|||-- "&amp;D30&amp;" "&amp;B30&amp;"|DROP TABLE IF EXISTS "&amp;C30&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C30&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B30&amp;IF(E30="","","["&amp;E30&amp;"]")&amp;"';|ALTER TABLE "&amp;C30&amp;" ADD CONSTRAINT "&amp;C30&amp;"_PK PRIMARY KEY("&amp;index!$I38&amp;");|-- CREATE INDEX "&amp;C30&amp;"_IX1 ON "&amp;C30&amp;"("&amp;index!$I38&amp;");"</f>
-        <v>|||-- 공통 제품 질문|DROP TABLE IF EXISTS T_PACKAGING_QUESTION CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_QUESTION (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 질문[포장 질문 관리]';|ALTER TABLE T_PACKAGING_QUESTION ADD CONSTRAINT T_PACKAGING_QUESTION_PK PRIMARY KEY(QUESTION_ID);|-- CREATE INDEX T_PACKAGING_QUESTION_IX1 ON T_PACKAGING_QUESTION(QUESTION_ID);</v>
+        <v>|||-- 공통 제품 코드 관리|DROP TABLE IF EXISTS T_PACKAGING_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_CODE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 코드 관리[제품 코드 관리]';|ALTER TABLE T_PACKAGING_CODE ADD CONSTRAINT T_PACKAGING_CODE_PK PRIMARY KEY(CODE_ID);|-- CREATE INDEX T_PACKAGING_CODE_IX1 ON T_PACKAGING_CODE(CODE_ID);</v>
       </c>
       <c r="I30" s="41" t="str">
         <f>"|||-- "&amp;D30&amp;"    "&amp;B30&amp;"|TRUNCATE TABLE "&amp;C30&amp;";"</f>
-        <v>|||-- 공통    제품 질문|TRUNCATE TABLE T_PACKAGING_QUESTION;</v>
+        <v>|||-- 공통    제품 코드 관리|TRUNCATE TABLE T_PACKAGING_CODE;</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>304</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="2"/>
       <c r="H31" s="41" t="str">
         <f>"|||-- "&amp;D31&amp;" "&amp;B31&amp;"|DROP TABLE IF EXISTS "&amp;C31&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C31&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B31&amp;IF(E31="","","["&amp;E31&amp;"]")&amp;"';|ALTER TABLE "&amp;C31&amp;" ADD CONSTRAINT "&amp;C31&amp;"_PK PRIMARY KEY("&amp;index!$I39&amp;");|-- CREATE INDEX "&amp;C31&amp;"_IX1 ON "&amp;C31&amp;"("&amp;index!$I39&amp;");"</f>
-        <v>|||-- 공통 제품 관리|DROP TABLE IF EXISTS T_PACKAGING CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 관리[제품 관리]';|ALTER TABLE T_PACKAGING ADD CONSTRAINT T_PACKAGING_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_IX1 ON T_PACKAGING(PACKAGING_ID);</v>
+        <v>|||-- 공통 제품 질문|DROP TABLE IF EXISTS T_PACKAGING_QUESTION CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_QUESTION (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 질문[포장 질문 관리]';|ALTER TABLE T_PACKAGING_QUESTION ADD CONSTRAINT T_PACKAGING_QUESTION_PK PRIMARY KEY(QUESTION_ID);|-- CREATE INDEX T_PACKAGING_QUESTION_IX1 ON T_PACKAGING_QUESTION(QUESTION_ID);</v>
       </c>
       <c r="I31" s="41" t="str">
         <f>"|||-- "&amp;D31&amp;"    "&amp;B31&amp;"|TRUNCATE TABLE "&amp;C31&amp;";"</f>
-        <v>|||-- 공통    제품 관리|TRUNCATE TABLE T_PACKAGING;</v>
+        <v>|||-- 공통    제품 질문|TRUNCATE TABLE T_PACKAGING_QUESTION;</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="51">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1161</v>
+      </c>
       <c r="F32" s="51"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="H32" s="41" t="str">
+        <f>"|||-- "&amp;D32&amp;" "&amp;B32&amp;"|DROP TABLE IF EXISTS "&amp;C32&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C32&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B32&amp;IF(E32="","","["&amp;E32&amp;"]")&amp;"';|ALTER TABLE "&amp;C32&amp;" ADD CONSTRAINT "&amp;C32&amp;"_PK PRIMARY KEY("&amp;index!$I40&amp;");|-- CREATE INDEX "&amp;C32&amp;"_IX1 ON "&amp;C32&amp;"("&amp;index!$I40&amp;");"</f>
+        <v>|||-- 공통 제품 관리|DROP TABLE IF EXISTS T_PACKAGING CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 관리[제품 관리]';|ALTER TABLE T_PACKAGING ADD CONSTRAINT T_PACKAGING_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_IX1 ON T_PACKAGING(PACKAGING_ID);</v>
+      </c>
+      <c r="I32" s="41" t="str">
+        <f>"|||-- "&amp;D32&amp;"    "&amp;B32&amp;"|TRUNCATE TABLE "&amp;C32&amp;";"</f>
+        <v>|||-- 공통    제품 관리|TRUNCATE TABLE T_PACKAGING;</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
+      <c r="A33" s="51">
+        <v>30</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="51"/>
@@ -7087,6 +7168,17 @@
       <c r="G33" s="2"/>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7105,13 +7197,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z363"/>
+  <dimension ref="A1:Z376"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F321" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="I335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F326" sqref="F326"/>
+      <selection pane="bottomRight" activeCell="K341" sqref="K341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7133,64 +7225,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="104" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="100"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -19407,11 +19499,11 @@
         <v>4</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="G291" s="6" t="str">
         <f>VLOOKUP($F291,domain!$B:$D,2,FALSE)</f>
-        <v>COMPANY_ID</v>
+        <v>COMPANY_CODE</v>
       </c>
       <c r="H291" s="6" t="str">
         <f>VLOOKUP($F291,domain!$B:$D,3,FALSE)</f>
@@ -19426,7 +19518,7 @@
       <c r="M291" s="2"/>
       <c r="N291" s="41" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , COMPANY_ID VARCHAR(16) NOT NULL COMMENT '회사 ID'</v>
+        <v xml:space="preserve">  , COMPANY_CODE VARCHAR(16) NOT NULL COMMENT '회사 코드'</v>
       </c>
     </row>
     <row r="292" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -19459,7 +19551,7 @@
         <v>VARCHAR(64)</v>
       </c>
       <c r="I292" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
@@ -19467,7 +19559,7 @@
       <c r="M292" s="2"/>
       <c r="N292" s="41" t="str">
         <f t="shared" ref="N292" si="8">IF(E292=1,"    ","  , ")&amp;G292&amp;" "&amp;H292&amp;IF(J292="",""," "&amp;J292)&amp;IF(I292="N"," NOT NULL","")&amp;" COMMENT '"&amp;F292&amp;IF(L292="",""," "&amp;L292)&amp;"'"</f>
-        <v xml:space="preserve">  , GROUP_ID VARCHAR(64) NOT NULL COMMENT '그룹 ID'</v>
+        <v xml:space="preserve">  , GROUP_ID VARCHAR(64) COMMENT '그룹 ID'</v>
       </c>
     </row>
     <row r="293" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -19541,7 +19633,7 @@
         <v>VARCHAR(16)</v>
       </c>
       <c r="I294" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
@@ -19549,7 +19641,7 @@
       <c r="M294" s="2"/>
       <c r="N294" s="41" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , REPORT_SIZE VARCHAR(16) NOT NULL COMMENT '레포트 사이즈'</v>
+        <v xml:space="preserve">  , REPORT_SIZE VARCHAR(16) COMMENT '레포트 사이즈'</v>
       </c>
     </row>
     <row r="295" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -19625,7 +19717,7 @@
       <c r="I296" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="J296" s="61" t="s">
+      <c r="J296" s="2" t="s">
         <v>766</v>
       </c>
       <c r="K296" s="15"/>
@@ -19995,13 +20087,15 @@
       <c r="I305" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="J305" s="61"/>
+      <c r="J305" s="61" t="s">
+        <v>212</v>
+      </c>
       <c r="K305" s="90"/>
       <c r="L305" s="61"/>
       <c r="M305" s="61"/>
       <c r="N305" s="69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , RESET_CNT NUMERIC(9,0) NOT NULL COMMENT '카운트'</v>
+        <v xml:space="preserve">  , RESET_CNT NUMERIC(9,0) DEFAULT 0 NOT NULL COMMENT '카운트'</v>
       </c>
     </row>
     <row r="306" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20532,7 +20626,7 @@
       <c r="I318" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J318" s="61" t="s">
+      <c r="J318" s="2" t="s">
         <v>153</v>
       </c>
       <c r="K318" s="2"/>
@@ -20716,21 +20810,21 @@
         <v>관리자</v>
       </c>
       <c r="C323" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D323" s="94" t="str">
         <f>VLOOKUP($C323,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E323" s="99">
         <v>1</v>
       </c>
       <c r="F323" s="76" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="G323" s="61" t="str">
         <f>VLOOKUP($F323,domain!$B:$D,2,FALSE)</f>
-        <v>SUBCONTRACT_ID</v>
+        <v>SUPPLIER_ID</v>
       </c>
       <c r="H323" s="61" t="str">
         <f>VLOOKUP($F323,domain!$B:$D,3,FALSE)</f>
@@ -20747,7 +20841,7 @@
       <c r="M323" s="61"/>
       <c r="N323" s="69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    SUBCONTRACT_ID VARCHAR(16) NOT NULL COMMENT '업체 ID'</v>
+        <v xml:space="preserve">    SUPPLIER_ID VARCHAR(16) NOT NULL COMMENT '업체 ID'</v>
       </c>
     </row>
     <row r="324" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20759,21 +20853,21 @@
         <v>관리자</v>
       </c>
       <c r="C324" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D324" s="94" t="str">
         <f>VLOOKUP($C324,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E324" s="99">
         <v>2</v>
       </c>
       <c r="F324" s="76" t="s">
-        <v>995</v>
+        <v>1159</v>
       </c>
       <c r="G324" s="61" t="str">
         <f>VLOOKUP($F324,domain!$B:$D,2,FALSE)</f>
-        <v>COMPANY_ID</v>
+        <v>UP_COMPANY_CODE</v>
       </c>
       <c r="H324" s="61" t="str">
         <f>VLOOKUP($F324,domain!$B:$D,3,FALSE)</f>
@@ -20784,13 +20878,13 @@
       </c>
       <c r="J324" s="61"/>
       <c r="K324" s="99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L324" s="61"/>
       <c r="M324" s="61"/>
       <c r="N324" s="69" t="str">
         <f t="shared" ref="N324" si="11">IF(E324=1,"    ","  , ")&amp;G324&amp;" "&amp;H324&amp;IF(J324="",""," "&amp;J324)&amp;IF(I324="N"," NOT NULL","")&amp;" COMMENT '"&amp;F324&amp;IF(L324="",""," "&amp;L324)&amp;"'"</f>
-        <v xml:space="preserve">  , COMPANY_ID VARCHAR(16) NOT NULL COMMENT '회사 ID'</v>
+        <v xml:space="preserve">  , UP_COMPANY_CODE VARCHAR(16) NOT NULL COMMENT '소속 회사 코드'</v>
       </c>
     </row>
     <row r="325" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20802,21 +20896,21 @@
         <v>관리자</v>
       </c>
       <c r="C325" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D325" s="94" t="str">
         <f>VLOOKUP($C325,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E325" s="99">
         <v>3</v>
       </c>
       <c r="F325" s="76" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="G325" s="61" t="str">
         <f>VLOOKUP($F325,domain!$B:$D,2,FALSE)</f>
-        <v>SUBCONTRACT_CODE</v>
+        <v>SUPPLIER_CODE</v>
       </c>
       <c r="H325" s="61" t="str">
         <f>VLOOKUP($F325,domain!$B:$D,3,FALSE)</f>
@@ -20826,14 +20920,12 @@
         <v>173</v>
       </c>
       <c r="J325" s="61"/>
-      <c r="K325" s="99">
-        <v>1</v>
-      </c>
+      <c r="K325" s="99"/>
       <c r="L325" s="61"/>
       <c r="M325" s="61"/>
       <c r="N325" s="69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , SUBCONTRACT_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드'</v>
+        <v xml:space="preserve">  , SUPPLIER_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드'</v>
       </c>
     </row>
     <row r="326" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20845,21 +20937,21 @@
         <v>관리자</v>
       </c>
       <c r="C326" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D326" s="94" t="str">
         <f>VLOOKUP($C326,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E326" s="99">
         <v>4</v>
       </c>
       <c r="F326" s="76" t="s">
-        <v>989</v>
+        <v>1186</v>
       </c>
       <c r="G326" s="61" t="str">
         <f>VLOOKUP($F326,domain!$B:$D,2,FALSE)</f>
-        <v>COMPANY_NO</v>
+        <v>SUPPLIER_NO</v>
       </c>
       <c r="H326" s="61" t="str">
         <f>VLOOKUP($F326,domain!$B:$D,3,FALSE)</f>
@@ -20869,14 +20961,12 @@
         <v>173</v>
       </c>
       <c r="J326" s="61"/>
-      <c r="K326" s="99">
-        <v>2</v>
-      </c>
+      <c r="K326" s="99"/>
       <c r="L326" s="61"/>
       <c r="M326" s="61"/>
       <c r="N326" s="69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , COMPANY_NO VARCHAR(16) NOT NULL COMMENT '사업자번호'</v>
+        <v xml:space="preserve">  , SUPPLIER_NO VARCHAR(16) NOT NULL COMMENT '업체 사업자번호'</v>
       </c>
     </row>
     <row r="327" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20888,21 +20978,21 @@
         <v>관리자</v>
       </c>
       <c r="C327" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D327" s="94" t="str">
         <f>VLOOKUP($C327,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E327" s="99">
         <v>5</v>
       </c>
       <c r="F327" s="76" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="G327" s="61" t="str">
         <f>VLOOKUP($F327,domain!$B:$D,2,FALSE)</f>
-        <v>SUBCONTRACT_NM</v>
+        <v>SUPPLIER_NM</v>
       </c>
       <c r="H327" s="61" t="str">
         <f>VLOOKUP($F327,domain!$B:$D,3,FALSE)</f>
@@ -20917,7 +21007,7 @@
       <c r="M327" s="61"/>
       <c r="N327" s="69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , SUBCONTRACT_NM VARCHAR(256) NOT NULL COMMENT '업체 명'</v>
+        <v xml:space="preserve">  , SUPPLIER_NM VARCHAR(256) NOT NULL COMMENT '업체 명'</v>
       </c>
     </row>
     <row r="328" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20929,21 +21019,21 @@
         <v>관리자</v>
       </c>
       <c r="C328" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D328" s="94" t="str">
         <f>VLOOKUP($C328,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E328" s="99">
         <v>6</v>
       </c>
       <c r="F328" s="76" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G328" s="61" t="str">
         <f>VLOOKUP($F328,domain!$B:$D,2,FALSE)</f>
-        <v>SUBCONTRACT_DSC</v>
+        <v>SUPPLIER_DSC</v>
       </c>
       <c r="H328" s="61" t="str">
         <f>VLOOKUP($F328,domain!$B:$D,3,FALSE)</f>
@@ -20958,7 +21048,7 @@
       <c r="M328" s="61"/>
       <c r="N328" s="69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  , SUBCONTRACT_DSC VARCHAR(4000) COMMENT '업체 설명'</v>
+        <v xml:space="preserve">  , SUPPLIER_DSC VARCHAR(4000) COMMENT '업체 설명'</v>
       </c>
     </row>
     <row r="329" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -20970,11 +21060,11 @@
         <v>관리자</v>
       </c>
       <c r="C329" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D329" s="94" t="str">
         <f>VLOOKUP($C329,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E329" s="99">
         <v>7</v>
@@ -21011,11 +21101,11 @@
         <v>관리자</v>
       </c>
       <c r="C330" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D330" s="94" t="str">
         <f>VLOOKUP($C330,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E330" s="99">
         <v>8</v>
@@ -21052,11 +21142,11 @@
         <v>관리자</v>
       </c>
       <c r="C331" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D331" s="94" t="str">
         <f>VLOOKUP($C331,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E331" s="99">
         <v>9</v>
@@ -21093,11 +21183,11 @@
         <v>관리자</v>
       </c>
       <c r="C332" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D332" s="94" t="str">
         <f>VLOOKUP($C332,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E332" s="99">
         <v>10</v>
@@ -21134,11 +21224,11 @@
         <v>관리자</v>
       </c>
       <c r="C333" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D333" s="94" t="str">
         <f>VLOOKUP($C333,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E333" s="99">
         <v>11</v>
@@ -21177,11 +21267,11 @@
         <v>관리자</v>
       </c>
       <c r="C334" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D334" s="94" t="str">
         <f>VLOOKUP($C334,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E334" s="99">
         <v>12</v>
@@ -21218,11 +21308,11 @@
         <v>관리자</v>
       </c>
       <c r="C335" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D335" s="94" t="str">
         <f>VLOOKUP($C335,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E335" s="99">
         <v>13</v>
@@ -21259,11 +21349,11 @@
         <v>관리자</v>
       </c>
       <c r="C336" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D336" s="94" t="str">
         <f>VLOOKUP($C336,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E336" s="99">
         <v>14</v>
@@ -21300,11 +21390,11 @@
         <v>관리자</v>
       </c>
       <c r="C337" s="61" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D337" s="94" t="str">
         <f>VLOOKUP($C337,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E337" s="99">
         <v>15</v>
@@ -21328,7 +21418,7 @@
       <c r="L337" s="61"/>
       <c r="M337" s="61"/>
       <c r="N337" s="69" t="str">
-        <f t="shared" ref="N337:N338" si="12">IF(E337=1,"    ","  , ")&amp;G337&amp;" "&amp;H337&amp;IF(J337="",""," "&amp;J337)&amp;IF(I337="N"," NOT NULL","")&amp;" COMMENT '"&amp;F337&amp;IF(L337="",""," "&amp;L337)&amp;"'"</f>
+        <f t="shared" ref="N337:N351" si="12">IF(E337=1,"    ","  , ")&amp;G337&amp;" "&amp;H337&amp;IF(J337="",""," "&amp;J337)&amp;IF(I337="N"," NOT NULL","")&amp;" COMMENT '"&amp;F337&amp;IF(L337="",""," "&amp;L337)&amp;"'"</f>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
@@ -21338,28 +21428,28 @@
       </c>
       <c r="B338" s="15" t="str">
         <f>VLOOKUP($C338,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D338" s="47" t="str">
         <f>VLOOKUP($C338,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E338" s="51">
         <v>1</v>
       </c>
       <c r="F338" s="77" t="s">
-        <v>53</v>
+        <v>1193</v>
       </c>
       <c r="G338" s="6" t="str">
         <f>VLOOKUP($F338,domain!$B:$D,2,FALSE)</f>
-        <v>GROUP_ID</v>
+        <v>MANAGER_ID</v>
       </c>
       <c r="H338" s="6" t="str">
         <f>VLOOKUP($F338,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(64)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I338" s="15" t="s">
         <v>173</v>
@@ -21369,8 +21459,8 @@
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="41" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    GROUP_ID VARCHAR(64) NOT NULL COMMENT '그룹 ID'</v>
+        <f t="shared" ref="N338:N349" si="13">IF(E338=1,"    ","  , ")&amp;G338&amp;" "&amp;H338&amp;IF(J338="",""," "&amp;J338)&amp;IF(I338="N"," NOT NULL","")&amp;" COMMENT '"&amp;F338&amp;IF(L338="",""," "&amp;L338)&amp;"'"</f>
+        <v xml:space="preserve">    MANAGER_ID VARCHAR(16) NOT NULL COMMENT '담당자 ID'</v>
       </c>
     </row>
     <row r="339" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21379,28 +21469,28 @@
       </c>
       <c r="B339" s="15" t="str">
         <f>VLOOKUP($C339,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D339" s="47" t="str">
         <f>VLOOKUP($C339,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E339" s="51">
         <v>2</v>
       </c>
       <c r="F339" s="77" t="s">
-        <v>103</v>
+        <v>1176</v>
       </c>
       <c r="G339" s="6" t="str">
         <f>VLOOKUP($F339,domain!$B:$D,2,FALSE)</f>
-        <v>CODE_ID</v>
+        <v>SUPPLIER_CODE</v>
       </c>
       <c r="H339" s="6" t="str">
         <f>VLOOKUP($F339,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(64)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I339" s="15" t="s">
         <v>173</v>
@@ -21410,8 +21500,8 @@
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="41" t="str">
-        <f t="shared" ref="N339:N349" si="13">IF(E339=1,"    ","  , ")&amp;G339&amp;" "&amp;H339&amp;IF(J339="",""," "&amp;J339)&amp;IF(I339="N"," NOT NULL","")&amp;" COMMENT '"&amp;F339&amp;IF(L339="",""," "&amp;L339)&amp;"'"</f>
-        <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , SUPPLIER_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드'</v>
       </c>
     </row>
     <row r="340" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21420,28 +21510,28 @@
       </c>
       <c r="B340" s="15" t="str">
         <f>VLOOKUP($C340,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D340" s="47" t="str">
         <f>VLOOKUP($C340,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E340" s="51">
         <v>3</v>
       </c>
       <c r="F340" s="77" t="s">
-        <v>105</v>
+        <v>1194</v>
       </c>
       <c r="G340" s="6" t="str">
         <f>VLOOKUP($F340,domain!$B:$D,2,FALSE)</f>
-        <v>CODE_NM</v>
+        <v>MANAGER_NM</v>
       </c>
       <c r="H340" s="6" t="str">
         <f>VLOOKUP($F340,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(100)</v>
+        <v>VARCHAR(256)</v>
       </c>
       <c r="I340" s="15" t="s">
         <v>173</v>
@@ -21452,7 +21542,7 @@
       <c r="M340" s="2"/>
       <c r="N340" s="41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  , CODE_NM VARCHAR(100) NOT NULL COMMENT '코드 명'</v>
+        <v xml:space="preserve">  , MANAGER_NM VARCHAR(256) NOT NULL COMMENT '담당자 명'</v>
       </c>
     </row>
     <row r="341" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21461,28 +21551,28 @@
       </c>
       <c r="B341" s="15" t="str">
         <f>VLOOKUP($C341,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D341" s="47" t="str">
         <f>VLOOKUP($C341,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E341" s="51">
         <v>4</v>
       </c>
       <c r="F341" s="77" t="s">
-        <v>107</v>
+        <v>1195</v>
       </c>
       <c r="G341" s="6" t="str">
         <f>VLOOKUP($F341,domain!$B:$D,2,FALSE)</f>
-        <v>CODE_DSC</v>
+        <v>MANAGER_PHONE</v>
       </c>
       <c r="H341" s="6" t="str">
         <f>VLOOKUP($F341,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1000)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I341" s="15" t="s">
         <v>173</v>
@@ -21493,7 +21583,7 @@
       <c r="M341" s="2"/>
       <c r="N341" s="41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) NOT NULL COMMENT '코드 설명'</v>
+        <v xml:space="preserve">  , MANAGER_PHONE VARCHAR(16) NOT NULL COMMENT '담당자 연락처'</v>
       </c>
     </row>
     <row r="342" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21502,28 +21592,28 @@
       </c>
       <c r="B342" s="15" t="str">
         <f>VLOOKUP($C342,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D342" s="47" t="str">
         <f>VLOOKUP($C342,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E342" s="51">
         <v>5</v>
       </c>
       <c r="F342" s="77" t="s">
-        <v>255</v>
+        <v>1196</v>
       </c>
       <c r="G342" s="6" t="str">
         <f>VLOOKUP($F342,domain!$B:$D,2,FALSE)</f>
-        <v>ORD_SEQ</v>
+        <v>MANAGER_MAIL</v>
       </c>
       <c r="H342" s="6" t="str">
         <f>VLOOKUP($F342,domain!$B:$D,3,FALSE)</f>
-        <v>NUMERIC(5,0)</v>
+        <v>VARCHAR(256)</v>
       </c>
       <c r="I342" s="15" t="s">
         <v>173</v>
@@ -21534,7 +21624,7 @@
       <c r="M342" s="2"/>
       <c r="N342" s="41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+        <v xml:space="preserve">  , MANAGER_MAIL VARCHAR(256) NOT NULL COMMENT '담당자 메일'</v>
       </c>
     </row>
     <row r="343" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21543,39 +21633,39 @@
       </c>
       <c r="B343" s="15" t="str">
         <f>VLOOKUP($C343,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D343" s="47" t="str">
         <f>VLOOKUP($C343,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E343" s="51">
         <v>6</v>
       </c>
       <c r="F343" s="77" t="s">
-        <v>446</v>
+        <v>1197</v>
       </c>
       <c r="G343" s="6" t="str">
         <f>VLOOKUP($F343,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
+        <v>MANAGER_DEPT</v>
       </c>
       <c r="H343" s="6" t="str">
         <f>VLOOKUP($F343,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
+        <v>VARCHAR(256)</v>
       </c>
       <c r="I343" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="41" t="str">
-        <f t="shared" ref="N343" si="14">IF(E343=1,"    ","  , ")&amp;G343&amp;" "&amp;H343&amp;IF(J343="",""," "&amp;J343)&amp;IF(I343="N"," NOT NULL","")&amp;" COMMENT '"&amp;F343&amp;IF(L343="",""," "&amp;L343)&amp;"'"</f>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , MANAGER_DEPT VARCHAR(256) COMMENT '담당자 부서'</v>
       </c>
     </row>
     <row r="344" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21584,31 +21674,31 @@
       </c>
       <c r="B344" s="15" t="str">
         <f>VLOOKUP($C344,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D344" s="47" t="str">
         <f>VLOOKUP($C344,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E344" s="51">
         <v>7</v>
       </c>
       <c r="F344" s="77" t="s">
-        <v>57</v>
+        <v>1198</v>
       </c>
       <c r="G344" s="6" t="str">
         <f>VLOOKUP($F344,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
+        <v>MANAGER_PSTN</v>
       </c>
       <c r="H344" s="6" t="str">
         <f>VLOOKUP($F344,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(256)</v>
       </c>
       <c r="I344" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
@@ -21616,48 +21706,50 @@
       <c r="M344" s="2"/>
       <c r="N344" s="41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="51">
-        <v>320</v>
+        <v xml:space="preserve">  , MANAGER_PSTN VARCHAR(256) COMMENT '담당자 직위'</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="15">
+        <v>332</v>
       </c>
       <c r="B345" s="15" t="str">
         <f>VLOOKUP($C345,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D345" s="47" t="str">
+        <v>관리자</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D345" s="93" t="str">
         <f>VLOOKUP($C345,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E345" s="51">
         <v>8</v>
       </c>
       <c r="F345" s="77" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="G345" s="6" t="str">
         <f>VLOOKUP($F345,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
+        <v>USE_YN</v>
       </c>
       <c r="H345" s="6" t="str">
         <f>VLOOKUP($F345,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I345" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J345" s="2"/>
-      <c r="K345" s="2"/>
-      <c r="L345" s="2"/>
-      <c r="M345" s="2"/>
-      <c r="N345" s="41" t="str">
+      <c r="J345" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="K345" s="15"/>
+      <c r="L345" s="6"/>
+      <c r="M345" s="6"/>
+      <c r="N345" s="70" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) DEFAULT 'Y' NOT NULL COMMENT '사용 여부'</v>
       </c>
     </row>
     <row r="346" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21666,24 +21758,24 @@
       </c>
       <c r="B346" s="15" t="str">
         <f>VLOOKUP($C346,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D346" s="47" t="str">
         <f>VLOOKUP($C346,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E346" s="51">
         <v>9</v>
       </c>
       <c r="F346" s="77" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G346" s="6" t="str">
         <f>VLOOKUP($F346,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>RGST_ID</v>
       </c>
       <c r="H346" s="6" t="str">
         <f>VLOOKUP($F346,domain!$B:$D,3,FALSE)</f>
@@ -21698,7 +21790,7 @@
       <c r="M346" s="2"/>
       <c r="N346" s="41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
       </c>
     </row>
     <row r="347" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -21707,24 +21799,24 @@
       </c>
       <c r="B347" s="15" t="str">
         <f>VLOOKUP($C347,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D347" s="47" t="str">
         <f>VLOOKUP($C347,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
+        <v>T_SUPPLIER_MANAGER</v>
       </c>
       <c r="E347" s="51">
         <v>10</v>
       </c>
       <c r="F347" s="77" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="G347" s="6" t="str">
         <f>VLOOKUP($F347,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>RGST_DT</v>
       </c>
       <c r="H347" s="6" t="str">
         <f>VLOOKUP($F347,domain!$B:$D,3,FALSE)</f>
@@ -21739,662 +21831,1195 @@
       <c r="M347" s="2"/>
       <c r="N347" s="41" t="str">
         <f t="shared" si="13"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="51">
+        <v>320</v>
+      </c>
+      <c r="B348" s="15" t="str">
+        <f>VLOOKUP($C348,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D348" s="47" t="str">
+        <f>VLOOKUP($C348,table!$B:$D,2,FALSE)</f>
+        <v>T_SUPPLIER_MANAGER</v>
+      </c>
+      <c r="E348" s="51">
+        <v>11</v>
+      </c>
+      <c r="F348" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G348" s="6" t="str">
+        <f>VLOOKUP($F348,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H348" s="6" t="str">
+        <f>VLOOKUP($F348,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I348" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J348" s="2"/>
+      <c r="K348" s="2"/>
+      <c r="L348" s="2"/>
+      <c r="M348" s="2"/>
+      <c r="N348" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="51">
+        <v>320</v>
+      </c>
+      <c r="B349" s="15" t="str">
+        <f>VLOOKUP($C349,table!$B:$D,3,FALSE)</f>
+        <v>관리자</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D349" s="47" t="str">
+        <f>VLOOKUP($C349,table!$B:$D,2,FALSE)</f>
+        <v>T_SUPPLIER_MANAGER</v>
+      </c>
+      <c r="E349" s="51">
+        <v>12</v>
+      </c>
+      <c r="F349" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G349" s="6" t="str">
+        <f>VLOOKUP($F349,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H349" s="6" t="str">
+        <f>VLOOKUP($F349,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I349" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J349" s="2"/>
+      <c r="K349" s="2"/>
+      <c r="L349" s="2"/>
+      <c r="M349" s="2"/>
+      <c r="N349" s="41" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
-    <row r="348" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="51">
-        <v>331</v>
-      </c>
-      <c r="B348" s="99" t="str">
-        <f>VLOOKUP($C348,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C348" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D348" s="94" t="str">
-        <f>VLOOKUP($C348,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E348" s="99">
-        <v>1</v>
-      </c>
-      <c r="F348" s="76" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G348" s="61" t="str">
-        <f>VLOOKUP($F348,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_ID</v>
-      </c>
-      <c r="H348" s="61" t="str">
-        <f>VLOOKUP($F348,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I348" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="J348" s="61"/>
-      <c r="K348" s="99"/>
-      <c r="L348" s="61"/>
-      <c r="M348" s="61"/>
-      <c r="N348" s="69" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="51">
-        <v>332</v>
-      </c>
-      <c r="B349" s="99" t="str">
-        <f>VLOOKUP($C349,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C349" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D349" s="94" t="str">
-        <f>VLOOKUP($C349,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E349" s="99">
-        <v>2</v>
-      </c>
-      <c r="F349" s="76" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G349" s="61" t="str">
-        <f>VLOOKUP($F349,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_NM</v>
-      </c>
-      <c r="H349" s="61" t="str">
-        <f>VLOOKUP($F349,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(4000)</v>
-      </c>
-      <c r="I349" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="J349" s="61"/>
-      <c r="K349" s="99"/>
-      <c r="L349" s="61"/>
-      <c r="M349" s="61"/>
-      <c r="N349" s="69" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
-      </c>
-    </row>
     <row r="350" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="51">
-        <v>332</v>
-      </c>
-      <c r="B350" s="99" t="str">
+      <c r="A350" s="103">
+        <v>320</v>
+      </c>
+      <c r="B350" s="103" t="str">
         <f>VLOOKUP($C350,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C350" s="61" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D350" s="94" t="str">
         <f>VLOOKUP($C350,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E350" s="99">
-        <v>3</v>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E350" s="103">
+        <v>1</v>
       </c>
       <c r="F350" s="76" t="s">
-        <v>1175</v>
+        <v>53</v>
       </c>
       <c r="G350" s="61" t="str">
         <f>VLOOKUP($F350,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_CODE</v>
+        <v>GROUP_ID</v>
       </c>
       <c r="H350" s="61" t="str">
         <f>VLOOKUP($F350,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I350" s="99" t="s">
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="I350" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J350" s="61"/>
-      <c r="K350" s="99"/>
+      <c r="K350" s="61"/>
       <c r="L350" s="61"/>
       <c r="M350" s="61"/>
       <c r="N350" s="69" t="str">
-        <f t="shared" ref="N350" si="15">IF(E350=1,"    ","  , ")&amp;G350&amp;" "&amp;H350&amp;IF(J350="",""," "&amp;J350)&amp;IF(I350="N"," NOT NULL","")&amp;" COMMENT '"&amp;F350&amp;IF(L350="",""," "&amp;L350)&amp;"'"</f>
-        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">    GROUP_ID VARCHAR(64) NOT NULL COMMENT '그룹 ID'</v>
       </c>
     </row>
     <row r="351" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="51">
-        <v>332</v>
-      </c>
-      <c r="B351" s="99" t="str">
+      <c r="A351" s="103">
+        <v>320</v>
+      </c>
+      <c r="B351" s="103" t="str">
         <f>VLOOKUP($C351,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C351" s="61" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D351" s="94" t="str">
         <f>VLOOKUP($C351,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E351" s="99">
-        <v>4</v>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E351" s="103">
+        <v>2</v>
       </c>
       <c r="F351" s="76" t="s">
-        <v>446</v>
+        <v>1159</v>
       </c>
       <c r="G351" s="61" t="str">
         <f>VLOOKUP($F351,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
+        <v>UP_COMPANY_CODE</v>
       </c>
       <c r="H351" s="61" t="str">
         <f>VLOOKUP($F351,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
-      </c>
-      <c r="I351" s="99" t="s">
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I351" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J351" s="61"/>
-      <c r="K351" s="99"/>
+      <c r="K351" s="61"/>
       <c r="L351" s="61"/>
       <c r="M351" s="61"/>
       <c r="N351" s="69" t="str">
-        <f t="shared" ref="N351:N363" si="16">IF(E351=1,"    ","  , ")&amp;G351&amp;" "&amp;H351&amp;IF(J351="",""," "&amp;J351)&amp;IF(I351="N"," NOT NULL","")&amp;" COMMENT '"&amp;F351&amp;IF(L351="",""," "&amp;L351)&amp;"'"</f>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">  , UP_COMPANY_CODE VARCHAR(16) NOT NULL COMMENT '소속 회사 코드'</v>
       </c>
     </row>
     <row r="352" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="51">
-        <v>331</v>
-      </c>
-      <c r="B352" s="99" t="str">
+      <c r="A352" s="103">
+        <v>320</v>
+      </c>
+      <c r="B352" s="103" t="str">
         <f>VLOOKUP($C352,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C352" s="61" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D352" s="94" t="str">
         <f>VLOOKUP($C352,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E352" s="99">
-        <v>5</v>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E352" s="103">
+        <v>3</v>
       </c>
       <c r="F352" s="76" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G352" s="61" t="str">
         <f>VLOOKUP($F352,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
+        <v>CODE_ID</v>
       </c>
       <c r="H352" s="61" t="str">
         <f>VLOOKUP($F352,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
-      </c>
-      <c r="I352" s="99" t="s">
+        <v>VARCHAR(64)</v>
+      </c>
+      <c r="I352" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J352" s="61"/>
-      <c r="K352" s="99"/>
+      <c r="K352" s="61"/>
       <c r="L352" s="61"/>
       <c r="M352" s="61"/>
       <c r="N352" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+        <f t="shared" ref="N352:N362" si="14">IF(E352=1,"    ","  , ")&amp;G352&amp;" "&amp;H352&amp;IF(J352="",""," "&amp;J352)&amp;IF(I352="N"," NOT NULL","")&amp;" COMMENT '"&amp;F352&amp;IF(L352="",""," "&amp;L352)&amp;"'"</f>
+        <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
       </c>
     </row>
     <row r="353" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="51">
-        <v>332</v>
-      </c>
-      <c r="B353" s="99" t="str">
+      <c r="A353" s="103">
+        <v>320</v>
+      </c>
+      <c r="B353" s="103" t="str">
         <f>VLOOKUP($C353,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C353" s="61" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D353" s="94" t="str">
         <f>VLOOKUP($C353,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E353" s="99">
-        <v>6</v>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E353" s="103">
+        <v>4</v>
       </c>
       <c r="F353" s="76" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="G353" s="61" t="str">
         <f>VLOOKUP($F353,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
+        <v>CODE_NM</v>
       </c>
       <c r="H353" s="61" t="str">
         <f>VLOOKUP($F353,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
-      </c>
-      <c r="I353" s="99" t="s">
+        <v>VARCHAR(100)</v>
+      </c>
+      <c r="I353" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J353" s="61"/>
-      <c r="K353" s="99"/>
+      <c r="K353" s="61"/>
       <c r="L353" s="61"/>
       <c r="M353" s="61"/>
       <c r="N353" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , CODE_NM VARCHAR(100) NOT NULL COMMENT '코드 명'</v>
       </c>
     </row>
     <row r="354" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="51">
-        <v>331</v>
-      </c>
-      <c r="B354" s="99" t="str">
+      <c r="A354" s="103">
+        <v>320</v>
+      </c>
+      <c r="B354" s="103" t="str">
         <f>VLOOKUP($C354,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C354" s="61" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D354" s="94" t="str">
         <f>VLOOKUP($C354,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E354" s="99">
-        <v>7</v>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E354" s="103">
+        <v>5</v>
       </c>
       <c r="F354" s="76" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="G354" s="61" t="str">
         <f>VLOOKUP($F354,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>CODE_DSC</v>
       </c>
       <c r="H354" s="61" t="str">
         <f>VLOOKUP($F354,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
-      </c>
-      <c r="I354" s="99" t="s">
-        <v>173</v>
+        <v>VARCHAR(1000)</v>
+      </c>
+      <c r="I354" s="103" t="s">
+        <v>172</v>
       </c>
       <c r="J354" s="61"/>
-      <c r="K354" s="99"/>
+      <c r="K354" s="61"/>
       <c r="L354" s="61"/>
       <c r="M354" s="61"/>
       <c r="N354" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) COMMENT '코드 설명'</v>
       </c>
     </row>
     <row r="355" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="51">
-        <v>332</v>
-      </c>
-      <c r="B355" s="99" t="str">
+      <c r="A355" s="103">
+        <v>320</v>
+      </c>
+      <c r="B355" s="103" t="str">
         <f>VLOOKUP($C355,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C355" s="61" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D355" s="94" t="str">
         <f>VLOOKUP($C355,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E355" s="99">
-        <v>8</v>
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E355" s="103">
+        <v>6</v>
       </c>
       <c r="F355" s="76" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="G355" s="61" t="str">
         <f>VLOOKUP($F355,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>ORD_SEQ</v>
       </c>
       <c r="H355" s="61" t="str">
         <f>VLOOKUP($F355,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
-      </c>
-      <c r="I355" s="99" t="s">
+        <v>NUMERIC(5,0)</v>
+      </c>
+      <c r="I355" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J355" s="61"/>
-      <c r="K355" s="99"/>
+      <c r="K355" s="61"/>
       <c r="L355" s="61"/>
       <c r="M355" s="61"/>
       <c r="N355" s="69" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="51">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="103">
         <v>320</v>
       </c>
-      <c r="B356" s="15" t="str">
+      <c r="B356" s="103" t="str">
         <f>VLOOKUP($C356,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C356" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D356" s="47" t="str">
+      <c r="C356" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D356" s="94" t="str">
         <f>VLOOKUP($C356,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E356" s="51">
-        <v>1</v>
-      </c>
-      <c r="F356" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G356" s="6" t="str">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E356" s="103">
+        <v>7</v>
+      </c>
+      <c r="F356" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G356" s="61" t="str">
         <f>VLOOKUP($F356,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_ID</v>
-      </c>
-      <c r="H356" s="6" t="str">
+        <v>USE_YN</v>
+      </c>
+      <c r="H356" s="61" t="str">
         <f>VLOOKUP($F356,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I356" s="15" t="s">
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I356" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J356" s="2"/>
-      <c r="K356" s="2"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="2"/>
-      <c r="N356" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="51">
+      <c r="J356" s="61"/>
+      <c r="K356" s="61"/>
+      <c r="L356" s="61"/>
+      <c r="M356" s="61"/>
+      <c r="N356" s="69" t="str">
+        <f t="shared" ref="N356" si="15">IF(E356=1,"    ","  , ")&amp;G356&amp;" "&amp;H356&amp;IF(J356="",""," "&amp;J356)&amp;IF(I356="N"," NOT NULL","")&amp;" COMMENT '"&amp;F356&amp;IF(L356="",""," "&amp;L356)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="103">
         <v>320</v>
       </c>
-      <c r="B357" s="15" t="str">
+      <c r="B357" s="103" t="str">
         <f>VLOOKUP($C357,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C357" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D357" s="47" t="str">
+      <c r="C357" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D357" s="94" t="str">
         <f>VLOOKUP($C357,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E357" s="51">
-        <v>2</v>
-      </c>
-      <c r="F357" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G357" s="6" t="str">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E357" s="103">
+        <v>8</v>
+      </c>
+      <c r="F357" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G357" s="61" t="str">
         <f>VLOOKUP($F357,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_NM</v>
-      </c>
-      <c r="H357" s="6" t="str">
+        <v>RGST_ID</v>
+      </c>
+      <c r="H357" s="61" t="str">
         <f>VLOOKUP($F357,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(4000)</v>
-      </c>
-      <c r="I357" s="15" t="s">
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I357" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J357" s="2"/>
-      <c r="K357" s="2"/>
-      <c r="L357" s="2"/>
-      <c r="M357" s="2"/>
-      <c r="N357" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="51">
+      <c r="J357" s="61"/>
+      <c r="K357" s="61"/>
+      <c r="L357" s="61"/>
+      <c r="M357" s="61"/>
+      <c r="N357" s="69" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="103">
         <v>320</v>
       </c>
-      <c r="B358" s="15" t="str">
+      <c r="B358" s="103" t="str">
         <f>VLOOKUP($C358,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C358" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D358" s="47" t="str">
+      <c r="C358" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D358" s="94" t="str">
         <f>VLOOKUP($C358,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E358" s="51">
-        <v>3</v>
-      </c>
-      <c r="F358" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G358" s="6" t="str">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E358" s="103">
+        <v>9</v>
+      </c>
+      <c r="F358" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G358" s="61" t="str">
         <f>VLOOKUP($F358,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_CODE</v>
-      </c>
-      <c r="H358" s="6" t="str">
+        <v>RGST_DT</v>
+      </c>
+      <c r="H358" s="61" t="str">
         <f>VLOOKUP($F358,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I358" s="15" t="s">
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I358" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J358" s="2"/>
-      <c r="K358" s="2"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="2"/>
-      <c r="N358" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '제품 코드'</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="51">
+      <c r="J358" s="61"/>
+      <c r="K358" s="61"/>
+      <c r="L358" s="61"/>
+      <c r="M358" s="61"/>
+      <c r="N358" s="69" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="103">
         <v>320</v>
       </c>
-      <c r="B359" s="15" t="str">
+      <c r="B359" s="103" t="str">
         <f>VLOOKUP($C359,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C359" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D359" s="47" t="str">
+      <c r="C359" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D359" s="94" t="str">
         <f>VLOOKUP($C359,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E359" s="51">
-        <v>4</v>
-      </c>
-      <c r="F359" s="77" t="s">
-        <v>446</v>
-      </c>
-      <c r="G359" s="6" t="str">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E359" s="103">
+        <v>10</v>
+      </c>
+      <c r="F359" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G359" s="61" t="str">
         <f>VLOOKUP($F359,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
-      </c>
-      <c r="H359" s="6" t="str">
+        <v>MODI_ID</v>
+      </c>
+      <c r="H359" s="61" t="str">
         <f>VLOOKUP($F359,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
-      </c>
-      <c r="I359" s="15" t="s">
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I359" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J359" s="2"/>
-      <c r="K359" s="2"/>
-      <c r="L359" s="2"/>
-      <c r="M359" s="2"/>
-      <c r="N359" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="51">
+      <c r="J359" s="61"/>
+      <c r="K359" s="61"/>
+      <c r="L359" s="61"/>
+      <c r="M359" s="61"/>
+      <c r="N359" s="69" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="103">
         <v>320</v>
       </c>
-      <c r="B360" s="15" t="str">
+      <c r="B360" s="103" t="str">
         <f>VLOOKUP($C360,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C360" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D360" s="47" t="str">
+      <c r="C360" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D360" s="94" t="str">
         <f>VLOOKUP($C360,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E360" s="51">
-        <v>5</v>
-      </c>
-      <c r="F360" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="G360" s="6" t="str">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E360" s="103">
+        <v>11</v>
+      </c>
+      <c r="F360" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G360" s="61" t="str">
         <f>VLOOKUP($F360,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
-      </c>
-      <c r="H360" s="6" t="str">
+        <v>MODI_DT</v>
+      </c>
+      <c r="H360" s="61" t="str">
         <f>VLOOKUP($F360,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
-      </c>
-      <c r="I360" s="15" t="s">
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I360" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J360" s="2"/>
-      <c r="K360" s="2"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2"/>
-      <c r="N360" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="51">
-        <v>320</v>
+      <c r="J360" s="61"/>
+      <c r="K360" s="61"/>
+      <c r="L360" s="61"/>
+      <c r="M360" s="61"/>
+      <c r="N360" s="69" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="15">
+        <v>331</v>
       </c>
       <c r="B361" s="15" t="str">
         <f>VLOOKUP($C361,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D361" s="47" t="str">
+        <v>1162</v>
+      </c>
+      <c r="D361" s="93" t="str">
         <f>VLOOKUP($C361,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E361" s="51">
-        <v>6</v>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E361" s="15">
+        <v>1</v>
       </c>
       <c r="F361" s="77" t="s">
-        <v>379</v>
+        <v>1166</v>
       </c>
       <c r="G361" s="6" t="str">
         <f>VLOOKUP($F361,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
+        <v>QUESTION_ID</v>
       </c>
       <c r="H361" s="6" t="str">
         <f>VLOOKUP($F361,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I361" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J361" s="2"/>
-      <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2"/>
-      <c r="N361" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="51">
-        <v>320</v>
+      <c r="J361" s="6"/>
+      <c r="K361" s="15"/>
+      <c r="L361" s="6"/>
+      <c r="M361" s="6"/>
+      <c r="N361" s="70" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="15">
+        <v>332</v>
       </c>
       <c r="B362" s="15" t="str">
         <f>VLOOKUP($C362,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D362" s="47" t="str">
+        <v>1162</v>
+      </c>
+      <c r="D362" s="93" t="str">
         <f>VLOOKUP($C362,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E362" s="51">
-        <v>7</v>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E362" s="15">
+        <v>2</v>
       </c>
       <c r="F362" s="77" t="s">
-        <v>84</v>
+        <v>1167</v>
       </c>
       <c r="G362" s="6" t="str">
         <f>VLOOKUP($F362,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>QUESTION_NM</v>
       </c>
       <c r="H362" s="6" t="str">
         <f>VLOOKUP($F362,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(4000)</v>
       </c>
       <c r="I362" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J362" s="2"/>
-      <c r="K362" s="2"/>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2"/>
-      <c r="N362" s="41" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="51">
-        <v>320</v>
+      <c r="J362" s="6"/>
+      <c r="K362" s="15"/>
+      <c r="L362" s="6"/>
+      <c r="M362" s="6"/>
+      <c r="N362" s="70" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="15">
+        <v>332</v>
       </c>
       <c r="B363" s="15" t="str">
         <f>VLOOKUP($C363,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D363" s="47" t="str">
+        <v>1162</v>
+      </c>
+      <c r="D363" s="93" t="str">
         <f>VLOOKUP($C363,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E363" s="51">
-        <v>8</v>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E363" s="15">
+        <v>3</v>
       </c>
       <c r="F363" s="77" t="s">
-        <v>88</v>
+        <v>1168</v>
       </c>
       <c r="G363" s="6" t="str">
         <f>VLOOKUP($F363,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>QUESTION_CODE</v>
       </c>
       <c r="H363" s="6" t="str">
         <f>VLOOKUP($F363,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I363" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J363" s="2"/>
-      <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2"/>
-      <c r="N363" s="41" t="str">
-        <f t="shared" si="16"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="15"/>
+      <c r="L363" s="6"/>
+      <c r="M363" s="6"/>
+      <c r="N363" s="70" t="str">
+        <f t="shared" ref="N363" si="16">IF(E363=1,"    ","  , ")&amp;G363&amp;" "&amp;H363&amp;IF(J363="",""," "&amp;J363)&amp;IF(I363="N"," NOT NULL","")&amp;" COMMENT '"&amp;F363&amp;IF(L363="",""," "&amp;L363)&amp;"'"</f>
+        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="15">
+        <v>332</v>
+      </c>
+      <c r="B364" s="15" t="str">
+        <f>VLOOKUP($C364,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D364" s="93" t="str">
+        <f>VLOOKUP($C364,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E364" s="15">
+        <v>4</v>
+      </c>
+      <c r="F364" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G364" s="6" t="str">
+        <f>VLOOKUP($F364,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H364" s="6" t="str">
+        <f>VLOOKUP($F364,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I364" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J364" s="6"/>
+      <c r="K364" s="15"/>
+      <c r="L364" s="6"/>
+      <c r="M364" s="6"/>
+      <c r="N364" s="70" t="str">
+        <f t="shared" ref="N364:N376" si="17">IF(E364=1,"    ","  , ")&amp;G364&amp;" "&amp;H364&amp;IF(J364="",""," "&amp;J364)&amp;IF(I364="N"," NOT NULL","")&amp;" COMMENT '"&amp;F364&amp;IF(L364="",""," "&amp;L364)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="15">
+        <v>331</v>
+      </c>
+      <c r="B365" s="15" t="str">
+        <f>VLOOKUP($C365,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D365" s="93" t="str">
+        <f>VLOOKUP($C365,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E365" s="15">
+        <v>5</v>
+      </c>
+      <c r="F365" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G365" s="6" t="str">
+        <f>VLOOKUP($F365,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H365" s="6" t="str">
+        <f>VLOOKUP($F365,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I365" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J365" s="6"/>
+      <c r="K365" s="15"/>
+      <c r="L365" s="6"/>
+      <c r="M365" s="6"/>
+      <c r="N365" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="15">
+        <v>332</v>
+      </c>
+      <c r="B366" s="15" t="str">
+        <f>VLOOKUP($C366,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D366" s="93" t="str">
+        <f>VLOOKUP($C366,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E366" s="15">
+        <v>6</v>
+      </c>
+      <c r="F366" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G366" s="6" t="str">
+        <f>VLOOKUP($F366,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H366" s="6" t="str">
+        <f>VLOOKUP($F366,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I366" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J366" s="6"/>
+      <c r="K366" s="15"/>
+      <c r="L366" s="6"/>
+      <c r="M366" s="6"/>
+      <c r="N366" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="15">
+        <v>331</v>
+      </c>
+      <c r="B367" s="15" t="str">
+        <f>VLOOKUP($C367,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D367" s="93" t="str">
+        <f>VLOOKUP($C367,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E367" s="15">
+        <v>7</v>
+      </c>
+      <c r="F367" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G367" s="6" t="str">
+        <f>VLOOKUP($F367,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H367" s="6" t="str">
+        <f>VLOOKUP($F367,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I367" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J367" s="6"/>
+      <c r="K367" s="15"/>
+      <c r="L367" s="6"/>
+      <c r="M367" s="6"/>
+      <c r="N367" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="15">
+        <v>332</v>
+      </c>
+      <c r="B368" s="15" t="str">
+        <f>VLOOKUP($C368,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D368" s="93" t="str">
+        <f>VLOOKUP($C368,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E368" s="15">
+        <v>8</v>
+      </c>
+      <c r="F368" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G368" s="6" t="str">
+        <f>VLOOKUP($F368,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H368" s="6" t="str">
+        <f>VLOOKUP($F368,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I368" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J368" s="6"/>
+      <c r="K368" s="15"/>
+      <c r="L368" s="6"/>
+      <c r="M368" s="6"/>
+      <c r="N368" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="103">
+        <v>320</v>
+      </c>
+      <c r="B369" s="103" t="str">
+        <f>VLOOKUP($C369,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C369" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D369" s="94" t="str">
+        <f>VLOOKUP($C369,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E369" s="103">
+        <v>1</v>
+      </c>
+      <c r="F369" s="61" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G369" s="61" t="str">
+        <f>VLOOKUP($F369,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_ID</v>
+      </c>
+      <c r="H369" s="61" t="str">
+        <f>VLOOKUP($F369,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I369" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J369" s="61"/>
+      <c r="K369" s="61"/>
+      <c r="L369" s="61"/>
+      <c r="M369" s="61"/>
+      <c r="N369" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="103">
+        <v>320</v>
+      </c>
+      <c r="B370" s="103" t="str">
+        <f>VLOOKUP($C370,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C370" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D370" s="94" t="str">
+        <f>VLOOKUP($C370,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E370" s="103">
+        <v>2</v>
+      </c>
+      <c r="F370" s="61" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G370" s="61" t="str">
+        <f>VLOOKUP($F370,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_NM</v>
+      </c>
+      <c r="H370" s="61" t="str">
+        <f>VLOOKUP($F370,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I370" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J370" s="61"/>
+      <c r="K370" s="61"/>
+      <c r="L370" s="61"/>
+      <c r="M370" s="61"/>
+      <c r="N370" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="103">
+        <v>320</v>
+      </c>
+      <c r="B371" s="103" t="str">
+        <f>VLOOKUP($C371,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C371" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D371" s="94" t="str">
+        <f>VLOOKUP($C371,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E371" s="103">
+        <v>3</v>
+      </c>
+      <c r="F371" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G371" s="61" t="str">
+        <f>VLOOKUP($F371,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_CODE</v>
+      </c>
+      <c r="H371" s="61" t="str">
+        <f>VLOOKUP($F371,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I371" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J371" s="61"/>
+      <c r="K371" s="61"/>
+      <c r="L371" s="61"/>
+      <c r="M371" s="61"/>
+      <c r="N371" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드 관리'</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="103">
+        <v>320</v>
+      </c>
+      <c r="B372" s="103" t="str">
+        <f>VLOOKUP($C372,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C372" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D372" s="94" t="str">
+        <f>VLOOKUP($C372,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E372" s="103">
+        <v>4</v>
+      </c>
+      <c r="F372" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G372" s="61" t="str">
+        <f>VLOOKUP($F372,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H372" s="61" t="str">
+        <f>VLOOKUP($F372,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I372" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J372" s="61"/>
+      <c r="K372" s="61"/>
+      <c r="L372" s="61"/>
+      <c r="M372" s="61"/>
+      <c r="N372" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="103">
+        <v>320</v>
+      </c>
+      <c r="B373" s="103" t="str">
+        <f>VLOOKUP($C373,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C373" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D373" s="94" t="str">
+        <f>VLOOKUP($C373,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E373" s="103">
+        <v>5</v>
+      </c>
+      <c r="F373" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G373" s="61" t="str">
+        <f>VLOOKUP($F373,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H373" s="61" t="str">
+        <f>VLOOKUP($F373,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I373" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J373" s="61"/>
+      <c r="K373" s="61"/>
+      <c r="L373" s="61"/>
+      <c r="M373" s="61"/>
+      <c r="N373" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="103">
+        <v>320</v>
+      </c>
+      <c r="B374" s="103" t="str">
+        <f>VLOOKUP($C374,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C374" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D374" s="94" t="str">
+        <f>VLOOKUP($C374,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E374" s="103">
+        <v>6</v>
+      </c>
+      <c r="F374" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G374" s="61" t="str">
+        <f>VLOOKUP($F374,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H374" s="61" t="str">
+        <f>VLOOKUP($F374,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I374" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J374" s="61"/>
+      <c r="K374" s="61"/>
+      <c r="L374" s="61"/>
+      <c r="M374" s="61"/>
+      <c r="N374" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="103">
+        <v>320</v>
+      </c>
+      <c r="B375" s="103" t="str">
+        <f>VLOOKUP($C375,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C375" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D375" s="94" t="str">
+        <f>VLOOKUP($C375,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E375" s="103">
+        <v>7</v>
+      </c>
+      <c r="F375" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G375" s="61" t="str">
+        <f>VLOOKUP($F375,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H375" s="61" t="str">
+        <f>VLOOKUP($F375,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I375" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J375" s="61"/>
+      <c r="K375" s="61"/>
+      <c r="L375" s="61"/>
+      <c r="M375" s="61"/>
+      <c r="N375" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="103">
+        <v>320</v>
+      </c>
+      <c r="B376" s="103" t="str">
+        <f>VLOOKUP($C376,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C376" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D376" s="94" t="str">
+        <f>VLOOKUP($C376,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E376" s="103">
+        <v>8</v>
+      </c>
+      <c r="F376" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G376" s="61" t="str">
+        <f>VLOOKUP($F376,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H376" s="61" t="str">
+        <f>VLOOKUP($F376,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I376" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J376" s="61"/>
+      <c r="K376" s="61"/>
+      <c r="L376" s="61"/>
+      <c r="M376" s="61"/>
+      <c r="N376" s="69" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
@@ -22424,10 +23049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -22443,34 +23068,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="104" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="100"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
@@ -24826,13 +25451,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="51">
-        <v>148</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>1161</v>
+        <v>149</v>
+      </c>
+      <c r="B150" s="77" t="s">
+        <v>1166</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>152</v>
@@ -24842,45 +25467,45 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="51">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="77" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>788</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="51">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="77" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>788</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="51">
-        <v>151</v>
-      </c>
-      <c r="B153" s="77" t="s">
-        <v>1175</v>
+        <v>152</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>1164</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>152</v>
@@ -24890,45 +25515,45 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="51">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>1177</v>
-      </c>
       <c r="D154" s="2" t="s">
-        <v>152</v>
+        <v>788</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="51">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>1178</v>
-      </c>
       <c r="D155" s="2" t="s">
-        <v>788</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="51">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1179</v>
+        <v>1175</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>1181</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>152</v>
@@ -24938,61 +25563,61 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="51">
-        <v>155</v>
-      </c>
-      <c r="B157" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C157" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="C157" s="30" t="s">
-        <v>1186</v>
-      </c>
       <c r="D157" s="2" t="s">
-        <v>152</v>
+        <v>750</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="51">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>750</v>
+        <v>788</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="51">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>1185</v>
+        <v>158</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>1176</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>788</v>
+        <v>152</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="51">
-        <v>158</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>1189</v>
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>1185</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>152</v>
@@ -25002,79 +25627,120 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="51">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="51">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="77" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="51">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="77" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="51">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="77" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="51">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="77" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="51">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="77" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="51">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="77" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="51">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2"/>
+        <v>167</v>
+      </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -25082,7 +25748,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="51">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -25092,7 +25758,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="51">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -25102,7 +25768,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="51">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -25112,7 +25778,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="51">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -25122,7 +25788,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="51">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -25132,7 +25798,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="51">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -25142,7 +25808,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="51">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -25152,7 +25818,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="51">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -25162,7 +25828,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="51">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -25172,7 +25838,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="51">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -25182,7 +25848,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="51">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -25192,7 +25858,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="51">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -25202,7 +25868,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="51">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -25212,7 +25878,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="51">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -25222,7 +25888,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="51">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -25232,7 +25898,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="51">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -25242,7 +25908,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="51">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -25252,7 +25918,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="51">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -25262,7 +25928,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="51">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -25272,7 +25938,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="51">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -25282,7 +25948,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="51">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -25292,7 +25958,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="51">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -25302,7 +25968,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="51">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -25312,7 +25978,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="51">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -25322,7 +25988,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="51">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -25332,7 +25998,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="51">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -25342,7 +26008,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="51">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -25352,7 +26018,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -25362,7 +26028,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -25372,7 +26038,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="51">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -25382,7 +26048,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="51">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -25392,7 +26058,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="51">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -25402,23 +26068,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="51">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="51">
-        <v>200</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D98">
@@ -25439,10 +26095,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -25462,60 +26118,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100" t="s">
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="104" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="89" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="103"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
@@ -25532,10 +26188,10 @@
         <f>VLOOKUP($C3,table!$B:$D,2,FALSE)</f>
         <v>T_USER_HIST</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="108">
         <v>1</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="109" t="s">
         <v>137</v>
       </c>
       <c r="G3" s="53">
@@ -25548,7 +26204,7 @@
         <f>VLOOKUP($H3,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="109" t="s">
         <v>138</v>
       </c>
       <c r="K3" s="53" t="s">
@@ -25571,8 +26227,8 @@
         <f>VLOOKUP($C4,table!$B:$D,2,FALSE)</f>
         <v>T_USER_HIST</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="104"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="53">
         <v>2</v>
       </c>
@@ -25583,7 +26239,7 @@
         <f>VLOOKUP($H4,domain!$B:$D,2,FALSE)</f>
         <v>HIST_DT</v>
       </c>
-      <c r="J4" s="104"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="53" t="s">
         <v>131</v>
       </c>
@@ -25604,10 +26260,10 @@
         <f>VLOOKUP($C5,table!$B:$D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="108">
         <v>0</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="109" t="s">
         <v>129</v>
       </c>
       <c r="G5" s="53">
@@ -25620,7 +26276,7 @@
         <f>VLOOKUP($H5,domain!$B:$D,2,FALSE)</f>
         <v>GROUP_ID</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="109" t="s">
         <v>130</v>
       </c>
       <c r="K5" s="53" t="s">
@@ -25643,8 +26299,8 @@
         <f>VLOOKUP($C6,table!$B:$D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="104"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="53">
         <v>2</v>
       </c>
@@ -25655,7 +26311,7 @@
         <f>VLOOKUP($H6,domain!$B:$D,2,FALSE)</f>
         <v>CODE_ID</v>
       </c>
-      <c r="J6" s="104"/>
+      <c r="J6" s="109"/>
       <c r="K6" s="53" t="s">
         <v>131</v>
       </c>
@@ -25910,10 +26566,10 @@
         <f>VLOOKUP($C13,table!$B:$D,2,FALSE)</f>
         <v>T_ID_SN</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="108">
         <v>0</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="109" t="s">
         <v>232</v>
       </c>
       <c r="G13" s="53">
@@ -25926,7 +26582,7 @@
         <f>VLOOKUP($H13,domain!$B:$D,2,FALSE)</f>
         <v>ID_TY</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="109" t="s">
         <v>130</v>
       </c>
       <c r="K13" s="53" t="s">
@@ -25949,8 +26605,8 @@
         <f>VLOOKUP($C14,table!$B:$D,2,FALSE)</f>
         <v>T_ID_SN</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="104"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="53">
         <v>2</v>
       </c>
@@ -25961,7 +26617,7 @@
         <f>VLOOKUP($H14,domain!$B:$D,2,FALSE)</f>
         <v>ID_SE</v>
       </c>
-      <c r="J14" s="104"/>
+      <c r="J14" s="109"/>
       <c r="K14" s="53" t="s">
         <v>131</v>
       </c>
@@ -26294,10 +26950,10 @@
         <f>VLOOKUP($C23,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_RQST_MGR_SYS</v>
       </c>
-      <c r="E23" s="111">
+      <c r="E23" s="108">
         <v>1</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="109" t="s">
         <v>735</v>
       </c>
       <c r="G23" s="53">
@@ -26310,7 +26966,7 @@
         <f>VLOOKUP($H23,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J23" s="112" t="s">
+      <c r="J23" s="119" t="s">
         <v>138</v>
       </c>
       <c r="K23" s="53" t="s">
@@ -26333,8 +26989,8 @@
         <f>VLOOKUP($C24,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_RQST_MGR_SYS</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="104"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="53">
         <v>2</v>
       </c>
@@ -26345,7 +27001,7 @@
         <f>VLOOKUP($H24,domain!$B:$D,2,FALSE)</f>
         <v>LOG_DT</v>
       </c>
-      <c r="J24" s="112"/>
+      <c r="J24" s="119"/>
       <c r="K24" s="53" t="s">
         <v>131</v>
       </c>
@@ -26366,10 +27022,10 @@
         <f>VLOOKUP($C25,table!$B:$D,2,FALSE)</f>
         <v>T_LOGIN_USER_HIST</v>
       </c>
-      <c r="E25" s="111">
+      <c r="E25" s="108">
         <v>1</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="109" t="s">
         <v>757</v>
       </c>
       <c r="G25" s="53">
@@ -26382,7 +27038,7 @@
         <f>VLOOKUP($H25,domain!$B:$D,2,FALSE)</f>
         <v>USER_ID</v>
       </c>
-      <c r="J25" s="112" t="s">
+      <c r="J25" s="119" t="s">
         <v>138</v>
       </c>
       <c r="K25" s="53" t="s">
@@ -26405,8 +27061,8 @@
         <f>VLOOKUP($C26,table!$B:$D,2,FALSE)</f>
         <v>T_LOGIN_USER_HIST</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="104"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="53">
         <v>2</v>
       </c>
@@ -26417,7 +27073,7 @@
         <f>VLOOKUP($H26,domain!$B:$D,2,FALSE)</f>
         <v>LOG_DT</v>
       </c>
-      <c r="J26" s="112"/>
+      <c r="J26" s="119"/>
       <c r="K26" s="53" t="s">
         <v>131</v>
       </c>
@@ -26477,10 +27133,10 @@
         <f>VLOOKUP($C28,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="E28" s="105">
+      <c r="E28" s="113">
         <v>0</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="113" t="s">
         <v>794</v>
       </c>
       <c r="G28" s="56">
@@ -26493,7 +27149,7 @@
         <f>VLOOKUP($H28,domain!$B:$D,2,FALSE)</f>
         <v>LOG_ID</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="116" t="s">
         <v>130</v>
       </c>
       <c r="K28" s="56" t="s">
@@ -26516,8 +27172,8 @@
         <f>VLOOKUP($C29,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
       <c r="G29" s="56">
         <v>2</v>
       </c>
@@ -26528,7 +27184,7 @@
         <f>VLOOKUP($H29,domain!$B:$D,2,FALSE)</f>
         <v>CONTROLLER_NM</v>
       </c>
-      <c r="J29" s="109"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="56" t="s">
         <v>131</v>
       </c>
@@ -26549,8 +27205,8 @@
         <f>VLOOKUP($C30,table!$B:$D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
       <c r="G30" s="56">
         <v>3</v>
       </c>
@@ -26561,7 +27217,7 @@
         <f>VLOOKUP($H30,domain!$B:$D,2,FALSE)</f>
         <v>METHOD_NM</v>
       </c>
-      <c r="J30" s="110"/>
+      <c r="J30" s="118"/>
       <c r="K30" s="56" t="s">
         <v>131</v>
       </c>
@@ -26582,10 +27238,10 @@
         <f>VLOOKUP($C31,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="E31" s="111">
+      <c r="E31" s="108">
         <v>1</v>
       </c>
-      <c r="F31" s="104" t="str">
+      <c r="F31" s="109" t="str">
         <f>D31&amp;"_PK"</f>
         <v>T_COMPANY_PK</v>
       </c>
@@ -26599,7 +27255,7 @@
         <f>VLOOKUP($H31,domain!$B:$D,2,FALSE)</f>
         <v>COMPANY_ID</v>
       </c>
-      <c r="J31" s="113" t="s">
+      <c r="J31" s="110" t="s">
         <v>130</v>
       </c>
       <c r="K31" s="71" t="s">
@@ -26622,8 +27278,8 @@
         <f>VLOOKUP($C32,table!$B:$D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="104"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="71">
         <v>2</v>
       </c>
@@ -26634,7 +27290,7 @@
         <f>VLOOKUP($H32,domain!$B:$D,2,FALSE)</f>
         <v>COMPANY_NO</v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="111"/>
       <c r="K32" s="71" t="s">
         <v>131</v>
       </c>
@@ -26763,28 +27419,28 @@
         <v>관리자</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="D36" s="2" t="str">
         <f>VLOOKUP($C36,table!$B:$D,2,FALSE)</f>
-        <v>T_SUBCONTRACT</v>
+        <v>T_SUPPLIER</v>
       </c>
       <c r="E36" s="63">
         <v>1</v>
       </c>
       <c r="F36" s="97" t="str">
-        <f t="shared" ref="F36:F39" si="0">D36&amp;"_PK"</f>
-        <v>T_SUBCONTRACT_PK</v>
+        <f t="shared" ref="F36:F40" si="0">D36&amp;"_PK"</f>
+        <v>T_SUPPLIER_PK</v>
       </c>
       <c r="G36" s="63">
         <v>1</v>
       </c>
       <c r="H36" s="62" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>VLOOKUP($H36,domain!$B:$D,2,FALSE)</f>
-        <v>SUBCONTRACT_ID</v>
+        <v>SUPPLIER_ID</v>
       </c>
       <c r="J36" s="83" t="s">
         <v>130</v>
@@ -26794,77 +27450,77 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51">
         <v>35</v>
       </c>
       <c r="B37" s="51" t="str">
         <f>VLOOKUP($C37,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>1168</v>
+        <v>관리자</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>1191</v>
       </c>
       <c r="D37" s="2" t="str">
         <f>VLOOKUP($C37,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_CODE</v>
-      </c>
-      <c r="E37" s="63">
+        <v>T_SUPPLIER_MANAGER</v>
+      </c>
+      <c r="E37" s="101">
         <v>1</v>
       </c>
-      <c r="F37" s="97" t="str">
-        <f t="shared" si="0"/>
-        <v>T_PACKAGING_CODE_PK</v>
-      </c>
-      <c r="G37" s="63">
+      <c r="F37" s="100" t="str">
+        <f t="shared" ref="F37" si="1">D37&amp;"_PK"</f>
+        <v>T_SUPPLIER_MANAGER_PK</v>
+      </c>
+      <c r="G37" s="101">
         <v>1</v>
       </c>
-      <c r="H37" s="62" t="s">
-        <v>1171</v>
+      <c r="H37" s="100" t="s">
+        <v>1193</v>
       </c>
       <c r="I37" s="2" t="str">
         <f>VLOOKUP($H37,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_ID</v>
+        <v>MANAGER_ID</v>
       </c>
       <c r="J37" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="K37" s="96" t="s">
+      <c r="K37" s="101" t="s">
         <v>131</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="51">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="51" t="str">
         <f>VLOOKUP($C38,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>VLOOKUP($C38,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E38" s="63">
         <v>1</v>
       </c>
       <c r="F38" s="97" t="str">
         <f t="shared" si="0"/>
-        <v>T_PACKAGING_QUESTION_PK</v>
+        <v>T_PACKAGING_CODE_PK</v>
       </c>
       <c r="G38" s="63">
         <v>1</v>
       </c>
       <c r="H38" s="62" t="s">
-        <v>1173</v>
+        <v>1190</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>VLOOKUP($H38,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_ID</v>
+        <v>CODE_ID</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>130</v>
@@ -26876,35 +27532,35 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="51">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="51" t="str">
         <f>VLOOKUP($C39,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="D39" s="2" t="str">
         <f>VLOOKUP($C39,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
+        <v>T_PACKAGING_QUESTION</v>
       </c>
       <c r="E39" s="63">
         <v>1</v>
       </c>
       <c r="F39" s="97" t="str">
         <f t="shared" si="0"/>
-        <v>T_PACKAGING_PK</v>
+        <v>T_PACKAGING_QUESTION_PK</v>
       </c>
       <c r="G39" s="63">
         <v>1</v>
       </c>
       <c r="H39" s="62" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>VLOOKUP($H39,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_ID</v>
+        <v>QUESTION_ID</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>130</v>
@@ -26915,17 +27571,43 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
+      <c r="A40" s="51">
+        <v>37</v>
+      </c>
+      <c r="B40" s="51" t="str">
+        <f>VLOOKUP($C40,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C40" s="98" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>VLOOKUP($C40,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E40" s="63">
+        <v>1</v>
+      </c>
+      <c r="F40" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>T_PACKAGING_PK</v>
+      </c>
+      <c r="G40" s="63">
+        <v>1</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>VLOOKUP($H40,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_ID</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="96" t="s">
+        <v>131</v>
+      </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -26942,8 +27624,37 @@
       <c r="K41" s="63"/>
       <c r="L41" s="2"/>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="J31:J32"/>
@@ -26960,21 +27671,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27004,37 +27700,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="str">
+      <c r="A3" s="123" t="str">
         <f>VLOOKUP(C3,table!B:D,3,FALSE)</f>
         <v>로그</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="120" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="116" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117" t="str">
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="120" t="str">
         <f>VLOOKUP(C3,table!B:D,2,FALSE)</f>
         <v>T_LOG_REF_INFO</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="116"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="123"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -27061,7 +27757,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="116"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="8" t="s">
         <v>793</v>
       </c>
@@ -28382,47 +29078,47 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="116" t="str">
+      <c r="A58" s="123" t="str">
         <f>VLOOKUP(C58,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B58" s="116"/>
-      <c r="C58" s="117" t="s">
+      <c r="B58" s="123"/>
+      <c r="C58" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="116" t="s">
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="123" t="s">
         <v>156</v>
       </c>
       <c r="M58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="116"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="117" t="str">
+      <c r="A59" s="123"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="120" t="str">
         <f>VLOOKUP(C58,table!B:D,2,FALSE)</f>
         <v>T_CODE</v>
       </c>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="116"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="123"/>
       <c r="M59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -28462,7 +29158,7 @@
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="116"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="8" t="s">
         <v>54</v>
       </c>
@@ -31454,43 +32150,43 @@
       <c r="J143" s="12"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A144" s="116" t="str">
+      <c r="A144" s="123" t="str">
         <f>VLOOKUP(C144,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B144" s="116"/>
-      <c r="C144" s="117" t="s">
+      <c r="B144" s="123"/>
+      <c r="C144" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D144" s="117"/>
-      <c r="E144" s="117"/>
-      <c r="F144" s="117"/>
-      <c r="G144" s="117"/>
-      <c r="H144" s="117"/>
-      <c r="I144" s="117"/>
-      <c r="J144" s="117"/>
-      <c r="K144" s="116" t="s">
+      <c r="D144" s="120"/>
+      <c r="E144" s="120"/>
+      <c r="F144" s="120"/>
+      <c r="G144" s="120"/>
+      <c r="H144" s="120"/>
+      <c r="I144" s="120"/>
+      <c r="J144" s="120"/>
+      <c r="K144" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="116"/>
-      <c r="B145" s="116"/>
-      <c r="C145" s="117" t="str">
+      <c r="A145" s="123"/>
+      <c r="B145" s="123"/>
+      <c r="C145" s="120" t="str">
         <f>VLOOKUP(C144,table!B:D,2,FALSE)</f>
         <v>T_DEPT</v>
       </c>
-      <c r="D145" s="117"/>
-      <c r="E145" s="117"/>
-      <c r="F145" s="117"/>
-      <c r="G145" s="117"/>
-      <c r="H145" s="117"/>
-      <c r="I145" s="117"/>
-      <c r="J145" s="117"/>
-      <c r="K145" s="116"/>
+      <c r="D145" s="120"/>
+      <c r="E145" s="120"/>
+      <c r="F145" s="120"/>
+      <c r="G145" s="120"/>
+      <c r="H145" s="120"/>
+      <c r="I145" s="120"/>
+      <c r="J145" s="120"/>
+      <c r="K145" s="123"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="116" t="s">
+      <c r="A146" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -31526,7 +32222,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" s="116"/>
+      <c r="A147" s="123"/>
       <c r="B147" s="8" t="s">
         <v>74</v>
       </c>
@@ -31969,41 +32665,41 @@
       <c r="E161" s="10"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162" s="116" t="str">
+      <c r="A162" s="123" t="str">
         <f>VLOOKUP(C162,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B162" s="116"/>
-      <c r="C162" s="117" t="s">
+      <c r="B162" s="123"/>
+      <c r="C162" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D162" s="117"/>
-      <c r="E162" s="117"/>
-      <c r="F162" s="117"/>
-      <c r="G162" s="117"/>
-      <c r="H162" s="117"/>
-      <c r="I162" s="117"/>
-      <c r="J162" s="116" t="s">
+      <c r="D162" s="120"/>
+      <c r="E162" s="120"/>
+      <c r="F162" s="120"/>
+      <c r="G162" s="120"/>
+      <c r="H162" s="120"/>
+      <c r="I162" s="120"/>
+      <c r="J162" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" s="116"/>
-      <c r="B163" s="116"/>
-      <c r="C163" s="117" t="str">
+      <c r="A163" s="123"/>
+      <c r="B163" s="123"/>
+      <c r="C163" s="120" t="str">
         <f>VLOOKUP(C162,table!B:D,2,FALSE)</f>
         <v>T_HDEPT</v>
       </c>
-      <c r="D163" s="117"/>
-      <c r="E163" s="117"/>
-      <c r="F163" s="117"/>
-      <c r="G163" s="117"/>
-      <c r="H163" s="117"/>
-      <c r="I163" s="117"/>
-      <c r="J163" s="116"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="120"/>
+      <c r="F163" s="120"/>
+      <c r="G163" s="120"/>
+      <c r="H163" s="120"/>
+      <c r="I163" s="120"/>
+      <c r="J163" s="123"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A164" s="116" t="s">
+      <c r="A164" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B164" s="8" t="s">
@@ -32036,7 +32732,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A165" s="116"/>
+      <c r="A165" s="123"/>
       <c r="B165" s="8" t="s">
         <v>70</v>
       </c>
@@ -32148,41 +32844,41 @@
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171" s="116" t="str">
+      <c r="A171" s="123" t="str">
         <f>VLOOKUP(C171,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B171" s="116"/>
-      <c r="C171" s="117" t="s">
+      <c r="B171" s="123"/>
+      <c r="C171" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="117"/>
-      <c r="E171" s="117"/>
-      <c r="F171" s="117"/>
-      <c r="G171" s="117"/>
-      <c r="H171" s="117"/>
-      <c r="I171" s="117"/>
-      <c r="J171" s="116" t="s">
+      <c r="D171" s="120"/>
+      <c r="E171" s="120"/>
+      <c r="F171" s="120"/>
+      <c r="G171" s="120"/>
+      <c r="H171" s="120"/>
+      <c r="I171" s="120"/>
+      <c r="J171" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="116"/>
-      <c r="B172" s="116"/>
-      <c r="C172" s="117" t="str">
+      <c r="A172" s="123"/>
+      <c r="B172" s="123"/>
+      <c r="C172" s="120" t="str">
         <f>VLOOKUP(C171,table!B:D,2,FALSE)</f>
         <v>T_PSTN</v>
       </c>
-      <c r="D172" s="117"/>
-      <c r="E172" s="117"/>
-      <c r="F172" s="117"/>
-      <c r="G172" s="117"/>
-      <c r="H172" s="117"/>
-      <c r="I172" s="117"/>
-      <c r="J172" s="116"/>
+      <c r="D172" s="120"/>
+      <c r="E172" s="120"/>
+      <c r="F172" s="120"/>
+      <c r="G172" s="120"/>
+      <c r="H172" s="120"/>
+      <c r="I172" s="120"/>
+      <c r="J172" s="123"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173" s="116" t="s">
+      <c r="A173" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B173" s="8" t="s">
@@ -32215,7 +32911,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A174" s="116"/>
+      <c r="A174" s="123"/>
       <c r="B174" s="8" t="s">
         <v>102</v>
       </c>
@@ -32312,67 +33008,67 @@
       </c>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A180" s="123" t="s">
+      <c r="A180" s="121" t="s">
         <v>371</v>
       </c>
-      <c r="B180" s="124"/>
-      <c r="C180" s="124"/>
-      <c r="D180" s="124"/>
-      <c r="E180" s="124"/>
-      <c r="F180" s="124"/>
-      <c r="G180" s="124"/>
-      <c r="H180" s="124"/>
-      <c r="I180" s="124"/>
-      <c r="J180" s="124"/>
-      <c r="K180" s="124"/>
-      <c r="L180" s="124"/>
-      <c r="M180" s="124"/>
+      <c r="B180" s="122"/>
+      <c r="C180" s="122"/>
+      <c r="D180" s="122"/>
+      <c r="E180" s="122"/>
+      <c r="F180" s="122"/>
+      <c r="G180" s="122"/>
+      <c r="H180" s="122"/>
+      <c r="I180" s="122"/>
+      <c r="J180" s="122"/>
+      <c r="K180" s="122"/>
+      <c r="L180" s="122"/>
+      <c r="M180" s="122"/>
       <c r="N180" s="79"/>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A181" s="116" t="str">
+      <c r="A181" s="123" t="str">
         <f>VLOOKUP(C181,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B181" s="116"/>
-      <c r="C181" s="121" t="s">
+      <c r="B181" s="123"/>
+      <c r="C181" s="124" t="s">
         <v>986</v>
       </c>
-      <c r="D181" s="122"/>
-      <c r="E181" s="122"/>
-      <c r="F181" s="122"/>
-      <c r="G181" s="122"/>
-      <c r="H181" s="122"/>
-      <c r="I181" s="122"/>
-      <c r="J181" s="122"/>
-      <c r="K181" s="122"/>
-      <c r="L181" s="122"/>
-      <c r="M181" s="122"/>
-      <c r="N181" s="116" t="s">
+      <c r="D181" s="125"/>
+      <c r="E181" s="125"/>
+      <c r="F181" s="125"/>
+      <c r="G181" s="125"/>
+      <c r="H181" s="125"/>
+      <c r="I181" s="125"/>
+      <c r="J181" s="125"/>
+      <c r="K181" s="125"/>
+      <c r="L181" s="125"/>
+      <c r="M181" s="125"/>
+      <c r="N181" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A182" s="116"/>
-      <c r="B182" s="116"/>
-      <c r="C182" s="118" t="str">
+      <c r="A182" s="123"/>
+      <c r="B182" s="123"/>
+      <c r="C182" s="127" t="str">
         <f>VLOOKUP(C181,table!B:D,2,FALSE)</f>
         <v>T_COMPANY</v>
       </c>
-      <c r="D182" s="119"/>
-      <c r="E182" s="119"/>
-      <c r="F182" s="119"/>
-      <c r="G182" s="119"/>
-      <c r="H182" s="119"/>
-      <c r="I182" s="119"/>
-      <c r="J182" s="119"/>
-      <c r="K182" s="119"/>
-      <c r="L182" s="119"/>
-      <c r="M182" s="119"/>
-      <c r="N182" s="116"/>
+      <c r="D182" s="128"/>
+      <c r="E182" s="128"/>
+      <c r="F182" s="128"/>
+      <c r="G182" s="128"/>
+      <c r="H182" s="128"/>
+      <c r="I182" s="128"/>
+      <c r="J182" s="128"/>
+      <c r="K182" s="128"/>
+      <c r="L182" s="128"/>
+      <c r="M182" s="128"/>
+      <c r="N182" s="123"/>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A183" s="116" t="s">
+      <c r="A183" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B183" s="8" t="s">
@@ -32420,7 +33116,7 @@
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A184" s="116"/>
+      <c r="A184" s="123"/>
       <c r="B184" s="8" t="s">
         <v>996</v>
       </c>
@@ -32609,112 +33305,112 @@
       <c r="C190" s="10"/>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A191" s="123" t="s">
+      <c r="A191" s="121" t="s">
         <v>371</v>
       </c>
-      <c r="B191" s="124"/>
-      <c r="C191" s="124"/>
-      <c r="D191" s="124"/>
-      <c r="E191" s="124"/>
-      <c r="F191" s="124"/>
-      <c r="G191" s="124"/>
-      <c r="H191" s="124"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="124"/>
-      <c r="K191" s="124"/>
-      <c r="L191" s="124"/>
-      <c r="M191" s="124"/>
-      <c r="N191" s="124"/>
-      <c r="O191" s="124"/>
-      <c r="P191" s="124"/>
-      <c r="Q191" s="124"/>
-      <c r="R191" s="124"/>
-      <c r="S191" s="124"/>
-      <c r="T191" s="124"/>
-      <c r="U191" s="124"/>
-      <c r="V191" s="124"/>
-      <c r="W191" s="124"/>
-      <c r="X191" s="124"/>
-      <c r="Y191" s="124"/>
-      <c r="Z191" s="124"/>
-      <c r="AA191" s="124"/>
-      <c r="AB191" s="124"/>
-      <c r="AC191" s="124"/>
+      <c r="B191" s="122"/>
+      <c r="C191" s="122"/>
+      <c r="D191" s="122"/>
+      <c r="E191" s="122"/>
+      <c r="F191" s="122"/>
+      <c r="G191" s="122"/>
+      <c r="H191" s="122"/>
+      <c r="I191" s="122"/>
+      <c r="J191" s="122"/>
+      <c r="K191" s="122"/>
+      <c r="L191" s="122"/>
+      <c r="M191" s="122"/>
+      <c r="N191" s="122"/>
+      <c r="O191" s="122"/>
+      <c r="P191" s="122"/>
+      <c r="Q191" s="122"/>
+      <c r="R191" s="122"/>
+      <c r="S191" s="122"/>
+      <c r="T191" s="122"/>
+      <c r="U191" s="122"/>
+      <c r="V191" s="122"/>
+      <c r="W191" s="122"/>
+      <c r="X191" s="122"/>
+      <c r="Y191" s="122"/>
+      <c r="Z191" s="122"/>
+      <c r="AA191" s="122"/>
+      <c r="AB191" s="122"/>
+      <c r="AC191" s="122"/>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A192" s="116" t="str">
+      <c r="A192" s="123" t="str">
         <f>VLOOKUP(C192,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B192" s="116"/>
-      <c r="C192" s="121" t="s">
+      <c r="B192" s="123"/>
+      <c r="C192" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D192" s="122"/>
-      <c r="E192" s="122"/>
-      <c r="F192" s="122"/>
-      <c r="G192" s="122"/>
-      <c r="H192" s="122"/>
-      <c r="I192" s="122"/>
-      <c r="J192" s="122"/>
-      <c r="K192" s="122"/>
-      <c r="L192" s="122"/>
-      <c r="M192" s="122"/>
-      <c r="N192" s="122"/>
-      <c r="O192" s="122"/>
-      <c r="P192" s="122"/>
-      <c r="Q192" s="122"/>
-      <c r="R192" s="122"/>
-      <c r="S192" s="122"/>
-      <c r="T192" s="122"/>
-      <c r="U192" s="122"/>
-      <c r="V192" s="122"/>
-      <c r="W192" s="122"/>
-      <c r="X192" s="122"/>
-      <c r="Y192" s="122"/>
-      <c r="Z192" s="122"/>
-      <c r="AA192" s="122"/>
-      <c r="AB192" s="125"/>
-      <c r="AC192" s="116" t="s">
+      <c r="D192" s="125"/>
+      <c r="E192" s="125"/>
+      <c r="F192" s="125"/>
+      <c r="G192" s="125"/>
+      <c r="H192" s="125"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="125"/>
+      <c r="L192" s="125"/>
+      <c r="M192" s="125"/>
+      <c r="N192" s="125"/>
+      <c r="O192" s="125"/>
+      <c r="P192" s="125"/>
+      <c r="Q192" s="125"/>
+      <c r="R192" s="125"/>
+      <c r="S192" s="125"/>
+      <c r="T192" s="125"/>
+      <c r="U192" s="125"/>
+      <c r="V192" s="125"/>
+      <c r="W192" s="125"/>
+      <c r="X192" s="125"/>
+      <c r="Y192" s="125"/>
+      <c r="Z192" s="125"/>
+      <c r="AA192" s="125"/>
+      <c r="AB192" s="126"/>
+      <c r="AC192" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A193" s="116"/>
-      <c r="B193" s="116"/>
-      <c r="C193" s="121" t="str">
+      <c r="A193" s="123"/>
+      <c r="B193" s="123"/>
+      <c r="C193" s="124" t="str">
         <f>VLOOKUP(C192,table!B:D,2,FALSE)</f>
         <v>T_USER</v>
       </c>
-      <c r="D193" s="122"/>
-      <c r="E193" s="122"/>
-      <c r="F193" s="122"/>
-      <c r="G193" s="122"/>
-      <c r="H193" s="122"/>
-      <c r="I193" s="122"/>
-      <c r="J193" s="122"/>
-      <c r="K193" s="122"/>
-      <c r="L193" s="122"/>
-      <c r="M193" s="122"/>
-      <c r="N193" s="122"/>
-      <c r="O193" s="122"/>
-      <c r="P193" s="122"/>
-      <c r="Q193" s="122"/>
-      <c r="R193" s="122"/>
-      <c r="S193" s="122"/>
-      <c r="T193" s="122"/>
-      <c r="U193" s="122"/>
-      <c r="V193" s="122"/>
-      <c r="W193" s="122"/>
-      <c r="X193" s="122"/>
-      <c r="Y193" s="122"/>
-      <c r="Z193" s="122"/>
-      <c r="AA193" s="122"/>
-      <c r="AB193" s="125"/>
-      <c r="AC193" s="116"/>
+      <c r="D193" s="125"/>
+      <c r="E193" s="125"/>
+      <c r="F193" s="125"/>
+      <c r="G193" s="125"/>
+      <c r="H193" s="125"/>
+      <c r="I193" s="125"/>
+      <c r="J193" s="125"/>
+      <c r="K193" s="125"/>
+      <c r="L193" s="125"/>
+      <c r="M193" s="125"/>
+      <c r="N193" s="125"/>
+      <c r="O193" s="125"/>
+      <c r="P193" s="125"/>
+      <c r="Q193" s="125"/>
+      <c r="R193" s="125"/>
+      <c r="S193" s="125"/>
+      <c r="T193" s="125"/>
+      <c r="U193" s="125"/>
+      <c r="V193" s="125"/>
+      <c r="W193" s="125"/>
+      <c r="X193" s="125"/>
+      <c r="Y193" s="125"/>
+      <c r="Z193" s="125"/>
+      <c r="AA193" s="125"/>
+      <c r="AB193" s="126"/>
+      <c r="AC193" s="123"/>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A194" s="116" t="s">
+      <c r="A194" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
@@ -32810,7 +33506,7 @@
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A195" s="116"/>
+      <c r="A195" s="123"/>
       <c r="B195" s="8" t="s">
         <v>79</v>
       </c>
@@ -34518,27 +35214,27 @@
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A219" s="100" t="s">
+      <c r="A219" s="104" t="s">
         <v>547</v>
       </c>
-      <c r="B219" s="100"/>
-      <c r="C219" s="100"/>
-      <c r="D219" s="100"/>
-      <c r="E219" s="100"/>
-      <c r="F219" s="100"/>
+      <c r="B219" s="104"/>
+      <c r="C219" s="104"/>
+      <c r="D219" s="104"/>
+      <c r="E219" s="104"/>
+      <c r="F219" s="104"/>
     </row>
     <row r="220" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="116" t="str">
+      <c r="A220" s="123" t="str">
         <f>VLOOKUP(C220,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B220" s="116"/>
-      <c r="C220" s="117" t="s">
+      <c r="B220" s="123"/>
+      <c r="C220" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="D220" s="117"/>
-      <c r="E220" s="117"/>
-      <c r="F220" s="116" t="s">
+      <c r="D220" s="120"/>
+      <c r="E220" s="120"/>
+      <c r="F220" s="123" t="s">
         <v>156</v>
       </c>
       <c r="G220"/>
@@ -34565,18 +35261,18 @@
       <c r="AC220"/>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A221" s="116"/>
-      <c r="B221" s="116"/>
-      <c r="C221" s="117" t="str">
+      <c r="A221" s="123"/>
+      <c r="B221" s="123"/>
+      <c r="C221" s="120" t="str">
         <f>VLOOKUP(C220,table!B:D,2,FALSE)</f>
         <v>T_USER_TEST</v>
       </c>
-      <c r="D221" s="117"/>
-      <c r="E221" s="117"/>
-      <c r="F221" s="116"/>
+      <c r="D221" s="120"/>
+      <c r="E221" s="120"/>
+      <c r="F221" s="123"/>
     </row>
     <row r="222" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="116" t="s">
+      <c r="A222" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
@@ -34619,7 +35315,7 @@
       <c r="AC222"/>
     </row>
     <row r="223" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="116"/>
+      <c r="A223" s="123"/>
       <c r="B223" s="8" t="s">
         <v>79</v>
       </c>
@@ -35337,27 +36033,27 @@
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A246" s="116" t="str">
+      <c r="A246" s="123" t="str">
         <f>VLOOKUP(C246,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B246" s="116"/>
-      <c r="C246" s="118" t="s">
+      <c r="B246" s="123"/>
+      <c r="C246" s="127" t="s">
         <v>657</v>
       </c>
-      <c r="D246" s="119"/>
-      <c r="E246" s="119"/>
-      <c r="F246" s="119"/>
-      <c r="G246" s="119"/>
-      <c r="H246" s="119"/>
-      <c r="I246" s="119"/>
-      <c r="J246" s="119"/>
-      <c r="K246" s="119"/>
-      <c r="L246" s="119"/>
-      <c r="M246" s="119"/>
-      <c r="N246" s="119"/>
-      <c r="O246" s="120"/>
-      <c r="P246" s="116" t="s">
+      <c r="D246" s="128"/>
+      <c r="E246" s="128"/>
+      <c r="F246" s="128"/>
+      <c r="G246" s="128"/>
+      <c r="H246" s="128"/>
+      <c r="I246" s="128"/>
+      <c r="J246" s="128"/>
+      <c r="K246" s="128"/>
+      <c r="L246" s="128"/>
+      <c r="M246" s="128"/>
+      <c r="N246" s="128"/>
+      <c r="O246" s="129"/>
+      <c r="P246" s="123" t="s">
         <v>156</v>
       </c>
       <c r="Q246" s="41"/>
@@ -35375,25 +36071,25 @@
       <c r="AC246" s="41"/>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A247" s="116"/>
-      <c r="B247" s="116"/>
-      <c r="C247" s="118" t="str">
+      <c r="A247" s="123"/>
+      <c r="B247" s="123"/>
+      <c r="C247" s="127" t="str">
         <f>VLOOKUP(C246,table!B:D,2,FALSE)</f>
         <v>T_DEPT_CL</v>
       </c>
-      <c r="D247" s="119"/>
-      <c r="E247" s="119"/>
-      <c r="F247" s="119"/>
-      <c r="G247" s="119"/>
-      <c r="H247" s="119"/>
-      <c r="I247" s="119"/>
-      <c r="J247" s="119"/>
-      <c r="K247" s="119"/>
-      <c r="L247" s="119"/>
-      <c r="M247" s="119"/>
-      <c r="N247" s="119"/>
-      <c r="O247" s="120"/>
-      <c r="P247" s="116"/>
+      <c r="D247" s="128"/>
+      <c r="E247" s="128"/>
+      <c r="F247" s="128"/>
+      <c r="G247" s="128"/>
+      <c r="H247" s="128"/>
+      <c r="I247" s="128"/>
+      <c r="J247" s="128"/>
+      <c r="K247" s="128"/>
+      <c r="L247" s="128"/>
+      <c r="M247" s="128"/>
+      <c r="N247" s="128"/>
+      <c r="O247" s="129"/>
+      <c r="P247" s="123"/>
       <c r="Q247" s="41"/>
       <c r="R247" s="41"/>
       <c r="S247" s="41"/>
@@ -35409,7 +36105,7 @@
       <c r="AC247" s="41"/>
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A248" s="116" t="s">
+      <c r="A248" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
@@ -35473,7 +36169,7 @@
       <c r="AC248" s="41"/>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A249" s="116"/>
+      <c r="A249" s="123"/>
       <c r="B249" s="8" t="s">
         <v>74</v>
       </c>
@@ -36046,47 +36742,47 @@
       <c r="C259" s="10"/>
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A260" s="116" t="str">
+      <c r="A260" s="123" t="str">
         <f>VLOOKUP(C260,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B260" s="116"/>
-      <c r="C260" s="117" t="s">
+      <c r="B260" s="123"/>
+      <c r="C260" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="D260" s="117"/>
-      <c r="E260" s="117"/>
-      <c r="F260" s="117"/>
-      <c r="G260" s="117"/>
-      <c r="H260" s="117"/>
-      <c r="I260" s="117"/>
-      <c r="J260" s="117"/>
-      <c r="K260" s="117"/>
-      <c r="L260" s="117"/>
-      <c r="M260" s="116" t="s">
+      <c r="D260" s="120"/>
+      <c r="E260" s="120"/>
+      <c r="F260" s="120"/>
+      <c r="G260" s="120"/>
+      <c r="H260" s="120"/>
+      <c r="I260" s="120"/>
+      <c r="J260" s="120"/>
+      <c r="K260" s="120"/>
+      <c r="L260" s="120"/>
+      <c r="M260" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A261" s="116"/>
-      <c r="B261" s="116"/>
-      <c r="C261" s="117" t="str">
+      <c r="A261" s="123"/>
+      <c r="B261" s="123"/>
+      <c r="C261" s="120" t="str">
         <f>VLOOKUP(C260,table!B:D,2,FALSE)</f>
         <v>T_BBS_NOTICE</v>
       </c>
-      <c r="D261" s="117"/>
-      <c r="E261" s="117"/>
-      <c r="F261" s="117"/>
-      <c r="G261" s="117"/>
-      <c r="H261" s="117"/>
-      <c r="I261" s="117"/>
-      <c r="J261" s="117"/>
-      <c r="K261" s="117"/>
-      <c r="L261" s="117"/>
-      <c r="M261" s="116"/>
+      <c r="D261" s="120"/>
+      <c r="E261" s="120"/>
+      <c r="F261" s="120"/>
+      <c r="G261" s="120"/>
+      <c r="H261" s="120"/>
+      <c r="I261" s="120"/>
+      <c r="J261" s="120"/>
+      <c r="K261" s="120"/>
+      <c r="L261" s="120"/>
+      <c r="M261" s="123"/>
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A262" s="116" t="s">
+      <c r="A262" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
@@ -36128,7 +36824,7 @@
       </c>
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A263" s="116"/>
+      <c r="A263" s="123"/>
       <c r="B263" s="8" t="s">
         <v>277</v>
       </c>
@@ -36297,47 +36993,47 @@
       <c r="C269" s="10"/>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A270" s="116" t="str">
+      <c r="A270" s="123" t="str">
         <f>VLOOKUP(C270,table!B:D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="B270" s="116"/>
-      <c r="C270" s="117" t="s">
+      <c r="B270" s="123"/>
+      <c r="C270" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="D270" s="117"/>
-      <c r="E270" s="117"/>
-      <c r="F270" s="117"/>
-      <c r="G270" s="117"/>
-      <c r="H270" s="117"/>
-      <c r="I270" s="117"/>
-      <c r="J270" s="117"/>
-      <c r="K270" s="117"/>
-      <c r="L270" s="117"/>
-      <c r="M270" s="116" t="s">
+      <c r="D270" s="120"/>
+      <c r="E270" s="120"/>
+      <c r="F270" s="120"/>
+      <c r="G270" s="120"/>
+      <c r="H270" s="120"/>
+      <c r="I270" s="120"/>
+      <c r="J270" s="120"/>
+      <c r="K270" s="120"/>
+      <c r="L270" s="120"/>
+      <c r="M270" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A271" s="116"/>
-      <c r="B271" s="116"/>
-      <c r="C271" s="117" t="str">
+      <c r="A271" s="123"/>
+      <c r="B271" s="123"/>
+      <c r="C271" s="120" t="str">
         <f>VLOOKUP(C270,table!B:D,2,FALSE)</f>
         <v>T_BBS_FAQ</v>
       </c>
-      <c r="D271" s="117"/>
-      <c r="E271" s="117"/>
-      <c r="F271" s="117"/>
-      <c r="G271" s="117"/>
-      <c r="H271" s="117"/>
-      <c r="I271" s="117"/>
-      <c r="J271" s="117"/>
-      <c r="K271" s="117"/>
-      <c r="L271" s="117"/>
-      <c r="M271" s="116"/>
+      <c r="D271" s="120"/>
+      <c r="E271" s="120"/>
+      <c r="F271" s="120"/>
+      <c r="G271" s="120"/>
+      <c r="H271" s="120"/>
+      <c r="I271" s="120"/>
+      <c r="J271" s="120"/>
+      <c r="K271" s="120"/>
+      <c r="L271" s="120"/>
+      <c r="M271" s="123"/>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A272" s="116" t="s">
+      <c r="A272" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
@@ -36379,7 +37075,7 @@
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A273" s="116"/>
+      <c r="A273" s="123"/>
       <c r="B273" s="8" t="s">
         <v>279</v>
       </c>
@@ -36588,39 +37284,39 @@
       <c r="C280" s="10"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A281" s="116" t="str">
+      <c r="A281" s="123" t="str">
         <f>VLOOKUP(C281,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B281" s="116"/>
-      <c r="C281" s="117" t="s">
+      <c r="B281" s="123"/>
+      <c r="C281" s="120" t="s">
         <v>960</v>
       </c>
-      <c r="D281" s="117"/>
-      <c r="E281" s="117"/>
-      <c r="F281" s="117"/>
-      <c r="G281" s="117"/>
-      <c r="H281" s="117"/>
-      <c r="I281" s="116" t="s">
+      <c r="D281" s="120"/>
+      <c r="E281" s="120"/>
+      <c r="F281" s="120"/>
+      <c r="G281" s="120"/>
+      <c r="H281" s="120"/>
+      <c r="I281" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A282" s="116"/>
-      <c r="B282" s="116"/>
-      <c r="C282" s="117" t="str">
+      <c r="A282" s="123"/>
+      <c r="B282" s="123"/>
+      <c r="C282" s="120" t="str">
         <f>VLOOKUP(C281,table!B:D,2,FALSE)</f>
         <v>T_GROUP</v>
       </c>
-      <c r="D282" s="117"/>
-      <c r="E282" s="117"/>
-      <c r="F282" s="117"/>
-      <c r="G282" s="117"/>
-      <c r="H282" s="117"/>
-      <c r="I282" s="116"/>
+      <c r="D282" s="120"/>
+      <c r="E282" s="120"/>
+      <c r="F282" s="120"/>
+      <c r="G282" s="120"/>
+      <c r="H282" s="120"/>
+      <c r="I282" s="123"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A283" s="116" t="s">
+      <c r="A283" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B283" s="8" t="s">
@@ -36650,7 +37346,7 @@
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A284" s="116"/>
+      <c r="A284" s="123"/>
       <c r="B284" s="8" t="s">
         <v>79</v>
       </c>
@@ -36948,22 +37644,22 @@
       <c r="AC294"/>
     </row>
     <row r="295" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="116" t="str">
+      <c r="A295" s="123" t="str">
         <f>VLOOKUP(C295,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B295" s="116"/>
-      <c r="C295" s="117" t="s">
+      <c r="B295" s="123"/>
+      <c r="C295" s="120" t="s">
         <v>961</v>
       </c>
-      <c r="D295" s="117"/>
-      <c r="E295" s="117"/>
-      <c r="F295" s="117"/>
-      <c r="G295" s="117"/>
-      <c r="H295" s="117"/>
-      <c r="I295" s="117"/>
-      <c r="J295" s="117"/>
-      <c r="K295" s="116" t="s">
+      <c r="D295" s="120"/>
+      <c r="E295" s="120"/>
+      <c r="F295" s="120"/>
+      <c r="G295" s="120"/>
+      <c r="H295" s="120"/>
+      <c r="I295" s="120"/>
+      <c r="J295" s="120"/>
+      <c r="K295" s="123" t="s">
         <v>156</v>
       </c>
       <c r="L295"/>
@@ -36985,20 +37681,20 @@
       <c r="AC295"/>
     </row>
     <row r="296" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="116"/>
-      <c r="B296" s="116"/>
-      <c r="C296" s="117" t="str">
+      <c r="A296" s="123"/>
+      <c r="B296" s="123"/>
+      <c r="C296" s="120" t="str">
         <f>VLOOKUP(C295,table!B:D,2,FALSE)</f>
         <v>T_GROUP_AUTH</v>
       </c>
-      <c r="D296" s="117"/>
-      <c r="E296" s="117"/>
-      <c r="F296" s="117"/>
-      <c r="G296" s="117"/>
-      <c r="H296" s="117"/>
-      <c r="I296" s="117"/>
-      <c r="J296" s="117"/>
-      <c r="K296" s="116"/>
+      <c r="D296" s="120"/>
+      <c r="E296" s="120"/>
+      <c r="F296" s="120"/>
+      <c r="G296" s="120"/>
+      <c r="H296" s="120"/>
+      <c r="I296" s="120"/>
+      <c r="J296" s="120"/>
+      <c r="K296" s="123"/>
       <c r="L296"/>
       <c r="N296"/>
       <c r="O296"/>
@@ -37018,7 +37714,7 @@
       <c r="AC296"/>
     </row>
     <row r="297" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="116" t="s">
+      <c r="A297" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B297" s="8" t="s">
@@ -37074,7 +37770,7 @@
       <c r="AD297"/>
     </row>
     <row r="298" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="116"/>
+      <c r="A298" s="123"/>
       <c r="B298" s="8" t="s">
         <v>46</v>
       </c>
@@ -37385,27 +38081,27 @@
       <c r="AC304"/>
     </row>
     <row r="305" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="116" t="str">
+      <c r="A305" s="123" t="str">
         <f>VLOOKUP(C305,table!B:D,3,FALSE)</f>
         <v>관리자</v>
       </c>
-      <c r="B305" s="116"/>
-      <c r="C305" s="117" t="s">
+      <c r="B305" s="123"/>
+      <c r="C305" s="120" t="s">
         <v>984</v>
       </c>
-      <c r="D305" s="117"/>
-      <c r="E305" s="117"/>
-      <c r="F305" s="117"/>
-      <c r="G305" s="117"/>
-      <c r="H305" s="117"/>
-      <c r="I305" s="117"/>
-      <c r="J305" s="117"/>
-      <c r="K305" s="117"/>
-      <c r="L305" s="117"/>
-      <c r="M305" s="117"/>
-      <c r="N305" s="117"/>
-      <c r="O305" s="117"/>
-      <c r="P305" s="116" t="s">
+      <c r="D305" s="120"/>
+      <c r="E305" s="120"/>
+      <c r="F305" s="120"/>
+      <c r="G305" s="120"/>
+      <c r="H305" s="120"/>
+      <c r="I305" s="120"/>
+      <c r="J305" s="120"/>
+      <c r="K305" s="120"/>
+      <c r="L305" s="120"/>
+      <c r="M305" s="120"/>
+      <c r="N305" s="120"/>
+      <c r="O305" s="120"/>
+      <c r="P305" s="123" t="s">
         <v>156</v>
       </c>
       <c r="Q305" t="s">
@@ -37425,25 +38121,25 @@
       <c r="AC305"/>
     </row>
     <row r="306" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="116"/>
-      <c r="B306" s="116"/>
-      <c r="C306" s="117" t="str">
+      <c r="A306" s="123"/>
+      <c r="B306" s="123"/>
+      <c r="C306" s="120" t="str">
         <f>VLOOKUP(C305,table!B:D,2,FALSE)</f>
         <v>T_GROUP_MENU</v>
       </c>
-      <c r="D306" s="117"/>
-      <c r="E306" s="117"/>
-      <c r="F306" s="117"/>
-      <c r="G306" s="117"/>
-      <c r="H306" s="117"/>
-      <c r="I306" s="117"/>
-      <c r="J306" s="117"/>
-      <c r="K306" s="117"/>
-      <c r="L306" s="117"/>
-      <c r="M306" s="117"/>
-      <c r="N306" s="117"/>
+      <c r="D306" s="120"/>
+      <c r="E306" s="120"/>
+      <c r="F306" s="120"/>
+      <c r="G306" s="120"/>
+      <c r="H306" s="120"/>
+      <c r="I306" s="120"/>
+      <c r="J306" s="120"/>
+      <c r="K306" s="120"/>
+      <c r="L306" s="120"/>
+      <c r="M306" s="120"/>
+      <c r="N306" s="120"/>
       <c r="O306" s="2"/>
-      <c r="P306" s="116"/>
+      <c r="P306" s="123"/>
       <c r="Q306" t="s">
         <v>768</v>
       </c>
@@ -37461,7 +38157,7 @@
       <c r="AC306"/>
     </row>
     <row r="307" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="116" t="s">
+      <c r="A307" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B307" s="8" t="s">
@@ -37525,7 +38221,7 @@
       <c r="AC307"/>
     </row>
     <row r="308" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="116"/>
+      <c r="A308" s="123"/>
       <c r="B308" s="8" t="s">
         <v>13</v>
       </c>
@@ -39032,41 +39728,41 @@
       <c r="O338" s="10"/>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A341" s="116" t="e">
+      <c r="A341" s="123" t="e">
         <f>VLOOKUP(C341,table!B:D,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B341" s="116"/>
-      <c r="C341" s="117" t="s">
+      <c r="B341" s="123"/>
+      <c r="C341" s="120" t="s">
         <v>985</v>
       </c>
-      <c r="D341" s="117"/>
-      <c r="E341" s="117"/>
-      <c r="F341" s="117"/>
-      <c r="G341" s="117"/>
-      <c r="H341" s="117"/>
-      <c r="I341" s="117"/>
-      <c r="J341" s="116" t="s">
+      <c r="D341" s="120"/>
+      <c r="E341" s="120"/>
+      <c r="F341" s="120"/>
+      <c r="G341" s="120"/>
+      <c r="H341" s="120"/>
+      <c r="I341" s="120"/>
+      <c r="J341" s="123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A342" s="116"/>
-      <c r="B342" s="116"/>
-      <c r="C342" s="117" t="e">
+      <c r="A342" s="123"/>
+      <c r="B342" s="123"/>
+      <c r="C342" s="120" t="e">
         <f>VLOOKUP(C341,table!B:D,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D342" s="117"/>
-      <c r="E342" s="117"/>
-      <c r="F342" s="117"/>
-      <c r="G342" s="117"/>
-      <c r="H342" s="117"/>
-      <c r="I342" s="117"/>
-      <c r="J342" s="116"/>
+      <c r="D342" s="120"/>
+      <c r="E342" s="120"/>
+      <c r="F342" s="120"/>
+      <c r="G342" s="120"/>
+      <c r="H342" s="120"/>
+      <c r="I342" s="120"/>
+      <c r="J342" s="123"/>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A343" s="116" t="s">
+      <c r="A343" s="123" t="s">
         <v>157</v>
       </c>
       <c r="B343" s="8" t="s">
@@ -39099,7 +39795,7 @@
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A344" s="116"/>
+      <c r="A344" s="123"/>
       <c r="B344" s="8" t="s">
         <v>46</v>
       </c>
@@ -40302,42 +40998,25 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="C295:J295"/>
-    <mergeCell ref="C162:I162"/>
-    <mergeCell ref="C172:I172"/>
-    <mergeCell ref="C171:I171"/>
-    <mergeCell ref="A191:AC191"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:AB192"/>
-    <mergeCell ref="AC192:AC193"/>
-    <mergeCell ref="C193:AB193"/>
-    <mergeCell ref="M270:M271"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A305:B306"/>
-    <mergeCell ref="C296:J296"/>
-    <mergeCell ref="C282:H282"/>
-    <mergeCell ref="C271:L271"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="A295:B296"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A281:B282"/>
-    <mergeCell ref="C281:H281"/>
-    <mergeCell ref="A270:B271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="C270:L270"/>
-    <mergeCell ref="K295:K296"/>
-    <mergeCell ref="I281:I282"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="A341:B342"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="A144:B145"/>
-    <mergeCell ref="A162:B163"/>
-    <mergeCell ref="A171:B172"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C246:O246"/>
+    <mergeCell ref="C247:O247"/>
+    <mergeCell ref="C182:M182"/>
+    <mergeCell ref="C181:M181"/>
+    <mergeCell ref="A180:M180"/>
+    <mergeCell ref="N181:N182"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A181:B182"/>
+    <mergeCell ref="P305:P306"/>
+    <mergeCell ref="C305:O305"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="C341:I341"/>
+    <mergeCell ref="J341:J342"/>
+    <mergeCell ref="C306:N306"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="L58:L59"/>
     <mergeCell ref="C145:J145"/>
     <mergeCell ref="C144:J144"/>
@@ -40354,32 +41033,49 @@
     <mergeCell ref="A173:A174"/>
     <mergeCell ref="J162:J163"/>
     <mergeCell ref="C163:I163"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="P305:P306"/>
-    <mergeCell ref="C305:O305"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="C341:I341"/>
-    <mergeCell ref="J341:J342"/>
-    <mergeCell ref="C306:N306"/>
+    <mergeCell ref="A343:A344"/>
+    <mergeCell ref="A341:B342"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="A162:B163"/>
+    <mergeCell ref="A171:B172"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A305:B306"/>
+    <mergeCell ref="C296:J296"/>
+    <mergeCell ref="C282:H282"/>
+    <mergeCell ref="C271:L271"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="A295:B296"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A281:B282"/>
+    <mergeCell ref="C281:H281"/>
+    <mergeCell ref="A270:B271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="C270:L270"/>
+    <mergeCell ref="K295:K296"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="C295:J295"/>
+    <mergeCell ref="C162:I162"/>
+    <mergeCell ref="C172:I172"/>
+    <mergeCell ref="C171:I171"/>
+    <mergeCell ref="A191:AC191"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:AB192"/>
+    <mergeCell ref="AC192:AC193"/>
+    <mergeCell ref="C193:AB193"/>
+    <mergeCell ref="M270:M271"/>
+    <mergeCell ref="A262:A263"/>
     <mergeCell ref="P246:P247"/>
     <mergeCell ref="M260:M261"/>
     <mergeCell ref="C261:L261"/>
     <mergeCell ref="C260:L260"/>
     <mergeCell ref="J171:J172"/>
-    <mergeCell ref="C246:O246"/>
-    <mergeCell ref="C247:O247"/>
-    <mergeCell ref="C182:M182"/>
-    <mergeCell ref="C181:M181"/>
-    <mergeCell ref="A180:M180"/>
-    <mergeCell ref="N181:N182"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A181:B182"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubProject/script/table.xlsx
+++ b/SubProject/script/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinMin-Jang\git\SubProjsct\SubProject\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A74E3-D5FA-4708-BECF-837395221294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2C4FD0-DBD7-45E9-8A3E-935CF2EFE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="1214">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4419,6 +4419,46 @@
   </si>
   <si>
     <t>MANAGER_PSTN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경부 코드 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ENVIRONMENT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정 년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVISION_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVISION_MONTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4694,7 +4734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5084,6 +5124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6273,10 +6316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:I29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6350,8 +6393,8 @@
         <v>|||-- 공통 코드|DROP TABLE IF EXISTS T_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_CODE (|    GROUP_ID VARCHAR(64) NOT NULL COMMENT '그룹 ID'|  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'|  , CODE_NM VARCHAR(100) COMMENT '코드 명'|  , CODE_DSC VARCHAR(1000) COMMENT '코드 설명'|  , ORD_SEQ NUMERIC(5,0) COMMENT '정렬 순서'|  , USE_YN VARCHAR(1) DEFAULT 'N' COMMENT '사용 여부'|  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'|  , RGST_DT TIMESTAMP DEFAULT CURRENT_TIMESTAMP NOT NULL COMMENT '등록 일시'|  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'|  , MODI_DT TIMESTAMP DEFAULT CURRENT_TIMESTAMP NOT NULL COMMENT '수정 일시'|) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '코드[공통 코드]';|ALTER TABLE T_CODE ADD CONSTRAINT T_CODE_PK PRIMARY KEY();|-- CREATE INDEX T_CODE_IX1 ON T_CODE();</v>
       </c>
       <c r="I3" s="41" t="str">
-        <f t="shared" ref="I3:I19" si="0">"|||-- "&amp;D3&amp;"    "&amp;B3&amp;"|TRUNCATE TABLE "&amp;C3&amp;";"</f>
-        <v>|||-- 공통    코드|TRUNCATE TABLE T_CODE;</v>
+        <f>"||-- "&amp;D3&amp;"    "&amp;B3&amp;"|TRUNCATE TABLE "&amp;C3&amp;";"</f>
+        <v>||-- 공통    코드|TRUNCATE TABLE T_CODE;</v>
       </c>
       <c r="S3" s="41"/>
     </row>
@@ -6374,12 +6417,12 @@
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
       <c r="H4" s="41" t="str">
-        <f t="shared" ref="H4:H20" si="1">"|||-- "&amp;D4&amp;" "&amp;B4&amp;"|DROP TABLE IF EXISTS "&amp;C4&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C4&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B4&amp;IF(E4="","","["&amp;E4&amp;"]")&amp;"';|ALTER TABLE "&amp;C4&amp;" ADD CONSTRAINT "&amp;C4&amp;"_PK PRIMARY KEY();|-- CREATE INDEX "&amp;C4&amp;"_IX1 ON "&amp;C4&amp;"();"</f>
+        <f t="shared" ref="H4:H20" si="0">"|||-- "&amp;D4&amp;" "&amp;B4&amp;"|DROP TABLE IF EXISTS "&amp;C4&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C4&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B4&amp;IF(E4="","","["&amp;E4&amp;"]")&amp;"';|ALTER TABLE "&amp;C4&amp;" ADD CONSTRAINT "&amp;C4&amp;"_PK PRIMARY KEY();|-- CREATE INDEX "&amp;C4&amp;"_IX1 ON "&amp;C4&amp;"();"</f>
         <v>|||-- 공통 부서|DROP TABLE IF EXISTS T_DEPT CASCADE;|CREATE TABLE IF NOT EXISTS T_DEPT (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '부서[부서 정보]';|ALTER TABLE T_DEPT ADD CONSTRAINT T_DEPT_PK PRIMARY KEY();|-- CREATE INDEX T_DEPT_IX1 ON T_DEPT();</v>
       </c>
       <c r="I4" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    부서|TRUNCATE TABLE T_DEPT;</v>
+        <f t="shared" ref="I4:I33" si="1">"||-- "&amp;D4&amp;"    "&amp;B4&amp;"|TRUNCATE TABLE "&amp;C4&amp;";"</f>
+        <v>||-- 공통    부서|TRUNCATE TABLE T_DEPT;</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -6401,12 +6444,12 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 본부|DROP TABLE IF EXISTS T_HDEPT CASCADE;|CREATE TABLE IF NOT EXISTS T_HDEPT (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '본부[본부 정보]';|ALTER TABLE T_HDEPT ADD CONSTRAINT T_HDEPT_PK PRIMARY KEY();|-- CREATE INDEX T_HDEPT_IX1 ON T_HDEPT();</v>
+      </c>
+      <c r="I5" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 본부|DROP TABLE IF EXISTS T_HDEPT CASCADE;|CREATE TABLE IF NOT EXISTS T_HDEPT (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '본부[본부 정보]';|ALTER TABLE T_HDEPT ADD CONSTRAINT T_HDEPT_PK PRIMARY KEY();|-- CREATE INDEX T_HDEPT_IX1 ON T_HDEPT();</v>
-      </c>
-      <c r="I5" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    본부|TRUNCATE TABLE T_HDEPT;</v>
+        <v>||-- 공통    본부|TRUNCATE TABLE T_HDEPT;</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -6428,12 +6471,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="H6" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 직위|DROP TABLE IF EXISTS T_PSTN CASCADE;|CREATE TABLE IF NOT EXISTS T_PSTN (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '직위[직위 정보]';|ALTER TABLE T_PSTN ADD CONSTRAINT T_PSTN_PK PRIMARY KEY();|-- CREATE INDEX T_PSTN_IX1 ON T_PSTN();</v>
+      </c>
+      <c r="I6" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 직위|DROP TABLE IF EXISTS T_PSTN CASCADE;|CREATE TABLE IF NOT EXISTS T_PSTN (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '직위[직위 정보]';|ALTER TABLE T_PSTN ADD CONSTRAINT T_PSTN_PK PRIMARY KEY();|-- CREATE INDEX T_PSTN_IX1 ON T_PSTN();</v>
-      </c>
-      <c r="I6" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    직위|TRUNCATE TABLE T_PSTN;</v>
+        <v>||-- 공통    직위|TRUNCATE TABLE T_PSTN;</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -6455,12 +6498,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="H7" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 사용자|DROP TABLE IF EXISTS T_USER CASCADE;|CREATE TABLE IF NOT EXISTS T_USER (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자[사용자 정보]';|ALTER TABLE T_USER ADD CONSTRAINT T_USER_PK PRIMARY KEY();|-- CREATE INDEX T_USER_IX1 ON T_USER();</v>
+      </c>
+      <c r="I7" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 사용자|DROP TABLE IF EXISTS T_USER CASCADE;|CREATE TABLE IF NOT EXISTS T_USER (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자[사용자 정보]';|ALTER TABLE T_USER ADD CONSTRAINT T_USER_PK PRIMARY KEY();|-- CREATE INDEX T_USER_IX1 ON T_USER();</v>
-      </c>
-      <c r="I7" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    사용자|TRUNCATE TABLE T_USER;</v>
+        <v>||-- 공통    사용자|TRUNCATE TABLE T_USER;</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -6482,12 +6525,12 @@
       <c r="F8" s="31"/>
       <c r="G8" s="2"/>
       <c r="H8" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 사용자 테스트|DROP TABLE IF EXISTS T_USER_TEST CASCADE;|CREATE TABLE IF NOT EXISTS T_USER_TEST (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자 테스트[테스트 사용자]';|ALTER TABLE T_USER_TEST ADD CONSTRAINT T_USER_TEST_PK PRIMARY KEY();|-- CREATE INDEX T_USER_TEST_IX1 ON T_USER_TEST();</v>
+      </c>
+      <c r="I8" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 사용자 테스트|DROP TABLE IF EXISTS T_USER_TEST CASCADE;|CREATE TABLE IF NOT EXISTS T_USER_TEST (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자 테스트[테스트 사용자]';|ALTER TABLE T_USER_TEST ADD CONSTRAINT T_USER_TEST_PK PRIMARY KEY();|-- CREATE INDEX T_USER_TEST_IX1 ON T_USER_TEST();</v>
-      </c>
-      <c r="I8" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    사용자 테스트|TRUNCATE TABLE T_USER_TEST;</v>
+        <v>||-- 공통    사용자 테스트|TRUNCATE TABLE T_USER_TEST;</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -6509,12 +6552,12 @@
       <c r="F9" s="19"/>
       <c r="G9" s="2"/>
       <c r="H9" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 부서 분류|DROP TABLE IF EXISTS T_DEPT_CL CASCADE;|CREATE TABLE IF NOT EXISTS T_DEPT_CL (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '부서 분류[부서 조직도 정보]';|ALTER TABLE T_DEPT_CL ADD CONSTRAINT T_DEPT_CL_PK PRIMARY KEY();|-- CREATE INDEX T_DEPT_CL_IX1 ON T_DEPT_CL();</v>
+      </c>
+      <c r="I9" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 부서 분류|DROP TABLE IF EXISTS T_DEPT_CL CASCADE;|CREATE TABLE IF NOT EXISTS T_DEPT_CL (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '부서 분류[부서 조직도 정보]';|ALTER TABLE T_DEPT_CL ADD CONSTRAINT T_DEPT_CL_PK PRIMARY KEY();|-- CREATE INDEX T_DEPT_CL_IX1 ON T_DEPT_CL();</v>
-      </c>
-      <c r="I9" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    부서 분류|TRUNCATE TABLE T_DEPT_CL;</v>
+        <v>||-- 공통    부서 분류|TRUNCATE TABLE T_DEPT_CL;</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -6536,12 +6579,12 @@
       <c r="F10" s="14"/>
       <c r="G10" s="2"/>
       <c r="H10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 ID 순번|DROP TABLE IF EXISTS T_ID_SN CASCADE;|CREATE TABLE IF NOT EXISTS T_ID_SN (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT 'ID 순번[ID 순번 관리]';|ALTER TABLE T_ID_SN ADD CONSTRAINT T_ID_SN_PK PRIMARY KEY();|-- CREATE INDEX T_ID_SN_IX1 ON T_ID_SN();</v>
+      </c>
+      <c r="I10" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 ID 순번|DROP TABLE IF EXISTS T_ID_SN CASCADE;|CREATE TABLE IF NOT EXISTS T_ID_SN (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT 'ID 순번[ID 순번 관리]';|ALTER TABLE T_ID_SN ADD CONSTRAINT T_ID_SN_PK PRIMARY KEY();|-- CREATE INDEX T_ID_SN_IX1 ON T_ID_SN();</v>
-      </c>
-      <c r="I10" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    ID 순번|TRUNCATE TABLE T_ID_SN;</v>
+        <v>||-- 공통    ID 순번|TRUNCATE TABLE T_ID_SN;</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -6563,12 +6606,12 @@
       <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 파일|DROP TABLE IF EXISTS T_FILE CASCADE;|CREATE TABLE IF NOT EXISTS T_FILE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '파일[파일 정보]';|ALTER TABLE T_FILE ADD CONSTRAINT T_FILE_PK PRIMARY KEY();|-- CREATE INDEX T_FILE_IX1 ON T_FILE();</v>
+      </c>
+      <c r="I11" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 파일|DROP TABLE IF EXISTS T_FILE CASCADE;|CREATE TABLE IF NOT EXISTS T_FILE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '파일[파일 정보]';|ALTER TABLE T_FILE ADD CONSTRAINT T_FILE_PK PRIMARY KEY();|-- CREATE INDEX T_FILE_IX1 ON T_FILE();</v>
-      </c>
-      <c r="I11" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    파일|TRUNCATE TABLE T_FILE;</v>
+        <v>||-- 공통    파일|TRUNCATE TABLE T_FILE;</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -6592,12 +6635,12 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 게시판 공지사항|DROP TABLE IF EXISTS T_BBS_NOTICE CASCADE;|CREATE TABLE IF NOT EXISTS T_BBS_NOTICE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '게시판 공지사항[공지사항 관리]';|ALTER TABLE T_BBS_NOTICE ADD CONSTRAINT T_BBS_NOTICE_PK PRIMARY KEY();|-- CREATE INDEX T_BBS_NOTICE_IX1 ON T_BBS_NOTICE();</v>
+      </c>
+      <c r="I12" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 게시판 공지사항|DROP TABLE IF EXISTS T_BBS_NOTICE CASCADE;|CREATE TABLE IF NOT EXISTS T_BBS_NOTICE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '게시판 공지사항[공지사항 관리]';|ALTER TABLE T_BBS_NOTICE ADD CONSTRAINT T_BBS_NOTICE_PK PRIMARY KEY();|-- CREATE INDEX T_BBS_NOTICE_IX1 ON T_BBS_NOTICE();</v>
-      </c>
-      <c r="I12" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    게시판 공지사항|TRUNCATE TABLE T_BBS_NOTICE;</v>
+        <v>||-- 공통    게시판 공지사항|TRUNCATE TABLE T_BBS_NOTICE;</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -6621,12 +6664,12 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 게시판 FAQ|DROP TABLE IF EXISTS T_BBS_FAQ CASCADE;|CREATE TABLE IF NOT EXISTS T_BBS_FAQ (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '게시판 FAQ[FAQ 관리]';|ALTER TABLE T_BBS_FAQ ADD CONSTRAINT T_BBS_FAQ_PK PRIMARY KEY();|-- CREATE INDEX T_BBS_FAQ_IX1 ON T_BBS_FAQ();</v>
+      </c>
+      <c r="I13" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 게시판 FAQ|DROP TABLE IF EXISTS T_BBS_FAQ CASCADE;|CREATE TABLE IF NOT EXISTS T_BBS_FAQ (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '게시판 FAQ[FAQ 관리]';|ALTER TABLE T_BBS_FAQ ADD CONSTRAINT T_BBS_FAQ_PK PRIMARY KEY();|-- CREATE INDEX T_BBS_FAQ_IX1 ON T_BBS_FAQ();</v>
-      </c>
-      <c r="I13" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    게시판 FAQ|TRUNCATE TABLE T_BBS_FAQ;</v>
+        <v>||-- 공통    게시판 FAQ|TRUNCATE TABLE T_BBS_FAQ;</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -6648,12 +6691,12 @@
       <c r="F14" s="29"/>
       <c r="G14" s="2"/>
       <c r="H14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 공통 게시판 QNA|DROP TABLE IF EXISTS T_BBS_QNA CASCADE;|CREATE TABLE IF NOT EXISTS T_BBS_QNA (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '게시판 QNA[QNA 관리]';|ALTER TABLE T_BBS_QNA ADD CONSTRAINT T_BBS_QNA_PK PRIMARY KEY();|-- CREATE INDEX T_BBS_QNA_IX1 ON T_BBS_QNA();</v>
+      </c>
+      <c r="I14" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 공통 게시판 QNA|DROP TABLE IF EXISTS T_BBS_QNA CASCADE;|CREATE TABLE IF NOT EXISTS T_BBS_QNA (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '게시판 QNA[QNA 관리]';|ALTER TABLE T_BBS_QNA ADD CONSTRAINT T_BBS_QNA_PK PRIMARY KEY();|-- CREATE INDEX T_BBS_QNA_IX1 ON T_BBS_QNA();</v>
-      </c>
-      <c r="I14" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 공통    게시판 QNA|TRUNCATE TABLE T_BBS_QNA;</v>
+        <v>||-- 공통    게시판 QNA|TRUNCATE TABLE T_BBS_QNA;</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -6679,8 +6722,8 @@
         <v>|||-- 관리자 회사|DROP TABLE IF EXISTS T_COMPANY CASCADE;|CREATE TABLE IF NOT EXISTS T_COMPANY ( |    COMPANY_ID VARCHAR(16) NOT NULL COMMENT '회사 ID'|  , COMPANY_CODE VARCHAR(16) NOT NULL COMMENT '회사 코드'|  , COMPANY_NO VARCHAR(16) NOT NULL COMMENT '사업자번호'|  , COMPANY_NM VARCHAR(100) NOT NULL COMMENT '회사 명'|  , COMPANY_DSC VARCHAR(4000) COMMENT '회사 설명'|  , ADDRESS VARCHAR(4000) NOT NULL COMMENT '주소'|  , TELEPHONE_NO VARCHAR(16) COMMENT '전화번호'|  , REPRESENTATIVE_NM VARCHAR(16) COMMENT '대표자명'|  , NOTE VARCHAR(4000) COMMENT '비고'|  , USE_YN VARCHAR(1) DEFAULT 'Y' COMMENT '사용 여부'|  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'|  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'|  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'|  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'| ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '회사[회사]';|ALTER TABLE T_COMPANY ADD CONSTRAINT T_COMPANY_PK PRIMARY KEY(COMPANY_ID,COMPANY_NO);|-- CREATE INDEX T_COMPANY_IX1 ON T_COMPANY(COMPANY_ID,COMPANY_NO);</v>
       </c>
       <c r="I15" s="41" t="str">
-        <f>"|||-- "&amp;D15&amp;"    "&amp;B15&amp;"|TRUNCATE TABLE "&amp;C15&amp;";"</f>
-        <v>|||-- 관리자    회사|TRUNCATE TABLE T_COMPANY;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 관리자    회사|TRUNCATE TABLE T_COMPANY;</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -6704,12 +6747,12 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 관리자 그룹|DROP TABLE IF EXISTS T_GROUP CASCADE;|CREATE TABLE IF NOT EXISTS T_GROUP (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '그룹[그룹]';|ALTER TABLE T_GROUP ADD CONSTRAINT T_GROUP_PK PRIMARY KEY();|-- CREATE INDEX T_GROUP_IX1 ON T_GROUP();</v>
+      </c>
+      <c r="I16" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 관리자 그룹|DROP TABLE IF EXISTS T_GROUP CASCADE;|CREATE TABLE IF NOT EXISTS T_GROUP (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '그룹[그룹]';|ALTER TABLE T_GROUP ADD CONSTRAINT T_GROUP_PK PRIMARY KEY();|-- CREATE INDEX T_GROUP_IX1 ON T_GROUP();</v>
-      </c>
-      <c r="I16" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 관리자    그룹|TRUNCATE TABLE T_GROUP;</v>
+        <v>||-- 관리자    그룹|TRUNCATE TABLE T_GROUP;</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -6733,12 +6776,12 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 관리자 그룹 권한|DROP TABLE IF EXISTS T_GROUP_AUTH CASCADE;|CREATE TABLE IF NOT EXISTS T_GROUP_AUTH (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '그룹 권한[그룹 권한]';|ALTER TABLE T_GROUP_AUTH ADD CONSTRAINT T_GROUP_AUTH_PK PRIMARY KEY();|-- CREATE INDEX T_GROUP_AUTH_IX1 ON T_GROUP_AUTH();</v>
+      </c>
+      <c r="I17" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 관리자 그룹 권한|DROP TABLE IF EXISTS T_GROUP_AUTH CASCADE;|CREATE TABLE IF NOT EXISTS T_GROUP_AUTH (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '그룹 권한[그룹 권한]';|ALTER TABLE T_GROUP_AUTH ADD CONSTRAINT T_GROUP_AUTH_PK PRIMARY KEY();|-- CREATE INDEX T_GROUP_AUTH_IX1 ON T_GROUP_AUTH();</v>
-      </c>
-      <c r="I17" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 관리자    그룹 권한|TRUNCATE TABLE T_GROUP_AUTH;</v>
+        <v>||-- 관리자    그룹 권한|TRUNCATE TABLE T_GROUP_AUTH;</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -6762,12 +6805,12 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 관리자 그룹 메뉴|DROP TABLE IF EXISTS T_GROUP_MENU CASCADE;|CREATE TABLE IF NOT EXISTS T_GROUP_MENU (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '그룹 메뉴[그룹 메뉴]';|ALTER TABLE T_GROUP_MENU ADD CONSTRAINT T_GROUP_MENU_PK PRIMARY KEY();|-- CREATE INDEX T_GROUP_MENU_IX1 ON T_GROUP_MENU();</v>
+      </c>
+      <c r="I18" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 관리자 그룹 메뉴|DROP TABLE IF EXISTS T_GROUP_MENU CASCADE;|CREATE TABLE IF NOT EXISTS T_GROUP_MENU (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '그룹 메뉴[그룹 메뉴]';|ALTER TABLE T_GROUP_MENU ADD CONSTRAINT T_GROUP_MENU_PK PRIMARY KEY();|-- CREATE INDEX T_GROUP_MENU_IX1 ON T_GROUP_MENU();</v>
-      </c>
-      <c r="I18" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 관리자    그룹 메뉴|TRUNCATE TABLE T_GROUP_MENU;</v>
+        <v>||-- 관리자    그룹 메뉴|TRUNCATE TABLE T_GROUP_MENU;</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -6791,12 +6834,12 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 사용자 사용자 시스템 권한|DROP TABLE IF EXISTS T_USER_SYS_AUTH CASCADE;|CREATE TABLE IF NOT EXISTS T_USER_SYS_AUTH (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자 시스템 권한[사용자 시스템 권한 관리]';|ALTER TABLE T_USER_SYS_AUTH ADD CONSTRAINT T_USER_SYS_AUTH_PK PRIMARY KEY();|-- CREATE INDEX T_USER_SYS_AUTH_IX1 ON T_USER_SYS_AUTH();</v>
+      </c>
+      <c r="I19" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 사용자 사용자 시스템 권한|DROP TABLE IF EXISTS T_USER_SYS_AUTH CASCADE;|CREATE TABLE IF NOT EXISTS T_USER_SYS_AUTH (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자 시스템 권한[사용자 시스템 권한 관리]';|ALTER TABLE T_USER_SYS_AUTH ADD CONSTRAINT T_USER_SYS_AUTH_PK PRIMARY KEY();|-- CREATE INDEX T_USER_SYS_AUTH_IX1 ON T_USER_SYS_AUTH();</v>
-      </c>
-      <c r="I19" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>|||-- 사용자    사용자 시스템 권한|TRUNCATE TABLE T_USER_SYS_AUTH;</v>
+        <v>||-- 사용자    사용자 시스템 권한|TRUNCATE TABLE T_USER_SYS_AUTH;</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -6818,12 +6861,12 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>|||-- 이력 사용자 이력|DROP TABLE IF EXISTS T_USER_HIST CASCADE;|CREATE TABLE IF NOT EXISTS T_USER_HIST (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자 이력[사용자 정보 이력]';|ALTER TABLE T_USER_HIST ADD CONSTRAINT T_USER_HIST_PK PRIMARY KEY();|-- CREATE INDEX T_USER_HIST_IX1 ON T_USER_HIST();</v>
+      </c>
+      <c r="I20" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>|||-- 이력 사용자 이력|DROP TABLE IF EXISTS T_USER_HIST CASCADE;|CREATE TABLE IF NOT EXISTS T_USER_HIST (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '사용자 이력[사용자 정보 이력]';|ALTER TABLE T_USER_HIST ADD CONSTRAINT T_USER_HIST_PK PRIMARY KEY();|-- CREATE INDEX T_USER_HIST_IX1 ON T_USER_HIST();</v>
-      </c>
-      <c r="I20" s="41" t="str">
-        <f t="shared" ref="I20:I27" si="2">"|||-- "&amp;D20&amp;"    "&amp;B20&amp;"|TRUNCATE TABLE "&amp;C20&amp;";"</f>
-        <v>|||-- 이력    사용자 이력|TRUNCATE TABLE T_USER_HIST;</v>
+        <v>||-- 이력    사용자 이력|TRUNCATE TABLE T_USER_HIST;</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -6849,8 +6892,8 @@
         <v>|||-- 로그 로그 요청 관리자 시스템|DROP TABLE IF EXISTS T_LOG_RQST_MGR_SYS CASCADE;|CREATE TABLE IF NOT EXISTS T_LOG_RQST_MGR_SYS (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '로그 요청 관리자 시스템[사용자 시스템 요청 로그]';|-- ALTER TABLE T_LOG_RQST_MGR_SYS ADD CONSTRAINT T_LOG_RQST_MGR_SYS_PK PRIMARY KEY(USER_ID,LOG_DT);|CREATE INDEX T_LOG_RQST_MGR_SYS_IX1 ON T_LOG_RQST_MGR_SYS(USER_ID,LOG_DT);</v>
       </c>
       <c r="I21" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 로그    로그 요청 관리자 시스템|TRUNCATE TABLE T_LOG_RQST_MGR_SYS;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 로그    로그 요청 관리자 시스템|TRUNCATE TABLE T_LOG_RQST_MGR_SYS;</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -6875,9 +6918,9 @@
         <f>"|||-- "&amp;D22&amp;" "&amp;B22&amp;"|DROP TABLE IF EXISTS "&amp;C22&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C22&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B22&amp;IF(E22="","","["&amp;E22&amp;"]")&amp;"';|-- ALTER TABLE "&amp;C22&amp;" ADD CONSTRAINT "&amp;C22&amp;"_PK PRIMARY KEY("&amp;index!$I$25&amp;","&amp;index!$I$26&amp;");|CREATE INDEX "&amp;C22&amp;"_IX1 ON "&amp;C22&amp;"("&amp;index!$I24&amp;","&amp;index!$I25&amp;");"</f>
         <v>|||-- 로그 로그인 이력|DROP TABLE IF EXISTS T_LOGIN_USER_HIST CASCADE;|CREATE TABLE IF NOT EXISTS T_LOGIN_USER_HIST (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '로그인 이력[사용자 로그인 이력 로그]';|-- ALTER TABLE T_LOGIN_USER_HIST ADD CONSTRAINT T_LOGIN_USER_HIST_PK PRIMARY KEY(USER_ID,LOG_DT);|CREATE INDEX T_LOGIN_USER_HIST_IX1 ON T_LOGIN_USER_HIST(LOG_DT,USER_ID);</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 로그    로그인 이력|TRUNCATE TABLE T_LOGIN_USER_HIST;</v>
+      <c r="I22" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>||-- 로그    로그인 이력|TRUNCATE TABLE T_LOGIN_USER_HIST;</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -6905,8 +6948,8 @@
         <v>|||-- 공통 공휴일 관리|DROP TABLE IF EXISTS T_HOLIDAY CASCADE;|CREATE TABLE IF NOT EXISTS T_HOLIDAY (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '공휴일 관리[공휴일 관리]';|-- ALTER TABLE T_HOLIDAY ADD CONSTRAINT T_HOLIDAY_PK PRIMARY KEY(SOLAR_DATE);|CREATE INDEX T_HOLIDAY_IX1 ON T_HOLIDAY(SOLAR_DATE);</v>
       </c>
       <c r="I23" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 공통    공휴일 관리|TRUNCATE TABLE T_HOLIDAY;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 공통    공휴일 관리|TRUNCATE TABLE T_HOLIDAY;</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -6934,8 +6977,8 @@
         <v>|||-- 로그 로그 참조 정보|DROP TABLE IF EXISTS T_LOG_REF_INFO CASCADE;|CREATE TABLE IF NOT EXISTS T_LOG_REF_INFO (|    LOG_ID NUMERIC(9,0) NOT NULL COMMENT '로그 참조 ID'|  , CONTROLLER_NM VARCHAR(256) NOT NULL COMMENT '컨트롤러 명'|  , METHOD_NM VARCHAR(256) NOT NULL COMMENT '메소드 명'|  , PROGRAM_NM VARCHAR(256) NOT NULL COMMENT '프로그램 명'|  , RGST_ID VARCHAR(32) COMMENT '등록 ID'|  , RGST_DT TIMESTAMP COMMENT '등록 일시'|) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '로그 참조 정보[접속 로그 참조 정보]';|ALTER TABLE T_LOG_REF_INFO ADD CONSTRAINT T_LOG_REF_INFO_PK PRIMARY KEY(LOG_ID,CONTROLLER_NM,METHOD_NM);|-- CREATE INDEX T_LOG_REF_INFO_IX1 ON T_LOG_REF_INFO(LOG_ID,CONTROLLER_NM,METHOD_NM);</v>
       </c>
       <c r="I24" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 로그    로그 참조 정보|TRUNCATE TABLE T_LOG_REF_INFO;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 로그    로그 참조 정보|TRUNCATE TABLE T_LOG_REF_INFO;</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -6963,8 +7006,8 @@
         <v>|||-- 공통 레포트 관리|DROP TABLE IF EXISTS T_REPORT CASCADE;|CREATE TABLE IF NOT EXISTS T_REPORT (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '레포트 관리[레포트 관리]';|ALTER TABLE T_REPORT ADD CONSTRAINT T_REPORT_PK PRIMARY KEY(REPORT_ID);|-- CREATE INDEX T_REPORT_IX1 ON T_REPORT(REPORT_ID);</v>
       </c>
       <c r="I25" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 공통    레포트 관리|TRUNCATE TABLE T_REPORT;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 공통    레포트 관리|TRUNCATE TABLE T_REPORT;</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -6990,8 +7033,8 @@
         <v>|||-- 공통 비밀번호 초기화 관리|DROP TABLE IF EXISTS T_RESET_PASSWORD CASCADE;|CREATE TABLE IF NOT EXISTS T_RESET_PASSWORD (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '비밀번호 초기화 관리[비밀번호 초기화 관리]';|ALTER TABLE T_RESET_PASSWORD ADD CONSTRAINT T_RESET_PASSWORD_PK PRIMARY KEY(RESET_ID);|-- CREATE INDEX T_RESET_PASSWORD_IX1 ON T_RESET_PASSWORD(RESET_ID);</v>
       </c>
       <c r="I26" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 공통    비밀번호 초기화 관리|TRUNCATE TABLE T_RESET_PASSWORD;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 공통    비밀번호 초기화 관리|TRUNCATE TABLE T_RESET_PASSWORD;</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -7017,8 +7060,8 @@
         <v>|||-- 공통 알람|DROP TABLE IF EXISTS T_ALARM CASCADE;|CREATE TABLE IF NOT EXISTS T_ALARM (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '알람[알람]';|ALTER TABLE T_ALARM ADD CONSTRAINT T_ALARM_PK PRIMARY KEY(ALARM_ID);|-- CREATE INDEX T_ALARM_IX1 ON T_ALARM(ALARM_ID);</v>
       </c>
       <c r="I27" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v>|||-- 공통    알람|TRUNCATE TABLE T_ALARM;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 공통    알람|TRUNCATE TABLE T_ALARM;</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -7044,8 +7087,8 @@
         <v>|||-- 관리자 공급 업체 관리|DROP TABLE IF EXISTS T_SUPPLIER CASCADE;|CREATE TABLE IF NOT EXISTS T_SUPPLIER (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '공급 업체 관리[공급 업체 관리]';|ALTER TABLE T_SUPPLIER ADD CONSTRAINT T_SUPPLIER_PK PRIMARY KEY(SUPPLIER_ID);|-- CREATE INDEX T_SUPPLIER_IX1 ON T_SUPPLIER(SUPPLIER_ID);</v>
       </c>
       <c r="I28" s="41" t="str">
-        <f>"|||-- "&amp;D28&amp;"    "&amp;B28&amp;"|TRUNCATE TABLE "&amp;C28&amp;";"</f>
-        <v>|||-- 관리자    공급 업체 관리|TRUNCATE TABLE T_SUPPLIER;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 관리자    공급 업체 관리|TRUNCATE TABLE T_SUPPLIER;</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
@@ -7071,8 +7114,8 @@
         <v>|||-- 관리자 공급 업체 담당자 관리|DROP TABLE IF EXISTS T_SUPPLIER_MANAGER CASCADE;|CREATE TABLE IF NOT EXISTS T_SUPPLIER_MANAGER (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '공급 업체 담당자 관리[공급 업체 담당자 관리]';|ALTER TABLE T_SUPPLIER_MANAGER ADD CONSTRAINT T_SUPPLIER_MANAGER_PK PRIMARY KEY(MANAGER_ID);|-- CREATE INDEX T_SUPPLIER_MANAGER_IX1 ON T_SUPPLIER_MANAGER(MANAGER_ID);</v>
       </c>
       <c r="I29" s="41" t="str">
-        <f>"|||-- "&amp;D29&amp;"    "&amp;B29&amp;"|TRUNCATE TABLE "&amp;C29&amp;";"</f>
-        <v>|||-- 관리자    공급 업체 담당자 관리|TRUNCATE TABLE T_SUPPLIER_MANAGER;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 관리자    공급 업체 담당자 관리|TRUNCATE TABLE T_SUPPLIER_MANAGER;</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -7094,83 +7137,99 @@
       <c r="F30" s="51"/>
       <c r="G30" s="2"/>
       <c r="H30" s="41" t="str">
-        <f>"|||-- "&amp;D30&amp;" "&amp;B30&amp;"|DROP TABLE IF EXISTS "&amp;C30&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C30&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B30&amp;IF(E30="","","["&amp;E30&amp;"]")&amp;"';|ALTER TABLE "&amp;C30&amp;" ADD CONSTRAINT "&amp;C30&amp;"_PK PRIMARY KEY("&amp;index!$I38&amp;");|-- CREATE INDEX "&amp;C30&amp;"_IX1 ON "&amp;C30&amp;"("&amp;index!$I38&amp;");"</f>
-        <v>|||-- 공통 제품 코드 관리|DROP TABLE IF EXISTS T_PACKAGING_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_CODE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 코드 관리[제품 코드 관리]';|ALTER TABLE T_PACKAGING_CODE ADD CONSTRAINT T_PACKAGING_CODE_PK PRIMARY KEY(CODE_ID);|-- CREATE INDEX T_PACKAGING_CODE_IX1 ON T_PACKAGING_CODE(CODE_ID);</v>
+        <f>"|||-- "&amp;D30&amp;" "&amp;B30&amp;"|DROP TABLE IF EXISTS "&amp;C30&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C30&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B30&amp;IF(E30="","","["&amp;E30&amp;"]")&amp;"';|ALTER TABLE "&amp;C30&amp;" ADD CONSTRAINT "&amp;C30&amp;"_PK PRIMARY KEY("&amp;index!$I38&amp;","&amp;index!$I39&amp;","&amp;index!$I40&amp;");|-- CREATE INDEX "&amp;C30&amp;"_IX1 ON "&amp;C30&amp;"("&amp;index!$I38&amp;","&amp;index!$I39&amp;","&amp;index!$I40&amp;");"</f>
+        <v>|||-- 공통 제품 코드 관리|DROP TABLE IF EXISTS T_PACKAGING_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_CODE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 코드 관리[제품 코드 관리]';|ALTER TABLE T_PACKAGING_CODE ADD CONSTRAINT T_PACKAGING_CODE_PK PRIMARY KEY(GROUP_ID,UP_COMPANY_CODE,CODE_ID);|-- CREATE INDEX T_PACKAGING_CODE_IX1 ON T_PACKAGING_CODE(GROUP_ID,UP_COMPANY_CODE,CODE_ID);</v>
       </c>
       <c r="I30" s="41" t="str">
-        <f>"|||-- "&amp;D30&amp;"    "&amp;B30&amp;"|TRUNCATE TABLE "&amp;C30&amp;";"</f>
-        <v>|||-- 공통    제품 코드 관리|TRUNCATE TABLE T_PACKAGING_CODE;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>||-- 공통    제품 코드 관리|TRUNCATE TABLE T_PACKAGING_CODE;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1160</v>
+        <v>1206</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1157</v>
+        <v>1207</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>304</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1158</v>
+        <v>1206</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="2"/>
       <c r="H31" s="41" t="str">
-        <f>"|||-- "&amp;D31&amp;" "&amp;B31&amp;"|DROP TABLE IF EXISTS "&amp;C31&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C31&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B31&amp;IF(E31="","","["&amp;E31&amp;"]")&amp;"';|ALTER TABLE "&amp;C31&amp;" ADD CONSTRAINT "&amp;C31&amp;"_PK PRIMARY KEY("&amp;index!$I39&amp;");|-- CREATE INDEX "&amp;C31&amp;"_IX1 ON "&amp;C31&amp;"("&amp;index!$I39&amp;");"</f>
-        <v>|||-- 공통 제품 질문|DROP TABLE IF EXISTS T_PACKAGING_QUESTION CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_QUESTION (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 질문[포장 질문 관리]';|ALTER TABLE T_PACKAGING_QUESTION ADD CONSTRAINT T_PACKAGING_QUESTION_PK PRIMARY KEY(QUESTION_ID);|-- CREATE INDEX T_PACKAGING_QUESTION_IX1 ON T_PACKAGING_QUESTION(QUESTION_ID);</v>
+        <f>"|||-- "&amp;D31&amp;" "&amp;B31&amp;"|DROP TABLE IF EXISTS "&amp;C31&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C31&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B31&amp;IF(E31="","","["&amp;E31&amp;"]")&amp;"';|ALTER TABLE "&amp;C31&amp;" ADD CONSTRAINT "&amp;C31&amp;"_PK PRIMARY KEY("&amp;index!$I41&amp;","&amp;index!$I42&amp;","&amp;index!$I43&amp;");|-- CREATE INDEX "&amp;C31&amp;"_IX1 ON "&amp;C31&amp;"("&amp;index!$I41&amp;","&amp;index!$I42&amp;","&amp;index!$I43&amp;");"</f>
+        <v>|||-- 공통 환경부 코드 관리|DROP TABLE IF EXISTS T_ENVIRONMENT_CODE CASCADE;|CREATE TABLE IF NOT EXISTS T_ENVIRONMENT_CODE (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '환경부 코드 관리[환경부 코드 관리]';|ALTER TABLE T_ENVIRONMENT_CODE ADD CONSTRAINT T_ENVIRONMENT_CODE_PK PRIMARY KEY(GROUP_ID,UP_COMPANY_CODE,CODE_ID);|-- CREATE INDEX T_ENVIRONMENT_CODE_IX1 ON T_ENVIRONMENT_CODE(GROUP_ID,UP_COMPANY_CODE,CODE_ID);</v>
       </c>
       <c r="I31" s="41" t="str">
-        <f>"|||-- "&amp;D31&amp;"    "&amp;B31&amp;"|TRUNCATE TABLE "&amp;C31&amp;";"</f>
-        <v>|||-- 공통    제품 질문|TRUNCATE TABLE T_PACKAGING_QUESTION;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 공통    환경부 코드 관리|TRUNCATE TABLE T_ENVIRONMENT_CODE;</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>304</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="2"/>
       <c r="H32" s="41" t="str">
-        <f>"|||-- "&amp;D32&amp;" "&amp;B32&amp;"|DROP TABLE IF EXISTS "&amp;C32&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C32&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B32&amp;IF(E32="","","["&amp;E32&amp;"]")&amp;"';|ALTER TABLE "&amp;C32&amp;" ADD CONSTRAINT "&amp;C32&amp;"_PK PRIMARY KEY("&amp;index!$I40&amp;");|-- CREATE INDEX "&amp;C32&amp;"_IX1 ON "&amp;C32&amp;"("&amp;index!$I40&amp;");"</f>
-        <v>|||-- 공통 제품 관리|DROP TABLE IF EXISTS T_PACKAGING CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 관리[제품 관리]';|ALTER TABLE T_PACKAGING ADD CONSTRAINT T_PACKAGING_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_IX1 ON T_PACKAGING(PACKAGING_ID);</v>
+        <f>"|||-- "&amp;D32&amp;" "&amp;B32&amp;"|DROP TABLE IF EXISTS "&amp;C32&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C32&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B32&amp;IF(E32="","","["&amp;E32&amp;"]")&amp;"';|ALTER TABLE "&amp;C32&amp;" ADD CONSTRAINT "&amp;C32&amp;"_PK PRIMARY KEY("&amp;index!$I44&amp;");|-- CREATE INDEX "&amp;C32&amp;"_IX1 ON "&amp;C32&amp;"("&amp;index!$I44&amp;");"</f>
+        <v>|||-- 공통 제품 질문|DROP TABLE IF EXISTS T_PACKAGING_QUESTION CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING_QUESTION (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 질문[포장 질문 관리]';|ALTER TABLE T_PACKAGING_QUESTION ADD CONSTRAINT T_PACKAGING_QUESTION_PK PRIMARY KEY(QUESTION_ID);|-- CREATE INDEX T_PACKAGING_QUESTION_IX1 ON T_PACKAGING_QUESTION(QUESTION_ID);</v>
       </c>
       <c r="I32" s="41" t="str">
-        <f>"|||-- "&amp;D32&amp;"    "&amp;B32&amp;"|TRUNCATE TABLE "&amp;C32&amp;";"</f>
-        <v>|||-- 공통    제품 관리|TRUNCATE TABLE T_PACKAGING;</v>
+        <f t="shared" si="1"/>
+        <v>||-- 공통    제품 질문|TRUNCATE TABLE T_PACKAGING_QUESTION;</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="51">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1161</v>
+      </c>
       <c r="F33" s="51"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="H33" s="41" t="str">
+        <f>"|||-- "&amp;D33&amp;" "&amp;B33&amp;"|DROP TABLE IF EXISTS "&amp;C33&amp;" CASCADE;|CREATE TABLE IF NOT EXISTS "&amp;C33&amp;" (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '"&amp;B33&amp;IF(E33="","","["&amp;E33&amp;"]")&amp;"';|ALTER TABLE "&amp;C33&amp;" ADD CONSTRAINT "&amp;C33&amp;"_PK PRIMARY KEY("&amp;index!$I45&amp;");|-- CREATE INDEX "&amp;C33&amp;"_IX1 ON "&amp;C33&amp;"("&amp;index!$I45&amp;");"</f>
+        <v>|||-- 공통 제품 관리|DROP TABLE IF EXISTS T_PACKAGING CASCADE;|CREATE TABLE IF NOT EXISTS T_PACKAGING (||) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '제품 관리[제품 관리]';|ALTER TABLE T_PACKAGING ADD CONSTRAINT T_PACKAGING_PK PRIMARY KEY(PACKAGING_ID);|-- CREATE INDEX T_PACKAGING_IX1 ON T_PACKAGING(PACKAGING_ID);</v>
+      </c>
+      <c r="I33" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>||-- 공통    제품 관리|TRUNCATE TABLE T_PACKAGING;</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
+      <c r="A34" s="51">
+        <v>30</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="51"/>
@@ -7179,6 +7238,17 @@
       <c r="G34" s="2"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7197,13 +7267,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z376"/>
+  <dimension ref="A1:Z391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I335" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K341" sqref="K341"/>
+      <selection pane="bottomRight" activeCell="G365" sqref="G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7218,7 +7288,7 @@
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="66" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
@@ -7317,7 +7387,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="28">
+      <c r="K3" s="51">
         <v>1</v>
       </c>
       <c r="L3" s="2"/>
@@ -7361,7 +7431,7 @@
         <v>29</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="2" t="s">
         <v>356</v>
       </c>
@@ -7405,7 +7475,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="28"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="41" t="str">
@@ -7448,7 +7518,7 @@
         <v>29</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="41" t="str">
@@ -7492,7 +7562,7 @@
       <c r="J7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="41" t="str">
@@ -7534,7 +7604,7 @@
         <v>29</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="41" t="str">
@@ -7576,7 +7646,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="41" t="str">
@@ -7620,7 +7690,7 @@
       <c r="J10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="41" t="str">
@@ -7662,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="41" t="str">
@@ -7706,7 +7776,7 @@
       <c r="J12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="28"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="41" t="str">
@@ -7748,7 +7818,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="28"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="41" t="str">
@@ -7792,7 +7862,7 @@
       <c r="J14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="41" t="str">
@@ -7834,7 +7904,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="61"/>
-      <c r="K15" s="52">
+      <c r="K15" s="103">
         <v>1</v>
       </c>
       <c r="L15" s="61"/>
@@ -7878,7 +7948,7 @@
         <v>29</v>
       </c>
       <c r="J16" s="61"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="103"/>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="41" t="str">
@@ -7920,7 +7990,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="61"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="103"/>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="41" t="str">
@@ -7964,7 +8034,7 @@
       <c r="J18" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="103"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="41" t="str">
@@ -8008,7 +8078,7 @@
       <c r="J19" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="103"/>
       <c r="L19" s="61"/>
       <c r="M19" s="61"/>
       <c r="N19" s="41" t="str">
@@ -8050,7 +8120,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="61"/>
-      <c r="K20" s="52"/>
+      <c r="K20" s="103"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61"/>
       <c r="N20" s="41" t="str">
@@ -8092,7 +8162,7 @@
         <v>29</v>
       </c>
       <c r="J21" s="61"/>
-      <c r="K21" s="52"/>
+      <c r="K21" s="103"/>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
       <c r="N21" s="41" t="str">
@@ -8134,7 +8204,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="61"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="103"/>
       <c r="L22" s="61"/>
       <c r="M22" s="61"/>
       <c r="N22" s="41" t="str">
@@ -8176,7 +8246,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="61"/>
-      <c r="K23" s="52"/>
+      <c r="K23" s="103"/>
       <c r="L23" s="61" t="s">
         <v>455</v>
       </c>
@@ -8220,7 +8290,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="61"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="103"/>
       <c r="L24" s="61" t="s">
         <v>456</v>
       </c>
@@ -8265,7 +8335,7 @@
       <c r="J25" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="103"/>
       <c r="L25" s="61"/>
       <c r="M25" s="61"/>
       <c r="N25" s="41" t="str">
@@ -8307,7 +8377,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="61"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="103"/>
       <c r="L26" s="61"/>
       <c r="M26" s="61"/>
       <c r="N26" s="41" t="str">
@@ -8351,7 +8421,7 @@
       <c r="J27" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K27" s="52"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="61"/>
       <c r="M27" s="61"/>
       <c r="N27" s="41" t="str">
@@ -8393,7 +8463,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="61"/>
-      <c r="K28" s="52"/>
+      <c r="K28" s="103"/>
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="41" t="str">
@@ -8436,7 +8506,7 @@
       <c r="J29" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="52"/>
+      <c r="K29" s="103"/>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
       <c r="N29" s="41" t="str">
@@ -8478,7 +8548,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="31">
+      <c r="K30" s="51">
         <v>1</v>
       </c>
       <c r="L30" s="2"/>
@@ -8522,7 +8592,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="31"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="41" t="str">
@@ -8564,7 +8634,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="31"/>
+      <c r="K32" s="51"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="41" t="str">
@@ -8606,7 +8676,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="31"/>
+      <c r="K33" s="51"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="41" t="str">
@@ -8648,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="28"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="41" t="str">
@@ -8690,7 +8760,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="28"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="41" t="str">
@@ -8732,7 +8802,7 @@
         <v>29</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="28"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="41" t="str">
@@ -8774,7 +8844,7 @@
         <v>29</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="28"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="41" t="str">
@@ -8816,7 +8886,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="28"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="41" t="str">
@@ -8858,7 +8928,7 @@
         <v>29</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="28"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="41" t="str">
@@ -8900,7 +8970,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="28"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="41" t="str">
@@ -8942,7 +9012,7 @@
         <v>29</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="28"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="41" t="str">
@@ -8984,7 +9054,7 @@
         <v>29</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="28"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="41" t="str">
@@ -9028,7 +9098,7 @@
       <c r="J43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="41" t="str">
@@ -9070,7 +9140,7 @@
         <v>30</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="28"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="41" t="str">
@@ -9114,7 +9184,7 @@
       <c r="J45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K45" s="28"/>
+      <c r="K45" s="51"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="41" t="str">
@@ -9156,7 +9226,7 @@
         <v>30</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="28"/>
+      <c r="K46" s="51"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="41" t="str">
@@ -9200,7 +9270,7 @@
       <c r="J47" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K47" s="28"/>
+      <c r="K47" s="51"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="41" t="str">
@@ -9242,7 +9312,7 @@
         <v>30</v>
       </c>
       <c r="J48" s="61"/>
-      <c r="K48" s="52">
+      <c r="K48" s="103">
         <v>1</v>
       </c>
       <c r="L48" s="61"/>
@@ -9286,7 +9356,7 @@
         <v>30</v>
       </c>
       <c r="J49" s="61"/>
-      <c r="K49" s="52">
+      <c r="K49" s="103">
         <v>2</v>
       </c>
       <c r="L49" s="61"/>
@@ -9330,7 +9400,7 @@
         <v>29</v>
       </c>
       <c r="J50" s="61"/>
-      <c r="K50" s="52"/>
+      <c r="K50" s="103"/>
       <c r="L50" s="61"/>
       <c r="M50" s="61"/>
       <c r="N50" s="41" t="str">
@@ -9372,7 +9442,7 @@
         <v>29</v>
       </c>
       <c r="J51" s="61"/>
-      <c r="K51" s="52"/>
+      <c r="K51" s="103"/>
       <c r="L51" s="61"/>
       <c r="M51" s="61"/>
       <c r="N51" s="41" t="str">
@@ -9414,7 +9484,7 @@
         <v>29</v>
       </c>
       <c r="J52" s="61"/>
-      <c r="K52" s="52"/>
+      <c r="K52" s="103"/>
       <c r="L52" s="61"/>
       <c r="M52" s="61"/>
       <c r="N52" s="41" t="str">
@@ -9458,7 +9528,7 @@
       <c r="J53" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K53" s="52"/>
+      <c r="K53" s="103"/>
       <c r="L53" s="61"/>
       <c r="M53" s="61"/>
       <c r="N53" s="41" t="str">
@@ -9500,7 +9570,7 @@
         <v>30</v>
       </c>
       <c r="J54" s="61"/>
-      <c r="K54" s="52"/>
+      <c r="K54" s="103"/>
       <c r="L54" s="61"/>
       <c r="M54" s="61"/>
       <c r="N54" s="41" t="str">
@@ -9544,7 +9614,7 @@
       <c r="J55" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K55" s="52"/>
+      <c r="K55" s="103"/>
       <c r="L55" s="61"/>
       <c r="M55" s="61"/>
       <c r="N55" s="41" t="str">
@@ -9586,7 +9656,7 @@
         <v>30</v>
       </c>
       <c r="J56" s="61"/>
-      <c r="K56" s="52"/>
+      <c r="K56" s="103"/>
       <c r="L56" s="61"/>
       <c r="M56" s="61"/>
       <c r="N56" s="41" t="str">
@@ -9630,7 +9700,7 @@
       <c r="J57" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K57" s="52"/>
+      <c r="K57" s="103"/>
       <c r="L57" s="61"/>
       <c r="M57" s="61"/>
       <c r="N57" s="41" t="str">
@@ -9672,7 +9742,7 @@
         <v>30</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="28">
+      <c r="K58" s="51">
         <v>1</v>
       </c>
       <c r="L58" s="2"/>
@@ -9716,7 +9786,7 @@
         <v>29</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="28"/>
+      <c r="K59" s="51"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="41" t="str">
@@ -9758,7 +9828,7 @@
         <v>29</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="28"/>
+      <c r="K60" s="51"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="41" t="str">
@@ -9802,7 +9872,7 @@
       <c r="J61" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K61" s="28"/>
+      <c r="K61" s="51"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="41" t="str">
@@ -9844,7 +9914,7 @@
         <v>29</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="28"/>
+      <c r="K62" s="51"/>
       <c r="L62" s="2" t="s">
         <v>460</v>
       </c>
@@ -9888,7 +9958,7 @@
         <v>30</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="28"/>
+      <c r="K63" s="51"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="41" t="str">
@@ -9932,7 +10002,7 @@
       <c r="J64" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="28"/>
+      <c r="K64" s="51"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="41" t="str">
@@ -9974,7 +10044,7 @@
         <v>30</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="K65" s="28"/>
+      <c r="K65" s="51"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="41" t="str">
@@ -10018,7 +10088,7 @@
       <c r="J66" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="28"/>
+      <c r="K66" s="51"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="41" t="str">
@@ -10060,7 +10130,7 @@
         <v>30</v>
       </c>
       <c r="J67" s="61"/>
-      <c r="K67" s="52">
+      <c r="K67" s="103">
         <v>1</v>
       </c>
       <c r="L67" s="61"/>
@@ -10104,7 +10174,7 @@
         <v>29</v>
       </c>
       <c r="J68" s="61"/>
-      <c r="K68" s="52"/>
+      <c r="K68" s="103"/>
       <c r="L68" s="61"/>
       <c r="M68" s="61"/>
       <c r="N68" s="41" t="str">
@@ -10146,7 +10216,7 @@
         <v>29</v>
       </c>
       <c r="J69" s="61"/>
-      <c r="K69" s="52"/>
+      <c r="K69" s="103"/>
       <c r="L69" s="61"/>
       <c r="M69" s="61"/>
       <c r="N69" s="41" t="str">
@@ -10188,7 +10258,7 @@
         <v>29</v>
       </c>
       <c r="J70" s="61"/>
-      <c r="K70" s="52"/>
+      <c r="K70" s="103"/>
       <c r="L70" s="61"/>
       <c r="M70" s="61"/>
       <c r="N70" s="41" t="str">
@@ -10230,7 +10300,7 @@
         <v>29</v>
       </c>
       <c r="J71" s="61"/>
-      <c r="K71" s="52"/>
+      <c r="K71" s="103"/>
       <c r="L71" s="61"/>
       <c r="M71" s="61"/>
       <c r="N71" s="41" t="str">
@@ -10272,7 +10342,7 @@
         <v>29</v>
       </c>
       <c r="J72" s="61"/>
-      <c r="K72" s="52"/>
+      <c r="K72" s="103"/>
       <c r="L72" s="61"/>
       <c r="M72" s="61"/>
       <c r="N72" s="41" t="str">
@@ -10314,7 +10384,7 @@
         <v>29</v>
       </c>
       <c r="J73" s="61"/>
-      <c r="K73" s="52"/>
+      <c r="K73" s="103"/>
       <c r="L73" s="61"/>
       <c r="M73" s="61"/>
       <c r="N73" s="41" t="str">
@@ -10356,7 +10426,7 @@
         <v>29</v>
       </c>
       <c r="J74" s="61"/>
-      <c r="K74" s="52"/>
+      <c r="K74" s="103"/>
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
       <c r="N74" s="41" t="str">
@@ -10400,7 +10470,7 @@
       <c r="J75" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K75" s="52"/>
+      <c r="K75" s="103"/>
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
       <c r="N75" s="41" t="str">
@@ -10442,7 +10512,7 @@
         <v>29</v>
       </c>
       <c r="J76" s="61"/>
-      <c r="K76" s="52"/>
+      <c r="K76" s="103"/>
       <c r="L76" s="61"/>
       <c r="M76" s="61"/>
       <c r="N76" s="41" t="str">
@@ -10484,7 +10554,7 @@
         <v>30</v>
       </c>
       <c r="J77" s="61"/>
-      <c r="K77" s="52"/>
+      <c r="K77" s="103"/>
       <c r="L77" s="61"/>
       <c r="M77" s="61"/>
       <c r="N77" s="41" t="str">
@@ -10528,7 +10598,7 @@
       <c r="J78" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K78" s="52"/>
+      <c r="K78" s="103"/>
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
       <c r="N78" s="41" t="str">
@@ -10570,7 +10640,7 @@
         <v>30</v>
       </c>
       <c r="J79" s="61"/>
-      <c r="K79" s="52"/>
+      <c r="K79" s="103"/>
       <c r="L79" s="61"/>
       <c r="M79" s="61"/>
       <c r="N79" s="41" t="str">
@@ -10614,7 +10684,7 @@
       <c r="J80" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K80" s="52"/>
+      <c r="K80" s="103"/>
       <c r="L80" s="61"/>
       <c r="M80" s="61"/>
       <c r="N80" s="41" t="str">
@@ -10744,7 +10814,7 @@
         <v>29</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="K83" s="28"/>
+      <c r="K83" s="51"/>
       <c r="L83" s="2" t="s">
         <v>452</v>
       </c>
@@ -10788,7 +10858,7 @@
         <v>29</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="K84" s="28"/>
+      <c r="K84" s="51"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="41" t="str">
@@ -10830,7 +10900,7 @@
         <v>29</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="28"/>
+      <c r="K85" s="51"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="41" t="str">
@@ -10872,7 +10942,7 @@
         <v>29</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="46"/>
+      <c r="K86" s="51"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="41" t="str">
@@ -10913,7 +10983,7 @@
         <v>29</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="28"/>
+      <c r="K87" s="51"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="41" t="str">
@@ -10955,7 +11025,7 @@
         <v>29</v>
       </c>
       <c r="J88" s="2"/>
-      <c r="K88" s="28"/>
+      <c r="K88" s="51"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="41" t="str">
@@ -10997,7 +11067,7 @@
         <v>29</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="31"/>
+      <c r="K89" s="51"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="41" t="str">
@@ -11039,7 +11109,7 @@
         <v>29</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="28"/>
+      <c r="K90" s="51"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="41" t="str">
@@ -11081,7 +11151,7 @@
         <v>29</v>
       </c>
       <c r="J91" s="2"/>
-      <c r="K91" s="31"/>
+      <c r="K91" s="51"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="41" t="str">
@@ -11123,7 +11193,7 @@
         <v>29</v>
       </c>
       <c r="J92" s="2"/>
-      <c r="K92" s="31"/>
+      <c r="K92" s="51"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="41" t="str">
@@ -11165,7 +11235,7 @@
         <v>29</v>
       </c>
       <c r="J93" s="2"/>
-      <c r="K93" s="28"/>
+      <c r="K93" s="51"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="41" t="str">
@@ -11207,7 +11277,7 @@
         <v>29</v>
       </c>
       <c r="J94" s="2"/>
-      <c r="K94" s="28"/>
+      <c r="K94" s="51"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="41" t="str">
@@ -11249,7 +11319,7 @@
         <v>29</v>
       </c>
       <c r="J95" s="2"/>
-      <c r="K95" s="28"/>
+      <c r="K95" s="51"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="41" t="str">
@@ -11293,7 +11363,7 @@
       <c r="J96" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K96" s="28"/>
+      <c r="K96" s="51"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="41" t="str">
@@ -11337,7 +11407,7 @@
       <c r="J97" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K97" s="28"/>
+      <c r="K97" s="51"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="41" t="str">
@@ -11379,7 +11449,7 @@
         <v>30</v>
       </c>
       <c r="J98" s="2"/>
-      <c r="K98" s="28"/>
+      <c r="K98" s="51"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="41" t="str">
@@ -11423,7 +11493,7 @@
       <c r="J99" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K99" s="32"/>
+      <c r="K99" s="51"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="41" t="str">
@@ -11465,7 +11535,7 @@
         <v>30</v>
       </c>
       <c r="J100" s="2"/>
-      <c r="K100" s="32"/>
+      <c r="K100" s="51"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="41" t="str">
@@ -11509,7 +11579,7 @@
       <c r="J101" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="32"/>
+      <c r="K101" s="51"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="41" t="str">
@@ -11551,7 +11621,7 @@
         <v>30</v>
       </c>
       <c r="J102" s="61"/>
-      <c r="K102" s="52">
+      <c r="K102" s="103">
         <v>1</v>
       </c>
       <c r="L102" s="61"/>
@@ -11595,7 +11665,7 @@
         <v>29</v>
       </c>
       <c r="J103" s="61"/>
-      <c r="K103" s="52"/>
+      <c r="K103" s="103"/>
       <c r="L103" s="61"/>
       <c r="M103" s="61"/>
       <c r="N103" s="41" t="str">
@@ -11639,7 +11709,7 @@
       <c r="J104" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K104" s="52"/>
+      <c r="K104" s="103"/>
       <c r="L104" s="61"/>
       <c r="M104" s="61"/>
       <c r="N104" s="41" t="str">
@@ -11681,7 +11751,7 @@
         <v>29</v>
       </c>
       <c r="J105" s="61"/>
-      <c r="K105" s="52"/>
+      <c r="K105" s="103"/>
       <c r="L105" s="61" t="s">
         <v>460</v>
       </c>
@@ -11725,7 +11795,7 @@
         <v>30</v>
       </c>
       <c r="J106" s="61"/>
-      <c r="K106" s="52"/>
+      <c r="K106" s="103"/>
       <c r="L106" s="61"/>
       <c r="M106" s="61"/>
       <c r="N106" s="41" t="str">
@@ -11769,7 +11839,7 @@
       <c r="J107" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K107" s="52"/>
+      <c r="K107" s="103"/>
       <c r="L107" s="61"/>
       <c r="M107" s="61"/>
       <c r="N107" s="41" t="str">
@@ -11811,7 +11881,7 @@
         <v>30</v>
       </c>
       <c r="J108" s="61"/>
-      <c r="K108" s="52"/>
+      <c r="K108" s="103"/>
       <c r="L108" s="61"/>
       <c r="M108" s="61"/>
       <c r="N108" s="41" t="str">
@@ -11855,7 +11925,7 @@
       <c r="J109" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K109" s="52"/>
+      <c r="K109" s="103"/>
       <c r="L109" s="61"/>
       <c r="M109" s="61"/>
       <c r="N109" s="41" t="str">
@@ -11987,7 +12057,7 @@
       <c r="J112" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K112" s="28"/>
+      <c r="K112" s="51"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="41" t="str">
@@ -12031,7 +12101,7 @@
       <c r="J113" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K113" s="28"/>
+      <c r="K113" s="51"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="41" t="str">
@@ -12073,7 +12143,7 @@
         <v>30</v>
       </c>
       <c r="J114" s="61"/>
-      <c r="K114" s="52">
+      <c r="K114" s="103">
         <v>1</v>
       </c>
       <c r="L114" s="61"/>
@@ -12117,7 +12187,7 @@
         <v>30</v>
       </c>
       <c r="J115" s="61"/>
-      <c r="K115" s="52"/>
+      <c r="K115" s="103"/>
       <c r="L115" s="61"/>
       <c r="M115" s="61"/>
       <c r="N115" s="41" t="str">
@@ -12161,7 +12231,7 @@
       <c r="J116" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K116" s="52"/>
+      <c r="K116" s="103"/>
       <c r="L116" s="61"/>
       <c r="M116" s="61"/>
       <c r="N116" s="41" t="str">
@@ -12203,7 +12273,7 @@
         <v>30</v>
       </c>
       <c r="J117" s="61"/>
-      <c r="K117" s="52"/>
+      <c r="K117" s="103"/>
       <c r="L117" s="61"/>
       <c r="M117" s="61"/>
       <c r="N117" s="41" t="str">
@@ -12247,7 +12317,7 @@
       <c r="J118" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K118" s="52"/>
+      <c r="K118" s="103"/>
       <c r="L118" s="61"/>
       <c r="M118" s="61"/>
       <c r="N118" s="41" t="str">
@@ -12289,7 +12359,7 @@
         <v>30</v>
       </c>
       <c r="J119" s="61"/>
-      <c r="K119" s="52"/>
+      <c r="K119" s="103"/>
       <c r="L119" s="61"/>
       <c r="M119" s="61"/>
       <c r="N119" s="41" t="str">
@@ -12333,7 +12403,7 @@
       <c r="J120" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K120" s="52"/>
+      <c r="K120" s="103"/>
       <c r="L120" s="61"/>
       <c r="M120" s="61"/>
       <c r="N120" s="41" t="str">
@@ -12375,7 +12445,7 @@
         <v>30</v>
       </c>
       <c r="J121" s="2"/>
-      <c r="K121" s="48">
+      <c r="K121" s="51">
         <v>1</v>
       </c>
       <c r="L121" s="2"/>
@@ -12460,7 +12530,7 @@
         <v>29</v>
       </c>
       <c r="J123" s="2"/>
-      <c r="K123" s="48"/>
+      <c r="K123" s="51"/>
       <c r="L123" s="2" t="s">
         <v>358</v>
       </c>
@@ -12504,7 +12574,7 @@
         <v>29</v>
       </c>
       <c r="J124" s="2"/>
-      <c r="K124" s="28"/>
+      <c r="K124" s="51"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="41" t="str">
@@ -12546,7 +12616,7 @@
         <v>29</v>
       </c>
       <c r="J125" s="2"/>
-      <c r="K125" s="28"/>
+      <c r="K125" s="51"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="41" t="str">
@@ -12590,7 +12660,7 @@
       <c r="J126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K126" s="28"/>
+      <c r="K126" s="51"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="41" t="str">
@@ -12632,7 +12702,7 @@
         <v>30</v>
       </c>
       <c r="J127" s="2"/>
-      <c r="K127" s="28"/>
+      <c r="K127" s="51"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="41" t="str">
@@ -12676,7 +12746,7 @@
       <c r="J128" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K128" s="28"/>
+      <c r="K128" s="51"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="41" t="str">
@@ -12718,7 +12788,7 @@
         <v>30</v>
       </c>
       <c r="J129" s="2"/>
-      <c r="K129" s="28"/>
+      <c r="K129" s="51"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="41" t="str">
@@ -12762,7 +12832,7 @@
       <c r="J130" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K130" s="28"/>
+      <c r="K130" s="51"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="41" t="str">
@@ -12804,7 +12874,7 @@
         <v>30</v>
       </c>
       <c r="J131" s="61"/>
-      <c r="K131" s="52">
+      <c r="K131" s="103">
         <v>1</v>
       </c>
       <c r="L131" s="61"/>
@@ -12848,7 +12918,7 @@
         <v>29</v>
       </c>
       <c r="J132" s="61"/>
-      <c r="K132" s="52"/>
+      <c r="K132" s="103"/>
       <c r="L132" s="61"/>
       <c r="M132" s="61"/>
       <c r="N132" s="41" t="str">
@@ -12890,7 +12960,7 @@
         <v>29</v>
       </c>
       <c r="J133" s="61"/>
-      <c r="K133" s="52"/>
+      <c r="K133" s="103"/>
       <c r="L133" s="61"/>
       <c r="M133" s="61"/>
       <c r="N133" s="41" t="str">
@@ -12932,7 +13002,7 @@
         <v>29</v>
       </c>
       <c r="J134" s="61"/>
-      <c r="K134" s="52"/>
+      <c r="K134" s="103"/>
       <c r="L134" s="61"/>
       <c r="M134" s="61"/>
       <c r="N134" s="41" t="str">
@@ -12974,7 +13044,7 @@
         <v>29</v>
       </c>
       <c r="J135" s="61"/>
-      <c r="K135" s="52"/>
+      <c r="K135" s="103"/>
       <c r="L135" s="61"/>
       <c r="M135" s="61"/>
       <c r="N135" s="41" t="str">
@@ -13016,7 +13086,7 @@
         <v>29</v>
       </c>
       <c r="J136" s="61"/>
-      <c r="K136" s="52"/>
+      <c r="K136" s="103"/>
       <c r="L136" s="61"/>
       <c r="M136" s="61"/>
       <c r="N136" s="41" t="str">
@@ -13060,7 +13130,7 @@
       <c r="J137" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="K137" s="52"/>
+      <c r="K137" s="103"/>
       <c r="L137" s="61" t="s">
         <v>361</v>
       </c>
@@ -13104,7 +13174,7 @@
         <v>29</v>
       </c>
       <c r="J138" s="61"/>
-      <c r="K138" s="52"/>
+      <c r="K138" s="103"/>
       <c r="L138" s="61"/>
       <c r="M138" s="61"/>
       <c r="N138" s="41" t="str">
@@ -13148,7 +13218,7 @@
       <c r="J139" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K139" s="52"/>
+      <c r="K139" s="103"/>
       <c r="L139" s="61"/>
       <c r="M139" s="61"/>
       <c r="N139" s="41" t="str">
@@ -13190,7 +13260,7 @@
         <v>172</v>
       </c>
       <c r="J140" s="61"/>
-      <c r="K140" s="84"/>
+      <c r="K140" s="103"/>
       <c r="L140" s="61"/>
       <c r="M140" s="61"/>
       <c r="N140" s="41" t="str">
@@ -13231,7 +13301,7 @@
         <v>30</v>
       </c>
       <c r="J141" s="61"/>
-      <c r="K141" s="52"/>
+      <c r="K141" s="103"/>
       <c r="L141" s="61"/>
       <c r="M141" s="61"/>
       <c r="N141" s="41" t="str">
@@ -13275,7 +13345,7 @@
       <c r="J142" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K142" s="52"/>
+      <c r="K142" s="103"/>
       <c r="L142" s="61"/>
       <c r="M142" s="61"/>
       <c r="N142" s="41" t="str">
@@ -13317,7 +13387,7 @@
         <v>30</v>
       </c>
       <c r="J143" s="61"/>
-      <c r="K143" s="52"/>
+      <c r="K143" s="103"/>
       <c r="L143" s="61"/>
       <c r="M143" s="61"/>
       <c r="N143" s="41" t="str">
@@ -13361,7 +13431,7 @@
       <c r="J144" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K144" s="52"/>
+      <c r="K144" s="103"/>
       <c r="L144" s="61"/>
       <c r="M144" s="61"/>
       <c r="N144" s="41" t="str">
@@ -13741,7 +13811,7 @@
         <v>30</v>
       </c>
       <c r="J153" s="61"/>
-      <c r="K153" s="90">
+      <c r="K153" s="103">
         <v>1</v>
       </c>
       <c r="L153" s="61"/>
@@ -13784,7 +13854,7 @@
         <v>173</v>
       </c>
       <c r="J154" s="61"/>
-      <c r="K154" s="90"/>
+      <c r="K154" s="103"/>
       <c r="L154" s="61"/>
       <c r="M154" s="61"/>
       <c r="N154" s="69" t="str">
@@ -13825,7 +13895,7 @@
         <v>173</v>
       </c>
       <c r="J155" s="61"/>
-      <c r="K155" s="90"/>
+      <c r="K155" s="103"/>
       <c r="L155" s="61"/>
       <c r="M155" s="61"/>
       <c r="N155" s="69" t="str">
@@ -13866,7 +13936,7 @@
         <v>173</v>
       </c>
       <c r="J156" s="61"/>
-      <c r="K156" s="90"/>
+      <c r="K156" s="103"/>
       <c r="L156" s="61"/>
       <c r="M156" s="61"/>
       <c r="N156" s="69" t="str">
@@ -13907,7 +13977,7 @@
         <v>173</v>
       </c>
       <c r="J157" s="61"/>
-      <c r="K157" s="90"/>
+      <c r="K157" s="103"/>
       <c r="L157" s="61"/>
       <c r="M157" s="61"/>
       <c r="N157" s="69" t="str">
@@ -13948,7 +14018,7 @@
         <v>29</v>
       </c>
       <c r="J158" s="61"/>
-      <c r="K158" s="90"/>
+      <c r="K158" s="103"/>
       <c r="L158" s="61"/>
       <c r="M158" s="61"/>
       <c r="N158" s="69" t="str">
@@ -13989,7 +14059,7 @@
         <v>29</v>
       </c>
       <c r="J159" s="61"/>
-      <c r="K159" s="90"/>
+      <c r="K159" s="103"/>
       <c r="L159" s="61"/>
       <c r="M159" s="61"/>
       <c r="N159" s="69" t="str">
@@ -14030,7 +14100,7 @@
         <v>29</v>
       </c>
       <c r="J160" s="61"/>
-      <c r="K160" s="90"/>
+      <c r="K160" s="103"/>
       <c r="L160" s="61"/>
       <c r="M160" s="61"/>
       <c r="N160" s="69" t="str">
@@ -14071,7 +14141,7 @@
         <v>29</v>
       </c>
       <c r="J161" s="61"/>
-      <c r="K161" s="90"/>
+      <c r="K161" s="103"/>
       <c r="L161" s="61"/>
       <c r="M161" s="61"/>
       <c r="N161" s="69" t="str">
@@ -14112,7 +14182,7 @@
         <v>29</v>
       </c>
       <c r="J162" s="61"/>
-      <c r="K162" s="90"/>
+      <c r="K162" s="103"/>
       <c r="L162" s="61"/>
       <c r="M162" s="61"/>
       <c r="N162" s="69" t="str">
@@ -14153,7 +14223,7 @@
         <v>29</v>
       </c>
       <c r="J163" s="61"/>
-      <c r="K163" s="90"/>
+      <c r="K163" s="103"/>
       <c r="L163" s="61"/>
       <c r="M163" s="61"/>
       <c r="N163" s="69" t="str">
@@ -14194,7 +14264,7 @@
         <v>29</v>
       </c>
       <c r="J164" s="61"/>
-      <c r="K164" s="90"/>
+      <c r="K164" s="103"/>
       <c r="L164" s="61"/>
       <c r="M164" s="61"/>
       <c r="N164" s="69" t="str">
@@ -14235,7 +14305,7 @@
         <v>29</v>
       </c>
       <c r="J165" s="61"/>
-      <c r="K165" s="90"/>
+      <c r="K165" s="103"/>
       <c r="L165" s="61"/>
       <c r="M165" s="61"/>
       <c r="N165" s="69" t="str">
@@ -14276,7 +14346,7 @@
         <v>29</v>
       </c>
       <c r="J166" s="61"/>
-      <c r="K166" s="90"/>
+      <c r="K166" s="103"/>
       <c r="L166" s="61"/>
       <c r="M166" s="61"/>
       <c r="N166" s="69" t="str">
@@ -14317,7 +14387,7 @@
         <v>29</v>
       </c>
       <c r="J167" s="61"/>
-      <c r="K167" s="90"/>
+      <c r="K167" s="103"/>
       <c r="L167" s="61" t="s">
         <v>716</v>
       </c>
@@ -14360,7 +14430,7 @@
         <v>29</v>
       </c>
       <c r="J168" s="61"/>
-      <c r="K168" s="90"/>
+      <c r="K168" s="103"/>
       <c r="L168" s="61" t="s">
         <v>370</v>
       </c>
@@ -14403,7 +14473,7 @@
         <v>29</v>
       </c>
       <c r="J169" s="61"/>
-      <c r="K169" s="90"/>
+      <c r="K169" s="103"/>
       <c r="L169" s="61"/>
       <c r="M169" s="61"/>
       <c r="N169" s="69" t="str">
@@ -14444,7 +14514,7 @@
         <v>29</v>
       </c>
       <c r="J170" s="61"/>
-      <c r="K170" s="90"/>
+      <c r="K170" s="103"/>
       <c r="L170" s="61"/>
       <c r="M170" s="61"/>
       <c r="N170" s="69" t="str">
@@ -14485,7 +14555,7 @@
         <v>29</v>
       </c>
       <c r="J171" s="61"/>
-      <c r="K171" s="90"/>
+      <c r="K171" s="103"/>
       <c r="L171" s="61"/>
       <c r="M171" s="61"/>
       <c r="N171" s="69" t="str">
@@ -14526,7 +14596,7 @@
         <v>29</v>
       </c>
       <c r="J172" s="61"/>
-      <c r="K172" s="90"/>
+      <c r="K172" s="103"/>
       <c r="L172" s="61"/>
       <c r="M172" s="61"/>
       <c r="N172" s="69" t="str">
@@ -14567,7 +14637,7 @@
         <v>29</v>
       </c>
       <c r="J173" s="61"/>
-      <c r="K173" s="90"/>
+      <c r="K173" s="103"/>
       <c r="L173" s="61"/>
       <c r="M173" s="61"/>
       <c r="N173" s="69" t="str">
@@ -14610,7 +14680,7 @@
       <c r="J174" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K174" s="90"/>
+      <c r="K174" s="103"/>
       <c r="L174" s="61"/>
       <c r="M174" s="61"/>
       <c r="N174" s="69" t="str">
@@ -14653,7 +14723,7 @@
       <c r="J175" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="K175" s="90"/>
+      <c r="K175" s="103"/>
       <c r="L175" s="61"/>
       <c r="M175" s="61"/>
       <c r="N175" s="69" t="str">
@@ -14696,7 +14766,7 @@
       <c r="J176" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="K176" s="90"/>
+      <c r="K176" s="103"/>
       <c r="L176" s="61"/>
       <c r="M176" s="61"/>
       <c r="N176" s="69" t="str">
@@ -14737,7 +14807,7 @@
         <v>29</v>
       </c>
       <c r="J177" s="61"/>
-      <c r="K177" s="90"/>
+      <c r="K177" s="103"/>
       <c r="L177" s="61" t="s">
         <v>460</v>
       </c>
@@ -14780,7 +14850,7 @@
         <v>30</v>
       </c>
       <c r="J178" s="61"/>
-      <c r="K178" s="90"/>
+      <c r="K178" s="103"/>
       <c r="L178" s="61"/>
       <c r="M178" s="61"/>
       <c r="N178" s="69" t="str">
@@ -14823,7 +14893,7 @@
       <c r="J179" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K179" s="90"/>
+      <c r="K179" s="103"/>
       <c r="L179" s="61"/>
       <c r="M179" s="61"/>
       <c r="N179" s="69" t="str">
@@ -14864,7 +14934,7 @@
         <v>30</v>
       </c>
       <c r="J180" s="61"/>
-      <c r="K180" s="90"/>
+      <c r="K180" s="103"/>
       <c r="L180" s="61"/>
       <c r="M180" s="61"/>
       <c r="N180" s="69" t="str">
@@ -14907,7 +14977,7 @@
       <c r="J181" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K181" s="90"/>
+      <c r="K181" s="103"/>
       <c r="L181" s="61"/>
       <c r="M181" s="61"/>
       <c r="N181" s="69" t="str">
@@ -14948,7 +15018,7 @@
         <v>30</v>
       </c>
       <c r="J182" s="2"/>
-      <c r="K182" s="28"/>
+      <c r="K182" s="51"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="41" t="str">
@@ -14990,7 +15060,7 @@
         <v>30</v>
       </c>
       <c r="J183" s="2"/>
-      <c r="K183" s="28"/>
+      <c r="K183" s="51"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="41" t="str">
@@ -15032,7 +15102,7 @@
         <v>29</v>
       </c>
       <c r="J184" s="2"/>
-      <c r="K184" s="28"/>
+      <c r="K184" s="51"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="41" t="str">
@@ -15074,7 +15144,7 @@
         <v>29</v>
       </c>
       <c r="J185" s="2"/>
-      <c r="K185" s="28"/>
+      <c r="K185" s="51"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="41" t="str">
@@ -15116,7 +15186,7 @@
         <v>29</v>
       </c>
       <c r="J186" s="2"/>
-      <c r="K186" s="28"/>
+      <c r="K186" s="51"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="41" t="str">
@@ -15158,7 +15228,7 @@
         <v>29</v>
       </c>
       <c r="J187" s="2"/>
-      <c r="K187" s="28"/>
+      <c r="K187" s="51"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="41" t="str">
@@ -15200,7 +15270,7 @@
         <v>29</v>
       </c>
       <c r="J188" s="2"/>
-      <c r="K188" s="28"/>
+      <c r="K188" s="51"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="41" t="str">
@@ -15242,7 +15312,7 @@
         <v>29</v>
       </c>
       <c r="J189" s="2"/>
-      <c r="K189" s="28"/>
+      <c r="K189" s="51"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="41" t="str">
@@ -15284,7 +15354,7 @@
         <v>29</v>
       </c>
       <c r="J190" s="2"/>
-      <c r="K190" s="28"/>
+      <c r="K190" s="51"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="41" t="str">
@@ -15326,7 +15396,7 @@
         <v>29</v>
       </c>
       <c r="J191" s="2"/>
-      <c r="K191" s="28"/>
+      <c r="K191" s="51"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="41" t="str">
@@ -15368,7 +15438,7 @@
         <v>29</v>
       </c>
       <c r="J192" s="2"/>
-      <c r="K192" s="28"/>
+      <c r="K192" s="51"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="41" t="str">
@@ -15410,7 +15480,7 @@
         <v>29</v>
       </c>
       <c r="J193" s="2"/>
-      <c r="K193" s="28"/>
+      <c r="K193" s="51"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="41" t="str">
@@ -15452,7 +15522,7 @@
         <v>29</v>
       </c>
       <c r="J194" s="2"/>
-      <c r="K194" s="28"/>
+      <c r="K194" s="51"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="41" t="str">
@@ -15494,7 +15564,7 @@
         <v>29</v>
       </c>
       <c r="J195" s="2"/>
-      <c r="K195" s="28"/>
+      <c r="K195" s="51"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="41" t="str">
@@ -15536,7 +15606,7 @@
         <v>29</v>
       </c>
       <c r="J196" s="2"/>
-      <c r="K196" s="28"/>
+      <c r="K196" s="51"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="41" t="str">
@@ -15578,7 +15648,7 @@
         <v>29</v>
       </c>
       <c r="J197" s="2"/>
-      <c r="K197" s="28"/>
+      <c r="K197" s="51"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="41" t="str">
@@ -15620,7 +15690,7 @@
         <v>29</v>
       </c>
       <c r="J198" s="2"/>
-      <c r="K198" s="28"/>
+      <c r="K198" s="51"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="41" t="str">
@@ -15662,7 +15732,7 @@
         <v>29</v>
       </c>
       <c r="J199" s="2"/>
-      <c r="K199" s="28"/>
+      <c r="K199" s="51"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="41" t="str">
@@ -15704,7 +15774,7 @@
         <v>29</v>
       </c>
       <c r="J200" s="2"/>
-      <c r="K200" s="28"/>
+      <c r="K200" s="51"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="41" t="str">
@@ -15746,7 +15816,7 @@
         <v>29</v>
       </c>
       <c r="J201" s="2"/>
-      <c r="K201" s="28"/>
+      <c r="K201" s="51"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="41" t="str">
@@ -15788,7 +15858,7 @@
         <v>29</v>
       </c>
       <c r="J202" s="2"/>
-      <c r="K202" s="28"/>
+      <c r="K202" s="51"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="41" t="str">
@@ -15830,7 +15900,7 @@
         <v>29</v>
       </c>
       <c r="J203" s="2"/>
-      <c r="K203" s="28"/>
+      <c r="K203" s="51"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="41" t="str">
@@ -15872,7 +15942,7 @@
         <v>29</v>
       </c>
       <c r="J204" s="2"/>
-      <c r="K204" s="28"/>
+      <c r="K204" s="51"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="41" t="str">
@@ -15914,7 +15984,7 @@
         <v>29</v>
       </c>
       <c r="J205" s="2"/>
-      <c r="K205" s="28"/>
+      <c r="K205" s="51"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="41" t="str">
@@ -15956,7 +16026,7 @@
         <v>29</v>
       </c>
       <c r="J206" s="2"/>
-      <c r="K206" s="28"/>
+      <c r="K206" s="51"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="41" t="str">
@@ -15998,7 +16068,7 @@
         <v>29</v>
       </c>
       <c r="J207" s="2"/>
-      <c r="K207" s="28"/>
+      <c r="K207" s="51"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="41" t="str">
@@ -16040,7 +16110,7 @@
         <v>29</v>
       </c>
       <c r="J208" s="2"/>
-      <c r="K208" s="28"/>
+      <c r="K208" s="51"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="41" t="str">
@@ -16082,7 +16152,7 @@
         <v>29</v>
       </c>
       <c r="J209" s="2"/>
-      <c r="K209" s="28"/>
+      <c r="K209" s="51"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="41" t="str">
@@ -16124,7 +16194,7 @@
         <v>29</v>
       </c>
       <c r="J210" s="30"/>
-      <c r="K210" s="28"/>
+      <c r="K210" s="51"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="41" t="str">
@@ -16166,7 +16236,7 @@
         <v>29</v>
       </c>
       <c r="J211" s="2"/>
-      <c r="K211" s="28"/>
+      <c r="K211" s="51"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="41" t="str">
@@ -16208,7 +16278,7 @@
         <v>29</v>
       </c>
       <c r="J212" s="2"/>
-      <c r="K212" s="28"/>
+      <c r="K212" s="51"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="41" t="str">
@@ -16250,7 +16320,7 @@
         <v>29</v>
       </c>
       <c r="J213" s="2"/>
-      <c r="K213" s="28"/>
+      <c r="K213" s="51"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="41" t="str">
@@ -16292,7 +16362,7 @@
         <v>29</v>
       </c>
       <c r="J214" s="2"/>
-      <c r="K214" s="28"/>
+      <c r="K214" s="51"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="41" t="str">
@@ -16334,7 +16404,7 @@
         <v>29</v>
       </c>
       <c r="J215" s="2"/>
-      <c r="K215" s="28"/>
+      <c r="K215" s="51"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="41" t="str">
@@ -16376,7 +16446,7 @@
         <v>29</v>
       </c>
       <c r="J216" s="2"/>
-      <c r="K216" s="28"/>
+      <c r="K216" s="51"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="41" t="str">
@@ -16418,7 +16488,7 @@
         <v>29</v>
       </c>
       <c r="J217" s="2"/>
-      <c r="K217" s="31"/>
+      <c r="K217" s="51"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="41" t="str">
@@ -16460,7 +16530,7 @@
         <v>29</v>
       </c>
       <c r="J218" s="2"/>
-      <c r="K218" s="31"/>
+      <c r="K218" s="51"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="41" t="str">
@@ -16502,7 +16572,7 @@
         <v>30</v>
       </c>
       <c r="J219" s="61"/>
-      <c r="K219" s="52">
+      <c r="K219" s="103">
         <v>1</v>
       </c>
       <c r="L219" s="61"/>
@@ -16546,7 +16616,7 @@
         <v>29</v>
       </c>
       <c r="J220" s="61"/>
-      <c r="K220" s="52"/>
+      <c r="K220" s="103"/>
       <c r="L220" s="61" t="s">
         <v>357</v>
       </c>
@@ -16590,7 +16660,7 @@
         <v>29</v>
       </c>
       <c r="J221" s="61"/>
-      <c r="K221" s="52"/>
+      <c r="K221" s="103"/>
       <c r="L221" s="61"/>
       <c r="M221" s="61"/>
       <c r="N221" s="41" t="str">
@@ -16632,7 +16702,7 @@
         <v>29</v>
       </c>
       <c r="J222" s="61"/>
-      <c r="K222" s="52"/>
+      <c r="K222" s="103"/>
       <c r="L222" s="61"/>
       <c r="M222" s="61"/>
       <c r="N222" s="41" t="str">
@@ -16676,7 +16746,7 @@
       <c r="J223" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K223" s="52"/>
+      <c r="K223" s="103"/>
       <c r="L223" s="61"/>
       <c r="M223" s="61"/>
       <c r="N223" s="41" t="str">
@@ -16718,7 +16788,7 @@
         <v>30</v>
       </c>
       <c r="J224" s="61"/>
-      <c r="K224" s="52"/>
+      <c r="K224" s="103"/>
       <c r="L224" s="61"/>
       <c r="M224" s="61"/>
       <c r="N224" s="41" t="str">
@@ -16762,7 +16832,7 @@
       <c r="J225" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K225" s="52"/>
+      <c r="K225" s="103"/>
       <c r="L225" s="61"/>
       <c r="M225" s="61"/>
       <c r="N225" s="41" t="str">
@@ -16804,7 +16874,7 @@
         <v>30</v>
       </c>
       <c r="J226" s="61"/>
-      <c r="K226" s="52"/>
+      <c r="K226" s="103"/>
       <c r="L226" s="61"/>
       <c r="M226" s="61"/>
       <c r="N226" s="41" t="str">
@@ -16848,7 +16918,7 @@
       <c r="J227" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K227" s="52"/>
+      <c r="K227" s="103"/>
       <c r="L227" s="61"/>
       <c r="M227" s="61"/>
       <c r="N227" s="41" t="str">
@@ -16890,7 +16960,7 @@
         <v>30</v>
       </c>
       <c r="J228" s="2"/>
-      <c r="K228" s="31">
+      <c r="K228" s="51">
         <v>1</v>
       </c>
       <c r="L228" s="2"/>
@@ -16934,7 +17004,7 @@
         <v>29</v>
       </c>
       <c r="J229" s="2"/>
-      <c r="K229" s="31"/>
+      <c r="K229" s="51"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="41" t="str">
@@ -16976,7 +17046,7 @@
         <v>29</v>
       </c>
       <c r="J230" s="2"/>
-      <c r="K230" s="31"/>
+      <c r="K230" s="51"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="41" t="str">
@@ -17018,7 +17088,7 @@
         <v>29</v>
       </c>
       <c r="J231" s="2"/>
-      <c r="K231" s="31"/>
+      <c r="K231" s="51"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="41" t="str">
@@ -17060,7 +17130,7 @@
         <v>30</v>
       </c>
       <c r="J232" s="61"/>
-      <c r="K232" s="52"/>
+      <c r="K232" s="103"/>
       <c r="L232" s="61"/>
       <c r="M232" s="61"/>
       <c r="N232" s="41" t="str">
@@ -17101,7 +17171,7 @@
         <v>30</v>
       </c>
       <c r="J233" s="61"/>
-      <c r="K233" s="52"/>
+      <c r="K233" s="103"/>
       <c r="L233" s="61"/>
       <c r="M233" s="61"/>
       <c r="N233" s="41" t="str">
@@ -17142,7 +17212,7 @@
         <v>29</v>
       </c>
       <c r="J234" s="61"/>
-      <c r="K234" s="52"/>
+      <c r="K234" s="103"/>
       <c r="L234" s="61"/>
       <c r="M234" s="61"/>
       <c r="N234" s="41" t="str">
@@ -17183,7 +17253,7 @@
         <v>29</v>
       </c>
       <c r="J235" s="61"/>
-      <c r="K235" s="52"/>
+      <c r="K235" s="103"/>
       <c r="L235" s="61"/>
       <c r="M235" s="61"/>
       <c r="N235" s="41" t="str">
@@ -17224,7 +17294,7 @@
         <v>29</v>
       </c>
       <c r="J236" s="61"/>
-      <c r="K236" s="52"/>
+      <c r="K236" s="103"/>
       <c r="L236" s="61"/>
       <c r="M236" s="61"/>
       <c r="N236" s="41" t="str">
@@ -17265,7 +17335,7 @@
         <v>29</v>
       </c>
       <c r="J237" s="61"/>
-      <c r="K237" s="52"/>
+      <c r="K237" s="103"/>
       <c r="L237" s="61"/>
       <c r="M237" s="61"/>
       <c r="N237" s="41" t="str">
@@ -17306,7 +17376,7 @@
         <v>29</v>
       </c>
       <c r="J238" s="61"/>
-      <c r="K238" s="52"/>
+      <c r="K238" s="103"/>
       <c r="L238" s="61"/>
       <c r="M238" s="61"/>
       <c r="N238" s="41" t="str">
@@ -17347,7 +17417,7 @@
         <v>29</v>
       </c>
       <c r="J239" s="61"/>
-      <c r="K239" s="52"/>
+      <c r="K239" s="103"/>
       <c r="L239" s="61"/>
       <c r="M239" s="61"/>
       <c r="N239" s="41" t="str">
@@ -17388,7 +17458,7 @@
         <v>29</v>
       </c>
       <c r="J240" s="61"/>
-      <c r="K240" s="52"/>
+      <c r="K240" s="103"/>
       <c r="L240" s="61"/>
       <c r="M240" s="61"/>
       <c r="N240" s="41" t="str">
@@ -17429,7 +17499,7 @@
         <v>29</v>
       </c>
       <c r="J241" s="61"/>
-      <c r="K241" s="52"/>
+      <c r="K241" s="103"/>
       <c r="L241" s="61"/>
       <c r="M241" s="61"/>
       <c r="N241" s="41" t="str">
@@ -17470,7 +17540,7 @@
         <v>29</v>
       </c>
       <c r="J242" s="61"/>
-      <c r="K242" s="52"/>
+      <c r="K242" s="103"/>
       <c r="L242" s="61"/>
       <c r="M242" s="61"/>
       <c r="N242" s="41" t="str">
@@ -17511,7 +17581,7 @@
         <v>29</v>
       </c>
       <c r="J243" s="61"/>
-      <c r="K243" s="52"/>
+      <c r="K243" s="103"/>
       <c r="L243" s="61"/>
       <c r="M243" s="61"/>
       <c r="N243" s="41" t="str">
@@ -17552,7 +17622,7 @@
         <v>29</v>
       </c>
       <c r="J244" s="61"/>
-      <c r="K244" s="52"/>
+      <c r="K244" s="103"/>
       <c r="L244" s="61"/>
       <c r="M244" s="61"/>
       <c r="N244" s="41" t="str">
@@ -17593,7 +17663,7 @@
         <v>29</v>
       </c>
       <c r="J245" s="61"/>
-      <c r="K245" s="52"/>
+      <c r="K245" s="103"/>
       <c r="L245" s="61"/>
       <c r="M245" s="61"/>
       <c r="N245" s="41" t="str">
@@ -17634,7 +17704,7 @@
         <v>29</v>
       </c>
       <c r="J246" s="61"/>
-      <c r="K246" s="52"/>
+      <c r="K246" s="103"/>
       <c r="L246" s="61"/>
       <c r="M246" s="61"/>
       <c r="N246" s="41" t="str">
@@ -17675,7 +17745,7 @@
         <v>29</v>
       </c>
       <c r="J247" s="61"/>
-      <c r="K247" s="52"/>
+      <c r="K247" s="103"/>
       <c r="L247" s="61"/>
       <c r="M247" s="61"/>
       <c r="N247" s="41" t="str">
@@ -17716,7 +17786,7 @@
         <v>29</v>
       </c>
       <c r="J248" s="61"/>
-      <c r="K248" s="52"/>
+      <c r="K248" s="103"/>
       <c r="L248" s="61"/>
       <c r="M248" s="61"/>
       <c r="N248" s="41" t="str">
@@ -17757,7 +17827,7 @@
         <v>173</v>
       </c>
       <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
+      <c r="K249" s="51"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="41" t="str">
@@ -17798,7 +17868,7 @@
         <v>173</v>
       </c>
       <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
+      <c r="K250" s="51"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="41" t="str">
@@ -17839,7 +17909,7 @@
         <v>173</v>
       </c>
       <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
+      <c r="K251" s="51"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="41" t="str">
@@ -17880,7 +17950,7 @@
         <v>172</v>
       </c>
       <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
+      <c r="K252" s="51"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="41" t="str">
@@ -17921,7 +17991,7 @@
         <v>172</v>
       </c>
       <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
+      <c r="K253" s="51"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="41" t="str">
@@ -17962,7 +18032,7 @@
         <v>172</v>
       </c>
       <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
+      <c r="K254" s="51"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="41" t="str">
@@ -18003,7 +18073,7 @@
         <v>172</v>
       </c>
       <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
+      <c r="K255" s="51"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="41" t="str">
@@ -18044,7 +18114,7 @@
         <v>172</v>
       </c>
       <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
+      <c r="K256" s="51"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="41" t="str">
@@ -18085,7 +18155,7 @@
         <v>172</v>
       </c>
       <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
+      <c r="K257" s="51"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="41" t="str">
@@ -18126,7 +18196,7 @@
         <v>172</v>
       </c>
       <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
+      <c r="K258" s="51"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="41" t="str">
@@ -18167,7 +18237,7 @@
         <v>172</v>
       </c>
       <c r="J259" s="6"/>
-      <c r="K259" s="2"/>
+      <c r="K259" s="51"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="41" t="str">
@@ -18208,7 +18278,7 @@
         <v>172</v>
       </c>
       <c r="J260" s="61"/>
-      <c r="K260" s="61"/>
+      <c r="K260" s="103"/>
       <c r="L260" s="61"/>
       <c r="M260" s="61"/>
       <c r="N260" s="41" t="str">
@@ -18251,7 +18321,7 @@
       <c r="J261" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K261" s="61">
+      <c r="K261" s="103">
         <v>1</v>
       </c>
       <c r="L261" s="61"/>
@@ -18300,7 +18370,7 @@
       <c r="J262" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K262" s="61"/>
+      <c r="K262" s="103"/>
       <c r="L262" s="61"/>
       <c r="M262" s="61"/>
       <c r="N262" s="41" t="str">
@@ -18341,7 +18411,7 @@
         <v>172</v>
       </c>
       <c r="J263" s="61"/>
-      <c r="K263" s="61"/>
+      <c r="K263" s="103"/>
       <c r="L263" s="61"/>
       <c r="M263" s="61"/>
       <c r="N263" s="41" t="str">
@@ -18384,7 +18454,7 @@
       <c r="J264" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K264" s="61"/>
+      <c r="K264" s="103"/>
       <c r="L264" s="61"/>
       <c r="M264" s="61"/>
       <c r="N264" s="41" t="str">
@@ -18427,7 +18497,7 @@
       <c r="J265" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K265" s="61"/>
+      <c r="K265" s="103"/>
       <c r="L265" s="61"/>
       <c r="M265" s="61"/>
       <c r="N265" s="41" t="str">
@@ -18470,7 +18540,7 @@
       <c r="J266" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="K266" s="61"/>
+      <c r="K266" s="103"/>
       <c r="L266" s="61"/>
       <c r="M266" s="61"/>
       <c r="N266" s="41" t="str">
@@ -18513,7 +18583,7 @@
       <c r="J267" s="61" t="s">
         <v>784</v>
       </c>
-      <c r="K267" s="61"/>
+      <c r="K267" s="103"/>
       <c r="L267" s="61" t="s">
         <v>785</v>
       </c>
@@ -18808,7 +18878,7 @@
         <v>173</v>
       </c>
       <c r="J274" s="61"/>
-      <c r="K274" s="90">
+      <c r="K274" s="103">
         <v>1</v>
       </c>
       <c r="L274" s="61"/>
@@ -18851,7 +18921,7 @@
         <v>173</v>
       </c>
       <c r="J275" s="61"/>
-      <c r="K275" s="90">
+      <c r="K275" s="103">
         <v>1</v>
       </c>
       <c r="L275" s="61"/>
@@ -18894,7 +18964,7 @@
         <v>173</v>
       </c>
       <c r="J276" s="61"/>
-      <c r="K276" s="90">
+      <c r="K276" s="103">
         <v>2</v>
       </c>
       <c r="L276" s="61"/>
@@ -18937,7 +19007,7 @@
         <v>173</v>
       </c>
       <c r="J277" s="61"/>
-      <c r="K277" s="90"/>
+      <c r="K277" s="103"/>
       <c r="L277" s="61"/>
       <c r="M277" s="61"/>
       <c r="N277" s="69" t="str">
@@ -18978,7 +19048,7 @@
         <v>172</v>
       </c>
       <c r="J278" s="61"/>
-      <c r="K278" s="90"/>
+      <c r="K278" s="103"/>
       <c r="L278" s="61"/>
       <c r="M278" s="61"/>
       <c r="N278" s="69" t="str">
@@ -19019,7 +19089,7 @@
         <v>173</v>
       </c>
       <c r="J279" s="61"/>
-      <c r="K279" s="90"/>
+      <c r="K279" s="103"/>
       <c r="L279" s="61"/>
       <c r="M279" s="61"/>
       <c r="N279" s="69" t="str">
@@ -19060,7 +19130,7 @@
         <v>172</v>
       </c>
       <c r="J280" s="61"/>
-      <c r="K280" s="90"/>
+      <c r="K280" s="103"/>
       <c r="L280" s="61"/>
       <c r="M280" s="61"/>
       <c r="N280" s="69" t="str">
@@ -19101,7 +19171,7 @@
         <v>172</v>
       </c>
       <c r="J281" s="61"/>
-      <c r="K281" s="90"/>
+      <c r="K281" s="103"/>
       <c r="L281" s="61"/>
       <c r="M281" s="61"/>
       <c r="N281" s="69" t="str">
@@ -19142,7 +19212,7 @@
         <v>172</v>
       </c>
       <c r="J282" s="61"/>
-      <c r="K282" s="90"/>
+      <c r="K282" s="103"/>
       <c r="L282" s="61"/>
       <c r="M282" s="61"/>
       <c r="N282" s="69" t="str">
@@ -19185,7 +19255,7 @@
       <c r="J283" s="69" t="s">
         <v>766</v>
       </c>
-      <c r="K283" s="90"/>
+      <c r="K283" s="103"/>
       <c r="L283" s="61"/>
       <c r="M283" s="61"/>
       <c r="N283" s="69" t="str">
@@ -19226,7 +19296,7 @@
         <v>173</v>
       </c>
       <c r="J284" s="61"/>
-      <c r="K284" s="90"/>
+      <c r="K284" s="103"/>
       <c r="L284" s="61"/>
       <c r="M284" s="61"/>
       <c r="N284" s="69" t="str">
@@ -19267,7 +19337,7 @@
         <v>173</v>
       </c>
       <c r="J285" s="61"/>
-      <c r="K285" s="90"/>
+      <c r="K285" s="103"/>
       <c r="L285" s="61"/>
       <c r="M285" s="61"/>
       <c r="N285" s="69" t="str">
@@ -19308,7 +19378,7 @@
         <v>173</v>
       </c>
       <c r="J286" s="61"/>
-      <c r="K286" s="90"/>
+      <c r="K286" s="103"/>
       <c r="L286" s="61"/>
       <c r="M286" s="61"/>
       <c r="N286" s="69" t="str">
@@ -19349,7 +19419,7 @@
         <v>173</v>
       </c>
       <c r="J287" s="61"/>
-      <c r="K287" s="90"/>
+      <c r="K287" s="103"/>
       <c r="L287" s="61"/>
       <c r="M287" s="61"/>
       <c r="N287" s="69" t="str">
@@ -19390,7 +19460,7 @@
         <v>173</v>
       </c>
       <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
+      <c r="K288" s="51"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="41" t="str">
@@ -19431,7 +19501,7 @@
         <v>173</v>
       </c>
       <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
+      <c r="K289" s="51"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="41" t="str">
@@ -19472,7 +19542,7 @@
         <v>173</v>
       </c>
       <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
+      <c r="K290" s="51"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="41" t="str">
@@ -19513,7 +19583,7 @@
         <v>173</v>
       </c>
       <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
+      <c r="K291" s="51"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="41" t="str">
@@ -19554,7 +19624,7 @@
         <v>172</v>
       </c>
       <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
+      <c r="K292" s="51"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="41" t="str">
@@ -19595,7 +19665,7 @@
         <v>173</v>
       </c>
       <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
+      <c r="K293" s="51"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="41" t="str">
@@ -19636,7 +19706,7 @@
         <v>172</v>
       </c>
       <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
+      <c r="K294" s="51"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="41" t="str">
@@ -19924,7 +19994,7 @@
         <v>173</v>
       </c>
       <c r="J301" s="61"/>
-      <c r="K301" s="90"/>
+      <c r="K301" s="103"/>
       <c r="L301" s="61"/>
       <c r="M301" s="61"/>
       <c r="N301" s="69" t="str">
@@ -19965,7 +20035,7 @@
         <v>173</v>
       </c>
       <c r="J302" s="61"/>
-      <c r="K302" s="90"/>
+      <c r="K302" s="103"/>
       <c r="L302" s="61"/>
       <c r="M302" s="61"/>
       <c r="N302" s="69" t="str">
@@ -20006,7 +20076,7 @@
         <v>173</v>
       </c>
       <c r="J303" s="61"/>
-      <c r="K303" s="90"/>
+      <c r="K303" s="103"/>
       <c r="L303" s="61"/>
       <c r="M303" s="61"/>
       <c r="N303" s="69" t="str">
@@ -20047,7 +20117,7 @@
         <v>173</v>
       </c>
       <c r="J304" s="61"/>
-      <c r="K304" s="90"/>
+      <c r="K304" s="103"/>
       <c r="L304" s="61"/>
       <c r="M304" s="61"/>
       <c r="N304" s="69" t="str">
@@ -20090,7 +20160,7 @@
       <c r="J305" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="K305" s="90"/>
+      <c r="K305" s="103"/>
       <c r="L305" s="61"/>
       <c r="M305" s="61"/>
       <c r="N305" s="69" t="str">
@@ -20133,7 +20203,7 @@
       <c r="J306" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K306" s="90"/>
+      <c r="K306" s="103"/>
       <c r="L306" s="61"/>
       <c r="M306" s="61"/>
       <c r="N306" s="69" t="str">
@@ -20176,7 +20246,7 @@
       <c r="J307" s="69" t="s">
         <v>766</v>
       </c>
-      <c r="K307" s="90"/>
+      <c r="K307" s="103"/>
       <c r="L307" s="61"/>
       <c r="M307" s="61"/>
       <c r="N307" s="69" t="str">
@@ -20217,7 +20287,7 @@
         <v>173</v>
       </c>
       <c r="J308" s="61"/>
-      <c r="K308" s="90"/>
+      <c r="K308" s="103"/>
       <c r="L308" s="61"/>
       <c r="M308" s="61"/>
       <c r="N308" s="69" t="str">
@@ -20258,7 +20328,7 @@
         <v>173</v>
       </c>
       <c r="J309" s="61"/>
-      <c r="K309" s="90"/>
+      <c r="K309" s="103"/>
       <c r="L309" s="61"/>
       <c r="M309" s="61"/>
       <c r="N309" s="69" t="str">
@@ -20299,7 +20369,7 @@
         <v>173</v>
       </c>
       <c r="J310" s="61"/>
-      <c r="K310" s="90"/>
+      <c r="K310" s="103"/>
       <c r="L310" s="61"/>
       <c r="M310" s="61"/>
       <c r="N310" s="69" t="str">
@@ -20340,7 +20410,7 @@
         <v>173</v>
       </c>
       <c r="J311" s="61"/>
-      <c r="K311" s="90"/>
+      <c r="K311" s="103"/>
       <c r="L311" s="61"/>
       <c r="M311" s="61"/>
       <c r="N311" s="69" t="str">
@@ -20381,7 +20451,7 @@
         <v>173</v>
       </c>
       <c r="J312" s="2"/>
-      <c r="K312" s="2"/>
+      <c r="K312" s="51"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="41" t="str">
@@ -20422,7 +20492,7 @@
         <v>172</v>
       </c>
       <c r="J313" s="2"/>
-      <c r="K313" s="2"/>
+      <c r="K313" s="51"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="41" t="str">
@@ -20463,7 +20533,7 @@
         <v>172</v>
       </c>
       <c r="J314" s="2"/>
-      <c r="K314" s="2"/>
+      <c r="K314" s="51"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="41" t="str">
@@ -20504,7 +20574,7 @@
         <v>172</v>
       </c>
       <c r="J315" s="2"/>
-      <c r="K315" s="2"/>
+      <c r="K315" s="51"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="41" t="str">
@@ -20545,7 +20615,7 @@
         <v>173</v>
       </c>
       <c r="J316" s="2"/>
-      <c r="K316" s="2"/>
+      <c r="K316" s="51"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="41" t="str">
@@ -20586,7 +20656,7 @@
         <v>173</v>
       </c>
       <c r="J317" s="2"/>
-      <c r="K317" s="2"/>
+      <c r="K317" s="51"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="41" t="str">
@@ -20629,7 +20699,7 @@
       <c r="J318" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K318" s="2"/>
+      <c r="K318" s="51"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="41" t="str">
@@ -20711,7 +20781,7 @@
         <v>173</v>
       </c>
       <c r="J320" s="2"/>
-      <c r="K320" s="2"/>
+      <c r="K320" s="51"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="41" t="str">
@@ -20793,7 +20863,7 @@
         <v>173</v>
       </c>
       <c r="J322" s="2"/>
-      <c r="K322" s="2"/>
+      <c r="K322" s="51"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="41" t="str">
@@ -20834,7 +20904,7 @@
         <v>173</v>
       </c>
       <c r="J323" s="61"/>
-      <c r="K323" s="99">
+      <c r="K323" s="103">
         <v>1</v>
       </c>
       <c r="L323" s="61"/>
@@ -20877,7 +20947,7 @@
         <v>173</v>
       </c>
       <c r="J324" s="61"/>
-      <c r="K324" s="99">
+      <c r="K324" s="103">
         <v>2</v>
       </c>
       <c r="L324" s="61"/>
@@ -20920,7 +20990,7 @@
         <v>173</v>
       </c>
       <c r="J325" s="61"/>
-      <c r="K325" s="99"/>
+      <c r="K325" s="103"/>
       <c r="L325" s="61"/>
       <c r="M325" s="61"/>
       <c r="N325" s="69" t="str">
@@ -20961,7 +21031,7 @@
         <v>173</v>
       </c>
       <c r="J326" s="61"/>
-      <c r="K326" s="99"/>
+      <c r="K326" s="103"/>
       <c r="L326" s="61"/>
       <c r="M326" s="61"/>
       <c r="N326" s="69" t="str">
@@ -21002,7 +21072,7 @@
         <v>173</v>
       </c>
       <c r="J327" s="61"/>
-      <c r="K327" s="99"/>
+      <c r="K327" s="103"/>
       <c r="L327" s="61"/>
       <c r="M327" s="61"/>
       <c r="N327" s="69" t="str">
@@ -21043,7 +21113,7 @@
         <v>172</v>
       </c>
       <c r="J328" s="61"/>
-      <c r="K328" s="99"/>
+      <c r="K328" s="103"/>
       <c r="L328" s="61"/>
       <c r="M328" s="61"/>
       <c r="N328" s="69" t="str">
@@ -21084,7 +21154,7 @@
         <v>173</v>
       </c>
       <c r="J329" s="61"/>
-      <c r="K329" s="99"/>
+      <c r="K329" s="103"/>
       <c r="L329" s="61"/>
       <c r="M329" s="61"/>
       <c r="N329" s="69" t="str">
@@ -21125,7 +21195,7 @@
         <v>172</v>
       </c>
       <c r="J330" s="61"/>
-      <c r="K330" s="99"/>
+      <c r="K330" s="103"/>
       <c r="L330" s="61"/>
       <c r="M330" s="61"/>
       <c r="N330" s="69" t="str">
@@ -21166,7 +21236,7 @@
         <v>172</v>
       </c>
       <c r="J331" s="61"/>
-      <c r="K331" s="99"/>
+      <c r="K331" s="103"/>
       <c r="L331" s="61"/>
       <c r="M331" s="61"/>
       <c r="N331" s="69" t="str">
@@ -21207,7 +21277,7 @@
         <v>172</v>
       </c>
       <c r="J332" s="61"/>
-      <c r="K332" s="99"/>
+      <c r="K332" s="103"/>
       <c r="L332" s="61"/>
       <c r="M332" s="61"/>
       <c r="N332" s="69" t="str">
@@ -21250,7 +21320,7 @@
       <c r="J333" s="69" t="s">
         <v>766</v>
       </c>
-      <c r="K333" s="99"/>
+      <c r="K333" s="103"/>
       <c r="L333" s="61"/>
       <c r="M333" s="61"/>
       <c r="N333" s="69" t="str">
@@ -21291,7 +21361,7 @@
         <v>173</v>
       </c>
       <c r="J334" s="61"/>
-      <c r="K334" s="99"/>
+      <c r="K334" s="103"/>
       <c r="L334" s="61"/>
       <c r="M334" s="61"/>
       <c r="N334" s="69" t="str">
@@ -21332,7 +21402,7 @@
         <v>173</v>
       </c>
       <c r="J335" s="61"/>
-      <c r="K335" s="99"/>
+      <c r="K335" s="103"/>
       <c r="L335" s="61"/>
       <c r="M335" s="61"/>
       <c r="N335" s="69" t="str">
@@ -21373,7 +21443,7 @@
         <v>173</v>
       </c>
       <c r="J336" s="61"/>
-      <c r="K336" s="99"/>
+      <c r="K336" s="103"/>
       <c r="L336" s="61"/>
       <c r="M336" s="61"/>
       <c r="N336" s="69" t="str">
@@ -21414,7 +21484,7 @@
         <v>173</v>
       </c>
       <c r="J337" s="61"/>
-      <c r="K337" s="99"/>
+      <c r="K337" s="103"/>
       <c r="L337" s="61"/>
       <c r="M337" s="61"/>
       <c r="N337" s="69" t="str">
@@ -21455,7 +21525,7 @@
         <v>173</v>
       </c>
       <c r="J338" s="2"/>
-      <c r="K338" s="2"/>
+      <c r="K338" s="51"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="41" t="str">
@@ -21496,7 +21566,7 @@
         <v>173</v>
       </c>
       <c r="J339" s="2"/>
-      <c r="K339" s="2"/>
+      <c r="K339" s="51"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="41" t="str">
@@ -21537,7 +21607,7 @@
         <v>173</v>
       </c>
       <c r="J340" s="2"/>
-      <c r="K340" s="2"/>
+      <c r="K340" s="51"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="41" t="str">
@@ -21578,7 +21648,7 @@
         <v>173</v>
       </c>
       <c r="J341" s="2"/>
-      <c r="K341" s="2"/>
+      <c r="K341" s="51"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="41" t="str">
@@ -21619,7 +21689,7 @@
         <v>173</v>
       </c>
       <c r="J342" s="2"/>
-      <c r="K342" s="2"/>
+      <c r="K342" s="51"/>
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="41" t="str">
@@ -21660,7 +21730,7 @@
         <v>172</v>
       </c>
       <c r="J343" s="2"/>
-      <c r="K343" s="2"/>
+      <c r="K343" s="51"/>
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="41" t="str">
@@ -21701,7 +21771,7 @@
         <v>172</v>
       </c>
       <c r="J344" s="2"/>
-      <c r="K344" s="2"/>
+      <c r="K344" s="51"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="41" t="str">
@@ -21785,7 +21855,7 @@
         <v>173</v>
       </c>
       <c r="J346" s="2"/>
-      <c r="K346" s="2"/>
+      <c r="K346" s="51"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="41" t="str">
@@ -21826,7 +21896,7 @@
         <v>173</v>
       </c>
       <c r="J347" s="2"/>
-      <c r="K347" s="2"/>
+      <c r="K347" s="51"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="41" t="str">
@@ -21867,7 +21937,7 @@
         <v>173</v>
       </c>
       <c r="J348" s="2"/>
-      <c r="K348" s="2"/>
+      <c r="K348" s="51"/>
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="41" t="str">
@@ -21908,7 +21978,7 @@
         <v>173</v>
       </c>
       <c r="J349" s="2"/>
-      <c r="K349" s="2"/>
+      <c r="K349" s="51"/>
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="41" t="str">
@@ -21949,7 +22019,9 @@
         <v>173</v>
       </c>
       <c r="J350" s="61"/>
-      <c r="K350" s="61"/>
+      <c r="K350" s="103">
+        <v>1</v>
+      </c>
       <c r="L350" s="61"/>
       <c r="M350" s="61"/>
       <c r="N350" s="69" t="str">
@@ -21990,7 +22062,9 @@
         <v>173</v>
       </c>
       <c r="J351" s="61"/>
-      <c r="K351" s="61"/>
+      <c r="K351" s="103">
+        <v>2</v>
+      </c>
       <c r="L351" s="61"/>
       <c r="M351" s="61"/>
       <c r="N351" s="69" t="str">
@@ -22031,11 +22105,13 @@
         <v>173</v>
       </c>
       <c r="J352" s="61"/>
-      <c r="K352" s="61"/>
+      <c r="K352" s="103">
+        <v>3</v>
+      </c>
       <c r="L352" s="61"/>
       <c r="M352" s="61"/>
       <c r="N352" s="69" t="str">
-        <f t="shared" ref="N352:N362" si="14">IF(E352=1,"    ","  , ")&amp;G352&amp;" "&amp;H352&amp;IF(J352="",""," "&amp;J352)&amp;IF(I352="N"," NOT NULL","")&amp;" COMMENT '"&amp;F352&amp;IF(L352="",""," "&amp;L352)&amp;"'"</f>
+        <f t="shared" ref="N352:N377" si="14">IF(E352=1,"    ","  , ")&amp;G352&amp;" "&amp;H352&amp;IF(J352="",""," "&amp;J352)&amp;IF(I352="N"," NOT NULL","")&amp;" COMMENT '"&amp;F352&amp;IF(L352="",""," "&amp;L352)&amp;"'"</f>
         <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
       </c>
     </row>
@@ -22058,26 +22134,26 @@
         <v>4</v>
       </c>
       <c r="F353" s="76" t="s">
-        <v>105</v>
+        <v>1204</v>
       </c>
       <c r="G353" s="61" t="str">
         <f>VLOOKUP($F353,domain!$B:$D,2,FALSE)</f>
-        <v>CODE_NM</v>
+        <v>CODE_KEY</v>
       </c>
       <c r="H353" s="61" t="str">
         <f>VLOOKUP($F353,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(100)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I353" s="103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J353" s="61"/>
-      <c r="K353" s="61"/>
+      <c r="K353" s="103"/>
       <c r="L353" s="61"/>
       <c r="M353" s="61"/>
       <c r="N353" s="69" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  , CODE_NM VARCHAR(100) NOT NULL COMMENT '코드 명'</v>
+        <f t="shared" ref="N353" si="15">IF(E353=1,"    ","  , ")&amp;G353&amp;" "&amp;H353&amp;IF(J353="",""," "&amp;J353)&amp;IF(I353="N"," NOT NULL","")&amp;" COMMENT '"&amp;F353&amp;IF(L353="",""," "&amp;L353)&amp;"'"</f>
+        <v xml:space="preserve">  , CODE_KEY VARCHAR(16) COMMENT '코드 키'</v>
       </c>
     </row>
     <row r="354" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22096,29 +22172,29 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E354" s="103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F354" s="76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G354" s="61" t="str">
         <f>VLOOKUP($F354,domain!$B:$D,2,FALSE)</f>
-        <v>CODE_DSC</v>
+        <v>CODE_NM</v>
       </c>
       <c r="H354" s="61" t="str">
         <f>VLOOKUP($F354,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1000)</v>
+        <v>VARCHAR(100)</v>
       </c>
       <c r="I354" s="103" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J354" s="61"/>
-      <c r="K354" s="61"/>
+      <c r="K354" s="103"/>
       <c r="L354" s="61"/>
       <c r="M354" s="61"/>
       <c r="N354" s="69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) COMMENT '코드 설명'</v>
+        <v xml:space="preserve">  , CODE_NM VARCHAR(100) NOT NULL COMMENT '코드 명'</v>
       </c>
     </row>
     <row r="355" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22137,29 +22213,29 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E355" s="103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F355" s="76" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="G355" s="61" t="str">
         <f>VLOOKUP($F355,domain!$B:$D,2,FALSE)</f>
-        <v>ORD_SEQ</v>
+        <v>CODE_DSC</v>
       </c>
       <c r="H355" s="61" t="str">
         <f>VLOOKUP($F355,domain!$B:$D,3,FALSE)</f>
-        <v>NUMERIC(5,0)</v>
+        <v>VARCHAR(1000)</v>
       </c>
       <c r="I355" s="103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J355" s="61"/>
-      <c r="K355" s="61"/>
+      <c r="K355" s="103"/>
       <c r="L355" s="61"/>
       <c r="M355" s="61"/>
       <c r="N355" s="69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+        <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) COMMENT '코드 설명'</v>
       </c>
     </row>
     <row r="356" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22178,29 +22254,29 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E356" s="103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F356" s="76" t="s">
-        <v>446</v>
+        <v>255</v>
       </c>
       <c r="G356" s="61" t="str">
         <f>VLOOKUP($F356,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
+        <v>ORD_SEQ</v>
       </c>
       <c r="H356" s="61" t="str">
         <f>VLOOKUP($F356,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
+        <v>NUMERIC(5,0)</v>
       </c>
       <c r="I356" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J356" s="61"/>
-      <c r="K356" s="61"/>
+      <c r="K356" s="103"/>
       <c r="L356" s="61"/>
       <c r="M356" s="61"/>
       <c r="N356" s="69" t="str">
-        <f t="shared" ref="N356" si="15">IF(E356=1,"    ","  , ")&amp;G356&amp;" "&amp;H356&amp;IF(J356="",""," "&amp;J356)&amp;IF(I356="N"," NOT NULL","")&amp;" COMMENT '"&amp;F356&amp;IF(L356="",""," "&amp;L356)&amp;"'"</f>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
       </c>
     </row>
     <row r="357" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22219,29 +22295,29 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E357" s="103">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F357" s="76" t="s">
-        <v>57</v>
+        <v>446</v>
       </c>
       <c r="G357" s="61" t="str">
         <f>VLOOKUP($F357,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
+        <v>USE_YN</v>
       </c>
       <c r="H357" s="61" t="str">
         <f>VLOOKUP($F357,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I357" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J357" s="61"/>
-      <c r="K357" s="61"/>
+      <c r="K357" s="103"/>
       <c r="L357" s="61"/>
       <c r="M357" s="61"/>
       <c r="N357" s="69" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+        <f t="shared" ref="N357" si="16">IF(E357=1,"    ","  , ")&amp;G357&amp;" "&amp;H357&amp;IF(J357="",""," "&amp;J357)&amp;IF(I357="N"," NOT NULL","")&amp;" COMMENT '"&amp;F357&amp;IF(L357="",""," "&amp;L357)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
       </c>
     </row>
     <row r="358" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22260,29 +22336,29 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E358" s="103">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F358" s="76" t="s">
-        <v>379</v>
+        <v>57</v>
       </c>
       <c r="G358" s="61" t="str">
         <f>VLOOKUP($F358,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
+        <v>RGST_ID</v>
       </c>
       <c r="H358" s="61" t="str">
         <f>VLOOKUP($F358,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(32)</v>
       </c>
       <c r="I358" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J358" s="61"/>
-      <c r="K358" s="61"/>
+      <c r="K358" s="103"/>
       <c r="L358" s="61"/>
       <c r="M358" s="61"/>
       <c r="N358" s="69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
       </c>
     </row>
     <row r="359" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22301,29 +22377,29 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E359" s="103">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F359" s="76" t="s">
-        <v>84</v>
+        <v>379</v>
       </c>
       <c r="G359" s="61" t="str">
         <f>VLOOKUP($F359,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>RGST_DT</v>
       </c>
       <c r="H359" s="61" t="str">
         <f>VLOOKUP($F359,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>TIMESTAMP</v>
       </c>
       <c r="I359" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J359" s="61"/>
-      <c r="K359" s="61"/>
+      <c r="K359" s="103"/>
       <c r="L359" s="61"/>
       <c r="M359" s="61"/>
       <c r="N359" s="69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
       </c>
     </row>
     <row r="360" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
@@ -22342,137 +22418,139 @@
         <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E360" s="103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F360" s="76" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G360" s="61" t="str">
         <f>VLOOKUP($F360,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>MODI_ID</v>
       </c>
       <c r="H360" s="61" t="str">
         <f>VLOOKUP($F360,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(32)</v>
       </c>
       <c r="I360" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J360" s="61"/>
-      <c r="K360" s="61"/>
+      <c r="K360" s="103"/>
       <c r="L360" s="61"/>
       <c r="M360" s="61"/>
       <c r="N360" s="69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="15">
-        <v>331</v>
-      </c>
-      <c r="B361" s="15" t="str">
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="103">
+        <v>320</v>
+      </c>
+      <c r="B361" s="103" t="str">
         <f>VLOOKUP($C361,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C361" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D361" s="93" t="str">
+      <c r="C361" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D361" s="94" t="str">
         <f>VLOOKUP($C361,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E361" s="15">
-        <v>1</v>
-      </c>
-      <c r="F361" s="77" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G361" s="6" t="str">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E361" s="103">
+        <v>11</v>
+      </c>
+      <c r="F361" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G361" s="61" t="str">
         <f>VLOOKUP($F361,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_ID</v>
-      </c>
-      <c r="H361" s="6" t="str">
+        <v>MODI_DT</v>
+      </c>
+      <c r="H361" s="61" t="str">
         <f>VLOOKUP($F361,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I361" s="15" t="s">
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I361" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J361" s="6"/>
-      <c r="K361" s="15"/>
-      <c r="L361" s="6"/>
-      <c r="M361" s="6"/>
-      <c r="N361" s="70" t="str">
+      <c r="J361" s="61"/>
+      <c r="K361" s="103"/>
+      <c r="L361" s="61"/>
+      <c r="M361" s="61"/>
+      <c r="N361" s="69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
     <row r="362" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A362" s="15">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B362" s="15" t="str">
         <f>VLOOKUP($C362,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D362" s="93" t="str">
         <f>VLOOKUP($C362,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E362" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F362" s="77" t="s">
-        <v>1167</v>
+        <v>53</v>
       </c>
       <c r="G362" s="6" t="str">
         <f>VLOOKUP($F362,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_NM</v>
+        <v>GROUP_ID</v>
       </c>
       <c r="H362" s="6" t="str">
         <f>VLOOKUP($F362,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(4000)</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="I362" s="15" t="s">
         <v>173</v>
       </c>
       <c r="J362" s="6"/>
-      <c r="K362" s="15"/>
+      <c r="K362" s="15">
+        <v>1</v>
+      </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
       <c r="N362" s="70" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
+        <v xml:space="preserve">    GROUP_ID VARCHAR(64) NOT NULL COMMENT '그룹 ID'</v>
       </c>
     </row>
     <row r="363" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A363" s="15">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B363" s="15" t="str">
         <f>VLOOKUP($C363,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D363" s="93" t="str">
         <f>VLOOKUP($C363,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E363" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F363" s="77" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="G363" s="6" t="str">
         <f>VLOOKUP($F363,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_CODE</v>
+        <v>UP_COMPANY_CODE</v>
       </c>
       <c r="H363" s="6" t="str">
         <f>VLOOKUP($F363,domain!$B:$D,3,FALSE)</f>
@@ -22482,83 +22560,87 @@
         <v>173</v>
       </c>
       <c r="J363" s="6"/>
-      <c r="K363" s="15"/>
+      <c r="K363" s="15">
+        <v>2</v>
+      </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
       <c r="N363" s="70" t="str">
-        <f t="shared" ref="N363" si="16">IF(E363=1,"    ","  , ")&amp;G363&amp;" "&amp;H363&amp;IF(J363="",""," "&amp;J363)&amp;IF(I363="N"," NOT NULL","")&amp;" COMMENT '"&amp;F363&amp;IF(L363="",""," "&amp;L363)&amp;"'"</f>
-        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , UP_COMPANY_CODE VARCHAR(16) NOT NULL COMMENT '소속 회사 코드'</v>
       </c>
     </row>
     <row r="364" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A364" s="15">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B364" s="15" t="str">
         <f>VLOOKUP($C364,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D364" s="93" t="str">
         <f>VLOOKUP($C364,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E364" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F364" s="77" t="s">
-        <v>446</v>
+        <v>103</v>
       </c>
       <c r="G364" s="6" t="str">
         <f>VLOOKUP($F364,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
+        <v>CODE_ID</v>
       </c>
       <c r="H364" s="6" t="str">
         <f>VLOOKUP($F364,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
+        <v>VARCHAR(64)</v>
       </c>
       <c r="I364" s="15" t="s">
         <v>173</v>
       </c>
       <c r="J364" s="6"/>
-      <c r="K364" s="15"/>
+      <c r="K364" s="15">
+        <v>3</v>
+      </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
       <c r="N364" s="70" t="str">
-        <f t="shared" ref="N364:N376" si="17">IF(E364=1,"    ","  , ")&amp;G364&amp;" "&amp;H364&amp;IF(J364="",""," "&amp;J364)&amp;IF(I364="N"," NOT NULL","")&amp;" COMMENT '"&amp;F364&amp;IF(L364="",""," "&amp;L364)&amp;"'"</f>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+        <f t="shared" ref="N364:N375" si="17">IF(E364=1,"    ","  , ")&amp;G364&amp;" "&amp;H364&amp;IF(J364="",""," "&amp;J364)&amp;IF(I364="N"," NOT NULL","")&amp;" COMMENT '"&amp;F364&amp;IF(L364="",""," "&amp;L364)&amp;"'"</f>
+        <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
       </c>
     </row>
     <row r="365" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A365" s="15">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B365" s="15" t="str">
         <f>VLOOKUP($C365,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D365" s="93" t="str">
         <f>VLOOKUP($C365,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E365" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F365" s="77" t="s">
-        <v>57</v>
+        <v>1209</v>
       </c>
       <c r="G365" s="6" t="str">
         <f>VLOOKUP($F365,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
+        <v>REVISION_YEAR</v>
       </c>
       <c r="H365" s="6" t="str">
         <f>VLOOKUP($F365,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(4)</v>
       </c>
       <c r="I365" s="15" t="s">
         <v>173</v>
@@ -22568,38 +22650,38 @@
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
       <c r="N365" s="70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+        <f t="shared" ref="N365" si="18">IF(E365=1,"    ","  , ")&amp;G365&amp;" "&amp;H365&amp;IF(J365="",""," "&amp;J365)&amp;IF(I365="N"," NOT NULL","")&amp;" COMMENT '"&amp;F365&amp;IF(L365="",""," "&amp;L365)&amp;"'"</f>
+        <v xml:space="preserve">  , REVISION_YEAR VARCHAR(4) NOT NULL COMMENT '개정 년'</v>
       </c>
     </row>
     <row r="366" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" s="15">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B366" s="15" t="str">
         <f>VLOOKUP($C366,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D366" s="93" t="str">
         <f>VLOOKUP($C366,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E366" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F366" s="77" t="s">
-        <v>379</v>
+        <v>1208</v>
       </c>
       <c r="G366" s="6" t="str">
         <f>VLOOKUP($F366,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
+        <v>REVISION_MONTH</v>
       </c>
       <c r="H366" s="6" t="str">
         <f>VLOOKUP($F366,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(2)</v>
       </c>
       <c r="I366" s="15" t="s">
         <v>173</v>
@@ -22609,41 +22691,41 @@
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
       <c r="N366" s="70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+        <f>IF(E366=1,"    ","  , ")&amp;G366&amp;" "&amp;H366&amp;IF(J366="",""," "&amp;J366)&amp;IF(I366="N"," NOT NULL","")&amp;" COMMENT '"&amp;F366&amp;IF(L366="",""," "&amp;L366)&amp;"'"</f>
+        <v xml:space="preserve">  , REVISION_MONTH VARCHAR(2) NOT NULL COMMENT '개정 월'</v>
       </c>
     </row>
     <row r="367" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="15">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B367" s="15" t="str">
         <f>VLOOKUP($C367,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D367" s="93" t="str">
         <f>VLOOKUP($C367,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E367" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F367" s="77" t="s">
-        <v>84</v>
+        <v>1204</v>
       </c>
       <c r="G367" s="6" t="str">
         <f>VLOOKUP($F367,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>CODE_KEY</v>
       </c>
       <c r="H367" s="6" t="str">
         <f>VLOOKUP($F367,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I367" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J367" s="6"/>
       <c r="K367" s="15"/>
@@ -22651,37 +22733,37 @@
       <c r="M367" s="6"/>
       <c r="N367" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <v xml:space="preserve">  , CODE_KEY VARCHAR(16) COMMENT '코드 키'</v>
       </c>
     </row>
     <row r="368" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="15">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B368" s="15" t="str">
         <f>VLOOKUP($C368,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1162</v>
+        <v>1206</v>
       </c>
       <c r="D368" s="93" t="str">
         <f>VLOOKUP($C368,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
+        <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E368" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F368" s="77" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G368" s="6" t="str">
         <f>VLOOKUP($F368,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>CODE_NM</v>
       </c>
       <c r="H368" s="6" t="str">
         <f>VLOOKUP($F368,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(100)</v>
       </c>
       <c r="I368" s="15" t="s">
         <v>173</v>
@@ -22692,334 +22774,949 @@
       <c r="M368" s="6"/>
       <c r="N368" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
-      </c>
-    </row>
-    <row r="369" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="103">
+        <v xml:space="preserve">  , CODE_NM VARCHAR(100) NOT NULL COMMENT '코드 명'</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="15">
         <v>320</v>
       </c>
-      <c r="B369" s="103" t="str">
+      <c r="B369" s="15" t="str">
         <f>VLOOKUP($C369,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C369" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D369" s="94" t="str">
+      <c r="C369" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D369" s="93" t="str">
         <f>VLOOKUP($C369,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E369" s="103">
-        <v>1</v>
-      </c>
-      <c r="F369" s="61" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G369" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E369" s="15">
+        <v>5</v>
+      </c>
+      <c r="F369" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G369" s="6" t="str">
         <f>VLOOKUP($F369,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_ID</v>
-      </c>
-      <c r="H369" s="61" t="str">
+        <v>CODE_DSC</v>
+      </c>
+      <c r="H369" s="6" t="str">
         <f>VLOOKUP($F369,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I369" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J369" s="61"/>
-      <c r="K369" s="61"/>
-      <c r="L369" s="61"/>
-      <c r="M369" s="61"/>
-      <c r="N369" s="69" t="str">
+        <v>VARCHAR(1000)</v>
+      </c>
+      <c r="I369" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J369" s="6"/>
+      <c r="K369" s="15"/>
+      <c r="L369" s="6"/>
+      <c r="M369" s="6"/>
+      <c r="N369" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="103">
+        <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) COMMENT '코드 설명'</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="15">
         <v>320</v>
       </c>
-      <c r="B370" s="103" t="str">
+      <c r="B370" s="15" t="str">
         <f>VLOOKUP($C370,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C370" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D370" s="94" t="str">
+      <c r="C370" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D370" s="93" t="str">
         <f>VLOOKUP($C370,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E370" s="103">
-        <v>2</v>
-      </c>
-      <c r="F370" s="61" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G370" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E370" s="15">
+        <v>6</v>
+      </c>
+      <c r="F370" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G370" s="6" t="str">
         <f>VLOOKUP($F370,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_NM</v>
-      </c>
-      <c r="H370" s="61" t="str">
+        <v>ORD_SEQ</v>
+      </c>
+      <c r="H370" s="6" t="str">
         <f>VLOOKUP($F370,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(4000)</v>
-      </c>
-      <c r="I370" s="103" t="s">
+        <v>NUMERIC(5,0)</v>
+      </c>
+      <c r="I370" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J370" s="61"/>
-      <c r="K370" s="61"/>
-      <c r="L370" s="61"/>
-      <c r="M370" s="61"/>
-      <c r="N370" s="69" t="str">
+      <c r="J370" s="6"/>
+      <c r="K370" s="15"/>
+      <c r="L370" s="6"/>
+      <c r="M370" s="6"/>
+      <c r="N370" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
-      </c>
-    </row>
-    <row r="371" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="103">
+        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="15">
         <v>320</v>
       </c>
-      <c r="B371" s="103" t="str">
+      <c r="B371" s="15" t="str">
         <f>VLOOKUP($C371,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C371" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D371" s="94" t="str">
+      <c r="C371" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D371" s="93" t="str">
         <f>VLOOKUP($C371,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E371" s="103">
-        <v>3</v>
-      </c>
-      <c r="F371" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G371" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E371" s="15">
+        <v>7</v>
+      </c>
+      <c r="F371" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G371" s="6" t="str">
         <f>VLOOKUP($F371,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_CODE</v>
-      </c>
-      <c r="H371" s="61" t="str">
+        <v>USE_YN</v>
+      </c>
+      <c r="H371" s="6" t="str">
         <f>VLOOKUP($F371,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I371" s="103" t="s">
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I371" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J371" s="61"/>
-      <c r="K371" s="61"/>
-      <c r="L371" s="61"/>
-      <c r="M371" s="61"/>
-      <c r="N371" s="69" t="str">
+      <c r="J371" s="6"/>
+      <c r="K371" s="15"/>
+      <c r="L371" s="6"/>
+      <c r="M371" s="6"/>
+      <c r="N371" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드 관리'</v>
-      </c>
-    </row>
-    <row r="372" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="103">
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="15">
         <v>320</v>
       </c>
-      <c r="B372" s="103" t="str">
+      <c r="B372" s="15" t="str">
         <f>VLOOKUP($C372,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C372" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D372" s="94" t="str">
+      <c r="C372" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D372" s="93" t="str">
         <f>VLOOKUP($C372,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E372" s="103">
-        <v>4</v>
-      </c>
-      <c r="F372" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="G372" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E372" s="15">
+        <v>8</v>
+      </c>
+      <c r="F372" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G372" s="6" t="str">
         <f>VLOOKUP($F372,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
-      </c>
-      <c r="H372" s="61" t="str">
+        <v>RGST_ID</v>
+      </c>
+      <c r="H372" s="6" t="str">
         <f>VLOOKUP($F372,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
-      </c>
-      <c r="I372" s="103" t="s">
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I372" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J372" s="61"/>
-      <c r="K372" s="61"/>
-      <c r="L372" s="61"/>
-      <c r="M372" s="61"/>
-      <c r="N372" s="69" t="str">
+      <c r="J372" s="6"/>
+      <c r="K372" s="15"/>
+      <c r="L372" s="6"/>
+      <c r="M372" s="6"/>
+      <c r="N372" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
-      </c>
-    </row>
-    <row r="373" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="103">
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="15">
         <v>320</v>
       </c>
-      <c r="B373" s="103" t="str">
+      <c r="B373" s="15" t="str">
         <f>VLOOKUP($C373,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C373" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D373" s="94" t="str">
+      <c r="C373" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D373" s="93" t="str">
         <f>VLOOKUP($C373,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E373" s="103">
-        <v>5</v>
-      </c>
-      <c r="F373" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="G373" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E373" s="15">
+        <v>9</v>
+      </c>
+      <c r="F373" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G373" s="6" t="str">
         <f>VLOOKUP($F373,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
-      </c>
-      <c r="H373" s="61" t="str">
+        <v>RGST_DT</v>
+      </c>
+      <c r="H373" s="6" t="str">
         <f>VLOOKUP($F373,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
-      </c>
-      <c r="I373" s="103" t="s">
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I373" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J373" s="61"/>
-      <c r="K373" s="61"/>
-      <c r="L373" s="61"/>
-      <c r="M373" s="61"/>
-      <c r="N373" s="69" t="str">
+      <c r="J373" s="6"/>
+      <c r="K373" s="15"/>
+      <c r="L373" s="6"/>
+      <c r="M373" s="6"/>
+      <c r="N373" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
-      </c>
-    </row>
-    <row r="374" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="103">
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="15">
         <v>320</v>
       </c>
-      <c r="B374" s="103" t="str">
+      <c r="B374" s="15" t="str">
         <f>VLOOKUP($C374,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C374" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D374" s="94" t="str">
+      <c r="C374" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D374" s="93" t="str">
         <f>VLOOKUP($C374,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E374" s="103">
-        <v>6</v>
-      </c>
-      <c r="F374" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="G374" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E374" s="15">
+        <v>10</v>
+      </c>
+      <c r="F374" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G374" s="6" t="str">
         <f>VLOOKUP($F374,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
-      </c>
-      <c r="H374" s="61" t="str">
+        <v>MODI_ID</v>
+      </c>
+      <c r="H374" s="6" t="str">
         <f>VLOOKUP($F374,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
-      </c>
-      <c r="I374" s="103" t="s">
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I374" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J374" s="61"/>
-      <c r="K374" s="61"/>
-      <c r="L374" s="61"/>
-      <c r="M374" s="61"/>
-      <c r="N374" s="69" t="str">
+      <c r="J374" s="6"/>
+      <c r="K374" s="15"/>
+      <c r="L374" s="6"/>
+      <c r="M374" s="6"/>
+      <c r="N374" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="103">
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="15">
         <v>320</v>
       </c>
-      <c r="B375" s="103" t="str">
+      <c r="B375" s="15" t="str">
         <f>VLOOKUP($C375,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C375" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D375" s="94" t="str">
+      <c r="C375" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D375" s="93" t="str">
         <f>VLOOKUP($C375,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E375" s="103">
-        <v>7</v>
-      </c>
-      <c r="F375" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G375" s="61" t="str">
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E375" s="15">
+        <v>11</v>
+      </c>
+      <c r="F375" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G375" s="6" t="str">
         <f>VLOOKUP($F375,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
-      </c>
-      <c r="H375" s="61" t="str">
+        <v>MODI_DT</v>
+      </c>
+      <c r="H375" s="6" t="str">
         <f>VLOOKUP($F375,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
-      </c>
-      <c r="I375" s="103" t="s">
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I375" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J375" s="61"/>
-      <c r="K375" s="61"/>
-      <c r="L375" s="61"/>
-      <c r="M375" s="61"/>
-      <c r="N375" s="69" t="str">
+      <c r="J375" s="6"/>
+      <c r="K375" s="15"/>
+      <c r="L375" s="6"/>
+      <c r="M375" s="6"/>
+      <c r="N375" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
     <row r="376" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="103">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B376" s="103" t="str">
         <f>VLOOKUP($C376,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C376" s="61" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D376" s="94" t="str">
         <f>VLOOKUP($C376,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
+        <v>T_PACKAGING_QUESTION</v>
       </c>
       <c r="E376" s="103">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F376" s="76" t="s">
-        <v>88</v>
+        <v>1166</v>
       </c>
       <c r="G376" s="61" t="str">
         <f>VLOOKUP($F376,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>QUESTION_ID</v>
       </c>
       <c r="H376" s="61" t="str">
         <f>VLOOKUP($F376,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I376" s="103" t="s">
         <v>173</v>
       </c>
       <c r="J376" s="61"/>
-      <c r="K376" s="61"/>
+      <c r="K376" s="103"/>
       <c r="L376" s="61"/>
       <c r="M376" s="61"/>
       <c r="N376" s="69" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="103">
+        <v>332</v>
+      </c>
+      <c r="B377" s="103" t="str">
+        <f>VLOOKUP($C377,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C377" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D377" s="94" t="str">
+        <f>VLOOKUP($C377,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E377" s="103">
+        <v>2</v>
+      </c>
+      <c r="F377" s="76" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G377" s="61" t="str">
+        <f>VLOOKUP($F377,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_NM</v>
+      </c>
+      <c r="H377" s="61" t="str">
+        <f>VLOOKUP($F377,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I377" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J377" s="61"/>
+      <c r="K377" s="103"/>
+      <c r="L377" s="61"/>
+      <c r="M377" s="61"/>
+      <c r="N377" s="69" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="103">
+        <v>332</v>
+      </c>
+      <c r="B378" s="103" t="str">
+        <f>VLOOKUP($C378,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C378" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D378" s="94" t="str">
+        <f>VLOOKUP($C378,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E378" s="103">
+        <v>3</v>
+      </c>
+      <c r="F378" s="76" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G378" s="61" t="str">
+        <f>VLOOKUP($F378,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_CODE</v>
+      </c>
+      <c r="H378" s="61" t="str">
+        <f>VLOOKUP($F378,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I378" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J378" s="61"/>
+      <c r="K378" s="103"/>
+      <c r="L378" s="61"/>
+      <c r="M378" s="61"/>
+      <c r="N378" s="69" t="str">
+        <f t="shared" ref="N378" si="19">IF(E378=1,"    ","  , ")&amp;G378&amp;" "&amp;H378&amp;IF(J378="",""," "&amp;J378)&amp;IF(I378="N"," NOT NULL","")&amp;" COMMENT '"&amp;F378&amp;IF(L378="",""," "&amp;L378)&amp;"'"</f>
+        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="103">
+        <v>332</v>
+      </c>
+      <c r="B379" s="103" t="str">
+        <f>VLOOKUP($C379,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C379" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D379" s="94" t="str">
+        <f>VLOOKUP($C379,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E379" s="103">
+        <v>4</v>
+      </c>
+      <c r="F379" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G379" s="61" t="str">
+        <f>VLOOKUP($F379,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H379" s="61" t="str">
+        <f>VLOOKUP($F379,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I379" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J379" s="61"/>
+      <c r="K379" s="103"/>
+      <c r="L379" s="61"/>
+      <c r="M379" s="61"/>
+      <c r="N379" s="69" t="str">
+        <f t="shared" ref="N379:N391" si="20">IF(E379=1,"    ","  , ")&amp;G379&amp;" "&amp;H379&amp;IF(J379="",""," "&amp;J379)&amp;IF(I379="N"," NOT NULL","")&amp;" COMMENT '"&amp;F379&amp;IF(L379="",""," "&amp;L379)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="103">
+        <v>331</v>
+      </c>
+      <c r="B380" s="103" t="str">
+        <f>VLOOKUP($C380,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C380" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D380" s="94" t="str">
+        <f>VLOOKUP($C380,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E380" s="103">
+        <v>5</v>
+      </c>
+      <c r="F380" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G380" s="61" t="str">
+        <f>VLOOKUP($F380,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H380" s="61" t="str">
+        <f>VLOOKUP($F380,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I380" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J380" s="61"/>
+      <c r="K380" s="103"/>
+      <c r="L380" s="61"/>
+      <c r="M380" s="61"/>
+      <c r="N380" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="103">
+        <v>332</v>
+      </c>
+      <c r="B381" s="103" t="str">
+        <f>VLOOKUP($C381,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C381" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D381" s="94" t="str">
+        <f>VLOOKUP($C381,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E381" s="103">
+        <v>6</v>
+      </c>
+      <c r="F381" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G381" s="61" t="str">
+        <f>VLOOKUP($F381,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H381" s="61" t="str">
+        <f>VLOOKUP($F381,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I381" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J381" s="61"/>
+      <c r="K381" s="103"/>
+      <c r="L381" s="61"/>
+      <c r="M381" s="61"/>
+      <c r="N381" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="103">
+        <v>331</v>
+      </c>
+      <c r="B382" s="103" t="str">
+        <f>VLOOKUP($C382,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C382" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D382" s="94" t="str">
+        <f>VLOOKUP($C382,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E382" s="103">
+        <v>7</v>
+      </c>
+      <c r="F382" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G382" s="61" t="str">
+        <f>VLOOKUP($F382,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H382" s="61" t="str">
+        <f>VLOOKUP($F382,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I382" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J382" s="61"/>
+      <c r="K382" s="103"/>
+      <c r="L382" s="61"/>
+      <c r="M382" s="61"/>
+      <c r="N382" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="103">
+        <v>332</v>
+      </c>
+      <c r="B383" s="103" t="str">
+        <f>VLOOKUP($C383,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C383" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D383" s="94" t="str">
+        <f>VLOOKUP($C383,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E383" s="103">
+        <v>8</v>
+      </c>
+      <c r="F383" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G383" s="61" t="str">
+        <f>VLOOKUP($F383,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H383" s="61" t="str">
+        <f>VLOOKUP($F383,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I383" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J383" s="61"/>
+      <c r="K383" s="103"/>
+      <c r="L383" s="61"/>
+      <c r="M383" s="61"/>
+      <c r="N383" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="15">
+        <v>320</v>
+      </c>
+      <c r="B384" s="15" t="str">
+        <f>VLOOKUP($C384,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D384" s="93" t="str">
+        <f>VLOOKUP($C384,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E384" s="15">
+        <v>1</v>
+      </c>
+      <c r="F384" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G384" s="6" t="str">
+        <f>VLOOKUP($F384,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_ID</v>
+      </c>
+      <c r="H384" s="6" t="str">
+        <f>VLOOKUP($F384,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I384" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J384" s="6"/>
+      <c r="K384" s="15"/>
+      <c r="L384" s="6"/>
+      <c r="M384" s="6"/>
+      <c r="N384" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="15">
+        <v>320</v>
+      </c>
+      <c r="B385" s="15" t="str">
+        <f>VLOOKUP($C385,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D385" s="93" t="str">
+        <f>VLOOKUP($C385,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E385" s="15">
+        <v>2</v>
+      </c>
+      <c r="F385" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G385" s="6" t="str">
+        <f>VLOOKUP($F385,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_NM</v>
+      </c>
+      <c r="H385" s="6" t="str">
+        <f>VLOOKUP($F385,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(4000)</v>
+      </c>
+      <c r="I385" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J385" s="6"/>
+      <c r="K385" s="15"/>
+      <c r="L385" s="6"/>
+      <c r="M385" s="6"/>
+      <c r="N385" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="15">
+        <v>320</v>
+      </c>
+      <c r="B386" s="15" t="str">
+        <f>VLOOKUP($C386,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D386" s="93" t="str">
+        <f>VLOOKUP($C386,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E386" s="15">
+        <v>3</v>
+      </c>
+      <c r="F386" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G386" s="6" t="str">
+        <f>VLOOKUP($F386,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_CODE</v>
+      </c>
+      <c r="H386" s="6" t="str">
+        <f>VLOOKUP($F386,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I386" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J386" s="6"/>
+      <c r="K386" s="15"/>
+      <c r="L386" s="6"/>
+      <c r="M386" s="6"/>
+      <c r="N386" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드 관리'</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="15">
+        <v>320</v>
+      </c>
+      <c r="B387" s="15" t="str">
+        <f>VLOOKUP($C387,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D387" s="93" t="str">
+        <f>VLOOKUP($C387,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E387" s="15">
+        <v>4</v>
+      </c>
+      <c r="F387" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G387" s="6" t="str">
+        <f>VLOOKUP($F387,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H387" s="6" t="str">
+        <f>VLOOKUP($F387,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I387" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J387" s="6"/>
+      <c r="K387" s="15"/>
+      <c r="L387" s="6"/>
+      <c r="M387" s="6"/>
+      <c r="N387" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="15">
+        <v>320</v>
+      </c>
+      <c r="B388" s="15" t="str">
+        <f>VLOOKUP($C388,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D388" s="93" t="str">
+        <f>VLOOKUP($C388,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E388" s="15">
+        <v>5</v>
+      </c>
+      <c r="F388" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G388" s="6" t="str">
+        <f>VLOOKUP($F388,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H388" s="6" t="str">
+        <f>VLOOKUP($F388,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I388" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J388" s="6"/>
+      <c r="K388" s="15"/>
+      <c r="L388" s="6"/>
+      <c r="M388" s="6"/>
+      <c r="N388" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="15">
+        <v>320</v>
+      </c>
+      <c r="B389" s="15" t="str">
+        <f>VLOOKUP($C389,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D389" s="93" t="str">
+        <f>VLOOKUP($C389,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E389" s="15">
+        <v>6</v>
+      </c>
+      <c r="F389" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G389" s="6" t="str">
+        <f>VLOOKUP($F389,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H389" s="6" t="str">
+        <f>VLOOKUP($F389,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I389" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J389" s="6"/>
+      <c r="K389" s="15"/>
+      <c r="L389" s="6"/>
+      <c r="M389" s="6"/>
+      <c r="N389" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="15">
+        <v>320</v>
+      </c>
+      <c r="B390" s="15" t="str">
+        <f>VLOOKUP($C390,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D390" s="93" t="str">
+        <f>VLOOKUP($C390,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E390" s="15">
+        <v>7</v>
+      </c>
+      <c r="F390" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G390" s="6" t="str">
+        <f>VLOOKUP($F390,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H390" s="6" t="str">
+        <f>VLOOKUP($F390,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I390" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J390" s="6"/>
+      <c r="K390" s="15"/>
+      <c r="L390" s="6"/>
+      <c r="M390" s="6"/>
+      <c r="N390" s="70" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="15">
+        <v>320</v>
+      </c>
+      <c r="B391" s="15" t="str">
+        <f>VLOOKUP($C391,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D391" s="93" t="str">
+        <f>VLOOKUP($C391,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E391" s="15">
+        <v>8</v>
+      </c>
+      <c r="F391" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G391" s="6" t="str">
+        <f>VLOOKUP($F391,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H391" s="6" t="str">
+        <f>VLOOKUP($F391,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I391" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J391" s="6"/>
+      <c r="K391" s="15"/>
+      <c r="L391" s="6"/>
+      <c r="M391" s="6"/>
+      <c r="N391" s="70" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
@@ -23051,8 +23748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -25741,8 +26438,15 @@
       <c r="A168" s="51">
         <v>167</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="B168" s="130" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
@@ -25750,9 +26454,15 @@
       <c r="A169" s="51">
         <v>168</v>
       </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1210</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
@@ -25760,9 +26470,15 @@
       <c r="A170" s="51">
         <v>169</v>
       </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>1211</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
@@ -26095,10 +26811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -27429,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="97" t="str">
-        <f t="shared" ref="F36:F40" si="0">D36&amp;"_PK"</f>
+        <f t="shared" ref="F36:F45" si="0">D36&amp;"_PK"</f>
         <v>T_SUPPLIER_PK</v>
       </c>
       <c r="G36" s="63">
@@ -27490,7 +28206,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="51">
         <v>35</v>
       </c>
@@ -27498,148 +28214,338 @@
         <f>VLOOKUP($C38,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="102" t="s">
         <v>1188</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>VLOOKUP($C38,table!$B:$D,2,FALSE)</f>
         <v>T_PACKAGING_CODE</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="101">
         <v>1</v>
       </c>
-      <c r="F38" s="97" t="str">
-        <f t="shared" si="0"/>
+      <c r="F38" s="113" t="str">
+        <f t="shared" ref="F38" si="2">D38&amp;"_PK"</f>
         <v>T_PACKAGING_CODE_PK</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="101">
         <v>1</v>
       </c>
-      <c r="H38" s="62" t="s">
-        <v>1190</v>
+      <c r="H38" s="100" t="s">
+        <v>459</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>VLOOKUP($H38,domain!$B:$D,2,FALSE)</f>
-        <v>CODE_ID</v>
+        <v>GROUP_ID</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="K38" s="96" t="s">
+      <c r="K38" s="101" t="s">
         <v>131</v>
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="51" t="str">
         <f>VLOOKUP($C39,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C39" s="98" t="s">
-        <v>1162</v>
+      <c r="C39" s="102" t="s">
+        <v>1188</v>
       </c>
       <c r="D39" s="2" t="str">
         <f>VLOOKUP($C39,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E39" s="63">
+        <v>T_PACKAGING_CODE</v>
+      </c>
+      <c r="E39" s="101">
         <v>1</v>
       </c>
-      <c r="F39" s="97" t="str">
-        <f t="shared" si="0"/>
-        <v>T_PACKAGING_QUESTION_PK</v>
-      </c>
-      <c r="G39" s="63">
-        <v>1</v>
-      </c>
-      <c r="H39" s="62" t="s">
-        <v>1166</v>
+      <c r="F39" s="114"/>
+      <c r="G39" s="101">
+        <v>2</v>
+      </c>
+      <c r="H39" s="100" t="s">
+        <v>1159</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>VLOOKUP($H39,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_ID</v>
+        <v>UP_COMPANY_CODE</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="K39" s="96" t="s">
+      <c r="K39" s="101" t="s">
         <v>131</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="51">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="51" t="str">
         <f>VLOOKUP($C40,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D40" s="2" t="str">
         <f>VLOOKUP($C40,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
+        <v>T_PACKAGING_CODE</v>
       </c>
       <c r="E40" s="63">
         <v>1</v>
       </c>
-      <c r="F40" s="97" t="str">
+      <c r="F40" s="115"/>
+      <c r="G40" s="63">
+        <v>3</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>VLOOKUP($H40,domain!$B:$D,2,FALSE)</f>
+        <v>CODE_ID</v>
+      </c>
+      <c r="J40" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="51">
+        <v>35</v>
+      </c>
+      <c r="B41" s="51" t="str">
+        <f>VLOOKUP($C41,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>VLOOKUP($C41,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E41" s="101">
+        <v>1</v>
+      </c>
+      <c r="F41" s="113" t="str">
+        <f t="shared" ref="F41" si="3">D41&amp;"_PK"</f>
+        <v>T_ENVIRONMENT_CODE_PK</v>
+      </c>
+      <c r="G41" s="101">
+        <v>1</v>
+      </c>
+      <c r="H41" s="100" t="s">
+        <v>459</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>VLOOKUP($H41,domain!$B:$D,2,FALSE)</f>
+        <v>GROUP_ID</v>
+      </c>
+      <c r="J41" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="51">
+        <v>35</v>
+      </c>
+      <c r="B42" s="51" t="str">
+        <f>VLOOKUP($C42,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>VLOOKUP($C42,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E42" s="101">
+        <v>1</v>
+      </c>
+      <c r="F42" s="114"/>
+      <c r="G42" s="101">
+        <v>2</v>
+      </c>
+      <c r="H42" s="100" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>VLOOKUP($H42,domain!$B:$D,2,FALSE)</f>
+        <v>UP_COMPANY_CODE</v>
+      </c>
+      <c r="J42" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51">
+        <v>35</v>
+      </c>
+      <c r="B43" s="51" t="str">
+        <f>VLOOKUP($C43,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>VLOOKUP($C43,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E43" s="101">
+        <v>1</v>
+      </c>
+      <c r="F43" s="115"/>
+      <c r="G43" s="101">
+        <v>3</v>
+      </c>
+      <c r="H43" s="100" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f>VLOOKUP($H43,domain!$B:$D,2,FALSE)</f>
+        <v>CODE_ID</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="51">
+        <v>36</v>
+      </c>
+      <c r="B44" s="51" t="str">
+        <f>VLOOKUP($C44,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f>VLOOKUP($C44,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E44" s="63">
+        <v>1</v>
+      </c>
+      <c r="F44" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>T_PACKAGING_QUESTION_PK</v>
+      </c>
+      <c r="G44" s="63">
+        <v>1</v>
+      </c>
+      <c r="H44" s="62" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>VLOOKUP($H44,domain!$B:$D,2,FALSE)</f>
+        <v>QUESTION_ID</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="51">
+        <v>37</v>
+      </c>
+      <c r="B45" s="51" t="str">
+        <f>VLOOKUP($C45,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>VLOOKUP($C45,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E45" s="63">
+        <v>1</v>
+      </c>
+      <c r="F45" s="97" t="str">
         <f t="shared" si="0"/>
         <v>T_PACKAGING_PK</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G45" s="63">
         <v>1</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H45" s="62" t="s">
         <v>1164</v>
       </c>
-      <c r="I40" s="2" t="str">
-        <f>VLOOKUP($H40,domain!$B:$D,2,FALSE)</f>
+      <c r="I45" s="2" t="str">
+        <f>VLOOKUP($H45,domain!$B:$D,2,FALSE)</f>
         <v>PACKAGING_ID</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J45" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="96" t="s">
+      <c r="K45" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="F28:F30"/>

--- a/SubProject/script/table.xlsx
+++ b/SubProject/script/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JinMin-Jang\git\SubProjsct\SubProject\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2C4FD0-DBD7-45E9-8A3E-935CF2EFE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014FC44-CF45-48FE-862D-141C3589A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4813" uniqueCount="1226">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4459,6 +4459,48 @@
   </si>
   <si>
     <t>REVISION_MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장재질구조증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인시험성적서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고허가서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPT_MAT_STRUCT</t>
+  </si>
+  <si>
+    <t>RPT_DEV_ANAL</t>
+  </si>
+  <si>
+    <t>RPT_VISUAL_JUDG</t>
+  </si>
+  <si>
+    <t>RPT_TEST</t>
+  </si>
+  <si>
+    <t>RPT_PERMISSION</t>
+  </si>
+  <si>
+    <t>RPT_ETC</t>
+  </si>
+  <si>
+    <t>기기분석증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육안판정서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7267,13 +7309,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z391"/>
+  <dimension ref="A1:Z397"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F353" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="I363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G365" sqref="G365"/>
+      <selection pane="bottomRight" activeCell="J371" sqref="J371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -20959,7 +21001,7 @@
     </row>
     <row r="325" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A325" s="51">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B325" s="99" t="str">
         <f>VLOOKUP($C325,table!$B:$D,3,FALSE)</f>
@@ -21000,7 +21042,7 @@
     </row>
     <row r="326" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" s="51">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B326" s="99" t="str">
         <f>VLOOKUP($C326,table!$B:$D,3,FALSE)</f>
@@ -21041,7 +21083,7 @@
     </row>
     <row r="327" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="51">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B327" s="99" t="str">
         <f>VLOOKUP($C327,table!$B:$D,3,FALSE)</f>
@@ -21082,7 +21124,7 @@
     </row>
     <row r="328" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" s="51">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B328" s="99" t="str">
         <f>VLOOKUP($C328,table!$B:$D,3,FALSE)</f>
@@ -21123,7 +21165,7 @@
     </row>
     <row r="329" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A329" s="51">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B329" s="99" t="str">
         <f>VLOOKUP($C329,table!$B:$D,3,FALSE)</f>
@@ -21164,7 +21206,7 @@
     </row>
     <row r="330" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A330" s="51">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B330" s="99" t="str">
         <f>VLOOKUP($C330,table!$B:$D,3,FALSE)</f>
@@ -21205,7 +21247,7 @@
     </row>
     <row r="331" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A331" s="51">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B331" s="99" t="str">
         <f>VLOOKUP($C331,table!$B:$D,3,FALSE)</f>
@@ -21246,7 +21288,7 @@
     </row>
     <row r="332" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="51">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B332" s="99" t="str">
         <f>VLOOKUP($C332,table!$B:$D,3,FALSE)</f>
@@ -21287,7 +21329,7 @@
     </row>
     <row r="333" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A333" s="51">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B333" s="99" t="str">
         <f>VLOOKUP($C333,table!$B:$D,3,FALSE)</f>
@@ -21330,7 +21372,7 @@
     </row>
     <row r="334" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="51">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B334" s="99" t="str">
         <f>VLOOKUP($C334,table!$B:$D,3,FALSE)</f>
@@ -21371,7 +21413,7 @@
     </row>
     <row r="335" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A335" s="51">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B335" s="99" t="str">
         <f>VLOOKUP($C335,table!$B:$D,3,FALSE)</f>
@@ -21412,7 +21454,7 @@
     </row>
     <row r="336" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A336" s="51">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B336" s="99" t="str">
         <f>VLOOKUP($C336,table!$B:$D,3,FALSE)</f>
@@ -21453,7 +21495,7 @@
     </row>
     <row r="337" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A337" s="51">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B337" s="99" t="str">
         <f>VLOOKUP($C337,table!$B:$D,3,FALSE)</f>
@@ -21494,7 +21536,7 @@
     </row>
     <row r="338" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="51">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B338" s="15" t="str">
         <f>VLOOKUP($C338,table!$B:$D,3,FALSE)</f>
@@ -21535,7 +21577,7 @@
     </row>
     <row r="339" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="51">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B339" s="15" t="str">
         <f>VLOOKUP($C339,table!$B:$D,3,FALSE)</f>
@@ -21576,7 +21618,7 @@
     </row>
     <row r="340" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="51">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B340" s="15" t="str">
         <f>VLOOKUP($C340,table!$B:$D,3,FALSE)</f>
@@ -21617,7 +21659,7 @@
     </row>
     <row r="341" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A341" s="51">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="B341" s="15" t="str">
         <f>VLOOKUP($C341,table!$B:$D,3,FALSE)</f>
@@ -21658,7 +21700,7 @@
     </row>
     <row r="342" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="51">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B342" s="15" t="str">
         <f>VLOOKUP($C342,table!$B:$D,3,FALSE)</f>
@@ -21699,7 +21741,7 @@
     </row>
     <row r="343" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="51">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B343" s="15" t="str">
         <f>VLOOKUP($C343,table!$B:$D,3,FALSE)</f>
@@ -21740,7 +21782,7 @@
     </row>
     <row r="344" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="51">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B344" s="15" t="str">
         <f>VLOOKUP($C344,table!$B:$D,3,FALSE)</f>
@@ -21780,8 +21822,8 @@
       </c>
     </row>
     <row r="345" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="15">
-        <v>332</v>
+      <c r="A345" s="51">
+        <v>343</v>
       </c>
       <c r="B345" s="15" t="str">
         <f>VLOOKUP($C345,table!$B:$D,3,FALSE)</f>
@@ -21824,7 +21866,7 @@
     </row>
     <row r="346" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="51">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B346" s="15" t="str">
         <f>VLOOKUP($C346,table!$B:$D,3,FALSE)</f>
@@ -21865,7 +21907,7 @@
     </row>
     <row r="347" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A347" s="51">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B347" s="15" t="str">
         <f>VLOOKUP($C347,table!$B:$D,3,FALSE)</f>
@@ -21906,7 +21948,7 @@
     </row>
     <row r="348" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="51">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B348" s="15" t="str">
         <f>VLOOKUP($C348,table!$B:$D,3,FALSE)</f>
@@ -21947,7 +21989,7 @@
     </row>
     <row r="349" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A349" s="51">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="B349" s="15" t="str">
         <f>VLOOKUP($C349,table!$B:$D,3,FALSE)</f>
@@ -21987,8 +22029,8 @@
       </c>
     </row>
     <row r="350" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="103">
-        <v>320</v>
+      <c r="A350" s="51">
+        <v>348</v>
       </c>
       <c r="B350" s="103" t="str">
         <f>VLOOKUP($C350,table!$B:$D,3,FALSE)</f>
@@ -22030,8 +22072,8 @@
       </c>
     </row>
     <row r="351" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="103">
-        <v>320</v>
+      <c r="A351" s="51">
+        <v>349</v>
       </c>
       <c r="B351" s="103" t="str">
         <f>VLOOKUP($C351,table!$B:$D,3,FALSE)</f>
@@ -22073,8 +22115,8 @@
       </c>
     </row>
     <row r="352" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="103">
-        <v>320</v>
+      <c r="A352" s="51">
+        <v>350</v>
       </c>
       <c r="B352" s="103" t="str">
         <f>VLOOKUP($C352,table!$B:$D,3,FALSE)</f>
@@ -22111,13 +22153,13 @@
       <c r="L352" s="61"/>
       <c r="M352" s="61"/>
       <c r="N352" s="69" t="str">
-        <f t="shared" ref="N352:N377" si="14">IF(E352=1,"    ","  , ")&amp;G352&amp;" "&amp;H352&amp;IF(J352="",""," "&amp;J352)&amp;IF(I352="N"," NOT NULL","")&amp;" COMMENT '"&amp;F352&amp;IF(L352="",""," "&amp;L352)&amp;"'"</f>
+        <f t="shared" ref="N352:N383" si="14">IF(E352=1,"    ","  , ")&amp;G352&amp;" "&amp;H352&amp;IF(J352="",""," "&amp;J352)&amp;IF(I352="N"," NOT NULL","")&amp;" COMMENT '"&amp;F352&amp;IF(L352="",""," "&amp;L352)&amp;"'"</f>
         <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
       </c>
     </row>
     <row r="353" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="103">
-        <v>320</v>
+      <c r="A353" s="51">
+        <v>351</v>
       </c>
       <c r="B353" s="103" t="str">
         <f>VLOOKUP($C353,table!$B:$D,3,FALSE)</f>
@@ -22157,8 +22199,8 @@
       </c>
     </row>
     <row r="354" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="103">
-        <v>320</v>
+      <c r="A354" s="51">
+        <v>352</v>
       </c>
       <c r="B354" s="103" t="str">
         <f>VLOOKUP($C354,table!$B:$D,3,FALSE)</f>
@@ -22198,8 +22240,8 @@
       </c>
     </row>
     <row r="355" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="103">
-        <v>320</v>
+      <c r="A355" s="51">
+        <v>353</v>
       </c>
       <c r="B355" s="103" t="str">
         <f>VLOOKUP($C355,table!$B:$D,3,FALSE)</f>
@@ -22239,8 +22281,8 @@
       </c>
     </row>
     <row r="356" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="103">
-        <v>320</v>
+      <c r="A356" s="51">
+        <v>354</v>
       </c>
       <c r="B356" s="103" t="str">
         <f>VLOOKUP($C356,table!$B:$D,3,FALSE)</f>
@@ -22280,8 +22322,8 @@
       </c>
     </row>
     <row r="357" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="103">
-        <v>320</v>
+      <c r="A357" s="51">
+        <v>355</v>
       </c>
       <c r="B357" s="103" t="str">
         <f>VLOOKUP($C357,table!$B:$D,3,FALSE)</f>
@@ -22321,8 +22363,8 @@
       </c>
     </row>
     <row r="358" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="103">
-        <v>320</v>
+      <c r="A358" s="51">
+        <v>356</v>
       </c>
       <c r="B358" s="103" t="str">
         <f>VLOOKUP($C358,table!$B:$D,3,FALSE)</f>
@@ -22362,8 +22404,8 @@
       </c>
     </row>
     <row r="359" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="103">
-        <v>320</v>
+      <c r="A359" s="51">
+        <v>357</v>
       </c>
       <c r="B359" s="103" t="str">
         <f>VLOOKUP($C359,table!$B:$D,3,FALSE)</f>
@@ -22403,8 +22445,8 @@
       </c>
     </row>
     <row r="360" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="103">
-        <v>320</v>
+      <c r="A360" s="51">
+        <v>358</v>
       </c>
       <c r="B360" s="103" t="str">
         <f>VLOOKUP($C360,table!$B:$D,3,FALSE)</f>
@@ -22444,8 +22486,8 @@
       </c>
     </row>
     <row r="361" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="103">
-        <v>320</v>
+      <c r="A361" s="51">
+        <v>359</v>
       </c>
       <c r="B361" s="103" t="str">
         <f>VLOOKUP($C361,table!$B:$D,3,FALSE)</f>
@@ -22485,8 +22527,8 @@
       </c>
     </row>
     <row r="362" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="15">
-        <v>320</v>
+      <c r="A362" s="51">
+        <v>360</v>
       </c>
       <c r="B362" s="15" t="str">
         <f>VLOOKUP($C362,table!$B:$D,3,FALSE)</f>
@@ -22528,8 +22570,8 @@
       </c>
     </row>
     <row r="363" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="15">
-        <v>320</v>
+      <c r="A363" s="51">
+        <v>361</v>
       </c>
       <c r="B363" s="15" t="str">
         <f>VLOOKUP($C363,table!$B:$D,3,FALSE)</f>
@@ -22571,8 +22613,8 @@
       </c>
     </row>
     <row r="364" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="15">
-        <v>320</v>
+      <c r="A364" s="51">
+        <v>362</v>
       </c>
       <c r="B364" s="15" t="str">
         <f>VLOOKUP($C364,table!$B:$D,3,FALSE)</f>
@@ -22609,13 +22651,13 @@
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
       <c r="N364" s="70" t="str">
-        <f t="shared" ref="N364:N375" si="17">IF(E364=1,"    ","  , ")&amp;G364&amp;" "&amp;H364&amp;IF(J364="",""," "&amp;J364)&amp;IF(I364="N"," NOT NULL","")&amp;" COMMENT '"&amp;F364&amp;IF(L364="",""," "&amp;L364)&amp;"'"</f>
+        <f t="shared" ref="N364:N381" si="17">IF(E364=1,"    ","  , ")&amp;G364&amp;" "&amp;H364&amp;IF(J364="",""," "&amp;J364)&amp;IF(I364="N"," NOT NULL","")&amp;" COMMENT '"&amp;F364&amp;IF(L364="",""," "&amp;L364)&amp;"'"</f>
         <v xml:space="preserve">  , CODE_ID VARCHAR(64) NOT NULL COMMENT '코드 ID'</v>
       </c>
     </row>
     <row r="365" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="15">
-        <v>320</v>
+      <c r="A365" s="51">
+        <v>363</v>
       </c>
       <c r="B365" s="15" t="str">
         <f>VLOOKUP($C365,table!$B:$D,3,FALSE)</f>
@@ -22629,7 +22671,7 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E365" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F365" s="77" t="s">
         <v>1209</v>
@@ -22655,8 +22697,8 @@
       </c>
     </row>
     <row r="366" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="15">
-        <v>320</v>
+      <c r="A366" s="51">
+        <v>364</v>
       </c>
       <c r="B366" s="15" t="str">
         <f>VLOOKUP($C366,table!$B:$D,3,FALSE)</f>
@@ -22670,7 +22712,7 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E366" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F366" s="77" t="s">
         <v>1208</v>
@@ -22696,8 +22738,8 @@
       </c>
     </row>
     <row r="367" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="15">
-        <v>320</v>
+      <c r="A367" s="51">
+        <v>365</v>
       </c>
       <c r="B367" s="15" t="str">
         <f>VLOOKUP($C367,table!$B:$D,3,FALSE)</f>
@@ -22711,7 +22753,7 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E367" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F367" s="77" t="s">
         <v>1204</v>
@@ -22737,8 +22779,8 @@
       </c>
     </row>
     <row r="368" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="15">
-        <v>320</v>
+      <c r="A368" s="51">
+        <v>366</v>
       </c>
       <c r="B368" s="15" t="str">
         <f>VLOOKUP($C368,table!$B:$D,3,FALSE)</f>
@@ -22752,7 +22794,7 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E368" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F368" s="77" t="s">
         <v>105</v>
@@ -22778,8 +22820,8 @@
       </c>
     </row>
     <row r="369" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="15">
-        <v>320</v>
+      <c r="A369" s="51">
+        <v>367</v>
       </c>
       <c r="B369" s="15" t="str">
         <f>VLOOKUP($C369,table!$B:$D,3,FALSE)</f>
@@ -22793,7 +22835,7 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E369" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F369" s="77" t="s">
         <v>107</v>
@@ -22814,13 +22856,13 @@
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
       <c r="N369" s="70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N369:N372" si="19">IF(E369=1,"    ","  , ")&amp;G369&amp;" "&amp;H369&amp;IF(J369="",""," "&amp;J369)&amp;IF(I369="N"," NOT NULL","")&amp;" COMMENT '"&amp;F369&amp;IF(L369="",""," "&amp;L369)&amp;"'"</f>
         <v xml:space="preserve">  , CODE_DSC VARCHAR(1000) COMMENT '코드 설명'</v>
       </c>
     </row>
     <row r="370" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="15">
-        <v>320</v>
+      <c r="A370" s="51">
+        <v>367</v>
       </c>
       <c r="B370" s="15" t="str">
         <f>VLOOKUP($C370,table!$B:$D,3,FALSE)</f>
@@ -22834,34 +22876,34 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E370" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F370" s="77" t="s">
-        <v>255</v>
+        <v>1214</v>
       </c>
       <c r="G370" s="6" t="str">
         <f>VLOOKUP($F370,domain!$B:$D,2,FALSE)</f>
-        <v>ORD_SEQ</v>
+        <v>RPT_MAT_STRUCT</v>
       </c>
       <c r="H370" s="6" t="str">
         <f>VLOOKUP($F370,domain!$B:$D,3,FALSE)</f>
-        <v>NUMERIC(5,0)</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I370" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J370" s="6"/>
       <c r="K370" s="15"/>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
       <c r="N370" s="70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  , RPT_MAT_STRUCT VARCHAR(1) COMMENT '포장재질구조증명서'</v>
       </c>
     </row>
     <row r="371" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="15">
-        <v>320</v>
+      <c r="A371" s="51">
+        <v>367</v>
       </c>
       <c r="B371" s="15" t="str">
         <f>VLOOKUP($C371,table!$B:$D,3,FALSE)</f>
@@ -22875,34 +22917,34 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E371" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F371" s="77" t="s">
-        <v>446</v>
+        <v>1223</v>
       </c>
       <c r="G371" s="6" t="str">
         <f>VLOOKUP($F371,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
+        <v>RPT_DEV_ANAL</v>
       </c>
       <c r="H371" s="6" t="str">
         <f>VLOOKUP($F371,domain!$B:$D,3,FALSE)</f>
         <v>VARCHAR(1)</v>
       </c>
       <c r="I371" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J371" s="6"/>
       <c r="K371" s="15"/>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
       <c r="N371" s="70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  , RPT_DEV_ANAL VARCHAR(1) COMMENT '기기분석증명서'</v>
       </c>
     </row>
     <row r="372" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="15">
-        <v>320</v>
+      <c r="A372" s="51">
+        <v>367</v>
       </c>
       <c r="B372" s="15" t="str">
         <f>VLOOKUP($C372,table!$B:$D,3,FALSE)</f>
@@ -22916,34 +22958,34 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E372" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F372" s="77" t="s">
-        <v>57</v>
+        <v>1225</v>
       </c>
       <c r="G372" s="6" t="str">
         <f>VLOOKUP($F372,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
+        <v>RPT_VISUAL_JUDG</v>
       </c>
       <c r="H372" s="6" t="str">
         <f>VLOOKUP($F372,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I372" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J372" s="6"/>
       <c r="K372" s="15"/>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
       <c r="N372" s="70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  , RPT_VISUAL_JUDG VARCHAR(1) COMMENT '육안판정서'</v>
       </c>
     </row>
     <row r="373" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="15">
-        <v>320</v>
+      <c r="A373" s="51">
+        <v>367</v>
       </c>
       <c r="B373" s="15" t="str">
         <f>VLOOKUP($C373,table!$B:$D,3,FALSE)</f>
@@ -22957,21 +22999,21 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E373" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F373" s="77" t="s">
-        <v>379</v>
+        <v>1215</v>
       </c>
       <c r="G373" s="6" t="str">
         <f>VLOOKUP($F373,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
+        <v>RPT_TEST</v>
       </c>
       <c r="H373" s="6" t="str">
         <f>VLOOKUP($F373,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I373" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J373" s="6"/>
       <c r="K373" s="15"/>
@@ -22979,12 +23021,12 @@
       <c r="M373" s="6"/>
       <c r="N373" s="70" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+        <v xml:space="preserve">  , RPT_TEST VARCHAR(1) COMMENT '공인시험성적서'</v>
       </c>
     </row>
     <row r="374" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="15">
-        <v>320</v>
+      <c r="A374" s="51">
+        <v>367</v>
       </c>
       <c r="B374" s="15" t="str">
         <f>VLOOKUP($C374,table!$B:$D,3,FALSE)</f>
@@ -22998,34 +23040,34 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E374" s="15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F374" s="77" t="s">
-        <v>84</v>
+        <v>1216</v>
       </c>
       <c r="G374" s="6" t="str">
         <f>VLOOKUP($F374,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>RPT_PERMISSION</v>
       </c>
       <c r="H374" s="6" t="str">
         <f>VLOOKUP($F374,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I374" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J374" s="6"/>
       <c r="K374" s="15"/>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
       <c r="N374" s="70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <f t="shared" ref="N374" si="20">IF(E374=1,"    ","  , ")&amp;G374&amp;" "&amp;H374&amp;IF(J374="",""," "&amp;J374)&amp;IF(I374="N"," NOT NULL","")&amp;" COMMENT '"&amp;F374&amp;IF(L374="",""," "&amp;L374)&amp;"'"</f>
+        <v xml:space="preserve">  , RPT_PERMISSION VARCHAR(1) COMMENT '신고허가서류'</v>
       </c>
     </row>
     <row r="375" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="15">
-        <v>320</v>
+      <c r="A375" s="51">
+        <v>367</v>
       </c>
       <c r="B375" s="15" t="str">
         <f>VLOOKUP($C375,table!$B:$D,3,FALSE)</f>
@@ -23039,280 +23081,280 @@
         <v>T_ENVIRONMENT_CODE</v>
       </c>
       <c r="E375" s="15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F375" s="77" t="s">
-        <v>88</v>
+        <v>1224</v>
       </c>
       <c r="G375" s="6" t="str">
         <f>VLOOKUP($F375,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>RPT_ETC</v>
       </c>
       <c r="H375" s="6" t="str">
         <f>VLOOKUP($F375,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(1)</v>
       </c>
       <c r="I375" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J375" s="6"/>
       <c r="K375" s="15"/>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
       <c r="N375" s="70" t="str">
+        <f t="shared" ref="N375" si="21">IF(E375=1,"    ","  , ")&amp;G375&amp;" "&amp;H375&amp;IF(J375="",""," "&amp;J375)&amp;IF(I375="N"," NOT NULL","")&amp;" COMMENT '"&amp;F375&amp;IF(L375="",""," "&amp;L375)&amp;"'"</f>
+        <v xml:space="preserve">  , RPT_ETC VARCHAR(1) COMMENT '기타서류'</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="51">
+        <v>368</v>
+      </c>
+      <c r="B376" s="15" t="str">
+        <f>VLOOKUP($C376,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D376" s="93" t="str">
+        <f>VLOOKUP($C376,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E376" s="15">
+        <v>15</v>
+      </c>
+      <c r="F376" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="G376" s="6" t="str">
+        <f>VLOOKUP($F376,domain!$B:$D,2,FALSE)</f>
+        <v>ORD_SEQ</v>
+      </c>
+      <c r="H376" s="6" t="str">
+        <f>VLOOKUP($F376,domain!$B:$D,3,FALSE)</f>
+        <v>NUMERIC(5,0)</v>
+      </c>
+      <c r="I376" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J376" s="6"/>
+      <c r="K376" s="15"/>
+      <c r="L376" s="6"/>
+      <c r="M376" s="6"/>
+      <c r="N376" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , ORD_SEQ NUMERIC(5,0) NOT NULL COMMENT '정렬 순서'</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="51">
+        <v>369</v>
+      </c>
+      <c r="B377" s="15" t="str">
+        <f>VLOOKUP($C377,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D377" s="93" t="str">
+        <f>VLOOKUP($C377,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E377" s="15">
+        <v>16</v>
+      </c>
+      <c r="F377" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G377" s="6" t="str">
+        <f>VLOOKUP($F377,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H377" s="6" t="str">
+        <f>VLOOKUP($F377,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I377" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J377" s="6"/>
+      <c r="K377" s="15"/>
+      <c r="L377" s="6"/>
+      <c r="M377" s="6"/>
+      <c r="N377" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="51">
+        <v>370</v>
+      </c>
+      <c r="B378" s="15" t="str">
+        <f>VLOOKUP($C378,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D378" s="93" t="str">
+        <f>VLOOKUP($C378,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E378" s="15">
+        <v>17</v>
+      </c>
+      <c r="F378" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G378" s="6" t="str">
+        <f>VLOOKUP($F378,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H378" s="6" t="str">
+        <f>VLOOKUP($F378,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I378" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J378" s="6"/>
+      <c r="K378" s="15"/>
+      <c r="L378" s="6"/>
+      <c r="M378" s="6"/>
+      <c r="N378" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="51">
+        <v>371</v>
+      </c>
+      <c r="B379" s="15" t="str">
+        <f>VLOOKUP($C379,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D379" s="93" t="str">
+        <f>VLOOKUP($C379,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E379" s="15">
+        <v>18</v>
+      </c>
+      <c r="F379" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G379" s="6" t="str">
+        <f>VLOOKUP($F379,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H379" s="6" t="str">
+        <f>VLOOKUP($F379,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I379" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J379" s="6"/>
+      <c r="K379" s="15"/>
+      <c r="L379" s="6"/>
+      <c r="M379" s="6"/>
+      <c r="N379" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="51">
+        <v>372</v>
+      </c>
+      <c r="B380" s="15" t="str">
+        <f>VLOOKUP($C380,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D380" s="93" t="str">
+        <f>VLOOKUP($C380,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E380" s="15">
+        <v>19</v>
+      </c>
+      <c r="F380" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G380" s="6" t="str">
+        <f>VLOOKUP($F380,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H380" s="6" t="str">
+        <f>VLOOKUP($F380,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I380" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J380" s="6"/>
+      <c r="K380" s="15"/>
+      <c r="L380" s="6"/>
+      <c r="M380" s="6"/>
+      <c r="N380" s="70" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="51">
+        <v>373</v>
+      </c>
+      <c r="B381" s="15" t="str">
+        <f>VLOOKUP($C381,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D381" s="93" t="str">
+        <f>VLOOKUP($C381,table!$B:$D,2,FALSE)</f>
+        <v>T_ENVIRONMENT_CODE</v>
+      </c>
+      <c r="E381" s="15">
+        <v>20</v>
+      </c>
+      <c r="F381" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G381" s="6" t="str">
+        <f>VLOOKUP($F381,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H381" s="6" t="str">
+        <f>VLOOKUP($F381,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I381" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J381" s="6"/>
+      <c r="K381" s="15"/>
+      <c r="L381" s="6"/>
+      <c r="M381" s="6"/>
+      <c r="N381" s="70" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
-    <row r="376" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="103">
-        <v>331</v>
-      </c>
-      <c r="B376" s="103" t="str">
-        <f>VLOOKUP($C376,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C376" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D376" s="94" t="str">
-        <f>VLOOKUP($C376,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E376" s="103">
-        <v>1</v>
-      </c>
-      <c r="F376" s="76" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G376" s="61" t="str">
-        <f>VLOOKUP($F376,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_ID</v>
-      </c>
-      <c r="H376" s="61" t="str">
-        <f>VLOOKUP($F376,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I376" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J376" s="61"/>
-      <c r="K376" s="103"/>
-      <c r="L376" s="61"/>
-      <c r="M376" s="61"/>
-      <c r="N376" s="69" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="103">
-        <v>332</v>
-      </c>
-      <c r="B377" s="103" t="str">
-        <f>VLOOKUP($C377,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C377" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D377" s="94" t="str">
-        <f>VLOOKUP($C377,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E377" s="103">
-        <v>2</v>
-      </c>
-      <c r="F377" s="76" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G377" s="61" t="str">
-        <f>VLOOKUP($F377,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_NM</v>
-      </c>
-      <c r="H377" s="61" t="str">
-        <f>VLOOKUP($F377,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(4000)</v>
-      </c>
-      <c r="I377" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J377" s="61"/>
-      <c r="K377" s="103"/>
-      <c r="L377" s="61"/>
-      <c r="M377" s="61"/>
-      <c r="N377" s="69" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
-      </c>
-    </row>
-    <row r="378" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="103">
-        <v>332</v>
-      </c>
-      <c r="B378" s="103" t="str">
-        <f>VLOOKUP($C378,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C378" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D378" s="94" t="str">
-        <f>VLOOKUP($C378,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E378" s="103">
-        <v>3</v>
-      </c>
-      <c r="F378" s="76" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G378" s="61" t="str">
-        <f>VLOOKUP($F378,domain!$B:$D,2,FALSE)</f>
-        <v>QUESTION_CODE</v>
-      </c>
-      <c r="H378" s="61" t="str">
-        <f>VLOOKUP($F378,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I378" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J378" s="61"/>
-      <c r="K378" s="103"/>
-      <c r="L378" s="61"/>
-      <c r="M378" s="61"/>
-      <c r="N378" s="69" t="str">
-        <f t="shared" ref="N378" si="19">IF(E378=1,"    ","  , ")&amp;G378&amp;" "&amp;H378&amp;IF(J378="",""," "&amp;J378)&amp;IF(I378="N"," NOT NULL","")&amp;" COMMENT '"&amp;F378&amp;IF(L378="",""," "&amp;L378)&amp;"'"</f>
-        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
-      </c>
-    </row>
-    <row r="379" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="103">
-        <v>332</v>
-      </c>
-      <c r="B379" s="103" t="str">
-        <f>VLOOKUP($C379,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C379" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D379" s="94" t="str">
-        <f>VLOOKUP($C379,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E379" s="103">
-        <v>4</v>
-      </c>
-      <c r="F379" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="G379" s="61" t="str">
-        <f>VLOOKUP($F379,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
-      </c>
-      <c r="H379" s="61" t="str">
-        <f>VLOOKUP($F379,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
-      </c>
-      <c r="I379" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J379" s="61"/>
-      <c r="K379" s="103"/>
-      <c r="L379" s="61"/>
-      <c r="M379" s="61"/>
-      <c r="N379" s="69" t="str">
-        <f t="shared" ref="N379:N391" si="20">IF(E379=1,"    ","  , ")&amp;G379&amp;" "&amp;H379&amp;IF(J379="",""," "&amp;J379)&amp;IF(I379="N"," NOT NULL","")&amp;" COMMENT '"&amp;F379&amp;IF(L379="",""," "&amp;L379)&amp;"'"</f>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="103">
-        <v>331</v>
-      </c>
-      <c r="B380" s="103" t="str">
-        <f>VLOOKUP($C380,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C380" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D380" s="94" t="str">
-        <f>VLOOKUP($C380,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E380" s="103">
-        <v>5</v>
-      </c>
-      <c r="F380" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="G380" s="61" t="str">
-        <f>VLOOKUP($F380,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
-      </c>
-      <c r="H380" s="61" t="str">
-        <f>VLOOKUP($F380,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
-      </c>
-      <c r="I380" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J380" s="61"/>
-      <c r="K380" s="103"/>
-      <c r="L380" s="61"/>
-      <c r="M380" s="61"/>
-      <c r="N380" s="69" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
-      </c>
-    </row>
-    <row r="381" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="103">
-        <v>332</v>
-      </c>
-      <c r="B381" s="103" t="str">
-        <f>VLOOKUP($C381,table!$B:$D,3,FALSE)</f>
-        <v>공통</v>
-      </c>
-      <c r="C381" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D381" s="94" t="str">
-        <f>VLOOKUP($C381,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING_QUESTION</v>
-      </c>
-      <c r="E381" s="103">
-        <v>6</v>
-      </c>
-      <c r="F381" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="G381" s="61" t="str">
-        <f>VLOOKUP($F381,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
-      </c>
-      <c r="H381" s="61" t="str">
-        <f>VLOOKUP($F381,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
-      </c>
-      <c r="I381" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="J381" s="61"/>
-      <c r="K381" s="103"/>
-      <c r="L381" s="61"/>
-      <c r="M381" s="61"/>
-      <c r="N381" s="69" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
-      </c>
-    </row>
     <row r="382" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="103">
-        <v>331</v>
+      <c r="A382" s="51">
+        <v>374</v>
       </c>
       <c r="B382" s="103" t="str">
         <f>VLOOKUP($C382,table!$B:$D,3,FALSE)</f>
@@ -23326,18 +23368,18 @@
         <v>T_PACKAGING_QUESTION</v>
       </c>
       <c r="E382" s="103">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F382" s="76" t="s">
-        <v>84</v>
+        <v>1166</v>
       </c>
       <c r="G382" s="61" t="str">
         <f>VLOOKUP($F382,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>QUESTION_ID</v>
       </c>
       <c r="H382" s="61" t="str">
         <f>VLOOKUP($F382,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I382" s="103" t="s">
         <v>173</v>
@@ -23347,13 +23389,13 @@
       <c r="L382" s="61"/>
       <c r="M382" s="61"/>
       <c r="N382" s="69" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    QUESTION_ID VARCHAR(16) NOT NULL COMMENT '질문 ID'</v>
       </c>
     </row>
     <row r="383" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="103">
-        <v>332</v>
+      <c r="A383" s="51">
+        <v>375</v>
       </c>
       <c r="B383" s="103" t="str">
         <f>VLOOKUP($C383,table!$B:$D,3,FALSE)</f>
@@ -23367,18 +23409,18 @@
         <v>T_PACKAGING_QUESTION</v>
       </c>
       <c r="E383" s="103">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F383" s="76" t="s">
-        <v>88</v>
+        <v>1167</v>
       </c>
       <c r="G383" s="61" t="str">
         <f>VLOOKUP($F383,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>QUESTION_NM</v>
       </c>
       <c r="H383" s="61" t="str">
         <f>VLOOKUP($F383,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(4000)</v>
       </c>
       <c r="I383" s="103" t="s">
         <v>173</v>
@@ -23388,259 +23430,259 @@
       <c r="L383" s="61"/>
       <c r="M383" s="61"/>
       <c r="N383" s="69" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
-      </c>
-    </row>
-    <row r="384" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="15">
-        <v>320</v>
-      </c>
-      <c r="B384" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  , QUESTION_NM VARCHAR(4000) NOT NULL COMMENT '질문 명'</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="51">
+        <v>376</v>
+      </c>
+      <c r="B384" s="103" t="str">
         <f>VLOOKUP($C384,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C384" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D384" s="93" t="str">
+      <c r="C384" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D384" s="94" t="str">
         <f>VLOOKUP($C384,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E384" s="15">
-        <v>1</v>
-      </c>
-      <c r="F384" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G384" s="6" t="str">
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E384" s="103">
+        <v>3</v>
+      </c>
+      <c r="F384" s="76" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G384" s="61" t="str">
         <f>VLOOKUP($F384,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_ID</v>
-      </c>
-      <c r="H384" s="6" t="str">
+        <v>QUESTION_CODE</v>
+      </c>
+      <c r="H384" s="61" t="str">
         <f>VLOOKUP($F384,domain!$B:$D,3,FALSE)</f>
         <v>VARCHAR(16)</v>
       </c>
-      <c r="I384" s="15" t="s">
+      <c r="I384" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J384" s="6"/>
-      <c r="K384" s="15"/>
-      <c r="L384" s="6"/>
-      <c r="M384" s="6"/>
-      <c r="N384" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="15">
-        <v>320</v>
-      </c>
-      <c r="B385" s="15" t="str">
+      <c r="J384" s="61"/>
+      <c r="K384" s="103"/>
+      <c r="L384" s="61"/>
+      <c r="M384" s="61"/>
+      <c r="N384" s="69" t="str">
+        <f t="shared" ref="N384" si="22">IF(E384=1,"    ","  , ")&amp;G384&amp;" "&amp;H384&amp;IF(J384="",""," "&amp;J384)&amp;IF(I384="N"," NOT NULL","")&amp;" COMMENT '"&amp;F384&amp;IF(L384="",""," "&amp;L384)&amp;"'"</f>
+        <v xml:space="preserve">  , QUESTION_CODE VARCHAR(16) NOT NULL COMMENT '질문 코드'</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="51">
+        <v>377</v>
+      </c>
+      <c r="B385" s="103" t="str">
         <f>VLOOKUP($C385,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C385" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D385" s="93" t="str">
+      <c r="C385" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D385" s="94" t="str">
         <f>VLOOKUP($C385,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E385" s="15">
-        <v>2</v>
-      </c>
-      <c r="F385" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G385" s="6" t="str">
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E385" s="103">
+        <v>4</v>
+      </c>
+      <c r="F385" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="G385" s="61" t="str">
         <f>VLOOKUP($F385,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_NM</v>
-      </c>
-      <c r="H385" s="6" t="str">
+        <v>USE_YN</v>
+      </c>
+      <c r="H385" s="61" t="str">
         <f>VLOOKUP($F385,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(4000)</v>
-      </c>
-      <c r="I385" s="15" t="s">
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I385" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J385" s="6"/>
-      <c r="K385" s="15"/>
-      <c r="L385" s="6"/>
-      <c r="M385" s="6"/>
-      <c r="N385" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="15">
-        <v>320</v>
-      </c>
-      <c r="B386" s="15" t="str">
+      <c r="J385" s="61"/>
+      <c r="K385" s="103"/>
+      <c r="L385" s="61"/>
+      <c r="M385" s="61"/>
+      <c r="N385" s="69" t="str">
+        <f t="shared" ref="N385:N397" si="23">IF(E385=1,"    ","  , ")&amp;G385&amp;" "&amp;H385&amp;IF(J385="",""," "&amp;J385)&amp;IF(I385="N"," NOT NULL","")&amp;" COMMENT '"&amp;F385&amp;IF(L385="",""," "&amp;L385)&amp;"'"</f>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="51">
+        <v>378</v>
+      </c>
+      <c r="B386" s="103" t="str">
         <f>VLOOKUP($C386,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C386" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D386" s="93" t="str">
+      <c r="C386" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D386" s="94" t="str">
         <f>VLOOKUP($C386,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E386" s="15">
-        <v>3</v>
-      </c>
-      <c r="F386" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G386" s="6" t="str">
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E386" s="103">
+        <v>5</v>
+      </c>
+      <c r="F386" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G386" s="61" t="str">
         <f>VLOOKUP($F386,domain!$B:$D,2,FALSE)</f>
-        <v>PACKAGING_CODE</v>
-      </c>
-      <c r="H386" s="6" t="str">
+        <v>RGST_ID</v>
+      </c>
+      <c r="H386" s="61" t="str">
         <f>VLOOKUP($F386,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(16)</v>
-      </c>
-      <c r="I386" s="15" t="s">
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I386" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J386" s="6"/>
-      <c r="K386" s="15"/>
-      <c r="L386" s="6"/>
-      <c r="M386" s="6"/>
-      <c r="N386" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드 관리'</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="15">
-        <v>320</v>
-      </c>
-      <c r="B387" s="15" t="str">
+      <c r="J386" s="61"/>
+      <c r="K386" s="103"/>
+      <c r="L386" s="61"/>
+      <c r="M386" s="61"/>
+      <c r="N386" s="69" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="51">
+        <v>379</v>
+      </c>
+      <c r="B387" s="103" t="str">
         <f>VLOOKUP($C387,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C387" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D387" s="93" t="str">
+      <c r="C387" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D387" s="94" t="str">
         <f>VLOOKUP($C387,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E387" s="15">
-        <v>4</v>
-      </c>
-      <c r="F387" s="77" t="s">
-        <v>446</v>
-      </c>
-      <c r="G387" s="6" t="str">
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E387" s="103">
+        <v>6</v>
+      </c>
+      <c r="F387" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G387" s="61" t="str">
         <f>VLOOKUP($F387,domain!$B:$D,2,FALSE)</f>
-        <v>USE_YN</v>
-      </c>
-      <c r="H387" s="6" t="str">
+        <v>RGST_DT</v>
+      </c>
+      <c r="H387" s="61" t="str">
         <f>VLOOKUP($F387,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(1)</v>
-      </c>
-      <c r="I387" s="15" t="s">
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I387" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J387" s="6"/>
-      <c r="K387" s="15"/>
-      <c r="L387" s="6"/>
-      <c r="M387" s="6"/>
-      <c r="N387" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="15">
-        <v>320</v>
-      </c>
-      <c r="B388" s="15" t="str">
+      <c r="J387" s="61"/>
+      <c r="K387" s="103"/>
+      <c r="L387" s="61"/>
+      <c r="M387" s="61"/>
+      <c r="N387" s="69" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="51">
+        <v>380</v>
+      </c>
+      <c r="B388" s="103" t="str">
         <f>VLOOKUP($C388,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C388" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D388" s="93" t="str">
+      <c r="C388" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D388" s="94" t="str">
         <f>VLOOKUP($C388,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E388" s="15">
-        <v>5</v>
-      </c>
-      <c r="F388" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="G388" s="6" t="str">
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E388" s="103">
+        <v>7</v>
+      </c>
+      <c r="F388" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G388" s="61" t="str">
         <f>VLOOKUP($F388,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_ID</v>
-      </c>
-      <c r="H388" s="6" t="str">
+        <v>MODI_ID</v>
+      </c>
+      <c r="H388" s="61" t="str">
         <f>VLOOKUP($F388,domain!$B:$D,3,FALSE)</f>
         <v>VARCHAR(32)</v>
       </c>
-      <c r="I388" s="15" t="s">
+      <c r="I388" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J388" s="6"/>
-      <c r="K388" s="15"/>
-      <c r="L388" s="6"/>
-      <c r="M388" s="6"/>
-      <c r="N388" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="15">
-        <v>320</v>
-      </c>
-      <c r="B389" s="15" t="str">
+      <c r="J388" s="61"/>
+      <c r="K388" s="103"/>
+      <c r="L388" s="61"/>
+      <c r="M388" s="61"/>
+      <c r="N388" s="69" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="51">
+        <v>381</v>
+      </c>
+      <c r="B389" s="103" t="str">
         <f>VLOOKUP($C389,table!$B:$D,3,FALSE)</f>
         <v>공통</v>
       </c>
-      <c r="C389" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D389" s="93" t="str">
+      <c r="C389" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D389" s="94" t="str">
         <f>VLOOKUP($C389,table!$B:$D,2,FALSE)</f>
-        <v>T_PACKAGING</v>
-      </c>
-      <c r="E389" s="15">
-        <v>6</v>
-      </c>
-      <c r="F389" s="77" t="s">
-        <v>379</v>
-      </c>
-      <c r="G389" s="6" t="str">
+        <v>T_PACKAGING_QUESTION</v>
+      </c>
+      <c r="E389" s="103">
+        <v>8</v>
+      </c>
+      <c r="F389" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G389" s="61" t="str">
         <f>VLOOKUP($F389,domain!$B:$D,2,FALSE)</f>
-        <v>RGST_DT</v>
-      </c>
-      <c r="H389" s="6" t="str">
+        <v>MODI_DT</v>
+      </c>
+      <c r="H389" s="61" t="str">
         <f>VLOOKUP($F389,domain!$B:$D,3,FALSE)</f>
         <v>TIMESTAMP</v>
       </c>
-      <c r="I389" s="15" t="s">
+      <c r="I389" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="J389" s="6"/>
-      <c r="K389" s="15"/>
-      <c r="L389" s="6"/>
-      <c r="M389" s="6"/>
-      <c r="N389" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      <c r="J389" s="61"/>
+      <c r="K389" s="103"/>
+      <c r="L389" s="61"/>
+      <c r="M389" s="61"/>
+      <c r="N389" s="69" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
     <row r="390" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="15">
-        <v>320</v>
+      <c r="A390" s="51">
+        <v>382</v>
       </c>
       <c r="B390" s="15" t="str">
         <f>VLOOKUP($C390,table!$B:$D,3,FALSE)</f>
@@ -23654,18 +23696,18 @@
         <v>T_PACKAGING</v>
       </c>
       <c r="E390" s="15">
-        <v>7</v>
-      </c>
-      <c r="F390" s="77" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>1164</v>
       </c>
       <c r="G390" s="6" t="str">
         <f>VLOOKUP($F390,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_ID</v>
+        <v>PACKAGING_ID</v>
       </c>
       <c r="H390" s="6" t="str">
         <f>VLOOKUP($F390,domain!$B:$D,3,FALSE)</f>
-        <v>VARCHAR(32)</v>
+        <v>VARCHAR(16)</v>
       </c>
       <c r="I390" s="15" t="s">
         <v>173</v>
@@ -23675,13 +23717,13 @@
       <c r="L390" s="6"/>
       <c r="M390" s="6"/>
       <c r="N390" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">    PACKAGING_ID VARCHAR(16) NOT NULL COMMENT '제품 ID'</v>
       </c>
     </row>
     <row r="391" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="15">
-        <v>320</v>
+      <c r="A391" s="51">
+        <v>383</v>
       </c>
       <c r="B391" s="15" t="str">
         <f>VLOOKUP($C391,table!$B:$D,3,FALSE)</f>
@@ -23695,18 +23737,18 @@
         <v>T_PACKAGING</v>
       </c>
       <c r="E391" s="15">
-        <v>8</v>
-      </c>
-      <c r="F391" s="77" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>1165</v>
       </c>
       <c r="G391" s="6" t="str">
         <f>VLOOKUP($F391,domain!$B:$D,2,FALSE)</f>
-        <v>MODI_DT</v>
+        <v>PACKAGING_NM</v>
       </c>
       <c r="H391" s="6" t="str">
         <f>VLOOKUP($F391,domain!$B:$D,3,FALSE)</f>
-        <v>TIMESTAMP</v>
+        <v>VARCHAR(4000)</v>
       </c>
       <c r="I391" s="15" t="s">
         <v>173</v>
@@ -23716,7 +23758,253 @@
       <c r="L391" s="6"/>
       <c r="M391" s="6"/>
       <c r="N391" s="70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , PACKAGING_NM VARCHAR(4000) NOT NULL COMMENT '제품 명'</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="51">
+        <v>384</v>
+      </c>
+      <c r="B392" s="15" t="str">
+        <f>VLOOKUP($C392,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D392" s="93" t="str">
+        <f>VLOOKUP($C392,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E392" s="15">
+        <v>3</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G392" s="6" t="str">
+        <f>VLOOKUP($F392,domain!$B:$D,2,FALSE)</f>
+        <v>PACKAGING_CODE</v>
+      </c>
+      <c r="H392" s="6" t="str">
+        <f>VLOOKUP($F392,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(16)</v>
+      </c>
+      <c r="I392" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J392" s="6"/>
+      <c r="K392" s="15"/>
+      <c r="L392" s="6"/>
+      <c r="M392" s="6"/>
+      <c r="N392" s="70" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , PACKAGING_CODE VARCHAR(16) NOT NULL COMMENT '업체 코드 관리'</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="51">
+        <v>385</v>
+      </c>
+      <c r="B393" s="15" t="str">
+        <f>VLOOKUP($C393,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D393" s="93" t="str">
+        <f>VLOOKUP($C393,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E393" s="15">
+        <v>4</v>
+      </c>
+      <c r="F393" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G393" s="6" t="str">
+        <f>VLOOKUP($F393,domain!$B:$D,2,FALSE)</f>
+        <v>USE_YN</v>
+      </c>
+      <c r="H393" s="6" t="str">
+        <f>VLOOKUP($F393,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="I393" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J393" s="6"/>
+      <c r="K393" s="15"/>
+      <c r="L393" s="6"/>
+      <c r="M393" s="6"/>
+      <c r="N393" s="70" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , USE_YN VARCHAR(1) NOT NULL COMMENT '사용 여부'</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="51">
+        <v>386</v>
+      </c>
+      <c r="B394" s="15" t="str">
+        <f>VLOOKUP($C394,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D394" s="93" t="str">
+        <f>VLOOKUP($C394,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E394" s="15">
+        <v>5</v>
+      </c>
+      <c r="F394" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G394" s="6" t="str">
+        <f>VLOOKUP($F394,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_ID</v>
+      </c>
+      <c r="H394" s="6" t="str">
+        <f>VLOOKUP($F394,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I394" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J394" s="6"/>
+      <c r="K394" s="15"/>
+      <c r="L394" s="6"/>
+      <c r="M394" s="6"/>
+      <c r="N394" s="70" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , RGST_ID VARCHAR(32) NOT NULL COMMENT '등록 ID'</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="51">
+        <v>387</v>
+      </c>
+      <c r="B395" s="15" t="str">
+        <f>VLOOKUP($C395,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D395" s="93" t="str">
+        <f>VLOOKUP($C395,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E395" s="15">
+        <v>6</v>
+      </c>
+      <c r="F395" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="G395" s="6" t="str">
+        <f>VLOOKUP($F395,domain!$B:$D,2,FALSE)</f>
+        <v>RGST_DT</v>
+      </c>
+      <c r="H395" s="6" t="str">
+        <f>VLOOKUP($F395,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I395" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J395" s="6"/>
+      <c r="K395" s="15"/>
+      <c r="L395" s="6"/>
+      <c r="M395" s="6"/>
+      <c r="N395" s="70" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , RGST_DT TIMESTAMP NOT NULL COMMENT '등록 일시'</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="51">
+        <v>388</v>
+      </c>
+      <c r="B396" s="15" t="str">
+        <f>VLOOKUP($C396,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D396" s="93" t="str">
+        <f>VLOOKUP($C396,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E396" s="15">
+        <v>7</v>
+      </c>
+      <c r="F396" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G396" s="6" t="str">
+        <f>VLOOKUP($F396,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_ID</v>
+      </c>
+      <c r="H396" s="6" t="str">
+        <f>VLOOKUP($F396,domain!$B:$D,3,FALSE)</f>
+        <v>VARCHAR(32)</v>
+      </c>
+      <c r="I396" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J396" s="6"/>
+      <c r="K396" s="15"/>
+      <c r="L396" s="6"/>
+      <c r="M396" s="6"/>
+      <c r="N396" s="70" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">  , MODI_ID VARCHAR(32) NOT NULL COMMENT '수정 ID'</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="51">
+        <v>389</v>
+      </c>
+      <c r="B397" s="15" t="str">
+        <f>VLOOKUP($C397,table!$B:$D,3,FALSE)</f>
+        <v>공통</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D397" s="93" t="str">
+        <f>VLOOKUP($C397,table!$B:$D,2,FALSE)</f>
+        <v>T_PACKAGING</v>
+      </c>
+      <c r="E397" s="15">
+        <v>8</v>
+      </c>
+      <c r="F397" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G397" s="6" t="str">
+        <f>VLOOKUP($F397,domain!$B:$D,2,FALSE)</f>
+        <v>MODI_DT</v>
+      </c>
+      <c r="H397" s="6" t="str">
+        <f>VLOOKUP($F397,domain!$B:$D,3,FALSE)</f>
+        <v>TIMESTAMP</v>
+      </c>
+      <c r="I397" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J397" s="6"/>
+      <c r="K397" s="15"/>
+      <c r="L397" s="6"/>
+      <c r="M397" s="6"/>
+      <c r="N397" s="70" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">  , MODI_DT TIMESTAMP NOT NULL COMMENT '수정 일시'</v>
       </c>
     </row>
@@ -23748,8 +24036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -26486,9 +26774,15 @@
       <c r="A171" s="51">
         <v>170</v>
       </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="B171" s="77" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
@@ -26496,9 +26790,15 @@
       <c r="A172" s="51">
         <v>171</v>
       </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="B172" s="77" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
@@ -26506,9 +26806,15 @@
       <c r="A173" s="51">
         <v>172</v>
       </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="B173" s="77" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
@@ -26516,9 +26822,15 @@
       <c r="A174" s="51">
         <v>173</v>
       </c>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
+      <c r="B174" s="77" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
@@ -26526,9 +26838,15 @@
       <c r="A175" s="51">
         <v>174</v>
       </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="B175" s="77" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
@@ -26536,9 +26854,15 @@
       <c r="A176" s="51">
         <v>175</v>
       </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="B176" s="77" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
